--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="191">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,352 +58,469 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>PNCINFRA</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>VIPIND</t>
+  </si>
+  <si>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>GRINDWELL</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>PPLPHARMA</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>HARIOMPIPE</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
+  </si>
+  <si>
+    <t>FINEORG</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>APTUS</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>MSUMI</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>SWSOLAR</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
     <t>IIFL</t>
   </si>
   <si>
-    <t>APTUS</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>JGCHEM</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>SONATSOFTW</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>RRKABEL</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>MINDACORP</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>ANGELONE</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>CERA</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>ANANTRAJ</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>USHAMART</t>
+  </si>
+  <si>
+    <t>CONCORDBIO</t>
+  </si>
+  <si>
+    <t>CHALET</t>
+  </si>
+  <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>AETHER</t>
   </si>
   <si>
     <t>DABUR</t>
   </si>
   <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
     <t>KIMS</t>
   </si>
   <si>
+    <t>GILLETTE</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>BLUESTARCO</t>
+  </si>
+  <si>
+    <t>RAMKY</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
     <t>EIHOTEL</t>
   </si>
   <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>MANKIND</t>
-  </si>
-  <si>
-    <t>JYOTISTRUC</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>MSUMI</t>
-  </si>
-  <si>
-    <t>HARIOMPIPE</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
+    <t>AARTIPHARM</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>ASAHIINDIA</t>
+  </si>
+  <si>
+    <t>EASEMYTRIP</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
+    <t>CHEMPLASTS</t>
+  </si>
+  <si>
+    <t>CHOLAHLDNG</t>
+  </si>
+  <si>
+    <t>PRAJIND</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>CANFINHOME</t>
+  </si>
+  <si>
+    <t>ALKEM</t>
   </si>
   <si>
     <t>BBL</t>
   </si>
   <si>
-    <t>LEMONTREE</t>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>QUESS</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>VIJAYA</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>BBTC</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>BAYERCROP</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>JUBLINGREA</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>DIXON</t>
   </si>
   <si>
     <t>CONCOR</t>
   </si>
   <si>
-    <t>SAMMAANCAP</t>
-  </si>
-  <si>
-    <t>SWSOLAR</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
-    <t>BFUTILITIE</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
-  </si>
-  <si>
-    <t>SCHAEFFLER</t>
-  </si>
-  <si>
-    <t>RAMKY</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>ENGINERSIN</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>PVRINOX</t>
-  </si>
-  <si>
-    <t>BALAMINES</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>RTNINDIA</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>POONAWALLA</t>
-  </si>
-  <si>
-    <t>MOTISONS</t>
-  </si>
-  <si>
-    <t>FDC</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>BALRAMCHIN</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>ADANIPOWER</t>
-  </si>
-  <si>
-    <t>PFC</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>RKFORGE</t>
-  </si>
-  <si>
-    <t>MOTILALOFS</t>
-  </si>
-  <si>
-    <t>HONAUT</t>
-  </si>
-  <si>
-    <t>BLUESTARCO</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>JUBLINGREA</t>
-  </si>
-  <si>
-    <t>JIOFIN</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>JSWENERGY</t>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>CESC</t>
+  </si>
+  <si>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
   </si>
   <si>
     <t>JKCEMENT</t>
   </si>
   <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>JMFINANCIL</t>
-  </si>
-  <si>
-    <t>KARURVYSYA</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>CESC</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>INDIGOPNTS</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Technology</t>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>Utilities</t>
@@ -421,28 +538,37 @@
     <t>Strong_H2_KC_Combo</t>
   </si>
   <si>
+    <t>Power_H2_Volume</t>
+  </si>
+  <si>
     <t>KC_Breakout_Watch</t>
   </si>
   <si>
     <t>Early_Setup</t>
   </si>
   <si>
-    <t>Power_H2_Volume</t>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
   </si>
   <si>
     <t>2025-07-08</t>
   </si>
   <si>
-    <t>2025-07-07</t>
+    <t>2025-07-09</t>
   </si>
   <si>
     <t>2025-07-10</t>
   </si>
   <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
+    <t>2025-07-17</t>
   </si>
   <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
@@ -818,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,40 +999,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="K2">
-        <v>520.9</v>
+        <v>321.25</v>
       </c>
       <c r="L2">
-        <v>492.39</v>
+        <v>306.43</v>
       </c>
       <c r="M2">
-        <v>577.91</v>
+        <v>350.89</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -917,22 +1043,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>97.11</v>
+        <v>63.86</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G3">
-        <v>97.11</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -941,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="K3">
-        <v>344</v>
+        <v>38665</v>
       </c>
       <c r="L3">
-        <v>329.42</v>
+        <v>36650.71</v>
       </c>
       <c r="M3">
-        <v>373.16</v>
+        <v>42693.57</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -961,19 +1087,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D4">
-        <v>62.65</v>
+        <v>62.83</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -982,19 +1108,19 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="K4">
-        <v>1286.7</v>
+        <v>672.15</v>
       </c>
       <c r="L4">
-        <v>1237.16</v>
+        <v>645.7</v>
       </c>
       <c r="M4">
-        <v>1385.79</v>
+        <v>725.05</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1005,40 +1131,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>57.83</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="K5">
-        <v>663.2</v>
+        <v>999.85</v>
       </c>
       <c r="L5">
-        <v>614.09</v>
+        <v>950.0700000000001</v>
       </c>
       <c r="M5">
-        <v>761.4299999999999</v>
+        <v>1099.41</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1049,22 +1175,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D6">
-        <v>66.27</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G6">
-        <v>72.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1073,16 +1199,16 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K6">
-        <v>1974.8</v>
+        <v>1907.2</v>
       </c>
       <c r="L6">
-        <v>1859.17</v>
+        <v>1816.81</v>
       </c>
       <c r="M6">
-        <v>2206.06</v>
+        <v>2087.97</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1093,40 +1219,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D7">
-        <v>63.86</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G7">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K7">
-        <v>518.6</v>
+        <v>6510.5</v>
       </c>
       <c r="L7">
-        <v>468.89</v>
+        <v>6127.5</v>
       </c>
       <c r="M7">
-        <v>618.03</v>
+        <v>7276.5</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1137,19 +1263,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D8">
-        <v>61.45</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1158,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K8">
-        <v>16616</v>
+        <v>596.9</v>
       </c>
       <c r="L8">
-        <v>14981.29</v>
+        <v>560.28</v>
       </c>
       <c r="M8">
-        <v>19885.43</v>
+        <v>670.14</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1181,40 +1307,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D9">
-        <v>59.04</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G9">
-        <v>73.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K9">
-        <v>1904</v>
+        <v>921.5</v>
       </c>
       <c r="L9">
-        <v>1809.66</v>
+        <v>882.26</v>
       </c>
       <c r="M9">
-        <v>2092.69</v>
+        <v>999.99</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1225,40 +1351,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D10">
-        <v>57.83</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G10">
-        <v>60.24</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K10">
-        <v>522.4</v>
+        <v>490.25</v>
       </c>
       <c r="L10">
-        <v>506.19</v>
+        <v>469.16</v>
       </c>
       <c r="M10">
-        <v>554.83</v>
+        <v>532.4400000000001</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1269,22 +1395,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D11">
-        <v>57.83</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G11">
-        <v>88.86</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1293,16 +1419,16 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K11">
-        <v>36195</v>
+        <v>5510</v>
       </c>
       <c r="L11">
-        <v>34421.43</v>
+        <v>5269.3</v>
       </c>
       <c r="M11">
-        <v>39742.14</v>
+        <v>5991.4</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1313,19 +1439,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D12">
-        <v>56.63</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -1334,19 +1460,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K12">
-        <v>1301.8</v>
+        <v>3897.5</v>
       </c>
       <c r="L12">
-        <v>1222.36</v>
+        <v>3644.84</v>
       </c>
       <c r="M12">
-        <v>1460.69</v>
+        <v>4402.81</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1357,40 +1483,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D13">
-        <v>54.22</v>
+        <v>86.08</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>92.11</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K13">
-        <v>415.1</v>
+        <v>581.4</v>
       </c>
       <c r="L13">
-        <v>393.4</v>
+        <v>540.63</v>
       </c>
       <c r="M13">
-        <v>458.5</v>
+        <v>662.9400000000001</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1401,40 +1527,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D14">
-        <v>50.78</v>
+        <v>61.45</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G14">
-        <v>50.78</v>
+        <v>61.45</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K14">
-        <v>713.9</v>
+        <v>2587</v>
       </c>
       <c r="L14">
-        <v>671.8099999999999</v>
+        <v>2394.43</v>
       </c>
       <c r="M14">
-        <v>798.0700000000001</v>
+        <v>2972.14</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1445,40 +1571,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D15">
-        <v>50.78</v>
+        <v>57.83</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G15">
-        <v>50.78</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K15">
-        <v>380.9</v>
+        <v>1338.9</v>
       </c>
       <c r="L15">
-        <v>363.26</v>
+        <v>1268.27</v>
       </c>
       <c r="M15">
-        <v>416.17</v>
+        <v>1480.16</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1489,22 +1615,22 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D16">
-        <v>49.4</v>
+        <v>54.22</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G16">
-        <v>92.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1513,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K16">
-        <v>350.95</v>
+        <v>397.3</v>
       </c>
       <c r="L16">
-        <v>334.11</v>
+        <v>378.65</v>
       </c>
       <c r="M16">
-        <v>384.62</v>
+        <v>434.6</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1533,40 +1659,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D17">
-        <v>48.19</v>
+        <v>51.81</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K17">
-        <v>3518.9</v>
+        <v>475.2</v>
       </c>
       <c r="L17">
-        <v>3370.31</v>
+        <v>437.3</v>
       </c>
       <c r="M17">
-        <v>3816.07</v>
+        <v>551</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1577,40 +1703,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D18">
-        <v>45.78</v>
+        <v>46.99</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G18">
-        <v>63.86</v>
+        <v>61.99</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="K18">
-        <v>2408.4</v>
+        <v>2639.8</v>
       </c>
       <c r="L18">
-        <v>2339.99</v>
+        <v>2472.51</v>
       </c>
       <c r="M18">
-        <v>2545.23</v>
+        <v>2974.37</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1621,40 +1747,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>71.98999999999999</v>
+        <v>45.96</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G19">
-        <v>71.98999999999999</v>
+        <v>45.96</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="K19">
-        <v>448.8</v>
+        <v>1809.8</v>
       </c>
       <c r="L19">
-        <v>417.41</v>
+        <v>1720.92</v>
       </c>
       <c r="M19">
-        <v>511.57</v>
+        <v>1987.57</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1665,40 +1791,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="D20">
-        <v>70.78</v>
+        <v>86.45</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="G20">
-        <v>70.78</v>
+        <v>86.45</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="K20">
-        <v>434.4</v>
+        <v>2011.5</v>
       </c>
       <c r="L20">
-        <v>410.83</v>
+        <v>1903.77</v>
       </c>
       <c r="M20">
-        <v>481.54</v>
+        <v>2226.96</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1709,22 +1835,22 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="D21">
-        <v>61.99</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="G21">
-        <v>61.99</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1733,16 +1859,16 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="K21">
-        <v>2544</v>
+        <v>385.2</v>
       </c>
       <c r="L21">
-        <v>2422.71</v>
+        <v>362.83</v>
       </c>
       <c r="M21">
-        <v>2786.57</v>
+        <v>429.94</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1753,22 +1879,22 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="D22">
-        <v>58.19</v>
+        <v>70.42</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G22">
-        <v>58.19</v>
+        <v>70.42</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1777,16 +1903,16 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="K22">
-        <v>20.37</v>
+        <v>1181</v>
       </c>
       <c r="L22">
-        <v>18.65</v>
+        <v>1113.1</v>
       </c>
       <c r="M22">
-        <v>23.82</v>
+        <v>1316.8</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1797,40 +1923,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="D23">
-        <v>74.22</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G23">
-        <v>79.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K23">
-        <v>7753</v>
+        <v>881</v>
       </c>
       <c r="L23">
-        <v>7280.5</v>
+        <v>829.61</v>
       </c>
       <c r="M23">
-        <v>8698</v>
+        <v>983.77</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1841,22 +1967,22 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D24">
-        <v>39.76</v>
+        <v>76.81</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G24">
-        <v>73.19</v>
+        <v>76.81</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1865,16 +1991,16 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K24">
-        <v>1394.4</v>
+        <v>331.25</v>
       </c>
       <c r="L24">
-        <v>1319.5</v>
+        <v>315.43</v>
       </c>
       <c r="M24">
-        <v>1544.2</v>
+        <v>362.89</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1885,40 +2011,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D25">
-        <v>37.35</v>
+        <v>71.81</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G25">
-        <v>91.27</v>
+        <v>77.83</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K25">
-        <v>64.48</v>
+        <v>118.5</v>
       </c>
       <c r="L25">
-        <v>61.68</v>
+        <v>106.95</v>
       </c>
       <c r="M25">
-        <v>70.06999999999999</v>
+        <v>141.6</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1929,40 +2055,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D26">
-        <v>31.33</v>
+        <v>68.19</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G26">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K26">
-        <v>454.75</v>
+        <v>425.85</v>
       </c>
       <c r="L26">
-        <v>417.31</v>
+        <v>406.8</v>
       </c>
       <c r="M26">
-        <v>529.62</v>
+        <v>463.95</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1973,40 +2099,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D27">
-        <v>20.48</v>
+        <v>38.55</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G27">
-        <v>91.27</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K27">
-        <v>2451.2</v>
+        <v>2227</v>
       </c>
       <c r="L27">
-        <v>2352.59</v>
+        <v>2068.14</v>
       </c>
       <c r="M27">
-        <v>2648.43</v>
+        <v>2544.71</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2017,40 +2143,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D28">
-        <v>20.48</v>
+        <v>38.55</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G28">
-        <v>85.23999999999999</v>
+        <v>92.47</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K28">
-        <v>148280</v>
+        <v>543.75</v>
       </c>
       <c r="L28">
-        <v>141508.57</v>
+        <v>500.44</v>
       </c>
       <c r="M28">
-        <v>161822.86</v>
+        <v>630.36</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2061,19 +2187,19 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D29">
-        <v>19.28</v>
+        <v>36.14</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -2082,19 +2208,19 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K29">
-        <v>206.38</v>
+        <v>394.1</v>
       </c>
       <c r="L29">
-        <v>196.22</v>
+        <v>369.41</v>
       </c>
       <c r="M29">
-        <v>226.71</v>
+        <v>443.47</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2105,40 +2231,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D30">
-        <v>19.28</v>
+        <v>36.14</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K30">
-        <v>998.3</v>
+        <v>217.58</v>
       </c>
       <c r="L30">
-        <v>934.89</v>
+        <v>206.26</v>
       </c>
       <c r="M30">
-        <v>1125.13</v>
+        <v>240.22</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2149,40 +2275,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D31">
-        <v>4.82</v>
+        <v>34.94</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G31">
-        <v>76.63</v>
+        <v>82.83</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K31">
-        <v>372.4</v>
+        <v>1693</v>
       </c>
       <c r="L31">
-        <v>356.87</v>
+        <v>1597.8</v>
       </c>
       <c r="M31">
-        <v>403.46</v>
+        <v>1883.4</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2193,40 +2319,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D32">
-        <v>47.53</v>
+        <v>31.33</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G32">
-        <v>47.53</v>
+        <v>91.27</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K32">
-        <v>1195.4</v>
+        <v>478.85</v>
       </c>
       <c r="L32">
-        <v>1119.93</v>
+        <v>436.06</v>
       </c>
       <c r="M32">
-        <v>1346.34</v>
+        <v>564.42</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2237,40 +2363,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D33">
-        <v>47.35</v>
+        <v>31.33</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G33">
-        <v>47.35</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>3204.2</v>
+        <v>713.85</v>
       </c>
       <c r="L33">
-        <v>2992.11</v>
+        <v>661.16</v>
       </c>
       <c r="M33">
-        <v>3628.37</v>
+        <v>819.24</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2281,40 +2407,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D34">
-        <v>45.78</v>
+        <v>30.12</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="G34">
-        <v>45.78</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K34">
-        <v>158.11</v>
+        <v>37.46</v>
       </c>
       <c r="L34">
-        <v>149.69</v>
+        <v>35.15</v>
       </c>
       <c r="M34">
-        <v>174.95</v>
+        <v>42.07</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2325,40 +2451,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D35">
-        <v>41.33</v>
+        <v>27.71</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G35">
-        <v>41.33</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K35">
-        <v>627.85</v>
+        <v>1030.1</v>
       </c>
       <c r="L35">
-        <v>603.0599999999999</v>
+        <v>953.3</v>
       </c>
       <c r="M35">
-        <v>677.42</v>
+        <v>1183.7</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2369,40 +2495,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D36">
-        <v>40.12</v>
+        <v>27.71</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G36">
-        <v>40.12</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K36">
-        <v>132</v>
+        <v>2792.5</v>
       </c>
       <c r="L36">
-        <v>126.52</v>
+        <v>2624.7</v>
       </c>
       <c r="M36">
-        <v>142.95</v>
+        <v>3128.1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2413,40 +2539,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D37">
-        <v>78.01000000000001</v>
+        <v>26.51</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="G37">
-        <v>78.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K37">
-        <v>336.55</v>
+        <v>1344.9</v>
       </c>
       <c r="L37">
-        <v>316.19</v>
+        <v>1270.97</v>
       </c>
       <c r="M37">
-        <v>377.26</v>
+        <v>1492.76</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2457,40 +2583,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="D38">
-        <v>64.58</v>
+        <v>22.89</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G38">
-        <v>64.58</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K38">
-        <v>2001.5</v>
+        <v>1960.6</v>
       </c>
       <c r="L38">
-        <v>1938.9</v>
+        <v>1807.7</v>
       </c>
       <c r="M38">
-        <v>2126.7</v>
+        <v>2266.4</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2501,40 +2627,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="D39">
-        <v>53.37</v>
+        <v>22.89</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G39">
-        <v>53.37</v>
+        <v>85.06</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K39">
-        <v>370.65</v>
+        <v>5437.5</v>
       </c>
       <c r="L39">
-        <v>348.14</v>
+        <v>5117.1</v>
       </c>
       <c r="M39">
-        <v>415.68</v>
+        <v>6078.3</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2545,40 +2671,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D40">
-        <v>39.76</v>
+        <v>22.89</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G40">
-        <v>39.76</v>
+        <v>85.06</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K40">
-        <v>1305.2</v>
+        <v>638.45</v>
       </c>
       <c r="L40">
-        <v>1228.39</v>
+        <v>618.58</v>
       </c>
       <c r="M40">
-        <v>1458.83</v>
+        <v>678.1900000000001</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2589,40 +2715,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D41">
-        <v>36.14</v>
+        <v>22.89</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="G41">
-        <v>36.14</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K41">
-        <v>851.95</v>
+        <v>3581.5</v>
       </c>
       <c r="L41">
-        <v>799.0599999999999</v>
+        <v>3434.63</v>
       </c>
       <c r="M41">
-        <v>957.72</v>
+        <v>3875.24</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2633,40 +2759,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D42">
-        <v>34.94</v>
+        <v>20.48</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="G42">
-        <v>34.94</v>
+        <v>97.11</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K42">
-        <v>217.14</v>
+        <v>344.65</v>
       </c>
       <c r="L42">
-        <v>203.34</v>
+        <v>329.58</v>
       </c>
       <c r="M42">
-        <v>244.73</v>
+        <v>374.78</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2677,40 +2803,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D43">
-        <v>33.73</v>
+        <v>20.48</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="G43">
-        <v>42.53</v>
+        <v>79.22</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K43">
-        <v>4223.5</v>
+        <v>850.6</v>
       </c>
       <c r="L43">
-        <v>3986.11</v>
+        <v>801.76</v>
       </c>
       <c r="M43">
-        <v>4698.27</v>
+        <v>948.27</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2721,40 +2847,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D44">
-        <v>33.73</v>
+        <v>19.28</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="G44">
-        <v>68.01000000000001</v>
+        <v>91.27</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K44">
-        <v>601.3</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="L44">
-        <v>554.16</v>
+        <v>61.59</v>
       </c>
       <c r="M44">
-        <v>695.59</v>
+        <v>70.45</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2765,40 +2891,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D45">
-        <v>32.53</v>
+        <v>18.07</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G45">
-        <v>32.53</v>
+        <v>73.19</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K45">
-        <v>470.9</v>
+        <v>1423.8</v>
       </c>
       <c r="L45">
-        <v>436.22</v>
+        <v>1341.73</v>
       </c>
       <c r="M45">
-        <v>540.26</v>
+        <v>1587.94</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2809,40 +2935,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D46">
-        <v>32.53</v>
+        <v>16.87</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G46">
-        <v>32.53</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K46">
-        <v>250.14</v>
+        <v>337.05</v>
       </c>
       <c r="L46">
-        <v>235.1</v>
+        <v>316.53</v>
       </c>
       <c r="M46">
-        <v>280.22</v>
+        <v>378.1</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2853,40 +2979,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D47">
-        <v>32.53</v>
+        <v>15.66</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G47">
-        <v>65.06</v>
+        <v>100</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K47">
-        <v>793.5</v>
+        <v>16866</v>
       </c>
       <c r="L47">
-        <v>755.1</v>
+        <v>15173.43</v>
       </c>
       <c r="M47">
-        <v>870.3</v>
+        <v>20251.14</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2897,22 +3023,22 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D48">
-        <v>32.53</v>
+        <v>14.46</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G48">
-        <v>39.76</v>
+        <v>74.22</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2921,16 +3047,16 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K48">
-        <v>284.86</v>
+        <v>829.95</v>
       </c>
       <c r="L48">
-        <v>266.62</v>
+        <v>808.6</v>
       </c>
       <c r="M48">
-        <v>321.34</v>
+        <v>872.65</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2941,40 +3067,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D49">
-        <v>30.48</v>
+        <v>13.25</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="G49">
-        <v>30.48</v>
+        <v>100</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K49">
-        <v>1011.9</v>
+        <v>1280.4</v>
       </c>
       <c r="L49">
-        <v>969.36</v>
+        <v>1229.5</v>
       </c>
       <c r="M49">
-        <v>1096.99</v>
+        <v>1382.2</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2985,40 +3111,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D50">
-        <v>28.92</v>
+        <v>13.25</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G50">
-        <v>39.76</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K50">
-        <v>1878.7</v>
+        <v>150705</v>
       </c>
       <c r="L50">
-        <v>1702.21</v>
+        <v>144085.35</v>
       </c>
       <c r="M50">
-        <v>2231.67</v>
+        <v>163944.3</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3029,40 +3155,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D51">
-        <v>28.07</v>
+        <v>12.05</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G51">
-        <v>28.07</v>
+        <v>100</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K51">
-        <v>984.45</v>
+        <v>527</v>
       </c>
       <c r="L51">
-        <v>969.21</v>
+        <v>502.48</v>
       </c>
       <c r="M51">
-        <v>1014.93</v>
+        <v>576.04</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3073,40 +3199,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D52">
-        <v>27.71</v>
+        <v>8.43</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="G52">
-        <v>58.19</v>
+        <v>100</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K52">
-        <v>667.05</v>
+        <v>206.19</v>
       </c>
       <c r="L52">
-        <v>627.41</v>
+        <v>198.42</v>
       </c>
       <c r="M52">
-        <v>746.34</v>
+        <v>221.73</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3117,40 +3243,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D53">
-        <v>26.51</v>
+        <v>8.43</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G53">
-        <v>26.51</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K53">
-        <v>115.48</v>
+        <v>347</v>
       </c>
       <c r="L53">
-        <v>107.88</v>
+        <v>335.27</v>
       </c>
       <c r="M53">
-        <v>130.67</v>
+        <v>370.45</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3161,40 +3287,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D54">
-        <v>25.3</v>
+        <v>4.82</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="G54">
-        <v>32.53</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="K54">
-        <v>673.05</v>
+        <v>437.15</v>
       </c>
       <c r="L54">
-        <v>645.02</v>
+        <v>417.32</v>
       </c>
       <c r="M54">
-        <v>729.11</v>
+        <v>476.81</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3205,40 +3331,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D55">
-        <v>24.1</v>
+        <v>48.37</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G55">
-        <v>42.17</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K55">
-        <v>5952.5</v>
+        <v>3505.6</v>
       </c>
       <c r="L55">
-        <v>5568.29</v>
+        <v>3350.67</v>
       </c>
       <c r="M55">
-        <v>6720.93</v>
+        <v>3815.46</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3249,40 +3375,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D56">
-        <v>24.1</v>
+        <v>47.35</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G56">
-        <v>63.86</v>
+        <v>52.35</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K56">
-        <v>978</v>
+        <v>364.55</v>
       </c>
       <c r="L56">
-        <v>926.04</v>
+        <v>347.78</v>
       </c>
       <c r="M56">
-        <v>1081.91</v>
+        <v>398.09</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3293,40 +3419,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D57">
-        <v>22.89</v>
+        <v>47.35</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="G57">
-        <v>36.14</v>
+        <v>47.35</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K57">
-        <v>2636.3</v>
+        <v>1277</v>
       </c>
       <c r="L57">
-        <v>2546.73</v>
+        <v>1207.63</v>
       </c>
       <c r="M57">
-        <v>2815.44</v>
+        <v>1415.74</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3337,40 +3463,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D58">
-        <v>22.89</v>
+        <v>43.37</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G58">
-        <v>22.89</v>
+        <v>43.37</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K58">
-        <v>1244.7</v>
+        <v>2745</v>
       </c>
       <c r="L58">
-        <v>1184.82</v>
+        <v>2637.47</v>
       </c>
       <c r="M58">
-        <v>1364.47</v>
+        <v>2960.06</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3381,40 +3507,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D59">
-        <v>21.69</v>
+        <v>43.37</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="G59">
-        <v>21.69</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K59">
-        <v>287.55</v>
+        <v>381.35</v>
       </c>
       <c r="L59">
-        <v>273.86</v>
+        <v>362.04</v>
       </c>
       <c r="M59">
-        <v>314.93</v>
+        <v>419.96</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3425,40 +3551,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D60">
-        <v>21.69</v>
+        <v>42.35</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G60">
-        <v>27.71</v>
+        <v>42.35</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K60">
-        <v>66.18000000000001</v>
+        <v>243.66</v>
       </c>
       <c r="L60">
-        <v>60.1</v>
+        <v>232.54</v>
       </c>
       <c r="M60">
-        <v>78.33</v>
+        <v>265.9</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3469,40 +3595,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D61">
-        <v>21.69</v>
+        <v>41.14</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G61">
-        <v>21.69</v>
+        <v>41.14</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K61">
-        <v>15849</v>
+        <v>456</v>
       </c>
       <c r="L61">
-        <v>14795.71</v>
+        <v>444.06</v>
       </c>
       <c r="M61">
-        <v>17955.57</v>
+        <v>479.87</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3513,40 +3639,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D62">
-        <v>21.69</v>
+        <v>40.96</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G62">
-        <v>21.69</v>
+        <v>100</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K62">
-        <v>270.05</v>
+        <v>507.85</v>
       </c>
       <c r="L62">
-        <v>260.79</v>
+        <v>471.23</v>
       </c>
       <c r="M62">
-        <v>288.58</v>
+        <v>581.09</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3557,40 +3683,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="D63">
-        <v>21.69</v>
+        <v>59.4</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="G63">
-        <v>21.69</v>
+        <v>59.4</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K63">
-        <v>466.9</v>
+        <v>1463.9</v>
       </c>
       <c r="L63">
-        <v>438.55</v>
+        <v>1364.61</v>
       </c>
       <c r="M63">
-        <v>523.6</v>
+        <v>1662.47</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3601,40 +3727,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="D64">
-        <v>20.48</v>
+        <v>58.37</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G64">
-        <v>31.33</v>
+        <v>58.37</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K64">
-        <v>467.3</v>
+        <v>113.63</v>
       </c>
       <c r="L64">
-        <v>444.23</v>
+        <v>111.17</v>
       </c>
       <c r="M64">
-        <v>513.45</v>
+        <v>118.55</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3645,40 +3771,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D65">
-        <v>19.28</v>
+        <v>38.55</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G65">
-        <v>39.76</v>
+        <v>40.96</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K65">
-        <v>22.68</v>
+        <v>253.27</v>
       </c>
       <c r="L65">
-        <v>20.68</v>
+        <v>235.83</v>
       </c>
       <c r="M65">
-        <v>26.68</v>
+        <v>288.16</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3689,40 +3815,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D66">
-        <v>19.28</v>
+        <v>37.35</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G66">
-        <v>24.1</v>
+        <v>39.76</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K66">
-        <v>506.35</v>
+        <v>550.1</v>
       </c>
       <c r="L66">
-        <v>480.26</v>
+        <v>518.74</v>
       </c>
       <c r="M66">
-        <v>558.52</v>
+        <v>612.8099999999999</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3733,40 +3859,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="D67">
-        <v>19.28</v>
+        <v>36.51</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="G67">
-        <v>19.28</v>
+        <v>36.51</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K67">
-        <v>8900</v>
+        <v>537.15</v>
       </c>
       <c r="L67">
-        <v>8286.139999999999</v>
+        <v>514.5</v>
       </c>
       <c r="M67">
-        <v>10127.71</v>
+        <v>582.45</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3777,40 +3903,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D68">
-        <v>18.07</v>
+        <v>34.94</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G68">
-        <v>18.07</v>
+        <v>49.4</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K68">
-        <v>556.4</v>
+        <v>269.65</v>
       </c>
       <c r="L68">
-        <v>524.87</v>
+        <v>250.69</v>
       </c>
       <c r="M68">
-        <v>619.46</v>
+        <v>307.57</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3821,22 +3947,22 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D69">
-        <v>18.07</v>
+        <v>34.94</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="G69">
-        <v>18.07</v>
+        <v>34.94</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3845,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K69">
-        <v>815.1</v>
+        <v>471.4</v>
       </c>
       <c r="L69">
-        <v>772.4</v>
+        <v>445.47</v>
       </c>
       <c r="M69">
-        <v>900.5</v>
+        <v>523.26</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3865,43 +3991,43 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D70">
-        <v>18.07</v>
+        <v>32.89</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G70">
-        <v>22.89</v>
+        <v>34.1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K70">
-        <v>1264.1</v>
+        <v>2743.7</v>
       </c>
       <c r="L70">
-        <v>1222.29</v>
+        <v>2747.17</v>
       </c>
       <c r="M70">
-        <v>1347.72</v>
+        <v>2736.76</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3909,22 +4035,22 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D71">
-        <v>16.87</v>
+        <v>32.53</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G71">
-        <v>16.87</v>
+        <v>65.06</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3933,16 +4059,16 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K71">
-        <v>177.67</v>
+        <v>821</v>
       </c>
       <c r="L71">
-        <v>166.06</v>
+        <v>782.11</v>
       </c>
       <c r="M71">
-        <v>200.89</v>
+        <v>898.77</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3953,22 +4079,22 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D72">
-        <v>16.87</v>
+        <v>31.33</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="G72">
-        <v>16.87</v>
+        <v>37.35</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3977,16 +4103,16 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K72">
-        <v>612.5</v>
+        <v>278</v>
       </c>
       <c r="L72">
-        <v>589.01</v>
+        <v>266.14</v>
       </c>
       <c r="M72">
-        <v>659.48</v>
+        <v>301.71</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3997,40 +4123,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D73">
-        <v>16.87</v>
+        <v>30.48</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G73">
-        <v>21.69</v>
+        <v>30.48</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K73">
-        <v>12516</v>
+        <v>7052</v>
       </c>
       <c r="L73">
-        <v>12041.14</v>
+        <v>6698.71</v>
       </c>
       <c r="M73">
-        <v>13465.71</v>
+        <v>7758.57</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4041,22 +4167,22 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D74">
-        <v>16.87</v>
+        <v>30.12</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G74">
-        <v>16.87</v>
+        <v>47.53</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4065,16 +4191,16 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>605.8</v>
+        <v>1230</v>
       </c>
       <c r="L74">
-        <v>571.62</v>
+        <v>1160.49</v>
       </c>
       <c r="M74">
-        <v>674.16</v>
+        <v>1369.03</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4085,40 +4211,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D75">
-        <v>15.66</v>
+        <v>30.12</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="G75">
-        <v>15.66</v>
+        <v>32.53</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K75">
-        <v>429.45</v>
+        <v>1784.6</v>
       </c>
       <c r="L75">
-        <v>412.14</v>
+        <v>1694.63</v>
       </c>
       <c r="M75">
-        <v>464.07</v>
+        <v>1964.54</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4129,40 +4255,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D76">
-        <v>15.66</v>
+        <v>30.12</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G76">
-        <v>16.87</v>
+        <v>31.33</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K76">
-        <v>5878</v>
+        <v>602.1</v>
       </c>
       <c r="L76">
-        <v>5691.43</v>
+        <v>565.34</v>
       </c>
       <c r="M76">
-        <v>6251.14</v>
+        <v>675.61</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4173,40 +4299,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D77">
-        <v>14.46</v>
+        <v>28.92</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G77">
-        <v>21.69</v>
+        <v>33.73</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K77">
-        <v>1517.2</v>
+        <v>177.08</v>
       </c>
       <c r="L77">
-        <v>1481.98</v>
+        <v>162.59</v>
       </c>
       <c r="M77">
-        <v>1587.64</v>
+        <v>206.06</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4217,40 +4343,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D78">
-        <v>14.46</v>
+        <v>28.92</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G78">
-        <v>14.46</v>
+        <v>63.86</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K78">
-        <v>683.25</v>
+        <v>2507.8</v>
       </c>
       <c r="L78">
-        <v>646.9400000000001</v>
+        <v>2430.47</v>
       </c>
       <c r="M78">
-        <v>755.86</v>
+        <v>2662.46</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4261,40 +4387,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D79">
-        <v>14.46</v>
+        <v>27.89</v>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G79">
-        <v>36.14</v>
+        <v>27.89</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K79">
-        <v>940</v>
+        <v>2024.5</v>
       </c>
       <c r="L79">
-        <v>877.64</v>
+        <v>1964.87</v>
       </c>
       <c r="M79">
-        <v>1064.73</v>
+        <v>2143.76</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4305,40 +4431,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D80">
-        <v>14.46</v>
+        <v>27.71</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G80">
-        <v>38.55</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K80">
-        <v>40635</v>
+        <v>191.03</v>
       </c>
       <c r="L80">
-        <v>39090.81</v>
+        <v>184.16</v>
       </c>
       <c r="M80">
-        <v>43723.39</v>
+        <v>204.78</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4349,22 +4475,22 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D81">
-        <v>14.46</v>
+        <v>27.71</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G81">
-        <v>53.01</v>
+        <v>66.81</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4373,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K81">
-        <v>1796.7</v>
+        <v>387.35</v>
       </c>
       <c r="L81">
-        <v>1699.31</v>
+        <v>364.36</v>
       </c>
       <c r="M81">
-        <v>1991.47</v>
+        <v>433.34</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4393,22 +4519,22 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D82">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="G82">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4417,16 +4543,16 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K82">
-        <v>940.55</v>
+        <v>1922.8</v>
       </c>
       <c r="L82">
-        <v>902.54</v>
+        <v>1800.97</v>
       </c>
       <c r="M82">
-        <v>1016.57</v>
+        <v>2166.46</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4437,22 +4563,22 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D83">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="G83">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4461,16 +4587,16 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K83">
-        <v>29740</v>
+        <v>925.5</v>
       </c>
       <c r="L83">
-        <v>28929.29</v>
+        <v>877.35</v>
       </c>
       <c r="M83">
-        <v>31361.43</v>
+        <v>1021.81</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4481,40 +4607,40 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D84">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="G84">
-        <v>12.05</v>
+        <v>27.71</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K84">
-        <v>5207.5</v>
+        <v>3668.7</v>
       </c>
       <c r="L84">
-        <v>4994.24</v>
+        <v>3453.6</v>
       </c>
       <c r="M84">
-        <v>5634.01</v>
+        <v>4098.9</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4525,40 +4651,40 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D85">
-        <v>12.05</v>
+        <v>26.51</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="G85">
-        <v>27.71</v>
+        <v>58.19</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K85">
-        <v>813.05</v>
+        <v>689.4</v>
       </c>
       <c r="L85">
-        <v>759.83</v>
+        <v>646.65</v>
       </c>
       <c r="M85">
-        <v>919.49</v>
+        <v>774.9</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4569,40 +4695,40 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D86">
-        <v>12.05</v>
+        <v>24.1</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G86">
-        <v>22.89</v>
+        <v>36.14</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K86">
-        <v>331.65</v>
+        <v>821.4</v>
       </c>
       <c r="L86">
-        <v>317.11</v>
+        <v>782.34</v>
       </c>
       <c r="M86">
-        <v>360.72</v>
+        <v>899.51</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4613,40 +4739,40 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D87">
-        <v>12.05</v>
+        <v>24.1</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G87">
-        <v>30.12</v>
+        <v>60.24</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K87">
-        <v>587.8</v>
+        <v>529.85</v>
       </c>
       <c r="L87">
-        <v>552.25</v>
+        <v>511.65</v>
       </c>
       <c r="M87">
-        <v>658.9</v>
+        <v>566.25</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4657,22 +4783,22 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D88">
-        <v>12.05</v>
+        <v>24.1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G88">
-        <v>12.05</v>
+        <v>50.78</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4681,16 +4807,16 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K88">
-        <v>530.55</v>
+        <v>742.75</v>
       </c>
       <c r="L88">
-        <v>507.08</v>
+        <v>703.36</v>
       </c>
       <c r="M88">
-        <v>577.49</v>
+        <v>821.52</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4701,40 +4827,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D89">
-        <v>10.84</v>
+        <v>22.89</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="G89">
-        <v>16.87</v>
+        <v>27.71</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>6410</v>
+        <v>11140</v>
       </c>
       <c r="L89">
-        <v>5991.91</v>
+        <v>10474.5</v>
       </c>
       <c r="M89">
-        <v>7246.17</v>
+        <v>12471</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4745,40 +4871,40 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D90">
-        <v>10.84</v>
+        <v>22.89</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="G90">
-        <v>28.92</v>
+        <v>45.78</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K90">
-        <v>472.25</v>
+        <v>155.03</v>
       </c>
       <c r="L90">
-        <v>455.55</v>
+        <v>146.1</v>
       </c>
       <c r="M90">
-        <v>505.65</v>
+        <v>172.89</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4789,40 +4915,40 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D91">
-        <v>10.84</v>
+        <v>22.89</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G91">
-        <v>13.25</v>
+        <v>22.89</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K91">
-        <v>3259.6</v>
+        <v>247.7</v>
       </c>
       <c r="L91">
-        <v>3137.98</v>
+        <v>231.55</v>
       </c>
       <c r="M91">
-        <v>3502.83</v>
+        <v>280</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -4833,40 +4959,40 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D92">
-        <v>10.84</v>
+        <v>22.89</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G92">
-        <v>30.12</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K92">
-        <v>398.75</v>
+        <v>1884.6</v>
       </c>
       <c r="L92">
-        <v>369.7</v>
+        <v>1777.69</v>
       </c>
       <c r="M92">
-        <v>456.84</v>
+        <v>2098.43</v>
       </c>
       <c r="N92">
         <v>2</v>
@@ -4877,22 +5003,22 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D93">
-        <v>9.640000000000001</v>
+        <v>22.89</v>
       </c>
       <c r="E93">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G93">
-        <v>20.48</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4901,16 +5027,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K93">
-        <v>2861.1</v>
+        <v>622.05</v>
       </c>
       <c r="L93">
-        <v>2741.47</v>
+        <v>576.11</v>
       </c>
       <c r="M93">
-        <v>3100.36</v>
+        <v>713.92</v>
       </c>
       <c r="N93">
         <v>2</v>
@@ -4921,40 +5047,40 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D94">
-        <v>9.640000000000001</v>
+        <v>21.69</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G94">
-        <v>16.87</v>
+        <v>57.17</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K94">
-        <v>1105.3</v>
+        <v>239.34</v>
       </c>
       <c r="L94">
-        <v>1051.28</v>
+        <v>229.45</v>
       </c>
       <c r="M94">
-        <v>1213.35</v>
+        <v>259.13</v>
       </c>
       <c r="N94">
         <v>2</v>
@@ -4965,40 +5091,40 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D95">
-        <v>8.43</v>
+        <v>21.69</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G95">
-        <v>8.43</v>
+        <v>30.12</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K95">
-        <v>828.2</v>
+        <v>691.55</v>
       </c>
       <c r="L95">
-        <v>796.8099999999999</v>
+        <v>660.36</v>
       </c>
       <c r="M95">
-        <v>890.99</v>
+        <v>753.92</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -5009,40 +5135,40 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D96">
-        <v>8.43</v>
+        <v>20.48</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G96">
-        <v>32.53</v>
+        <v>39.76</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K96">
-        <v>6781</v>
+        <v>60.58</v>
       </c>
       <c r="L96">
-        <v>6477.07</v>
+        <v>55.92</v>
       </c>
       <c r="M96">
-        <v>7388.86</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="N96">
         <v>2</v>
@@ -5053,40 +5179,40 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D97">
-        <v>8.43</v>
+        <v>20.48</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G97">
-        <v>30.12</v>
+        <v>39.76</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K97">
-        <v>169.05</v>
+        <v>289.6</v>
       </c>
       <c r="L97">
-        <v>154.89</v>
+        <v>271.92</v>
       </c>
       <c r="M97">
-        <v>197.37</v>
+        <v>324.97</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -5097,40 +5223,40 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D98">
-        <v>8.43</v>
+        <v>20.48</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G98">
-        <v>60.24</v>
+        <v>45.78</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K98">
-        <v>271.85</v>
+        <v>113.9</v>
       </c>
       <c r="L98">
-        <v>256.31</v>
+        <v>108.73</v>
       </c>
       <c r="M98">
-        <v>302.94</v>
+        <v>124.24</v>
       </c>
       <c r="N98">
         <v>2</v>
@@ -5141,40 +5267,40 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D99">
-        <v>7.23</v>
+        <v>20.48</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G99">
-        <v>8.43</v>
+        <v>58.37</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K99">
-        <v>249.8</v>
+        <v>427.75</v>
       </c>
       <c r="L99">
-        <v>243.91</v>
+        <v>404.94</v>
       </c>
       <c r="M99">
-        <v>261.57</v>
+        <v>473.36</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -5185,40 +5311,40 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D100">
-        <v>7.23</v>
+        <v>19.28</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G100">
-        <v>59.58</v>
+        <v>31.33</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K100">
-        <v>76.63</v>
+        <v>7.78</v>
       </c>
       <c r="L100">
-        <v>73.8</v>
+        <v>7.3</v>
       </c>
       <c r="M100">
-        <v>82.28</v>
+        <v>8.74</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -5229,40 +5355,40 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D101">
-        <v>7.23</v>
+        <v>18.07</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G101">
-        <v>16.87</v>
+        <v>50.78</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K101">
-        <v>178.44</v>
+        <v>384.65</v>
       </c>
       <c r="L101">
-        <v>172.02</v>
+        <v>368.24</v>
       </c>
       <c r="M101">
-        <v>191.28</v>
+        <v>417.48</v>
       </c>
       <c r="N101">
         <v>2</v>
@@ -5273,40 +5399,40 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D102">
-        <v>7.23</v>
+        <v>16.87</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G102">
-        <v>19.28</v>
+        <v>24.1</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K102">
-        <v>152.33</v>
+        <v>880.8</v>
       </c>
       <c r="L102">
-        <v>146.19</v>
+        <v>832.0700000000001</v>
       </c>
       <c r="M102">
-        <v>164.6</v>
+        <v>978.27</v>
       </c>
       <c r="N102">
         <v>2</v>
@@ -5314,43 +5440,43 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D103">
-        <v>7.23</v>
+        <v>16.87</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G103">
-        <v>19.28</v>
+        <v>24.1</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K103">
-        <v>5840</v>
+        <v>880.8</v>
       </c>
       <c r="L103">
-        <v>5638.68</v>
+        <v>832.0700000000001</v>
       </c>
       <c r="M103">
-        <v>6242.63</v>
+        <v>978.27</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -5358,25 +5484,25 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D104">
-        <v>4.82</v>
+        <v>16.87</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G104">
-        <v>8.43</v>
+        <v>39.76</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5385,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K104">
-        <v>182.09</v>
+        <v>1326.4</v>
       </c>
       <c r="L104">
-        <v>177.12</v>
+        <v>1250.26</v>
       </c>
       <c r="M104">
-        <v>192.03</v>
+        <v>1478.69</v>
       </c>
       <c r="N104">
         <v>2</v>
@@ -5402,25 +5528,25 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D105">
-        <v>4.82</v>
+        <v>16.87</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="G105">
-        <v>58.01</v>
+        <v>35.12</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -5429,16 +5555,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K105">
-        <v>647.35</v>
+        <v>960.65</v>
       </c>
       <c r="L105">
-        <v>611.8099999999999</v>
+        <v>902.42</v>
       </c>
       <c r="M105">
-        <v>718.42</v>
+        <v>1077.11</v>
       </c>
       <c r="N105">
         <v>2</v>
@@ -5446,43 +5572,43 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D106">
-        <v>4.82</v>
+        <v>16.87</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G106">
-        <v>12.05</v>
+        <v>18.07</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K106">
-        <v>1200.2</v>
+        <v>1421.8</v>
       </c>
       <c r="L106">
-        <v>1148.18</v>
+        <v>1353.38</v>
       </c>
       <c r="M106">
-        <v>1304.23</v>
+        <v>1558.64</v>
       </c>
       <c r="N106">
         <v>2</v>
@@ -5490,25 +5616,25 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D107">
-        <v>4.82</v>
+        <v>16.87</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G107">
-        <v>4.82</v>
+        <v>57.83</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5517,16 +5643,16 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K107">
-        <v>362.35</v>
+        <v>871.7</v>
       </c>
       <c r="L107">
-        <v>351.43</v>
+        <v>804.09</v>
       </c>
       <c r="M107">
-        <v>384.18</v>
+        <v>1006.93</v>
       </c>
       <c r="N107">
         <v>2</v>
@@ -5534,22 +5660,22 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D108">
-        <v>4.82</v>
+        <v>16.87</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G108">
         <v>26.51</v>
@@ -5558,21 +5684,1737 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
+        <v>190</v>
+      </c>
+      <c r="K108">
+        <v>10.79</v>
+      </c>
+      <c r="L108">
+        <v>10.48</v>
+      </c>
+      <c r="M108">
+        <v>11.41</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109">
+        <v>16.87</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109">
+        <v>18.07</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>190</v>
+      </c>
+      <c r="K109">
+        <v>30010</v>
+      </c>
+      <c r="L109">
+        <v>29119.85</v>
+      </c>
+      <c r="M109">
+        <v>31790.3</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110">
+        <v>16.87</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110">
+        <v>18.07</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>190</v>
+      </c>
+      <c r="K110">
+        <v>4438.2</v>
+      </c>
+      <c r="L110">
+        <v>4280.1</v>
+      </c>
+      <c r="M110">
+        <v>4754.39</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111">
+        <v>15.66</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111">
+        <v>15.66</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>190</v>
+      </c>
+      <c r="K111">
+        <v>441.35</v>
+      </c>
+      <c r="L111">
+        <v>420.48</v>
+      </c>
+      <c r="M111">
+        <v>483.09</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112">
+        <v>15.66</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112">
+        <v>15.66</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>190</v>
+      </c>
+      <c r="K112">
+        <v>2144</v>
+      </c>
+      <c r="L112">
+        <v>2029.59</v>
+      </c>
+      <c r="M112">
+        <v>2372.81</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113">
+        <v>15.66</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113">
+        <v>15.66</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K113">
+        <v>506.5</v>
+      </c>
+      <c r="L113">
+        <v>492.83</v>
+      </c>
+      <c r="M113">
+        <v>533.85</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114">
+        <v>15.66</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>177</v>
+      </c>
+      <c r="G114">
+        <v>15.66</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>190</v>
+      </c>
+      <c r="K114">
+        <v>1050.4</v>
+      </c>
+      <c r="L114">
+        <v>1007.53</v>
+      </c>
+      <c r="M114">
+        <v>1136.14</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>172</v>
+      </c>
+      <c r="D115">
+        <v>14.46</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>178</v>
+      </c>
+      <c r="G115">
+        <v>16.87</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>190</v>
+      </c>
+      <c r="K115">
+        <v>819.2</v>
+      </c>
+      <c r="L115">
+        <v>793.96</v>
+      </c>
+      <c r="M115">
+        <v>869.6900000000001</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116">
+        <v>14.46</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116">
+        <v>21.69</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>190</v>
+      </c>
+      <c r="K116">
+        <v>5018.8</v>
+      </c>
+      <c r="L116">
+        <v>4850.26</v>
+      </c>
+      <c r="M116">
+        <v>5355.89</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117">
+        <v>14.46</v>
+      </c>
+      <c r="E117">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G117">
+        <v>55.42</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>190</v>
+      </c>
+      <c r="K117">
+        <v>3291.8</v>
+      </c>
+      <c r="L117">
+        <v>3105.3</v>
+      </c>
+      <c r="M117">
+        <v>3664.8</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118">
+        <v>14.46</v>
+      </c>
+      <c r="E118">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118">
+        <v>59.76</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>190</v>
+      </c>
+      <c r="K118">
+        <v>6901</v>
+      </c>
+      <c r="L118">
+        <v>6622.5</v>
+      </c>
+      <c r="M118">
+        <v>7458</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D119">
+        <v>14.46</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>184</v>
+      </c>
+      <c r="G119">
+        <v>14.46</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>190</v>
+      </c>
+      <c r="K119">
+        <v>319.3</v>
+      </c>
+      <c r="L119">
+        <v>305.54</v>
+      </c>
+      <c r="M119">
+        <v>346.83</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120">
+        <v>13.25</v>
+      </c>
+      <c r="E120">
+        <v>17</v>
+      </c>
+      <c r="F120" t="s">
+        <v>178</v>
+      </c>
+      <c r="G120">
+        <v>63.86</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>190</v>
+      </c>
+      <c r="K120">
+        <v>998.55</v>
+      </c>
+      <c r="L120">
+        <v>940.37</v>
+      </c>
+      <c r="M120">
+        <v>1114.91</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121">
+        <v>12.05</v>
+      </c>
+      <c r="E121">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121">
+        <v>34.94</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>190</v>
+      </c>
+      <c r="K121">
+        <v>1046.05</v>
+      </c>
+      <c r="L121">
+        <v>992.86</v>
+      </c>
+      <c r="M121">
+        <v>1152.42</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122">
+        <v>12.05</v>
+      </c>
+      <c r="E122">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>178</v>
+      </c>
+      <c r="G122">
+        <v>31.33</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>190</v>
+      </c>
+      <c r="K122">
+        <v>1151.4</v>
+      </c>
+      <c r="L122">
+        <v>1076.16</v>
+      </c>
+      <c r="M122">
+        <v>1301.89</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123">
+        <v>12.05</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>184</v>
+      </c>
+      <c r="G123">
+        <v>12.05</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>190</v>
+      </c>
+      <c r="K123">
+        <v>2038</v>
+      </c>
+      <c r="L123">
+        <v>1947.02</v>
+      </c>
+      <c r="M123">
+        <v>2219.96</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" t="s">
+        <v>161</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124">
+        <v>12.05</v>
+      </c>
+      <c r="E124">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>180</v>
+      </c>
+      <c r="G124">
+        <v>22.89</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>190</v>
+      </c>
+      <c r="K124">
+        <v>182.44</v>
+      </c>
+      <c r="L124">
+        <v>171.96</v>
+      </c>
+      <c r="M124">
+        <v>203.39</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125">
+        <v>10.84</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>180</v>
+      </c>
+      <c r="G125">
+        <v>21.69</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>190</v>
+      </c>
+      <c r="K125">
+        <v>293.85</v>
+      </c>
+      <c r="L125">
+        <v>278.57</v>
+      </c>
+      <c r="M125">
+        <v>324.41</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126">
+        <v>10.84</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126">
+        <v>32.71</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>190</v>
+      </c>
+      <c r="K126">
+        <v>3940</v>
+      </c>
+      <c r="L126">
+        <v>3741.09</v>
+      </c>
+      <c r="M126">
+        <v>4337.83</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127">
+        <v>10.84</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127">
+        <v>58.19</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>190</v>
+      </c>
+      <c r="K127">
+        <v>2980</v>
+      </c>
+      <c r="L127">
+        <v>2855.07</v>
+      </c>
+      <c r="M127">
+        <v>3229.85</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128">
+        <v>10.84</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128">
+        <v>16.87</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>190</v>
+      </c>
+      <c r="K128">
+        <v>311.35</v>
+      </c>
+      <c r="L128">
+        <v>301.88</v>
+      </c>
+      <c r="M128">
+        <v>330.3</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129">
+        <v>20.48</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>190</v>
+      </c>
+      <c r="K129">
+        <v>809.1</v>
+      </c>
+      <c r="L129">
+        <v>772.35</v>
+      </c>
+      <c r="M129">
+        <v>882.6</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>184</v>
+      </c>
+      <c r="G130">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>190</v>
+      </c>
+      <c r="K130">
+        <v>13430</v>
+      </c>
+      <c r="L130">
+        <v>13258.89</v>
+      </c>
+      <c r="M130">
+        <v>13772.21</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131">
+        <v>8.43</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>183</v>
+      </c>
+      <c r="G131">
+        <v>34.94</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>190</v>
+      </c>
+      <c r="K131">
+        <v>217.79</v>
+      </c>
+      <c r="L131">
+        <v>206.65</v>
+      </c>
+      <c r="M131">
+        <v>240.07</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132">
+        <v>8.43</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>184</v>
+      </c>
+      <c r="G132">
+        <v>14.46</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>190</v>
+      </c>
+      <c r="K132">
+        <v>2619.9</v>
+      </c>
+      <c r="L132">
+        <v>2559.06</v>
+      </c>
+      <c r="M132">
+        <v>2741.58</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133">
+        <v>7.23</v>
+      </c>
+      <c r="E133">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>178</v>
+      </c>
+      <c r="G133">
+        <v>37.35</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>190</v>
+      </c>
+      <c r="K133">
+        <v>6354</v>
+      </c>
+      <c r="L133">
+        <v>6087.61</v>
+      </c>
+      <c r="M133">
+        <v>6886.77</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134">
+        <v>7.23</v>
+      </c>
+      <c r="E134">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>178</v>
+      </c>
+      <c r="G134">
+        <v>30.12</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>190</v>
+      </c>
+      <c r="K134">
+        <v>602</v>
+      </c>
+      <c r="L134">
+        <v>569.84</v>
+      </c>
+      <c r="M134">
+        <v>666.3099999999999</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135">
+        <v>7.23</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>178</v>
+      </c>
+      <c r="G135">
+        <v>19.28</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>190</v>
+      </c>
+      <c r="K135">
+        <v>151.12</v>
+      </c>
+      <c r="L135">
+        <v>147.51</v>
+      </c>
+      <c r="M135">
+        <v>158.35</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" t="s">
+        <v>176</v>
+      </c>
+      <c r="D136">
+        <v>7.23</v>
+      </c>
+      <c r="E136">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
+        <v>181</v>
+      </c>
+      <c r="G136">
+        <v>27.71</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+      <c r="K136">
+        <v>835.55</v>
+      </c>
+      <c r="L136">
+        <v>785.21</v>
+      </c>
+      <c r="M136">
+        <v>936.22</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
         <v>148</v>
       </c>
-      <c r="K108">
-        <v>1368.9</v>
-      </c>
-      <c r="L108">
-        <v>1315.4</v>
-      </c>
-      <c r="M108">
-        <v>1475.89</v>
-      </c>
-      <c r="N108">
+      <c r="B137" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137">
+        <v>6.02</v>
+      </c>
+      <c r="E137">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>178</v>
+      </c>
+      <c r="G137">
+        <v>18.07</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+      <c r="K137">
+        <v>404.75</v>
+      </c>
+      <c r="L137">
+        <v>388.67</v>
+      </c>
+      <c r="M137">
+        <v>436.91</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138">
+        <v>6.02</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>182</v>
+      </c>
+      <c r="G138">
+        <v>21.69</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>190</v>
+      </c>
+      <c r="K138">
+        <v>16105</v>
+      </c>
+      <c r="L138">
+        <v>15310.71</v>
+      </c>
+      <c r="M138">
+        <v>17693.57</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139">
+        <v>4.82</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>183</v>
+      </c>
+      <c r="G139">
+        <v>41.33</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>190</v>
+      </c>
+      <c r="K139">
+        <v>621.65</v>
+      </c>
+      <c r="L139">
+        <v>604.59</v>
+      </c>
+      <c r="M139">
+        <v>655.76</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" t="s">
+        <v>176</v>
+      </c>
+      <c r="D140">
+        <v>4.82</v>
+      </c>
+      <c r="E140">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>181</v>
+      </c>
+      <c r="G140">
+        <v>26.69</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>190</v>
+      </c>
+      <c r="K140">
+        <v>343.1</v>
+      </c>
+      <c r="L140">
+        <v>337.11</v>
+      </c>
+      <c r="M140">
+        <v>355.08</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141">
+        <v>4.82</v>
+      </c>
+      <c r="E141">
+        <v>23</v>
+      </c>
+      <c r="F141" t="s">
+        <v>178</v>
+      </c>
+      <c r="G141">
+        <v>16.87</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>190</v>
+      </c>
+      <c r="K141">
+        <v>181.05</v>
+      </c>
+      <c r="L141">
+        <v>174.45</v>
+      </c>
+      <c r="M141">
+        <v>194.25</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="s">
+        <v>163</v>
+      </c>
+      <c r="C142" t="s">
+        <v>176</v>
+      </c>
+      <c r="D142">
+        <v>4.82</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142" t="s">
+        <v>181</v>
+      </c>
+      <c r="G142">
+        <v>21.69</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>190</v>
+      </c>
+      <c r="K142">
+        <v>1476.1</v>
+      </c>
+      <c r="L142">
+        <v>1409.11</v>
+      </c>
+      <c r="M142">
+        <v>1610.07</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143">
+        <v>4.82</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>178</v>
+      </c>
+      <c r="G143">
+        <v>26.51</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>190</v>
+      </c>
+      <c r="K143">
+        <v>1522.8</v>
+      </c>
+      <c r="L143">
+        <v>1457.02</v>
+      </c>
+      <c r="M143">
+        <v>1654.36</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144">
+        <v>4.82</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>178</v>
+      </c>
+      <c r="G144">
+        <v>26.51</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>190</v>
+      </c>
+      <c r="K144">
+        <v>1390.9</v>
+      </c>
+      <c r="L144">
+        <v>1341.91</v>
+      </c>
+      <c r="M144">
+        <v>1488.87</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145">
+        <v>4.82</v>
+      </c>
+      <c r="E145">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>183</v>
+      </c>
+      <c r="G145">
+        <v>16.87</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>190</v>
+      </c>
+      <c r="K145">
+        <v>6449.5</v>
+      </c>
+      <c r="L145">
+        <v>6164.11</v>
+      </c>
+      <c r="M145">
+        <v>7020.29</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146">
+        <v>4.82</v>
+      </c>
+      <c r="E146">
+        <v>17</v>
+      </c>
+      <c r="F146" t="s">
+        <v>178</v>
+      </c>
+      <c r="G146">
+        <v>32.53</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>190</v>
+      </c>
+      <c r="K146">
+        <v>594.8</v>
+      </c>
+      <c r="L146">
+        <v>576.4299999999999</v>
+      </c>
+      <c r="M146">
+        <v>631.53</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147">
+        <v>4.82</v>
+      </c>
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s">
+        <v>178</v>
+      </c>
+      <c r="G147">
+        <v>6.02</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>190</v>
+      </c>
+      <c r="K147">
+        <v>618.9</v>
+      </c>
+      <c r="L147">
+        <v>584.9299999999999</v>
+      </c>
+      <c r="M147">
+        <v>686.84</v>
+      </c>
+      <c r="N147">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="164">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,439 +58,361 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>INDHOTEL</t>
+  </si>
+  <si>
+    <t>BANDHANBNK</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
     <t>PNCINFRA</t>
   </si>
   <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>WHIRLPOOL</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>CHEMPLASTS</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>RRKABEL</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
     <t>BOSCHLTD</t>
   </si>
   <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
+    <t>TI</t>
   </si>
   <si>
     <t>BORORENEW</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
+    <t>GODFRYPHLP</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>NATCOPHARM</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>MSUMI</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>APTUS</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SAMMAANCAP</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>AETHER</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>GODREJPROP</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>DEEPINDS</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>PVRINOX</t>
+  </si>
+  <si>
+    <t>GILLETTE</t>
+  </si>
+  <si>
+    <t>CHALET</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>METROBRAND</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>POLYCAB</t>
   </si>
   <si>
     <t>MANKIND</t>
   </si>
   <si>
-    <t>GRINDWELL</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>STLTECH</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>PPLPHARMA</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>HARIOMPIPE</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>FINEORG</t>
-  </si>
-  <si>
-    <t>LICHSGFIN</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>APTUS</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>MSUMI</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>SWSOLAR</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>SONATSOFTW</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
+    <t>JUBLPHARMA</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>TRITURBINE</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>JUBLINGREA</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
   </si>
   <si>
     <t>MHRIL</t>
   </si>
   <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>RRKABEL</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>MINDACORP</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>TIMETECHNO</t>
-  </si>
-  <si>
-    <t>ANGELONE</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>CERA</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>ANANTRAJ</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>PTC</t>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>GPPL</t>
+  </si>
+  <si>
+    <t>ALKEM</t>
+  </si>
+  <si>
+    <t>SKFINDIA</t>
+  </si>
+  <si>
+    <t>RAMKY</t>
   </si>
   <si>
     <t>USHAMART</t>
   </si>
   <si>
-    <t>CONCORDBIO</t>
-  </si>
-  <si>
-    <t>CHALET</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>GILLETTE</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>BLUESTARCO</t>
-  </si>
-  <si>
-    <t>RAMKY</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>CSBBANK</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>EIHOTEL</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
+    <t>BAYERCROP</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
   </si>
   <si>
     <t>AARTIPHARM</t>
   </si>
   <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>ASAHIINDIA</t>
-  </si>
-  <si>
-    <t>EASEMYTRIP</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>CHEMPLASTS</t>
-  </si>
-  <si>
-    <t>CHOLAHLDNG</t>
-  </si>
-  <si>
-    <t>PRAJIND</t>
-  </si>
-  <si>
-    <t>ADANIGREEN</t>
-  </si>
-  <si>
-    <t>CANFINHOME</t>
-  </si>
-  <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>QUESS</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>VIJAYA</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>BBTC</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>PETRONET</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>BAYERCROP</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>JUBLINGREA</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>CONCOR</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>CESC</t>
-  </si>
-  <si>
-    <t>IPCALAB</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
+    <t>ESCORTS</t>
   </si>
   <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
-    <t>NAVA</t>
+    <t>Financial Services</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -499,21 +421,18 @@
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Financial Services</t>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrials</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
@@ -532,52 +451,52 @@
     <t>Building_G</t>
   </si>
   <si>
+    <t>Power_H2_Volume</t>
+  </si>
+  <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
+    <t>KC_Multi_H2</t>
+  </si>
+  <si>
     <t>H2_Momentum_Start</t>
   </si>
   <si>
-    <t>Strong_H2_KC_Combo</t>
-  </si>
-  <si>
-    <t>Power_H2_Volume</t>
-  </si>
-  <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
   </si>
   <si>
     <t>2025-07-16</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
-    <t>2025-07-08</t>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
   </si>
   <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
-  </si>
-  <si>
-    <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
   </si>
   <si>
     <t>HOLD AND MONITOR - PATTERN MATURE</t>
@@ -944,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -1020,19 +939,19 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K2">
-        <v>321.25</v>
+        <v>5582</v>
       </c>
       <c r="L2">
-        <v>306.43</v>
+        <v>5335.07</v>
       </c>
       <c r="M2">
-        <v>350.89</v>
+        <v>6075.86</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1043,19 +962,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>63.86</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -1064,19 +983,19 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K3">
-        <v>38665</v>
+        <v>1938</v>
       </c>
       <c r="L3">
-        <v>36650.71</v>
+        <v>1843.47</v>
       </c>
       <c r="M3">
-        <v>42693.57</v>
+        <v>2127.06</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1087,19 +1006,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D4">
-        <v>62.83</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1111,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K4">
-        <v>672.15</v>
+        <v>606.25</v>
       </c>
       <c r="L4">
-        <v>645.7</v>
+        <v>569.04</v>
       </c>
       <c r="M4">
-        <v>725.05</v>
+        <v>680.6799999999999</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1131,40 +1050,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5">
+        <v>70.42</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5">
+        <v>70.42</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5">
-        <v>57.83</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>185</v>
-      </c>
       <c r="K5">
-        <v>999.85</v>
+        <v>765.2</v>
       </c>
       <c r="L5">
-        <v>950.0700000000001</v>
+        <v>745.46</v>
       </c>
       <c r="M5">
-        <v>1099.41</v>
+        <v>804.6799999999999</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1175,40 +1094,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6">
+        <v>56.81</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6">
+        <v>56.81</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>186</v>
-      </c>
       <c r="K6">
-        <v>1907.2</v>
+        <v>187.3</v>
       </c>
       <c r="L6">
-        <v>1816.81</v>
+        <v>178.49</v>
       </c>
       <c r="M6">
-        <v>2087.97</v>
+        <v>204.92</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1219,40 +1138,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>55.42</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K7">
-        <v>6510.5</v>
+        <v>1001.35</v>
       </c>
       <c r="L7">
-        <v>6127.5</v>
+        <v>951.08</v>
       </c>
       <c r="M7">
-        <v>7276.5</v>
+        <v>1101.89</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1263,40 +1182,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>37.35</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K8">
-        <v>596.9</v>
+        <v>315.05</v>
       </c>
       <c r="L8">
-        <v>560.28</v>
+        <v>302.79</v>
       </c>
       <c r="M8">
-        <v>670.14</v>
+        <v>339.57</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1307,22 +1226,22 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>82.47</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1331,16 +1250,16 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K9">
-        <v>921.5</v>
+        <v>558.85</v>
       </c>
       <c r="L9">
-        <v>882.26</v>
+        <v>513.39</v>
       </c>
       <c r="M9">
-        <v>999.99</v>
+        <v>649.78</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1351,40 +1270,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>82.47</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K10">
-        <v>490.25</v>
+        <v>2623.5</v>
       </c>
       <c r="L10">
-        <v>469.16</v>
+        <v>2430.17</v>
       </c>
       <c r="M10">
-        <v>532.4400000000001</v>
+        <v>3010.16</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1395,40 +1314,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>66.63</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>67.83</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K11">
-        <v>5510</v>
+        <v>1443.3</v>
       </c>
       <c r="L11">
-        <v>5269.3</v>
+        <v>1358.6</v>
       </c>
       <c r="M11">
-        <v>5991.4</v>
+        <v>1612.7</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1439,19 +1358,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>60.24</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -1460,19 +1379,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K12">
-        <v>3897.5</v>
+        <v>6390.5</v>
       </c>
       <c r="L12">
-        <v>3644.84</v>
+        <v>6000.86</v>
       </c>
       <c r="M12">
-        <v>4402.81</v>
+        <v>7169.79</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1483,40 +1402,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>86.08</v>
+        <v>59.04</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G13">
-        <v>92.11</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K13">
-        <v>581.4</v>
+        <v>3886.5</v>
       </c>
       <c r="L13">
-        <v>540.63</v>
+        <v>3634.44</v>
       </c>
       <c r="M13">
-        <v>662.9400000000001</v>
+        <v>4390.61</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1527,40 +1446,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D14">
-        <v>61.45</v>
+        <v>57.83</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G14">
-        <v>61.45</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K14">
-        <v>2587</v>
+        <v>1327.9</v>
       </c>
       <c r="L14">
-        <v>2394.43</v>
+        <v>1255.1</v>
       </c>
       <c r="M14">
-        <v>2972.14</v>
+        <v>1473.5</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1571,19 +1490,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <v>57.83</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1592,19 +1511,19 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K15">
-        <v>1338.9</v>
+        <v>399.15</v>
       </c>
       <c r="L15">
-        <v>1268.27</v>
+        <v>380.13</v>
       </c>
       <c r="M15">
-        <v>1480.16</v>
+        <v>437.19</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1615,19 +1534,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D16">
-        <v>54.22</v>
+        <v>51.81</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -1636,19 +1555,19 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K16">
-        <v>397.3</v>
+        <v>485</v>
       </c>
       <c r="L16">
-        <v>378.65</v>
+        <v>464.04</v>
       </c>
       <c r="M16">
-        <v>434.6</v>
+        <v>526.9299999999999</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1659,22 +1578,22 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>51.81</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G17">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1683,16 +1602,16 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K17">
-        <v>475.2</v>
+        <v>870.1</v>
       </c>
       <c r="L17">
-        <v>437.3</v>
+        <v>817.14</v>
       </c>
       <c r="M17">
-        <v>551</v>
+        <v>976.01</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1703,40 +1622,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D18">
-        <v>46.99</v>
+        <v>43.37</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G18">
-        <v>61.99</v>
+        <v>43.37</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K18">
-        <v>2639.8</v>
+        <v>3717.5</v>
       </c>
       <c r="L18">
-        <v>2472.51</v>
+        <v>3503.21</v>
       </c>
       <c r="M18">
-        <v>2974.37</v>
+        <v>4146.07</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1747,22 +1666,22 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D19">
-        <v>45.96</v>
+        <v>43.37</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G19">
-        <v>45.96</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1771,16 +1690,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K19">
-        <v>1809.8</v>
+        <v>425.65</v>
       </c>
       <c r="L19">
-        <v>1720.92</v>
+        <v>405.41</v>
       </c>
       <c r="M19">
-        <v>1987.57</v>
+        <v>466.12</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1791,40 +1710,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>86.45</v>
+        <v>39.76</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G20">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K20">
-        <v>2011.5</v>
+        <v>909.1</v>
       </c>
       <c r="L20">
-        <v>1903.77</v>
+        <v>870.4</v>
       </c>
       <c r="M20">
-        <v>2226.96</v>
+        <v>986.5</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1835,22 +1754,22 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>71.98999999999999</v>
+        <v>81.63</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G21">
-        <v>71.98999999999999</v>
+        <v>81.63</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1859,16 +1778,16 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="K21">
-        <v>385.2</v>
+        <v>455.2</v>
       </c>
       <c r="L21">
-        <v>362.83</v>
+        <v>429.91</v>
       </c>
       <c r="M21">
-        <v>429.94</v>
+        <v>505.79</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1879,40 +1798,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D22">
-        <v>70.42</v>
+        <v>38.55</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G22">
-        <v>70.42</v>
+        <v>86.45</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="K22">
-        <v>1181</v>
+        <v>1999</v>
       </c>
       <c r="L22">
-        <v>1113.1</v>
+        <v>1894.09</v>
       </c>
       <c r="M22">
-        <v>1316.8</v>
+        <v>2208.83</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1923,40 +1842,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>37.35</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K23">
-        <v>881</v>
+        <v>507.05</v>
       </c>
       <c r="L23">
-        <v>829.61</v>
+        <v>470.33</v>
       </c>
       <c r="M23">
-        <v>983.77</v>
+        <v>580.49</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1967,40 +1886,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D24">
-        <v>76.81</v>
+        <v>34.94</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G24">
-        <v>76.81</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K24">
-        <v>331.25</v>
+        <v>1475</v>
       </c>
       <c r="L24">
-        <v>315.43</v>
+        <v>1371.01</v>
       </c>
       <c r="M24">
-        <v>362.89</v>
+        <v>1682.97</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2011,40 +1930,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D25">
-        <v>71.81</v>
+        <v>33.73</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G25">
-        <v>77.83</v>
+        <v>82.83</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K25">
-        <v>118.5</v>
+        <v>1693.7</v>
       </c>
       <c r="L25">
-        <v>106.95</v>
+        <v>1594.49</v>
       </c>
       <c r="M25">
-        <v>141.6</v>
+        <v>1892.13</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -2055,19 +1974,19 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D26">
-        <v>68.19</v>
+        <v>33.73</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -2079,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K26">
-        <v>425.85</v>
+        <v>38250</v>
       </c>
       <c r="L26">
-        <v>406.8</v>
+        <v>36211.43</v>
       </c>
       <c r="M26">
-        <v>463.95</v>
+        <v>42327.14</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2099,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D27">
-        <v>38.55</v>
+        <v>32.53</v>
       </c>
       <c r="E27">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G27">
-        <v>73.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2123,16 +2042,16 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K27">
-        <v>2227</v>
+        <v>397.05</v>
       </c>
       <c r="L27">
-        <v>2068.14</v>
+        <v>371.96</v>
       </c>
       <c r="M27">
-        <v>2544.71</v>
+        <v>447.24</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2143,40 +2062,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D28">
-        <v>38.55</v>
+        <v>30.12</v>
       </c>
       <c r="E28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G28">
-        <v>92.47</v>
+        <v>92.11</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K28">
-        <v>543.75</v>
+        <v>587</v>
       </c>
       <c r="L28">
-        <v>500.44</v>
+        <v>545.1</v>
       </c>
       <c r="M28">
-        <v>630.36</v>
+        <v>670.8</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2187,22 +2106,22 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D29">
-        <v>36.14</v>
+        <v>28.92</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>90.06</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2211,16 +2130,16 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K29">
-        <v>394.1</v>
+        <v>9364</v>
       </c>
       <c r="L29">
-        <v>369.41</v>
+        <v>8616.639999999999</v>
       </c>
       <c r="M29">
-        <v>443.47</v>
+        <v>10858.71</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2231,40 +2150,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D30">
-        <v>36.14</v>
+        <v>28.92</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G30">
         <v>82.65000000000001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K30">
-        <v>217.58</v>
+        <v>3523.3</v>
       </c>
       <c r="L30">
-        <v>206.26</v>
+        <v>3385.86</v>
       </c>
       <c r="M30">
-        <v>240.22</v>
+        <v>3798.19</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2275,40 +2194,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D31">
-        <v>34.94</v>
+        <v>26.51</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G31">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K31">
-        <v>1693</v>
+        <v>703.7</v>
       </c>
       <c r="L31">
-        <v>1597.8</v>
+        <v>649.46</v>
       </c>
       <c r="M31">
-        <v>1883.4</v>
+        <v>812.1900000000001</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2319,40 +2238,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D32">
-        <v>31.33</v>
+        <v>26.51</v>
       </c>
       <c r="E32">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G32">
-        <v>91.27</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K32">
-        <v>478.85</v>
+        <v>383.3</v>
       </c>
       <c r="L32">
-        <v>436.06</v>
+        <v>359.99</v>
       </c>
       <c r="M32">
-        <v>564.42</v>
+        <v>429.91</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2363,40 +2282,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>31.33</v>
+        <v>26.51</v>
       </c>
       <c r="E33">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K33">
-        <v>713.85</v>
+        <v>2227.1</v>
       </c>
       <c r="L33">
-        <v>661.16</v>
+        <v>2066.33</v>
       </c>
       <c r="M33">
-        <v>819.24</v>
+        <v>2548.64</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2407,40 +2326,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D34">
-        <v>30.12</v>
+        <v>25.3</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G34">
-        <v>85.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K34">
-        <v>37.46</v>
+        <v>1033.9</v>
       </c>
       <c r="L34">
-        <v>35.15</v>
+        <v>960.47</v>
       </c>
       <c r="M34">
-        <v>42.07</v>
+        <v>1180.76</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2451,40 +2370,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D35">
-        <v>27.71</v>
+        <v>24.1</v>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K35">
-        <v>1030.1</v>
+        <v>36.75</v>
       </c>
       <c r="L35">
-        <v>953.3</v>
+        <v>34.54</v>
       </c>
       <c r="M35">
-        <v>1183.7</v>
+        <v>41.17</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2495,40 +2414,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D36">
-        <v>27.71</v>
+        <v>22.89</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G36">
-        <v>93.48999999999999</v>
+        <v>70.42</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K36">
-        <v>2792.5</v>
+        <v>1154.2</v>
       </c>
       <c r="L36">
-        <v>2624.7</v>
+        <v>1089.55</v>
       </c>
       <c r="M36">
-        <v>3128.1</v>
+        <v>1283.5</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2539,40 +2458,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D37">
-        <v>26.51</v>
+        <v>21.69</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K37">
-        <v>1344.9</v>
+        <v>2777.4</v>
       </c>
       <c r="L37">
-        <v>1270.97</v>
+        <v>2615.31</v>
       </c>
       <c r="M37">
-        <v>1492.76</v>
+        <v>3101.58</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2583,40 +2502,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D38">
-        <v>22.89</v>
+        <v>20.48</v>
       </c>
       <c r="E38">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G38">
-        <v>72.29000000000001</v>
+        <v>79.22</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K38">
-        <v>1960.6</v>
+        <v>840.7</v>
       </c>
       <c r="L38">
-        <v>1807.7</v>
+        <v>796.17</v>
       </c>
       <c r="M38">
-        <v>2266.4</v>
+        <v>929.77</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2627,40 +2546,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D39">
-        <v>22.89</v>
+        <v>20.48</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G39">
-        <v>85.06</v>
+        <v>91.27</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K39">
-        <v>5437.5</v>
+        <v>43.41</v>
       </c>
       <c r="L39">
-        <v>5117.1</v>
+        <v>41.18</v>
       </c>
       <c r="M39">
-        <v>6078.3</v>
+        <v>47.87</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2671,40 +2590,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40">
+        <v>18.07</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40">
+        <v>76.81</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
         <v>161</v>
       </c>
-      <c r="C40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40">
-        <v>22.89</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40">
-        <v>85.06</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s">
-        <v>188</v>
-      </c>
       <c r="K40">
-        <v>638.45</v>
+        <v>329.55</v>
       </c>
       <c r="L40">
-        <v>618.58</v>
+        <v>313.73</v>
       </c>
       <c r="M40">
-        <v>678.1900000000001</v>
+        <v>361.19</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2715,19 +2634,19 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D41">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -2736,19 +2655,19 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K41">
-        <v>3581.5</v>
+        <v>3540.6</v>
       </c>
       <c r="L41">
-        <v>3434.63</v>
+        <v>3416.1</v>
       </c>
       <c r="M41">
-        <v>3875.24</v>
+        <v>3789.6</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2759,40 +2678,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42">
+        <v>14.46</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42">
+        <v>85.06</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42">
-        <v>20.48</v>
-      </c>
-      <c r="E42">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42">
-        <v>97.11</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>188</v>
-      </c>
       <c r="K42">
-        <v>344.65</v>
+        <v>628.55</v>
       </c>
       <c r="L42">
-        <v>329.58</v>
+        <v>609.34</v>
       </c>
       <c r="M42">
-        <v>374.78</v>
+        <v>666.97</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2803,40 +2722,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D43">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G43">
-        <v>79.22</v>
+        <v>97.11</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K43">
-        <v>850.6</v>
+        <v>351.4</v>
       </c>
       <c r="L43">
-        <v>801.76</v>
+        <v>334.37</v>
       </c>
       <c r="M43">
-        <v>948.27</v>
+        <v>385.46</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2847,40 +2766,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D44">
-        <v>19.28</v>
+        <v>13.25</v>
       </c>
       <c r="E44">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G44">
-        <v>91.27</v>
+        <v>74.22</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K44">
-        <v>64.54000000000001</v>
+        <v>823.55</v>
       </c>
       <c r="L44">
-        <v>61.59</v>
+        <v>807.58</v>
       </c>
       <c r="M44">
-        <v>70.45</v>
+        <v>855.49</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2891,22 +2810,22 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D45">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G45">
-        <v>73.19</v>
+        <v>100</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2915,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K45">
-        <v>1423.8</v>
+        <v>532.45</v>
       </c>
       <c r="L45">
-        <v>1341.73</v>
+        <v>507.45</v>
       </c>
       <c r="M45">
-        <v>1587.94</v>
+        <v>582.45</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2935,40 +2854,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D46">
-        <v>16.87</v>
+        <v>12.05</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G46">
-        <v>78.01000000000001</v>
+        <v>73.19</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K46">
-        <v>337.05</v>
+        <v>1430.3</v>
       </c>
       <c r="L46">
-        <v>316.53</v>
+        <v>1351.24</v>
       </c>
       <c r="M46">
-        <v>378.1</v>
+        <v>1588.41</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2979,40 +2898,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D47">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K47">
-        <v>16866</v>
+        <v>656.2</v>
       </c>
       <c r="L47">
-        <v>15173.43</v>
+        <v>636.48</v>
       </c>
       <c r="M47">
-        <v>20251.14</v>
+        <v>695.63</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -3023,40 +2942,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D48">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="G48">
-        <v>74.22</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="K48">
-        <v>829.95</v>
+        <v>1320</v>
       </c>
       <c r="L48">
-        <v>808.6</v>
+        <v>1250.07</v>
       </c>
       <c r="M48">
-        <v>872.65</v>
+        <v>1459.86</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -3067,40 +2986,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D49">
-        <v>13.25</v>
+        <v>45.78</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>47.35</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K49">
-        <v>1280.4</v>
+        <v>179</v>
       </c>
       <c r="L49">
-        <v>1229.5</v>
+        <v>168.82</v>
       </c>
       <c r="M49">
-        <v>1382.2</v>
+        <v>199.35</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3111,40 +3030,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D50">
-        <v>13.25</v>
+        <v>44.76</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G50">
-        <v>85.23999999999999</v>
+        <v>44.76</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K50">
-        <v>150705</v>
+        <v>136.11</v>
       </c>
       <c r="L50">
-        <v>144085.35</v>
+        <v>126.89</v>
       </c>
       <c r="M50">
-        <v>163944.3</v>
+        <v>154.54</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3155,40 +3074,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D51">
-        <v>12.05</v>
+        <v>40.96</v>
       </c>
       <c r="E51">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K51">
-        <v>527</v>
+        <v>388.7</v>
       </c>
       <c r="L51">
-        <v>502.48</v>
+        <v>365.46</v>
       </c>
       <c r="M51">
-        <v>576.04</v>
+        <v>435.17</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3199,40 +3118,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D52">
-        <v>8.43</v>
+        <v>40.12</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>40.12</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K52">
-        <v>206.19</v>
+        <v>71.34</v>
       </c>
       <c r="L52">
-        <v>198.42</v>
+        <v>68.48</v>
       </c>
       <c r="M52">
-        <v>221.73</v>
+        <v>77.05</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3243,40 +3162,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D53">
-        <v>8.43</v>
+        <v>38.55</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G53">
-        <v>92.29000000000001</v>
+        <v>38.55</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K53">
-        <v>347</v>
+        <v>431.7</v>
       </c>
       <c r="L53">
-        <v>335.27</v>
+        <v>402.9</v>
       </c>
       <c r="M53">
-        <v>370.45</v>
+        <v>489.3</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3287,40 +3206,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D54">
-        <v>4.82</v>
+        <v>38.55</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G54">
-        <v>100</v>
+        <v>40.96</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K54">
-        <v>437.15</v>
+        <v>256.49</v>
       </c>
       <c r="L54">
-        <v>417.32</v>
+        <v>238.76</v>
       </c>
       <c r="M54">
-        <v>476.81</v>
+        <v>291.95</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3331,40 +3250,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D55">
-        <v>48.37</v>
+        <v>36.14</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G55">
-        <v>82.65000000000001</v>
+        <v>36.14</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>3505.6</v>
+        <v>550.35</v>
       </c>
       <c r="L55">
-        <v>3350.67</v>
+        <v>517.05</v>
       </c>
       <c r="M55">
-        <v>3815.46</v>
+        <v>616.95</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3375,40 +3294,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D56">
-        <v>47.35</v>
+        <v>34.94</v>
       </c>
       <c r="E56">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G56">
-        <v>52.35</v>
+        <v>34.94</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K56">
-        <v>364.55</v>
+        <v>382.55</v>
       </c>
       <c r="L56">
-        <v>347.78</v>
+        <v>365.64</v>
       </c>
       <c r="M56">
-        <v>398.09</v>
+        <v>416.38</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3419,40 +3338,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D57">
-        <v>47.35</v>
+        <v>34.94</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G57">
-        <v>47.35</v>
+        <v>50.78</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K57">
-        <v>1277</v>
+        <v>765.05</v>
       </c>
       <c r="L57">
-        <v>1207.63</v>
+        <v>723.54</v>
       </c>
       <c r="M57">
-        <v>1415.74</v>
+        <v>848.08</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3463,40 +3382,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D58">
-        <v>43.37</v>
+        <v>33.73</v>
       </c>
       <c r="E58">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G58">
-        <v>43.37</v>
+        <v>33.73</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K58">
-        <v>2745</v>
+        <v>214.54</v>
       </c>
       <c r="L58">
-        <v>2637.47</v>
+        <v>202.79</v>
       </c>
       <c r="M58">
-        <v>2960.06</v>
+        <v>238.05</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3507,40 +3426,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D59">
-        <v>43.37</v>
+        <v>33.73</v>
       </c>
       <c r="E59">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G59">
-        <v>84.04000000000001</v>
+        <v>33.73</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K59">
-        <v>381.35</v>
+        <v>298.55</v>
       </c>
       <c r="L59">
-        <v>362.04</v>
+        <v>282.12</v>
       </c>
       <c r="M59">
-        <v>419.96</v>
+        <v>331.41</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3551,40 +3470,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D60">
-        <v>42.35</v>
+        <v>32.53</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G60">
-        <v>42.35</v>
+        <v>43.37</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K60">
-        <v>243.66</v>
+        <v>2746.8</v>
       </c>
       <c r="L60">
-        <v>232.54</v>
+        <v>2640.43</v>
       </c>
       <c r="M60">
-        <v>265.9</v>
+        <v>2959.54</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3595,40 +3514,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D61">
-        <v>41.14</v>
+        <v>32.53</v>
       </c>
       <c r="E61">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G61">
-        <v>41.14</v>
+        <v>47.53</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K61">
-        <v>456</v>
+        <v>1222.8</v>
       </c>
       <c r="L61">
-        <v>444.06</v>
+        <v>1150.61</v>
       </c>
       <c r="M61">
-        <v>479.87</v>
+        <v>1367.17</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3639,40 +3558,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D62">
-        <v>40.96</v>
+        <v>32.53</v>
       </c>
       <c r="E62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>39.76</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K62">
-        <v>507.85</v>
+        <v>540.25</v>
       </c>
       <c r="L62">
-        <v>471.23</v>
+        <v>507.76</v>
       </c>
       <c r="M62">
-        <v>581.09</v>
+        <v>605.22</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3683,40 +3602,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D63">
-        <v>59.4</v>
+        <v>30.12</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="G63">
-        <v>59.4</v>
+        <v>36.14</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K63">
-        <v>1463.9</v>
+        <v>824.05</v>
       </c>
       <c r="L63">
-        <v>1364.61</v>
+        <v>783.39</v>
       </c>
       <c r="M63">
-        <v>1662.47</v>
+        <v>905.36</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3727,40 +3646,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D64">
-        <v>58.37</v>
+        <v>28.92</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G64">
-        <v>58.37</v>
+        <v>33.73</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K64">
-        <v>113.63</v>
+        <v>178.55</v>
       </c>
       <c r="L64">
-        <v>111.17</v>
+        <v>163.79</v>
       </c>
       <c r="M64">
-        <v>118.55</v>
+        <v>208.07</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3771,40 +3690,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D65">
-        <v>38.55</v>
+        <v>27.71</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G65">
-        <v>40.96</v>
+        <v>53.55</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K65">
-        <v>253.27</v>
+        <v>1784</v>
       </c>
       <c r="L65">
-        <v>235.83</v>
+        <v>1693.64</v>
       </c>
       <c r="M65">
-        <v>288.16</v>
+        <v>1964.71</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3815,40 +3734,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D66">
-        <v>37.35</v>
+        <v>26.51</v>
       </c>
       <c r="E66">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G66">
-        <v>39.76</v>
+        <v>65.06</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K66">
-        <v>550.1</v>
+        <v>828</v>
       </c>
       <c r="L66">
-        <v>518.74</v>
+        <v>790.64</v>
       </c>
       <c r="M66">
-        <v>612.8099999999999</v>
+        <v>902.71</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3859,40 +3778,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D67">
-        <v>36.51</v>
+        <v>26.51</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G67">
-        <v>36.51</v>
+        <v>26.51</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K67">
-        <v>537.15</v>
+        <v>2365</v>
       </c>
       <c r="L67">
-        <v>514.5</v>
+        <v>2282.95</v>
       </c>
       <c r="M67">
-        <v>582.45</v>
+        <v>2529.1</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3903,40 +3822,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D68">
-        <v>34.94</v>
+        <v>26.51</v>
       </c>
       <c r="E68">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G68">
-        <v>49.4</v>
+        <v>58.19</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K68">
-        <v>269.65</v>
+        <v>697.75</v>
       </c>
       <c r="L68">
-        <v>250.69</v>
+        <v>652.02</v>
       </c>
       <c r="M68">
-        <v>307.57</v>
+        <v>789.21</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3947,40 +3866,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D69">
-        <v>34.94</v>
+        <v>25.3</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="G69">
-        <v>34.94</v>
+        <v>47.35</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K69">
-        <v>471.4</v>
+        <v>1282.9</v>
       </c>
       <c r="L69">
-        <v>445.47</v>
+        <v>1209.39</v>
       </c>
       <c r="M69">
-        <v>523.26</v>
+        <v>1429.93</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3991,43 +3910,43 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D70">
-        <v>32.89</v>
+        <v>25.3</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G70">
-        <v>34.1</v>
+        <v>37.35</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K70">
-        <v>2743.7</v>
+        <v>274.5</v>
       </c>
       <c r="L70">
-        <v>2747.17</v>
+        <v>261.73</v>
       </c>
       <c r="M70">
-        <v>2736.76</v>
+        <v>300.03</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4035,22 +3954,22 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D71">
-        <v>32.53</v>
+        <v>25.3</v>
       </c>
       <c r="E71">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G71">
-        <v>65.06</v>
+        <v>39.76</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4059,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K71">
-        <v>821</v>
+        <v>61.57</v>
       </c>
       <c r="L71">
-        <v>782.11</v>
+        <v>56.88</v>
       </c>
       <c r="M71">
-        <v>898.77</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -4079,40 +3998,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D72">
+        <v>25.3</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72">
         <v>31.33</v>
       </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>182</v>
-      </c>
-      <c r="G72">
-        <v>37.35</v>
-      </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K72">
-        <v>278</v>
+        <v>7.74</v>
       </c>
       <c r="L72">
-        <v>266.14</v>
+        <v>7.28</v>
       </c>
       <c r="M72">
-        <v>301.71</v>
+        <v>8.67</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4123,40 +4042,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D73">
-        <v>30.48</v>
+        <v>24.1</v>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="G73">
-        <v>30.48</v>
+        <v>24.1</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K73">
-        <v>7052</v>
+        <v>479.25</v>
       </c>
       <c r="L73">
-        <v>6698.71</v>
+        <v>452.84</v>
       </c>
       <c r="M73">
-        <v>7758.57</v>
+        <v>532.0599999999999</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4167,23 +4086,23 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D74">
+        <v>22.89</v>
+      </c>
+      <c r="E74">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74">
         <v>30.12</v>
       </c>
-      <c r="E74">
-        <v>23</v>
-      </c>
-      <c r="F74" t="s">
-        <v>178</v>
-      </c>
-      <c r="G74">
-        <v>47.53</v>
-      </c>
       <c r="H74">
         <v>0</v>
       </c>
@@ -4191,16 +4110,16 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K74">
-        <v>1230</v>
+        <v>408.35</v>
       </c>
       <c r="L74">
-        <v>1160.49</v>
+        <v>380.81</v>
       </c>
       <c r="M74">
-        <v>1369.03</v>
+        <v>463.44</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4211,40 +4130,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D75">
-        <v>30.12</v>
+        <v>22.89</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G75">
-        <v>32.53</v>
+        <v>30.48</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K75">
-        <v>1784.6</v>
+        <v>1017.95</v>
       </c>
       <c r="L75">
-        <v>1694.63</v>
+        <v>970.42</v>
       </c>
       <c r="M75">
-        <v>1964.54</v>
+        <v>1113.02</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4255,40 +4174,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D76">
-        <v>30.12</v>
+        <v>22.89</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G76">
-        <v>31.33</v>
+        <v>27.71</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K76">
-        <v>602.1</v>
+        <v>11249</v>
       </c>
       <c r="L76">
-        <v>565.34</v>
+        <v>10582.57</v>
       </c>
       <c r="M76">
-        <v>675.61</v>
+        <v>12581.86</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4299,40 +4218,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D77">
-        <v>28.92</v>
+        <v>21.69</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G77">
-        <v>33.73</v>
+        <v>27.71</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K77">
-        <v>177.08</v>
+        <v>930.95</v>
       </c>
       <c r="L77">
-        <v>162.59</v>
+        <v>880.99</v>
       </c>
       <c r="M77">
-        <v>206.06</v>
+        <v>1030.86</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4343,40 +4262,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D78">
-        <v>28.92</v>
+        <v>21.69</v>
       </c>
       <c r="E78">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G78">
-        <v>63.86</v>
+        <v>41.14</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K78">
-        <v>2507.8</v>
+        <v>455.55</v>
       </c>
       <c r="L78">
-        <v>2430.47</v>
+        <v>444.91</v>
       </c>
       <c r="M78">
-        <v>2662.46</v>
+        <v>476.83</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4387,40 +4306,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D79">
-        <v>27.89</v>
+        <v>21.69</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G79">
-        <v>27.89</v>
+        <v>21.69</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K79">
-        <v>2024.5</v>
+        <v>1230.1</v>
       </c>
       <c r="L79">
-        <v>1964.87</v>
+        <v>1162.78</v>
       </c>
       <c r="M79">
-        <v>2143.76</v>
+        <v>1364.73</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4431,40 +4350,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D80">
-        <v>27.71</v>
+        <v>20.48</v>
       </c>
       <c r="E80">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G80">
-        <v>65.59999999999999</v>
+        <v>30.12</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K80">
-        <v>191.03</v>
+        <v>688.95</v>
       </c>
       <c r="L80">
-        <v>184.16</v>
+        <v>658.99</v>
       </c>
       <c r="M80">
-        <v>204.78</v>
+        <v>748.88</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4475,22 +4394,22 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D81">
-        <v>27.71</v>
+        <v>20.48</v>
       </c>
       <c r="E81">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G81">
-        <v>66.81</v>
+        <v>55.42</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4499,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K81">
-        <v>387.35</v>
+        <v>3358</v>
       </c>
       <c r="L81">
-        <v>364.36</v>
+        <v>3174.6</v>
       </c>
       <c r="M81">
-        <v>433.34</v>
+        <v>3724.8</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4519,40 +4438,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D82">
-        <v>27.71</v>
+        <v>20.48</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G82">
-        <v>27.71</v>
+        <v>59.76</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K82">
-        <v>1922.8</v>
+        <v>6948</v>
       </c>
       <c r="L82">
-        <v>1800.97</v>
+        <v>6655.64</v>
       </c>
       <c r="M82">
-        <v>2166.46</v>
+        <v>7532.71</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4563,40 +4482,40 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D83">
-        <v>27.71</v>
+        <v>20.48</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G83">
-        <v>27.71</v>
+        <v>61.99</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K83">
-        <v>925.5</v>
+        <v>2651.2</v>
       </c>
       <c r="L83">
-        <v>877.35</v>
+        <v>2483.49</v>
       </c>
       <c r="M83">
-        <v>1021.81</v>
+        <v>2986.63</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4607,40 +4526,40 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D84">
-        <v>27.71</v>
+        <v>19.28</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G84">
-        <v>27.71</v>
+        <v>19.28</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K84">
-        <v>3668.7</v>
+        <v>2255.1</v>
       </c>
       <c r="L84">
-        <v>3453.6</v>
+        <v>2157.54</v>
       </c>
       <c r="M84">
-        <v>4098.9</v>
+        <v>2450.21</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4651,40 +4570,40 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D85">
-        <v>26.51</v>
+        <v>18.07</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G85">
-        <v>58.19</v>
+        <v>39.76</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K85">
-        <v>689.4</v>
+        <v>288.69</v>
       </c>
       <c r="L85">
-        <v>646.65</v>
+        <v>271.1</v>
       </c>
       <c r="M85">
-        <v>774.9</v>
+        <v>323.87</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4695,40 +4614,40 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D86">
-        <v>24.1</v>
+        <v>18.07</v>
       </c>
       <c r="E86">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G86">
-        <v>36.14</v>
+        <v>18.07</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K86">
-        <v>821.4</v>
+        <v>1232.3</v>
       </c>
       <c r="L86">
-        <v>782.34</v>
+        <v>1171.13</v>
       </c>
       <c r="M86">
-        <v>899.51</v>
+        <v>1354.64</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4739,22 +4658,22 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D87">
-        <v>24.1</v>
+        <v>16.87</v>
       </c>
       <c r="E87">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G87">
-        <v>60.24</v>
+        <v>22.89</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4763,16 +4682,16 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K87">
-        <v>529.85</v>
+        <v>184</v>
       </c>
       <c r="L87">
-        <v>511.65</v>
+        <v>173.64</v>
       </c>
       <c r="M87">
-        <v>566.25</v>
+        <v>204.71</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4783,22 +4702,22 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D88">
-        <v>24.1</v>
+        <v>16.87</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G88">
-        <v>50.78</v>
+        <v>18.07</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4807,16 +4726,16 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K88">
-        <v>742.75</v>
+        <v>29895</v>
       </c>
       <c r="L88">
-        <v>703.36</v>
+        <v>29173.71</v>
       </c>
       <c r="M88">
-        <v>821.52</v>
+        <v>31337.57</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4827,40 +4746,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D89">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="G89">
-        <v>27.71</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K89">
-        <v>11140</v>
+        <v>189.19</v>
       </c>
       <c r="L89">
-        <v>10474.5</v>
+        <v>182.24</v>
       </c>
       <c r="M89">
-        <v>12471</v>
+        <v>203.08</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4871,19 +4790,19 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D90">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G90">
         <v>45.78</v>
@@ -4892,19 +4811,19 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K90">
-        <v>155.03</v>
+        <v>154.42</v>
       </c>
       <c r="L90">
-        <v>146.1</v>
+        <v>145.04</v>
       </c>
       <c r="M90">
-        <v>172.89</v>
+        <v>173.19</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4915,40 +4834,40 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D91">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="G91">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K91">
-        <v>247.7</v>
+        <v>3451.7</v>
       </c>
       <c r="L91">
-        <v>231.55</v>
+        <v>3320.34</v>
       </c>
       <c r="M91">
-        <v>280</v>
+        <v>3714.42</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -4959,40 +4878,40 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D92">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E92">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G92">
-        <v>64.40000000000001</v>
+        <v>63.86</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K92">
-        <v>1884.6</v>
+        <v>992.85</v>
       </c>
       <c r="L92">
-        <v>1777.69</v>
+        <v>933.53</v>
       </c>
       <c r="M92">
-        <v>2098.43</v>
+        <v>1111.49</v>
       </c>
       <c r="N92">
         <v>2</v>
@@ -5003,40 +4922,40 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D93">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G93">
-        <v>68.01000000000001</v>
+        <v>42.35</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K93">
-        <v>622.05</v>
+        <v>243.13</v>
       </c>
       <c r="L93">
-        <v>576.11</v>
+        <v>233.3</v>
       </c>
       <c r="M93">
-        <v>713.92</v>
+        <v>262.78</v>
       </c>
       <c r="N93">
         <v>2</v>
@@ -5047,40 +4966,40 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D94">
+        <v>14.46</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94">
         <v>21.69</v>
       </c>
-      <c r="E94">
-        <v>12</v>
-      </c>
-      <c r="F94" t="s">
-        <v>177</v>
-      </c>
-      <c r="G94">
-        <v>57.17</v>
-      </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K94">
-        <v>239.34</v>
+        <v>162.26</v>
       </c>
       <c r="L94">
-        <v>229.45</v>
+        <v>157.88</v>
       </c>
       <c r="M94">
-        <v>259.13</v>
+        <v>171.02</v>
       </c>
       <c r="N94">
         <v>2</v>
@@ -5091,40 +5010,40 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D95">
-        <v>21.69</v>
+        <v>14.46</v>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G95">
-        <v>30.12</v>
+        <v>58.37</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K95">
-        <v>691.55</v>
+        <v>429.95</v>
       </c>
       <c r="L95">
-        <v>660.36</v>
+        <v>406.71</v>
       </c>
       <c r="M95">
-        <v>753.92</v>
+        <v>476.44</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -5135,40 +5054,40 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D96">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G96">
-        <v>39.76</v>
+        <v>60.24</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K96">
-        <v>60.58</v>
+        <v>522.45</v>
       </c>
       <c r="L96">
-        <v>55.92</v>
+        <v>504.14</v>
       </c>
       <c r="M96">
-        <v>69.90000000000001</v>
+        <v>559.0700000000001</v>
       </c>
       <c r="N96">
         <v>2</v>
@@ -5179,40 +5098,40 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D97">
-        <v>20.48</v>
+        <v>13.25</v>
       </c>
       <c r="E97">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G97">
-        <v>39.76</v>
+        <v>45.78</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K97">
-        <v>289.6</v>
+        <v>113.33</v>
       </c>
       <c r="L97">
-        <v>271.92</v>
+        <v>109.13</v>
       </c>
       <c r="M97">
-        <v>324.97</v>
+        <v>121.73</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -5223,40 +5142,40 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D98">
-        <v>20.48</v>
+        <v>13.25</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G98">
-        <v>45.78</v>
+        <v>63.86</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K98">
-        <v>113.9</v>
+        <v>2490.2</v>
       </c>
       <c r="L98">
-        <v>108.73</v>
+        <v>2412.24</v>
       </c>
       <c r="M98">
-        <v>124.24</v>
+        <v>2646.11</v>
       </c>
       <c r="N98">
         <v>2</v>
@@ -5267,40 +5186,40 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D99">
-        <v>20.48</v>
+        <v>13.25</v>
       </c>
       <c r="E99">
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G99">
-        <v>58.37</v>
+        <v>58.01</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K99">
-        <v>427.75</v>
+        <v>667</v>
       </c>
       <c r="L99">
-        <v>404.94</v>
+        <v>630.2</v>
       </c>
       <c r="M99">
-        <v>473.36</v>
+        <v>740.6</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -5311,22 +5230,22 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D100">
-        <v>19.28</v>
+        <v>12.05</v>
       </c>
       <c r="E100">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G100">
-        <v>31.33</v>
+        <v>15.66</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5335,16 +5254,16 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K100">
-        <v>7.78</v>
+        <v>758.95</v>
       </c>
       <c r="L100">
-        <v>7.3</v>
+        <v>730.2</v>
       </c>
       <c r="M100">
-        <v>8.74</v>
+        <v>816.46</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -5355,40 +5274,40 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D101">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="E101">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G101">
-        <v>50.78</v>
+        <v>27.71</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K101">
-        <v>384.65</v>
+        <v>832.2</v>
       </c>
       <c r="L101">
-        <v>368.24</v>
+        <v>782.3</v>
       </c>
       <c r="M101">
-        <v>417.48</v>
+        <v>932</v>
       </c>
       <c r="N101">
         <v>2</v>
@@ -5399,40 +5318,40 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D102">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E102">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G102">
-        <v>24.1</v>
+        <v>18.07</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K102">
-        <v>880.8</v>
+        <v>405.85</v>
       </c>
       <c r="L102">
-        <v>832.0700000000001</v>
+        <v>389.36</v>
       </c>
       <c r="M102">
-        <v>978.27</v>
+        <v>438.84</v>
       </c>
       <c r="N102">
         <v>2</v>
@@ -5440,43 +5359,43 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D103">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G103">
-        <v>24.1</v>
+        <v>52.35</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K103">
-        <v>880.8</v>
+        <v>362.1</v>
       </c>
       <c r="L103">
-        <v>832.0700000000001</v>
+        <v>346.61</v>
       </c>
       <c r="M103">
-        <v>978.27</v>
+        <v>393.08</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -5484,43 +5403,43 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D104">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G104">
-        <v>39.76</v>
+        <v>58.19</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K104">
-        <v>1326.4</v>
+        <v>3002.4</v>
       </c>
       <c r="L104">
-        <v>1250.26</v>
+        <v>2865.33</v>
       </c>
       <c r="M104">
-        <v>1478.69</v>
+        <v>3276.54</v>
       </c>
       <c r="N104">
         <v>2</v>
@@ -5528,43 +5447,43 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D105">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E105">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="G105">
-        <v>35.12</v>
+        <v>45.78</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K105">
-        <v>960.65</v>
+        <v>778.2</v>
       </c>
       <c r="L105">
-        <v>902.42</v>
+        <v>719.3</v>
       </c>
       <c r="M105">
-        <v>1077.11</v>
+        <v>896</v>
       </c>
       <c r="N105">
         <v>2</v>
@@ -5572,25 +5491,25 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D106">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G106">
-        <v>18.07</v>
+        <v>60.78</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -5599,16 +5518,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K106">
-        <v>1421.8</v>
+        <v>3930.6</v>
       </c>
       <c r="L106">
-        <v>1353.38</v>
+        <v>3733.3</v>
       </c>
       <c r="M106">
-        <v>1558.64</v>
+        <v>4325.2</v>
       </c>
       <c r="N106">
         <v>2</v>
@@ -5616,43 +5535,43 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D107">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G107">
-        <v>57.83</v>
+        <v>10.84</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K107">
-        <v>871.7</v>
+        <v>163.21</v>
       </c>
       <c r="L107">
-        <v>804.09</v>
+        <v>157.06</v>
       </c>
       <c r="M107">
-        <v>1006.93</v>
+        <v>175.52</v>
       </c>
       <c r="N107">
         <v>2</v>
@@ -5660,43 +5579,43 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D108">
-        <v>16.87</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="G108">
-        <v>26.51</v>
+        <v>21.69</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K108">
-        <v>10.79</v>
+        <v>5003.3</v>
       </c>
       <c r="L108">
-        <v>10.48</v>
+        <v>4853.43</v>
       </c>
       <c r="M108">
-        <v>11.41</v>
+        <v>5303.03</v>
       </c>
       <c r="N108">
         <v>2</v>
@@ -5704,43 +5623,43 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D109">
-        <v>16.87</v>
+        <v>8.43</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G109">
-        <v>18.07</v>
+        <v>50.6</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K109">
-        <v>30010</v>
+        <v>4975.7</v>
       </c>
       <c r="L109">
-        <v>29119.85</v>
+        <v>4797.63</v>
       </c>
       <c r="M109">
-        <v>31790.3</v>
+        <v>5331.83</v>
       </c>
       <c r="N109">
         <v>2</v>
@@ -5748,43 +5667,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D110">
-        <v>16.87</v>
+        <v>8.43</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="G110">
-        <v>18.07</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K110">
-        <v>4438.2</v>
+        <v>615.2</v>
       </c>
       <c r="L110">
-        <v>4280.1</v>
+        <v>572.6</v>
       </c>
       <c r="M110">
-        <v>4754.39</v>
+        <v>700.4</v>
       </c>
       <c r="N110">
         <v>2</v>
@@ -5792,43 +5711,43 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D111">
-        <v>15.66</v>
+        <v>8.43</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F111" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G111">
-        <v>15.66</v>
+        <v>66.81</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K111">
-        <v>441.35</v>
+        <v>381.75</v>
       </c>
       <c r="L111">
-        <v>420.48</v>
+        <v>359.68</v>
       </c>
       <c r="M111">
-        <v>483.09</v>
+        <v>425.89</v>
       </c>
       <c r="N111">
         <v>2</v>
@@ -5836,43 +5755,43 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D112">
-        <v>15.66</v>
+        <v>7.23</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G112">
-        <v>15.66</v>
+        <v>37.35</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K112">
-        <v>2144</v>
+        <v>6348.5</v>
       </c>
       <c r="L112">
-        <v>2029.59</v>
+        <v>6111.98</v>
       </c>
       <c r="M112">
-        <v>2372.81</v>
+        <v>6821.55</v>
       </c>
       <c r="N112">
         <v>2</v>
@@ -5880,43 +5799,43 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D113">
-        <v>15.66</v>
+        <v>7.23</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G113">
-        <v>15.66</v>
+        <v>16.87</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K113">
-        <v>506.5</v>
+        <v>6520</v>
       </c>
       <c r="L113">
-        <v>492.83</v>
+        <v>6207.79</v>
       </c>
       <c r="M113">
-        <v>533.85</v>
+        <v>7144.43</v>
       </c>
       <c r="N113">
         <v>2</v>
@@ -5924,43 +5843,43 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D114">
-        <v>15.66</v>
+        <v>6.02</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G114">
-        <v>15.66</v>
+        <v>31.33</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K114">
-        <v>1050.4</v>
+        <v>1154.1</v>
       </c>
       <c r="L114">
-        <v>1007.53</v>
+        <v>1086.73</v>
       </c>
       <c r="M114">
-        <v>1136.14</v>
+        <v>1288.84</v>
       </c>
       <c r="N114">
         <v>2</v>
@@ -5968,43 +5887,43 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D115">
-        <v>14.46</v>
+        <v>6.02</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F115" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G115">
-        <v>16.87</v>
+        <v>21.69</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K115">
-        <v>819.2</v>
+        <v>15978</v>
       </c>
       <c r="L115">
-        <v>793.96</v>
+        <v>15271.81</v>
       </c>
       <c r="M115">
-        <v>869.6900000000001</v>
+        <v>17390.39</v>
       </c>
       <c r="N115">
         <v>2</v>
@@ -6012,25 +5931,25 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D116">
-        <v>14.46</v>
+        <v>6.02</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G116">
-        <v>21.69</v>
+        <v>18.07</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -6039,16 +5958,16 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K116">
-        <v>5018.8</v>
+        <v>1418.4</v>
       </c>
       <c r="L116">
-        <v>4850.26</v>
+        <v>1357.07</v>
       </c>
       <c r="M116">
-        <v>5355.89</v>
+        <v>1541.07</v>
       </c>
       <c r="N116">
         <v>2</v>
@@ -6056,43 +5975,43 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D117">
-        <v>14.46</v>
+        <v>6.02</v>
       </c>
       <c r="E117">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G117">
-        <v>55.42</v>
+        <v>35.12</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K117">
-        <v>3291.8</v>
+        <v>952.5</v>
       </c>
       <c r="L117">
-        <v>3105.3</v>
+        <v>904.0700000000001</v>
       </c>
       <c r="M117">
-        <v>3664.8</v>
+        <v>1049.37</v>
       </c>
       <c r="N117">
         <v>2</v>
@@ -6100,43 +6019,43 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D118">
-        <v>14.46</v>
+        <v>6.02</v>
       </c>
       <c r="E118">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G118">
-        <v>59.76</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K118">
-        <v>6901</v>
+        <v>3420.1</v>
       </c>
       <c r="L118">
-        <v>6622.5</v>
+        <v>3305.1</v>
       </c>
       <c r="M118">
-        <v>7458</v>
+        <v>3650.1</v>
       </c>
       <c r="N118">
         <v>2</v>
@@ -6144,25 +6063,25 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D119">
-        <v>14.46</v>
+        <v>4.82</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="G119">
-        <v>14.46</v>
+        <v>32.53</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -6171,1250 +6090,18 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K119">
-        <v>319.3</v>
+        <v>597.2</v>
       </c>
       <c r="L119">
-        <v>305.54</v>
+        <v>577.83</v>
       </c>
       <c r="M119">
-        <v>346.83</v>
+        <v>635.9299999999999</v>
       </c>
       <c r="N119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120">
-        <v>13.25</v>
-      </c>
-      <c r="E120">
-        <v>17</v>
-      </c>
-      <c r="F120" t="s">
-        <v>178</v>
-      </c>
-      <c r="G120">
-        <v>63.86</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
-        <v>190</v>
-      </c>
-      <c r="K120">
-        <v>998.55</v>
-      </c>
-      <c r="L120">
-        <v>940.37</v>
-      </c>
-      <c r="M120">
-        <v>1114.91</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121">
-        <v>12.05</v>
-      </c>
-      <c r="E121">
-        <v>12</v>
-      </c>
-      <c r="F121" t="s">
-        <v>178</v>
-      </c>
-      <c r="G121">
-        <v>34.94</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
-        <v>190</v>
-      </c>
-      <c r="K121">
-        <v>1046.05</v>
-      </c>
-      <c r="L121">
-        <v>992.86</v>
-      </c>
-      <c r="M121">
-        <v>1152.42</v>
-      </c>
-      <c r="N121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" t="s">
-        <v>165</v>
-      </c>
-      <c r="C122" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122">
-        <v>12.05</v>
-      </c>
-      <c r="E122">
-        <v>15</v>
-      </c>
-      <c r="F122" t="s">
-        <v>178</v>
-      </c>
-      <c r="G122">
-        <v>31.33</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" t="s">
-        <v>190</v>
-      </c>
-      <c r="K122">
-        <v>1151.4</v>
-      </c>
-      <c r="L122">
-        <v>1076.16</v>
-      </c>
-      <c r="M122">
-        <v>1301.89</v>
-      </c>
-      <c r="N122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" t="s">
-        <v>134</v>
-      </c>
-      <c r="B123" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" t="s">
-        <v>176</v>
-      </c>
-      <c r="D123">
-        <v>12.05</v>
-      </c>
-      <c r="E123">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>184</v>
-      </c>
-      <c r="G123">
-        <v>12.05</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123" t="s">
-        <v>190</v>
-      </c>
-      <c r="K123">
-        <v>2038</v>
-      </c>
-      <c r="L123">
-        <v>1947.02</v>
-      </c>
-      <c r="M123">
-        <v>2219.96</v>
-      </c>
-      <c r="N123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" t="s">
-        <v>135</v>
-      </c>
-      <c r="B124" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124">
-        <v>12.05</v>
-      </c>
-      <c r="E124">
-        <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>180</v>
-      </c>
-      <c r="G124">
-        <v>22.89</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>190</v>
-      </c>
-      <c r="K124">
-        <v>182.44</v>
-      </c>
-      <c r="L124">
-        <v>171.96</v>
-      </c>
-      <c r="M124">
-        <v>203.39</v>
-      </c>
-      <c r="N124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" t="s">
-        <v>160</v>
-      </c>
-      <c r="C125" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125">
-        <v>10.84</v>
-      </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>180</v>
-      </c>
-      <c r="G125">
-        <v>21.69</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>190</v>
-      </c>
-      <c r="K125">
-        <v>293.85</v>
-      </c>
-      <c r="L125">
-        <v>278.57</v>
-      </c>
-      <c r="M125">
-        <v>324.41</v>
-      </c>
-      <c r="N125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" t="s">
-        <v>137</v>
-      </c>
-      <c r="B126" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126">
-        <v>10.84</v>
-      </c>
-      <c r="E126">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>177</v>
-      </c>
-      <c r="G126">
-        <v>32.71</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>190</v>
-      </c>
-      <c r="K126">
-        <v>3940</v>
-      </c>
-      <c r="L126">
-        <v>3741.09</v>
-      </c>
-      <c r="M126">
-        <v>4337.83</v>
-      </c>
-      <c r="N126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127">
-        <v>10.84</v>
-      </c>
-      <c r="E127">
-        <v>11</v>
-      </c>
-      <c r="F127" t="s">
-        <v>182</v>
-      </c>
-      <c r="G127">
-        <v>58.19</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
-        <v>190</v>
-      </c>
-      <c r="K127">
-        <v>2980</v>
-      </c>
-      <c r="L127">
-        <v>2855.07</v>
-      </c>
-      <c r="M127">
-        <v>3229.85</v>
-      </c>
-      <c r="N127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128">
-        <v>10.84</v>
-      </c>
-      <c r="E128">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>177</v>
-      </c>
-      <c r="G128">
-        <v>16.87</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128" t="s">
-        <v>190</v>
-      </c>
-      <c r="K128">
-        <v>311.35</v>
-      </c>
-      <c r="L128">
-        <v>301.88</v>
-      </c>
-      <c r="M128">
-        <v>330.3</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129" t="s">
-        <v>163</v>
-      </c>
-      <c r="C129" t="s">
-        <v>176</v>
-      </c>
-      <c r="D129">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E129">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>178</v>
-      </c>
-      <c r="G129">
-        <v>20.48</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
-        <v>190</v>
-      </c>
-      <c r="K129">
-        <v>809.1</v>
-      </c>
-      <c r="L129">
-        <v>772.35</v>
-      </c>
-      <c r="M129">
-        <v>882.6</v>
-      </c>
-      <c r="N129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
-        <v>184</v>
-      </c>
-      <c r="G130">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
-        <v>190</v>
-      </c>
-      <c r="K130">
-        <v>13430</v>
-      </c>
-      <c r="L130">
-        <v>13258.89</v>
-      </c>
-      <c r="M130">
-        <v>13772.21</v>
-      </c>
-      <c r="N130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" t="s">
-        <v>142</v>
-      </c>
-      <c r="B131" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131">
-        <v>8.43</v>
-      </c>
-      <c r="E131">
-        <v>10</v>
-      </c>
-      <c r="F131" t="s">
-        <v>183</v>
-      </c>
-      <c r="G131">
-        <v>34.94</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>190</v>
-      </c>
-      <c r="K131">
-        <v>217.79</v>
-      </c>
-      <c r="L131">
-        <v>206.65</v>
-      </c>
-      <c r="M131">
-        <v>240.07</v>
-      </c>
-      <c r="N131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" t="s">
-        <v>172</v>
-      </c>
-      <c r="D132">
-        <v>8.43</v>
-      </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
-      <c r="F132" t="s">
-        <v>184</v>
-      </c>
-      <c r="G132">
-        <v>14.46</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132" t="s">
-        <v>190</v>
-      </c>
-      <c r="K132">
-        <v>2619.9</v>
-      </c>
-      <c r="L132">
-        <v>2559.06</v>
-      </c>
-      <c r="M132">
-        <v>2741.58</v>
-      </c>
-      <c r="N132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" t="s">
-        <v>144</v>
-      </c>
-      <c r="B133" t="s">
-        <v>165</v>
-      </c>
-      <c r="C133" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133">
-        <v>7.23</v>
-      </c>
-      <c r="E133">
-        <v>14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>178</v>
-      </c>
-      <c r="G133">
-        <v>37.35</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133" t="s">
-        <v>190</v>
-      </c>
-      <c r="K133">
-        <v>6354</v>
-      </c>
-      <c r="L133">
-        <v>6087.61</v>
-      </c>
-      <c r="M133">
-        <v>6886.77</v>
-      </c>
-      <c r="N133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" t="s">
-        <v>160</v>
-      </c>
-      <c r="C134" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134">
-        <v>7.23</v>
-      </c>
-      <c r="E134">
-        <v>15</v>
-      </c>
-      <c r="F134" t="s">
-        <v>178</v>
-      </c>
-      <c r="G134">
-        <v>30.12</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" t="s">
-        <v>190</v>
-      </c>
-      <c r="K134">
-        <v>602</v>
-      </c>
-      <c r="L134">
-        <v>569.84</v>
-      </c>
-      <c r="M134">
-        <v>666.3099999999999</v>
-      </c>
-      <c r="N134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" t="s">
-        <v>146</v>
-      </c>
-      <c r="B135" t="s">
-        <v>167</v>
-      </c>
-      <c r="C135" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135">
-        <v>7.23</v>
-      </c>
-      <c r="E135">
-        <v>23</v>
-      </c>
-      <c r="F135" t="s">
-        <v>178</v>
-      </c>
-      <c r="G135">
-        <v>19.28</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" t="s">
-        <v>190</v>
-      </c>
-      <c r="K135">
-        <v>151.12</v>
-      </c>
-      <c r="L135">
-        <v>147.51</v>
-      </c>
-      <c r="M135">
-        <v>158.35</v>
-      </c>
-      <c r="N135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" t="s">
-        <v>147</v>
-      </c>
-      <c r="B136" t="s">
-        <v>165</v>
-      </c>
-      <c r="C136" t="s">
-        <v>176</v>
-      </c>
-      <c r="D136">
-        <v>7.23</v>
-      </c>
-      <c r="E136">
-        <v>22</v>
-      </c>
-      <c r="F136" t="s">
-        <v>181</v>
-      </c>
-      <c r="G136">
-        <v>27.71</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
-        <v>190</v>
-      </c>
-      <c r="K136">
-        <v>835.55</v>
-      </c>
-      <c r="L136">
-        <v>785.21</v>
-      </c>
-      <c r="M136">
-        <v>936.22</v>
-      </c>
-      <c r="N136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" t="s">
-        <v>148</v>
-      </c>
-      <c r="B137" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" t="s">
-        <v>176</v>
-      </c>
-      <c r="D137">
-        <v>6.02</v>
-      </c>
-      <c r="E137">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>178</v>
-      </c>
-      <c r="G137">
-        <v>18.07</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
-        <v>190</v>
-      </c>
-      <c r="K137">
-        <v>404.75</v>
-      </c>
-      <c r="L137">
-        <v>388.67</v>
-      </c>
-      <c r="M137">
-        <v>436.91</v>
-      </c>
-      <c r="N137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" t="s">
-        <v>149</v>
-      </c>
-      <c r="B138" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" t="s">
-        <v>176</v>
-      </c>
-      <c r="D138">
-        <v>6.02</v>
-      </c>
-      <c r="E138">
-        <v>18</v>
-      </c>
-      <c r="F138" t="s">
-        <v>182</v>
-      </c>
-      <c r="G138">
-        <v>21.69</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138" t="s">
-        <v>190</v>
-      </c>
-      <c r="K138">
-        <v>16105</v>
-      </c>
-      <c r="L138">
-        <v>15310.71</v>
-      </c>
-      <c r="M138">
-        <v>17693.57</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" t="s">
-        <v>164</v>
-      </c>
-      <c r="C139" t="s">
-        <v>176</v>
-      </c>
-      <c r="D139">
-        <v>4.82</v>
-      </c>
-      <c r="E139">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>183</v>
-      </c>
-      <c r="G139">
-        <v>41.33</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>190</v>
-      </c>
-      <c r="K139">
-        <v>621.65</v>
-      </c>
-      <c r="L139">
-        <v>604.59</v>
-      </c>
-      <c r="M139">
-        <v>655.76</v>
-      </c>
-      <c r="N139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" t="s">
-        <v>176</v>
-      </c>
-      <c r="D140">
-        <v>4.82</v>
-      </c>
-      <c r="E140">
-        <v>21</v>
-      </c>
-      <c r="F140" t="s">
-        <v>181</v>
-      </c>
-      <c r="G140">
-        <v>26.69</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>190</v>
-      </c>
-      <c r="K140">
-        <v>343.1</v>
-      </c>
-      <c r="L140">
-        <v>337.11</v>
-      </c>
-      <c r="M140">
-        <v>355.08</v>
-      </c>
-      <c r="N140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" t="s">
-        <v>176</v>
-      </c>
-      <c r="D141">
-        <v>4.82</v>
-      </c>
-      <c r="E141">
-        <v>23</v>
-      </c>
-      <c r="F141" t="s">
-        <v>178</v>
-      </c>
-      <c r="G141">
-        <v>16.87</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" t="s">
-        <v>190</v>
-      </c>
-      <c r="K141">
-        <v>181.05</v>
-      </c>
-      <c r="L141">
-        <v>174.45</v>
-      </c>
-      <c r="M141">
-        <v>194.25</v>
-      </c>
-      <c r="N141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" t="s">
-        <v>163</v>
-      </c>
-      <c r="C142" t="s">
-        <v>176</v>
-      </c>
-      <c r="D142">
-        <v>4.82</v>
-      </c>
-      <c r="E142">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>181</v>
-      </c>
-      <c r="G142">
-        <v>21.69</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" t="s">
-        <v>190</v>
-      </c>
-      <c r="K142">
-        <v>1476.1</v>
-      </c>
-      <c r="L142">
-        <v>1409.11</v>
-      </c>
-      <c r="M142">
-        <v>1610.07</v>
-      </c>
-      <c r="N142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" t="s">
-        <v>159</v>
-      </c>
-      <c r="C143" t="s">
-        <v>176</v>
-      </c>
-      <c r="D143">
-        <v>4.82</v>
-      </c>
-      <c r="E143">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>178</v>
-      </c>
-      <c r="G143">
-        <v>26.51</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
-        <v>190</v>
-      </c>
-      <c r="K143">
-        <v>1522.8</v>
-      </c>
-      <c r="L143">
-        <v>1457.02</v>
-      </c>
-      <c r="M143">
-        <v>1654.36</v>
-      </c>
-      <c r="N143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" t="s">
-        <v>176</v>
-      </c>
-      <c r="D144">
-        <v>4.82</v>
-      </c>
-      <c r="E144">
-        <v>23</v>
-      </c>
-      <c r="F144" t="s">
-        <v>178</v>
-      </c>
-      <c r="G144">
-        <v>26.51</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>190</v>
-      </c>
-      <c r="K144">
-        <v>1390.9</v>
-      </c>
-      <c r="L144">
-        <v>1341.91</v>
-      </c>
-      <c r="M144">
-        <v>1488.87</v>
-      </c>
-      <c r="N144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" t="s">
-        <v>156</v>
-      </c>
-      <c r="B145" t="s">
-        <v>165</v>
-      </c>
-      <c r="C145" t="s">
-        <v>176</v>
-      </c>
-      <c r="D145">
-        <v>4.82</v>
-      </c>
-      <c r="E145">
-        <v>11</v>
-      </c>
-      <c r="F145" t="s">
-        <v>183</v>
-      </c>
-      <c r="G145">
-        <v>16.87</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
-        <v>190</v>
-      </c>
-      <c r="K145">
-        <v>6449.5</v>
-      </c>
-      <c r="L145">
-        <v>6164.11</v>
-      </c>
-      <c r="M145">
-        <v>7020.29</v>
-      </c>
-      <c r="N145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" t="s">
-        <v>157</v>
-      </c>
-      <c r="B146" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D146">
-        <v>4.82</v>
-      </c>
-      <c r="E146">
-        <v>17</v>
-      </c>
-      <c r="F146" t="s">
-        <v>178</v>
-      </c>
-      <c r="G146">
-        <v>32.53</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" t="s">
-        <v>190</v>
-      </c>
-      <c r="K146">
-        <v>594.8</v>
-      </c>
-      <c r="L146">
-        <v>576.4299999999999</v>
-      </c>
-      <c r="M146">
-        <v>631.53</v>
-      </c>
-      <c r="N146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" t="s">
-        <v>158</v>
-      </c>
-      <c r="B147" t="s">
-        <v>164</v>
-      </c>
-      <c r="C147" t="s">
-        <v>176</v>
-      </c>
-      <c r="D147">
-        <v>4.82</v>
-      </c>
-      <c r="E147">
-        <v>12</v>
-      </c>
-      <c r="F147" t="s">
-        <v>178</v>
-      </c>
-      <c r="G147">
-        <v>6.02</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>190</v>
-      </c>
-      <c r="K147">
-        <v>618.9</v>
-      </c>
-      <c r="L147">
-        <v>584.9299999999999</v>
-      </c>
-      <c r="M147">
-        <v>686.84</v>
-      </c>
-      <c r="N147">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="157">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,40 +58,121 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
     <t>HDFCAMC</t>
   </si>
   <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
     <t>SUMICHEM</t>
   </si>
   <si>
-    <t>INDHOTEL</t>
-  </si>
-  <si>
-    <t>BANDHANBNK</t>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>HARIOMPIPE</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
   </si>
   <si>
     <t>PAYTM</t>
   </si>
   <si>
-    <t>PNCINFRA</t>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
   </si>
   <si>
     <t>ASHAPURMIN</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>WHIRLPOOL</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
   </si>
   <si>
     <t>PEL</t>
@@ -100,339 +181,222 @@
     <t>BIOCON</t>
   </si>
   <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>AGI</t>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>GODFRYPHLP</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
+    <t>CHEMPLASTS</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>RHIM</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>TRIVENI</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>HINDCOPPER</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>PRESTIGE</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>MASTEK</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>NATIONALUM</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>LLOYDSME</t>
+  </si>
+  <si>
+    <t>SCHAEFFLER</t>
+  </si>
+  <si>
+    <t>PENIND</t>
   </si>
   <si>
     <t>ECLERX</t>
   </si>
   <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>CHEMPLASTS</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>RRKABEL</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>GODFRYPHLP</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>NATCOPHARM</t>
-  </si>
-  <si>
-    <t>ALLCARGO</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>MSUMI</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>LICHSGFIN</t>
-  </si>
-  <si>
-    <t>APTUS</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>SAMMAANCAP</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>CAMPUS</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>AETHER</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
   </si>
   <si>
     <t>LAURUSLABS</t>
   </si>
   <si>
-    <t>GODREJPROP</t>
-  </si>
-  <si>
-    <t>ACI</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>NETWORK18</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>DEEPINDS</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>PVRINOX</t>
-  </si>
-  <si>
-    <t>GILLETTE</t>
-  </si>
-  <si>
-    <t>CHALET</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>METROBRAND</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>MANKIND</t>
-  </si>
-  <si>
-    <t>DALBHARAT</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>JUBLPHARMA</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
+    <t>CENTENKA</t>
+  </si>
+  <si>
+    <t>APARINDS</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>MAPMYINDIA</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
   </si>
   <si>
     <t>PTC</t>
   </si>
   <si>
-    <t>LEMONTREE</t>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>USHAMART</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>SAIL</t>
   </si>
   <si>
     <t>TIMKEN</t>
   </si>
   <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>CSBBANK</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>TRITURBINE</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>JUBLINGREA</t>
-  </si>
-  <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
     <t>KEI</t>
   </si>
   <si>
-    <t>GPPL</t>
-  </si>
-  <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>SKFINDIA</t>
-  </si>
-  <si>
-    <t>RAMKY</t>
-  </si>
-  <si>
-    <t>USHAMART</t>
-  </si>
-  <si>
-    <t>BAYERCROP</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>AARTIPHARM</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Technology</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
@@ -445,15 +409,24 @@
     <t>Utilities</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>G_Pattern</t>
   </si>
   <si>
     <t>Building_G</t>
   </si>
   <si>
+    <t>H2_Momentum_Start</t>
+  </si>
+  <si>
     <t>Power_H2_Volume</t>
   </si>
   <si>
+    <t>Strong_H2_KC_Combo</t>
+  </si>
+  <si>
     <t>KC_Breakout_Watch</t>
   </si>
   <si>
@@ -463,18 +436,15 @@
     <t>KC_Multi_H2</t>
   </si>
   <si>
-    <t>H2_Momentum_Start</t>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>2025-07-08</t>
   </si>
   <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
@@ -484,10 +454,16 @@
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>2025-07-10</t>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
   </si>
   <si>
     <t>2025-07-09</t>
@@ -497,6 +473,9 @@
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
+  </si>
+  <si>
+    <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
   </si>
   <si>
     <t>HOLD AND MONITOR - PATTERN MATURE</t>
@@ -863,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,40 +897,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
       <c r="D2">
-        <v>100</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>99.52</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K2">
-        <v>5582</v>
+        <v>622.05</v>
       </c>
       <c r="L2">
-        <v>5335.07</v>
+        <v>600.73</v>
       </c>
       <c r="M2">
-        <v>6075.86</v>
+        <v>664.6900000000001</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -962,19 +941,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -983,19 +962,19 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K3">
-        <v>1938</v>
+        <v>6568.5</v>
       </c>
       <c r="L3">
-        <v>1843.47</v>
+        <v>6193.29</v>
       </c>
       <c r="M3">
-        <v>2127.06</v>
+        <v>7318.93</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -1006,19 +985,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>63.86</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1027,19 +1006,19 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K4">
-        <v>606.25</v>
+        <v>1956.3</v>
       </c>
       <c r="L4">
-        <v>569.04</v>
+        <v>1862.5</v>
       </c>
       <c r="M4">
-        <v>680.6799999999999</v>
+        <v>2143.9</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1050,40 +1029,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>70.42</v>
+        <v>63.86</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G5">
-        <v>70.42</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K5">
-        <v>765.2</v>
+        <v>5595.5</v>
       </c>
       <c r="L5">
-        <v>745.46</v>
+        <v>5347.93</v>
       </c>
       <c r="M5">
-        <v>804.6799999999999</v>
+        <v>6090.64</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1094,22 +1073,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" t="s">
-        <v>143</v>
-      </c>
       <c r="D6">
-        <v>56.81</v>
+        <v>57.83</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G6">
-        <v>56.81</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1118,16 +1097,16 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K6">
-        <v>187.3</v>
+        <v>594.2</v>
       </c>
       <c r="L6">
-        <v>178.49</v>
+        <v>554.33</v>
       </c>
       <c r="M6">
-        <v>204.92</v>
+        <v>673.9400000000001</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1138,40 +1117,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>143</v>
-      </c>
-      <c r="D7">
-        <v>55.42</v>
-      </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K7">
-        <v>1001.35</v>
+        <v>2326.7</v>
       </c>
       <c r="L7">
-        <v>951.08</v>
+        <v>2226.19</v>
       </c>
       <c r="M7">
-        <v>1101.89</v>
+        <v>2527.73</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1182,40 +1161,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
         <v>133</v>
       </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
       <c r="D8">
-        <v>37.35</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K8">
-        <v>315.05</v>
+        <v>449.3</v>
       </c>
       <c r="L8">
-        <v>302.79</v>
+        <v>414.61</v>
       </c>
       <c r="M8">
-        <v>339.57</v>
+        <v>518.6900000000001</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1226,40 +1205,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>144</v>
       </c>
-      <c r="D9">
-        <v>82.47</v>
-      </c>
-      <c r="E9">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>152</v>
       </c>
-      <c r="G9">
-        <v>92.47</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>160</v>
-      </c>
       <c r="K9">
-        <v>558.85</v>
+        <v>262.01</v>
       </c>
       <c r="L9">
-        <v>513.39</v>
+        <v>248.99</v>
       </c>
       <c r="M9">
-        <v>649.78</v>
+        <v>288.05</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1270,40 +1249,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>144</v>
       </c>
-      <c r="D10">
-        <v>82.47</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
-      </c>
       <c r="G10">
-        <v>88.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K10">
-        <v>2623.5</v>
+        <v>226.84</v>
       </c>
       <c r="L10">
-        <v>2430.17</v>
+        <v>213.5</v>
       </c>
       <c r="M10">
-        <v>3010.16</v>
+        <v>253.53</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1314,40 +1293,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>67.47</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
         <v>144</v>
       </c>
-      <c r="D11">
-        <v>66.63</v>
-      </c>
-      <c r="E11">
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11">
-        <v>67.83</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K11">
-        <v>1443.3</v>
+        <v>942.1</v>
       </c>
       <c r="L11">
-        <v>1358.6</v>
+        <v>874.51</v>
       </c>
       <c r="M11">
-        <v>1612.7</v>
+        <v>1077.27</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1358,19 +1337,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>60.24</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -1379,19 +1358,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K12">
-        <v>6390.5</v>
+        <v>183.32</v>
       </c>
       <c r="L12">
-        <v>6000.86</v>
+        <v>172.19</v>
       </c>
       <c r="M12">
-        <v>7169.79</v>
+        <v>205.59</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1402,19 +1381,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>57.83</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
         <v>144</v>
-      </c>
-      <c r="D13">
-        <v>59.04</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>154</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -1426,16 +1405,16 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K13">
-        <v>3886.5</v>
+        <v>3903.7</v>
       </c>
       <c r="L13">
-        <v>3634.44</v>
+        <v>3664.66</v>
       </c>
       <c r="M13">
-        <v>4390.61</v>
+        <v>4381.79</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1446,19 +1425,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>51.81</v>
+      </c>
+      <c r="E14">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>144</v>
-      </c>
-      <c r="D14">
-        <v>57.83</v>
-      </c>
-      <c r="E14">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>151</v>
       </c>
       <c r="G14">
         <v>100</v>
@@ -1467,19 +1446,19 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K14">
-        <v>1327.9</v>
+        <v>932.3</v>
       </c>
       <c r="L14">
-        <v>1255.1</v>
+        <v>894.04</v>
       </c>
       <c r="M14">
-        <v>1473.5</v>
+        <v>1008.83</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1490,19 +1469,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D15">
-        <v>57.83</v>
+        <v>45.78</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1511,19 +1490,19 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K15">
-        <v>399.15</v>
+        <v>485.3</v>
       </c>
       <c r="L15">
-        <v>380.13</v>
+        <v>466.63</v>
       </c>
       <c r="M15">
-        <v>437.19</v>
+        <v>522.65</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1534,40 +1513,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
         <v>133</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
       <c r="D16">
-        <v>51.81</v>
+        <v>43.37</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>77.83</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K16">
-        <v>485</v>
+        <v>120.38</v>
       </c>
       <c r="L16">
-        <v>464.04</v>
+        <v>108.77</v>
       </c>
       <c r="M16">
-        <v>526.9299999999999</v>
+        <v>143.61</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1578,19 +1557,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D17">
-        <v>51.81</v>
+        <v>42.17</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G17">
         <v>100</v>
@@ -1599,19 +1578,19 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K17">
-        <v>870.1</v>
+        <v>436.8</v>
       </c>
       <c r="L17">
-        <v>817.14</v>
+        <v>415.94</v>
       </c>
       <c r="M17">
-        <v>976.01</v>
+        <v>478.51</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1622,40 +1601,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D18">
-        <v>43.37</v>
+        <v>70.42</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G18">
-        <v>43.37</v>
+        <v>70.42</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K18">
-        <v>3717.5</v>
+        <v>726.1</v>
       </c>
       <c r="L18">
-        <v>3503.21</v>
+        <v>692.58</v>
       </c>
       <c r="M18">
-        <v>4146.07</v>
+        <v>793.14</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1666,40 +1645,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D19">
-        <v>43.37</v>
+        <v>66.81</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K19">
-        <v>425.65</v>
+        <v>513.75</v>
       </c>
       <c r="L19">
-        <v>405.41</v>
+        <v>462.96</v>
       </c>
       <c r="M19">
-        <v>466.12</v>
+        <v>615.3200000000001</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1710,40 +1689,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D20">
-        <v>39.76</v>
+        <v>53.55</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G20">
         <v>100</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K20">
-        <v>909.1</v>
+        <v>17386</v>
       </c>
       <c r="L20">
-        <v>870.4</v>
+        <v>15985.86</v>
       </c>
       <c r="M20">
-        <v>986.5</v>
+        <v>20186.29</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1754,40 +1733,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
         <v>135</v>
       </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
       <c r="D21">
-        <v>81.63</v>
+        <v>79.22</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G21">
-        <v>81.63</v>
+        <v>79.22</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K21">
-        <v>455.2</v>
+        <v>31150</v>
       </c>
       <c r="L21">
-        <v>429.91</v>
+        <v>29982.14</v>
       </c>
       <c r="M21">
-        <v>505.79</v>
+        <v>33485.71</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1798,40 +1777,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
       <c r="D22">
-        <v>38.55</v>
+        <v>71.63</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G22">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K22">
-        <v>1999</v>
+        <v>1049</v>
       </c>
       <c r="L22">
-        <v>1894.09</v>
+        <v>995.49</v>
       </c>
       <c r="M22">
-        <v>2208.83</v>
+        <v>1156.03</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1842,40 +1821,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
         <v>137</v>
       </c>
-      <c r="C23" t="s">
-        <v>146</v>
-      </c>
       <c r="D23">
-        <v>37.35</v>
+        <v>39.76</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K23">
-        <v>507.05</v>
+        <v>401.65</v>
       </c>
       <c r="L23">
-        <v>470.33</v>
+        <v>376.52</v>
       </c>
       <c r="M23">
-        <v>580.49</v>
+        <v>451.91</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1886,40 +1865,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D24">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K24">
-        <v>1475</v>
+        <v>2650.8</v>
       </c>
       <c r="L24">
-        <v>1371.01</v>
+        <v>2460.74</v>
       </c>
       <c r="M24">
-        <v>1682.97</v>
+        <v>3030.91</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1930,40 +1909,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D25">
-        <v>33.73</v>
+        <v>37.35</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G25">
-        <v>82.83</v>
+        <v>92.11</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K25">
-        <v>1693.7</v>
+        <v>621.2</v>
       </c>
       <c r="L25">
-        <v>1594.49</v>
+        <v>574.63</v>
       </c>
       <c r="M25">
-        <v>1892.13</v>
+        <v>714.34</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1974,40 +1953,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D26">
-        <v>33.73</v>
+        <v>37.35</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K26">
-        <v>38250</v>
+        <v>573.1</v>
       </c>
       <c r="L26">
-        <v>36211.43</v>
+        <v>524.85</v>
       </c>
       <c r="M26">
-        <v>42327.14</v>
+        <v>669.6</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2018,40 +1997,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D27">
-        <v>32.53</v>
+        <v>30.12</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27">
+        <v>70.42</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>154</v>
       </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>161</v>
-      </c>
       <c r="K27">
-        <v>397.05</v>
+        <v>1189.8</v>
       </c>
       <c r="L27">
-        <v>371.96</v>
+        <v>1120.27</v>
       </c>
       <c r="M27">
-        <v>447.24</v>
+        <v>1328.86</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2062,40 +2041,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>30.12</v>
+        <v>26.51</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G28">
-        <v>92.11</v>
+        <v>73.19</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K28">
-        <v>587</v>
+        <v>1480.6</v>
       </c>
       <c r="L28">
-        <v>545.1</v>
+        <v>1397.64</v>
       </c>
       <c r="M28">
-        <v>670.8</v>
+        <v>1646.51</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2106,22 +2085,22 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>28.92</v>
+        <v>24.1</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G29">
-        <v>90.06</v>
+        <v>76.81</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2130,16 +2109,16 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K29">
-        <v>9364</v>
+        <v>329.85</v>
       </c>
       <c r="L29">
-        <v>8616.639999999999</v>
+        <v>313.98</v>
       </c>
       <c r="M29">
-        <v>10858.71</v>
+        <v>361.59</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2150,40 +2129,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D30">
-        <v>28.92</v>
+        <v>24.1</v>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G30">
-        <v>82.65000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K30">
-        <v>3523.3</v>
+        <v>2165.6</v>
       </c>
       <c r="L30">
-        <v>3385.86</v>
+        <v>1996.94</v>
       </c>
       <c r="M30">
-        <v>3798.19</v>
+        <v>2502.91</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2194,40 +2173,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>26.51</v>
+        <v>21.69</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K31">
-        <v>703.7</v>
+        <v>681.4</v>
       </c>
       <c r="L31">
-        <v>649.46</v>
+        <v>651.8200000000001</v>
       </c>
       <c r="M31">
-        <v>812.1900000000001</v>
+        <v>740.5599999999999</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2238,40 +2217,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D32">
-        <v>26.51</v>
+        <v>20.48</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G32">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K32">
-        <v>383.3</v>
+        <v>507</v>
       </c>
       <c r="L32">
-        <v>359.99</v>
+        <v>469.12</v>
       </c>
       <c r="M32">
-        <v>429.91</v>
+        <v>582.76</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2282,40 +2261,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>26.51</v>
+        <v>20.48</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G33">
-        <v>73.01000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K33">
-        <v>2227.1</v>
+        <v>1967.7</v>
       </c>
       <c r="L33">
-        <v>2066.33</v>
+        <v>1861.82</v>
       </c>
       <c r="M33">
-        <v>2548.64</v>
+        <v>2179.46</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2326,40 +2305,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D34">
-        <v>25.3</v>
+        <v>19.28</v>
       </c>
       <c r="E34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K34">
-        <v>1033.9</v>
+        <v>675.7</v>
       </c>
       <c r="L34">
-        <v>960.47</v>
+        <v>648.3</v>
       </c>
       <c r="M34">
-        <v>1180.76</v>
+        <v>730.5</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2370,40 +2349,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
       <c r="D35">
-        <v>24.1</v>
+        <v>18.07</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35">
+        <v>82.83</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
         <v>154</v>
       </c>
-      <c r="G35">
-        <v>85.23999999999999</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>161</v>
-      </c>
       <c r="K35">
-        <v>36.75</v>
+        <v>1690.5</v>
       </c>
       <c r="L35">
-        <v>34.54</v>
+        <v>1590.76</v>
       </c>
       <c r="M35">
-        <v>41.17</v>
+        <v>1889.99</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2414,40 +2393,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D36">
-        <v>22.89</v>
+        <v>18.07</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G36">
-        <v>70.42</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K36">
-        <v>1154.2</v>
+        <v>712.6</v>
       </c>
       <c r="L36">
-        <v>1089.55</v>
+        <v>657.72</v>
       </c>
       <c r="M36">
-        <v>1283.5</v>
+        <v>822.36</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2458,22 +2437,22 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D37">
-        <v>21.69</v>
+        <v>16.87</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G37">
-        <v>93.48999999999999</v>
+        <v>76.63</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2482,16 +2461,16 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K37">
-        <v>2777.4</v>
+        <v>415.25</v>
       </c>
       <c r="L37">
-        <v>2615.31</v>
+        <v>388.49</v>
       </c>
       <c r="M37">
-        <v>3101.58</v>
+        <v>468.76</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2502,40 +2481,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D38">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G38">
-        <v>79.22</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K38">
-        <v>840.7</v>
+        <v>3494.6</v>
       </c>
       <c r="L38">
-        <v>796.17</v>
+        <v>3379.06</v>
       </c>
       <c r="M38">
-        <v>929.77</v>
+        <v>3725.69</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2546,40 +2525,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D39">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E39">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G39">
-        <v>91.27</v>
+        <v>79.22</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K39">
-        <v>43.41</v>
+        <v>856.15</v>
       </c>
       <c r="L39">
-        <v>41.18</v>
+        <v>804.61</v>
       </c>
       <c r="M39">
-        <v>47.87</v>
+        <v>959.23</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2590,40 +2569,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D40">
-        <v>18.07</v>
+        <v>15.66</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>154</v>
       </c>
-      <c r="G40">
-        <v>76.81</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40" t="s">
-        <v>161</v>
-      </c>
       <c r="K40">
-        <v>329.55</v>
+        <v>3597.3</v>
       </c>
       <c r="L40">
-        <v>313.73</v>
+        <v>3448.54</v>
       </c>
       <c r="M40">
-        <v>361.19</v>
+        <v>3894.81</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2634,19 +2613,19 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D41">
-        <v>15.66</v>
+        <v>14.46</v>
       </c>
       <c r="E41">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -2655,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K41">
-        <v>3540.6</v>
+        <v>1291.8</v>
       </c>
       <c r="L41">
-        <v>3416.1</v>
+        <v>1220.69</v>
       </c>
       <c r="M41">
-        <v>3789.6</v>
+        <v>1434.03</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2678,40 +2657,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D42">
         <v>14.46</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
         <v>154</v>
       </c>
-      <c r="G42">
-        <v>85.06</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42" t="s">
-        <v>161</v>
-      </c>
       <c r="K42">
-        <v>628.55</v>
+        <v>391</v>
       </c>
       <c r="L42">
-        <v>609.34</v>
+        <v>373.18</v>
       </c>
       <c r="M42">
-        <v>666.97</v>
+        <v>426.64</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2722,22 +2701,22 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D43">
         <v>14.46</v>
       </c>
       <c r="E43">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G43">
-        <v>97.11</v>
+        <v>100</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2746,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K43">
-        <v>351.4</v>
+        <v>37540</v>
       </c>
       <c r="L43">
-        <v>334.37</v>
+        <v>35534.21</v>
       </c>
       <c r="M43">
-        <v>385.46</v>
+        <v>41551.58</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2766,40 +2745,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D44">
-        <v>13.25</v>
+        <v>12.05</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G44">
-        <v>74.22</v>
+        <v>90.06</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K44">
-        <v>823.55</v>
+        <v>9502.5</v>
       </c>
       <c r="L44">
-        <v>807.58</v>
+        <v>8743.209999999999</v>
       </c>
       <c r="M44">
-        <v>855.49</v>
+        <v>11021.07</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2810,19 +2789,19 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D45">
         <v>12.05</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -2834,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K45">
-        <v>532.45</v>
+        <v>530</v>
       </c>
       <c r="L45">
-        <v>507.45</v>
+        <v>507.04</v>
       </c>
       <c r="M45">
-        <v>582.45</v>
+        <v>575.9299999999999</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2854,40 +2833,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D46">
-        <v>12.05</v>
+        <v>10.84</v>
       </c>
       <c r="E46">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G46">
-        <v>73.19</v>
+        <v>85.06</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K46">
-        <v>1430.3</v>
+        <v>625.35</v>
       </c>
       <c r="L46">
-        <v>1351.24</v>
+        <v>611.13</v>
       </c>
       <c r="M46">
-        <v>1588.41</v>
+        <v>653.78</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2898,40 +2877,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D47">
-        <v>10.84</v>
+        <v>47.53</v>
       </c>
       <c r="E47">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G47">
-        <v>71.98999999999999</v>
+        <v>47.53</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K47">
-        <v>656.2</v>
+        <v>32270</v>
       </c>
       <c r="L47">
-        <v>636.48</v>
+        <v>31205.71</v>
       </c>
       <c r="M47">
-        <v>695.63</v>
+        <v>34398.57</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2942,40 +2921,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D48">
-        <v>8.43</v>
+        <v>44.58</v>
       </c>
       <c r="E48">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>44.58</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K48">
-        <v>1320</v>
+        <v>459.5</v>
       </c>
       <c r="L48">
-        <v>1250.07</v>
+        <v>426.26</v>
       </c>
       <c r="M48">
-        <v>1459.86</v>
+        <v>525.99</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2986,40 +2965,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D49">
-        <v>45.78</v>
+        <v>43.37</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G49">
-        <v>47.35</v>
+        <v>43.37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K49">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L49">
-        <v>168.82</v>
+        <v>169.5</v>
       </c>
       <c r="M49">
-        <v>199.35</v>
+        <v>216.01</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3030,40 +3009,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D50">
-        <v>44.76</v>
+        <v>43.37</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
         <v>155</v>
       </c>
-      <c r="G50">
-        <v>44.76</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>162</v>
-      </c>
       <c r="K50">
-        <v>136.11</v>
+        <v>465.75</v>
       </c>
       <c r="L50">
-        <v>126.89</v>
+        <v>441.15</v>
       </c>
       <c r="M50">
-        <v>154.54</v>
+        <v>514.95</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3074,40 +3053,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D51">
-        <v>40.96</v>
+        <v>92.47</v>
       </c>
       <c r="E51">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G51">
-        <v>84.04000000000001</v>
+        <v>92.47</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K51">
-        <v>388.7</v>
+        <v>302.85</v>
       </c>
       <c r="L51">
-        <v>365.46</v>
+        <v>284.27</v>
       </c>
       <c r="M51">
-        <v>435.17</v>
+        <v>340.01</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3118,40 +3097,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D52">
-        <v>40.12</v>
+        <v>63.37</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G52">
-        <v>40.12</v>
+        <v>63.37</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K52">
-        <v>71.34</v>
+        <v>1476</v>
       </c>
       <c r="L52">
-        <v>68.48</v>
+        <v>1440.23</v>
       </c>
       <c r="M52">
-        <v>77.05</v>
+        <v>1547.54</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3162,40 +3141,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D53">
-        <v>38.55</v>
+        <v>52.17</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G53">
-        <v>38.55</v>
+        <v>52.17</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K53">
-        <v>431.7</v>
+        <v>408.8</v>
       </c>
       <c r="L53">
-        <v>402.9</v>
+        <v>382.34</v>
       </c>
       <c r="M53">
-        <v>489.3</v>
+        <v>461.71</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3206,40 +3185,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>38.55</v>
+        <v>36.14</v>
       </c>
       <c r="E54">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G54">
-        <v>40.96</v>
+        <v>36.14</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K54">
-        <v>256.49</v>
+        <v>519.45</v>
       </c>
       <c r="L54">
-        <v>238.76</v>
+        <v>488.09</v>
       </c>
       <c r="M54">
-        <v>291.95</v>
+        <v>582.16</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3250,40 +3229,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D55">
         <v>36.14</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G55">
-        <v>36.14</v>
+        <v>49.58</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K55">
-        <v>550.35</v>
+        <v>72.37</v>
       </c>
       <c r="L55">
-        <v>517.05</v>
+        <v>69.59</v>
       </c>
       <c r="M55">
-        <v>616.95</v>
+        <v>77.92</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3294,40 +3273,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D56">
-        <v>34.94</v>
+        <v>35.3</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G56">
-        <v>34.94</v>
+        <v>35.3</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K56">
-        <v>382.55</v>
+        <v>381.5</v>
       </c>
       <c r="L56">
-        <v>365.64</v>
+        <v>371.68</v>
       </c>
       <c r="M56">
-        <v>416.38</v>
+        <v>401.13</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3338,40 +3317,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D57">
         <v>34.94</v>
       </c>
       <c r="E57">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G57">
-        <v>50.78</v>
+        <v>43.37</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K57">
-        <v>765.05</v>
+        <v>1462.2</v>
       </c>
       <c r="L57">
-        <v>723.54</v>
+        <v>1382.16</v>
       </c>
       <c r="M57">
-        <v>848.08</v>
+        <v>1622.29</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3382,40 +3361,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D58">
-        <v>33.73</v>
+        <v>32.53</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G58">
-        <v>33.73</v>
+        <v>43.37</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K58">
-        <v>214.54</v>
+        <v>2753.7</v>
       </c>
       <c r="L58">
-        <v>202.79</v>
+        <v>2650.17</v>
       </c>
       <c r="M58">
-        <v>238.05</v>
+        <v>2960.76</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3426,40 +3405,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="C59" t="s">
-        <v>149</v>
-      </c>
       <c r="D59">
-        <v>33.73</v>
+        <v>31.51</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G59">
-        <v>33.73</v>
+        <v>31.51</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>298.55</v>
+        <v>276.95</v>
       </c>
       <c r="L59">
-        <v>282.12</v>
+        <v>264.1</v>
       </c>
       <c r="M59">
-        <v>331.41</v>
+        <v>302.66</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3470,40 +3449,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D60">
-        <v>32.53</v>
+        <v>31.33</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G60">
-        <v>43.37</v>
+        <v>47.53</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K60">
-        <v>2746.8</v>
+        <v>1246.9</v>
       </c>
       <c r="L60">
-        <v>2640.43</v>
+        <v>1178.74</v>
       </c>
       <c r="M60">
-        <v>2959.54</v>
+        <v>1383.21</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3514,40 +3493,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
         <v>137</v>
       </c>
-      <c r="C61" t="s">
-        <v>146</v>
-      </c>
       <c r="D61">
-        <v>32.53</v>
+        <v>30.12</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G61">
-        <v>47.53</v>
+        <v>34.94</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K61">
-        <v>1222.8</v>
+        <v>385.7</v>
       </c>
       <c r="L61">
-        <v>1150.61</v>
+        <v>368.11</v>
       </c>
       <c r="M61">
-        <v>1367.17</v>
+        <v>420.89</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3558,40 +3537,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D62">
-        <v>32.53</v>
+        <v>30.12</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G62">
-        <v>39.76</v>
+        <v>37.35</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K62">
-        <v>540.25</v>
+        <v>279.75</v>
       </c>
       <c r="L62">
-        <v>507.76</v>
+        <v>264.53</v>
       </c>
       <c r="M62">
-        <v>605.22</v>
+        <v>310.19</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3602,40 +3581,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63">
+        <v>26.51</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
         <v>147</v>
       </c>
-      <c r="D63">
-        <v>30.12</v>
-      </c>
-      <c r="E63">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>150</v>
-      </c>
       <c r="G63">
-        <v>36.14</v>
+        <v>26.51</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K63">
-        <v>824.05</v>
+        <v>364.5</v>
       </c>
       <c r="L63">
-        <v>783.39</v>
+        <v>345.05</v>
       </c>
       <c r="M63">
-        <v>905.36</v>
+        <v>403.4</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3646,22 +3625,22 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D64">
-        <v>28.92</v>
+        <v>25.3</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G64">
-        <v>33.73</v>
+        <v>53.55</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3670,16 +3649,16 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K64">
-        <v>178.55</v>
+        <v>1798</v>
       </c>
       <c r="L64">
-        <v>163.79</v>
+        <v>1711.5</v>
       </c>
       <c r="M64">
-        <v>208.07</v>
+        <v>1971</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3690,40 +3669,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D65">
-        <v>27.71</v>
+        <v>24.1</v>
       </c>
       <c r="E65">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G65">
-        <v>53.55</v>
+        <v>24.1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K65">
-        <v>1784</v>
+        <v>953.9</v>
       </c>
       <c r="L65">
-        <v>1693.64</v>
+        <v>922.9400000000001</v>
       </c>
       <c r="M65">
-        <v>1964.71</v>
+        <v>1015.82</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3734,22 +3713,22 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D66">
-        <v>26.51</v>
+        <v>24.1</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G66">
-        <v>65.06</v>
+        <v>45.78</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3758,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K66">
-        <v>828</v>
+        <v>778.45</v>
       </c>
       <c r="L66">
-        <v>790.64</v>
+        <v>715.66</v>
       </c>
       <c r="M66">
-        <v>902.71</v>
+        <v>904.03</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3778,40 +3757,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D67">
-        <v>26.51</v>
+        <v>24.1</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G67">
-        <v>26.51</v>
+        <v>63.86</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K67">
-        <v>2365</v>
+        <v>1010</v>
       </c>
       <c r="L67">
-        <v>2282.95</v>
+        <v>958.16</v>
       </c>
       <c r="M67">
-        <v>2529.1</v>
+        <v>1113.67</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3822,40 +3801,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D68">
-        <v>26.51</v>
+        <v>22.89</v>
       </c>
       <c r="E68">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G68">
-        <v>58.19</v>
+        <v>57.17</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K68">
-        <v>697.75</v>
+        <v>240.3</v>
       </c>
       <c r="L68">
-        <v>652.02</v>
+        <v>229.1</v>
       </c>
       <c r="M68">
-        <v>789.21</v>
+        <v>262.71</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3866,40 +3845,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D69">
-        <v>25.3</v>
+        <v>21.69</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G69">
-        <v>47.35</v>
+        <v>44.58</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K69">
-        <v>1282.9</v>
+        <v>2696.6</v>
       </c>
       <c r="L69">
-        <v>1209.39</v>
+        <v>2506.06</v>
       </c>
       <c r="M69">
-        <v>1429.93</v>
+        <v>3077.69</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3910,40 +3889,40 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D70">
-        <v>25.3</v>
+        <v>20.48</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G70">
-        <v>37.35</v>
+        <v>50.78</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K70">
-        <v>274.5</v>
+        <v>745.2</v>
       </c>
       <c r="L70">
-        <v>261.73</v>
+        <v>704.66</v>
       </c>
       <c r="M70">
-        <v>300.03</v>
+        <v>826.29</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3954,40 +3933,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D71">
-        <v>25.3</v>
+        <v>20.48</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G71">
-        <v>39.76</v>
+        <v>20.48</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K71">
-        <v>61.57</v>
+        <v>1443.9</v>
       </c>
       <c r="L71">
-        <v>56.88</v>
+        <v>1406.46</v>
       </c>
       <c r="M71">
-        <v>70.95999999999999</v>
+        <v>1518.78</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3998,40 +3977,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D72">
-        <v>25.3</v>
+        <v>20.48</v>
       </c>
       <c r="E72">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G72">
-        <v>31.33</v>
+        <v>20.48</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K72">
-        <v>7.74</v>
+        <v>2552.2</v>
       </c>
       <c r="L72">
-        <v>7.28</v>
+        <v>2515.29</v>
       </c>
       <c r="M72">
-        <v>8.67</v>
+        <v>2626.03</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4042,40 +4021,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D73">
-        <v>24.1</v>
+        <v>20.48</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G73">
-        <v>24.1</v>
+        <v>20.48</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K73">
-        <v>479.25</v>
+        <v>197.5</v>
       </c>
       <c r="L73">
-        <v>452.84</v>
+        <v>189.65</v>
       </c>
       <c r="M73">
-        <v>532.0599999999999</v>
+        <v>213.21</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4086,40 +4065,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74">
+        <v>19.28</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
       </c>
-      <c r="D74">
-        <v>22.89</v>
-      </c>
-      <c r="E74">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>152</v>
-      </c>
       <c r="G74">
-        <v>30.12</v>
+        <v>34.94</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K74">
-        <v>408.35</v>
+        <v>477.75</v>
       </c>
       <c r="L74">
-        <v>380.81</v>
+        <v>450.39</v>
       </c>
       <c r="M74">
-        <v>463.44</v>
+        <v>532.46</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4130,22 +4109,22 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D75">
-        <v>22.89</v>
+        <v>19.28</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G75">
-        <v>30.48</v>
+        <v>38.55</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4154,16 +4133,16 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K75">
-        <v>1017.95</v>
+        <v>544.7</v>
       </c>
       <c r="L75">
-        <v>970.42</v>
+        <v>510.51</v>
       </c>
       <c r="M75">
-        <v>1113.02</v>
+        <v>613.09</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4174,40 +4153,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D76">
-        <v>22.89</v>
+        <v>19.28</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G76">
-        <v>27.71</v>
+        <v>19.28</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K76">
-        <v>11249</v>
+        <v>1552.9</v>
       </c>
       <c r="L76">
-        <v>10582.57</v>
+        <v>1485.26</v>
       </c>
       <c r="M76">
-        <v>12581.86</v>
+        <v>1688.19</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4218,40 +4197,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D77">
-        <v>21.69</v>
+        <v>18.07</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G77">
-        <v>27.71</v>
+        <v>42.53</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K77">
-        <v>930.95</v>
+        <v>4330.5</v>
       </c>
       <c r="L77">
-        <v>880.99</v>
+        <v>4085.42</v>
       </c>
       <c r="M77">
-        <v>1030.86</v>
+        <v>4820.65</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4262,40 +4241,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78">
+        <v>18.07</v>
+      </c>
+      <c r="E78">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
       </c>
-      <c r="D78">
-        <v>21.69</v>
-      </c>
-      <c r="E78">
-        <v>19</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
-      </c>
       <c r="G78">
-        <v>41.14</v>
+        <v>22.89</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K78">
-        <v>455.55</v>
+        <v>248.92</v>
       </c>
       <c r="L78">
-        <v>444.91</v>
+        <v>233.27</v>
       </c>
       <c r="M78">
-        <v>476.83</v>
+        <v>280.23</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4306,40 +4285,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D79">
-        <v>21.69</v>
+        <v>16.87</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G79">
-        <v>21.69</v>
+        <v>61.81</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K79">
-        <v>1230.1</v>
+        <v>3740.3</v>
       </c>
       <c r="L79">
-        <v>1162.78</v>
+        <v>3518.17</v>
       </c>
       <c r="M79">
-        <v>1364.73</v>
+        <v>4184.56</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4350,40 +4329,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D80">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G80">
-        <v>30.12</v>
+        <v>22.89</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K80">
-        <v>688.95</v>
+        <v>183.09</v>
       </c>
       <c r="L80">
-        <v>658.99</v>
+        <v>173.09</v>
       </c>
       <c r="M80">
-        <v>748.88</v>
+        <v>203.09</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4394,40 +4373,40 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D81">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E81">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G81">
-        <v>55.42</v>
+        <v>59.76</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K81">
-        <v>3358</v>
+        <v>6997.5</v>
       </c>
       <c r="L81">
-        <v>3174.6</v>
+        <v>6691.57</v>
       </c>
       <c r="M81">
-        <v>3724.8</v>
+        <v>7609.36</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4438,40 +4417,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D82">
-        <v>20.48</v>
+        <v>15.66</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G82">
-        <v>59.76</v>
+        <v>15.66</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K82">
-        <v>6948</v>
+        <v>764</v>
       </c>
       <c r="L82">
-        <v>6655.64</v>
+        <v>734.04</v>
       </c>
       <c r="M82">
-        <v>7532.71</v>
+        <v>823.91</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4482,40 +4461,40 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D83">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E83">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G83">
-        <v>61.99</v>
+        <v>27.89</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K83">
-        <v>2651.2</v>
+        <v>2051.9</v>
       </c>
       <c r="L83">
-        <v>2483.49</v>
+        <v>1981.89</v>
       </c>
       <c r="M83">
-        <v>2986.63</v>
+        <v>2191.93</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4526,40 +4505,40 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D84">
-        <v>19.28</v>
+        <v>14.46</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G84">
-        <v>19.28</v>
+        <v>45.78</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K84">
-        <v>2255.1</v>
+        <v>155.55</v>
       </c>
       <c r="L84">
-        <v>2157.54</v>
+        <v>146.25</v>
       </c>
       <c r="M84">
-        <v>2450.21</v>
+        <v>174.15</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4570,40 +4549,40 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D85">
-        <v>18.07</v>
+        <v>14.46</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G85">
-        <v>39.76</v>
+        <v>61.99</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K85">
-        <v>288.69</v>
+        <v>2676.7</v>
       </c>
       <c r="L85">
-        <v>271.1</v>
+        <v>2523.97</v>
       </c>
       <c r="M85">
-        <v>323.87</v>
+        <v>2982.16</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4614,40 +4593,40 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D86">
-        <v>18.07</v>
+        <v>13.25</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G86">
-        <v>18.07</v>
+        <v>63.86</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K86">
-        <v>1232.3</v>
+        <v>2465.5</v>
       </c>
       <c r="L86">
-        <v>1171.13</v>
+        <v>2408.97</v>
       </c>
       <c r="M86">
-        <v>1354.64</v>
+        <v>2578.56</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4658,40 +4637,40 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D87">
-        <v>16.87</v>
+        <v>12.05</v>
       </c>
       <c r="E87">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G87">
-        <v>22.89</v>
+        <v>65.06</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K87">
-        <v>184</v>
+        <v>819.7</v>
       </c>
       <c r="L87">
-        <v>173.64</v>
+        <v>785.48</v>
       </c>
       <c r="M87">
-        <v>204.71</v>
+        <v>888.14</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4702,40 +4681,40 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D88">
-        <v>16.87</v>
+        <v>12.05</v>
       </c>
       <c r="E88">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G88">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K88">
-        <v>29895</v>
+        <v>532.8</v>
       </c>
       <c r="L88">
-        <v>29173.71</v>
+        <v>507.13</v>
       </c>
       <c r="M88">
-        <v>31337.57</v>
+        <v>584.14</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4746,40 +4725,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D89">
-        <v>16.87</v>
+        <v>12.05</v>
       </c>
       <c r="E89">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G89">
-        <v>65.59999999999999</v>
+        <v>26.51</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K89">
-        <v>189.19</v>
+        <v>9296.5</v>
       </c>
       <c r="L89">
-        <v>182.24</v>
+        <v>8761.360000000001</v>
       </c>
       <c r="M89">
-        <v>203.08</v>
+        <v>10366.79</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4790,40 +4769,40 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D90">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E90">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G90">
-        <v>45.78</v>
+        <v>18.07</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K90">
-        <v>154.42</v>
+        <v>402.8</v>
       </c>
       <c r="L90">
-        <v>145.04</v>
+        <v>389.94</v>
       </c>
       <c r="M90">
-        <v>173.19</v>
+        <v>428.51</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4834,22 +4813,22 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D91">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G91">
-        <v>15.66</v>
+        <v>52.35</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -4858,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K91">
-        <v>3451.7</v>
+        <v>362.1</v>
       </c>
       <c r="L91">
-        <v>3320.34</v>
+        <v>348.22</v>
       </c>
       <c r="M91">
-        <v>3714.42</v>
+        <v>389.86</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -4878,40 +4857,40 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D92">
+        <v>10.84</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92">
         <v>15.66</v>
       </c>
-      <c r="E92">
-        <v>24</v>
-      </c>
-      <c r="F92" t="s">
-        <v>152</v>
-      </c>
-      <c r="G92">
-        <v>63.86</v>
-      </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K92">
-        <v>992.85</v>
+        <v>3230</v>
       </c>
       <c r="L92">
-        <v>933.53</v>
+        <v>3132.12</v>
       </c>
       <c r="M92">
-        <v>1111.49</v>
+        <v>3425.76</v>
       </c>
       <c r="N92">
         <v>2</v>
@@ -4922,40 +4901,40 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D93">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G93">
-        <v>42.35</v>
+        <v>10.84</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K93">
-        <v>243.13</v>
+        <v>1847</v>
       </c>
       <c r="L93">
-        <v>233.3</v>
+        <v>1782.82</v>
       </c>
       <c r="M93">
-        <v>262.78</v>
+        <v>1975.35</v>
       </c>
       <c r="N93">
         <v>2</v>
@@ -4966,40 +4945,40 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D94">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G94">
-        <v>21.69</v>
+        <v>20.48</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K94">
-        <v>162.26</v>
+        <v>815.5</v>
       </c>
       <c r="L94">
-        <v>157.88</v>
+        <v>778.85</v>
       </c>
       <c r="M94">
-        <v>171.02</v>
+        <v>888.8</v>
       </c>
       <c r="N94">
         <v>2</v>
@@ -5010,22 +4989,22 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D95">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E95">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G95">
-        <v>58.37</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -5034,16 +5013,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K95">
-        <v>429.95</v>
+        <v>394.05</v>
       </c>
       <c r="L95">
-        <v>406.71</v>
+        <v>382.96</v>
       </c>
       <c r="M95">
-        <v>476.44</v>
+        <v>416.23</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -5054,40 +5033,40 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D96">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G96">
-        <v>60.24</v>
+        <v>13.25</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K96">
-        <v>522.45</v>
+        <v>688.9</v>
       </c>
       <c r="L96">
-        <v>504.14</v>
+        <v>669.84</v>
       </c>
       <c r="M96">
-        <v>559.0700000000001</v>
+        <v>727.02</v>
       </c>
       <c r="N96">
         <v>2</v>
@@ -5098,40 +5077,40 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D97">
-        <v>13.25</v>
+        <v>8.43</v>
       </c>
       <c r="E97">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G97">
-        <v>45.78</v>
+        <v>10.84</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K97">
-        <v>113.33</v>
+        <v>2008.4</v>
       </c>
       <c r="L97">
-        <v>109.13</v>
+        <v>1973.97</v>
       </c>
       <c r="M97">
-        <v>121.73</v>
+        <v>2077.26</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -5142,40 +5121,40 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D98">
-        <v>13.25</v>
+        <v>8.43</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G98">
-        <v>63.86</v>
+        <v>19.28</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K98">
-        <v>2490.2</v>
+        <v>5913.5</v>
       </c>
       <c r="L98">
-        <v>2412.24</v>
+        <v>5759.59</v>
       </c>
       <c r="M98">
-        <v>2646.11</v>
+        <v>6221.32</v>
       </c>
       <c r="N98">
         <v>2</v>
@@ -5186,40 +5165,40 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D99">
-        <v>13.25</v>
+        <v>8.43</v>
       </c>
       <c r="E99">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G99">
-        <v>58.01</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K99">
-        <v>667</v>
+        <v>191.88</v>
       </c>
       <c r="L99">
-        <v>630.2</v>
+        <v>184.86</v>
       </c>
       <c r="M99">
-        <v>740.6</v>
+        <v>205.92</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -5230,40 +5209,40 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D100">
-        <v>12.05</v>
+        <v>8.43</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G100">
-        <v>15.66</v>
+        <v>21.69</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K100">
-        <v>758.95</v>
+        <v>16244</v>
       </c>
       <c r="L100">
-        <v>730.2</v>
+        <v>15574.71</v>
       </c>
       <c r="M100">
-        <v>816.46</v>
+        <v>17582.57</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -5274,22 +5253,22 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D101">
-        <v>12.05</v>
+        <v>6.02</v>
       </c>
       <c r="E101">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G101">
-        <v>27.71</v>
+        <v>31.33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5298,16 +5277,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K101">
-        <v>832.2</v>
+        <v>1177.2</v>
       </c>
       <c r="L101">
-        <v>782.3</v>
+        <v>1109.19</v>
       </c>
       <c r="M101">
-        <v>932</v>
+        <v>1313.23</v>
       </c>
       <c r="N101">
         <v>2</v>
@@ -5318,40 +5297,40 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D102">
-        <v>10.84</v>
+        <v>6.02</v>
       </c>
       <c r="E102">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G102">
-        <v>18.07</v>
+        <v>66.81</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K102">
-        <v>405.85</v>
+        <v>383.9</v>
       </c>
       <c r="L102">
-        <v>389.36</v>
+        <v>363.11</v>
       </c>
       <c r="M102">
-        <v>438.84</v>
+        <v>425.48</v>
       </c>
       <c r="N102">
         <v>2</v>
@@ -5362,40 +5341,40 @@
         <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D103">
-        <v>10.84</v>
+        <v>6.02</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G103">
-        <v>52.35</v>
+        <v>34.94</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K103">
-        <v>362.1</v>
+        <v>218.6</v>
       </c>
       <c r="L103">
-        <v>346.61</v>
+        <v>208.15</v>
       </c>
       <c r="M103">
-        <v>393.08</v>
+        <v>239.5</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -5406,22 +5385,22 @@
         <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D104">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E104">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G104">
-        <v>58.19</v>
+        <v>15.66</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -5430,16 +5409,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K104">
-        <v>3002.4</v>
+        <v>138.61</v>
       </c>
       <c r="L104">
-        <v>2865.33</v>
+        <v>133.06</v>
       </c>
       <c r="M104">
-        <v>3276.54</v>
+        <v>149.71</v>
       </c>
       <c r="N104">
         <v>2</v>
@@ -5450,22 +5429,22 @@
         <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D105">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G105">
-        <v>45.78</v>
+        <v>15.66</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5474,16 +5453,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K105">
-        <v>778.2</v>
+        <v>3478.2</v>
       </c>
       <c r="L105">
-        <v>719.3</v>
+        <v>3343.36</v>
       </c>
       <c r="M105">
-        <v>896</v>
+        <v>3747.88</v>
       </c>
       <c r="N105">
         <v>2</v>
@@ -5494,40 +5473,40 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D106">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E106">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G106">
         <v>60.78</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K106">
-        <v>3930.6</v>
+        <v>4004.6</v>
       </c>
       <c r="L106">
-        <v>3733.3</v>
+        <v>3793.17</v>
       </c>
       <c r="M106">
-        <v>4325.2</v>
+        <v>4427.46</v>
       </c>
       <c r="N106">
         <v>2</v>
@@ -5538,570 +5517,42 @@
         <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D107">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G107">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K107">
-        <v>163.21</v>
+        <v>2751.4</v>
       </c>
       <c r="L107">
-        <v>157.06</v>
+        <v>2658.48</v>
       </c>
       <c r="M107">
-        <v>175.52</v>
+        <v>2937.25</v>
       </c>
       <c r="N107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" t="s">
-        <v>147</v>
-      </c>
-      <c r="D108">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E108">
-        <v>16</v>
-      </c>
-      <c r="F108" t="s">
-        <v>154</v>
-      </c>
-      <c r="G108">
-        <v>21.69</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>163</v>
-      </c>
-      <c r="K108">
-        <v>5003.3</v>
-      </c>
-      <c r="L108">
-        <v>4853.43</v>
-      </c>
-      <c r="M108">
-        <v>5303.03</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" t="s">
-        <v>133</v>
-      </c>
-      <c r="C109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D109">
-        <v>8.43</v>
-      </c>
-      <c r="E109">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>152</v>
-      </c>
-      <c r="G109">
-        <v>50.6</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>163</v>
-      </c>
-      <c r="K109">
-        <v>4975.7</v>
-      </c>
-      <c r="L109">
-        <v>4797.63</v>
-      </c>
-      <c r="M109">
-        <v>5331.83</v>
-      </c>
-      <c r="N109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110" t="s">
-        <v>147</v>
-      </c>
-      <c r="D110">
-        <v>8.43</v>
-      </c>
-      <c r="E110">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>163</v>
-      </c>
-      <c r="K110">
-        <v>615.2</v>
-      </c>
-      <c r="L110">
-        <v>572.6</v>
-      </c>
-      <c r="M110">
-        <v>700.4</v>
-      </c>
-      <c r="N110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" t="s">
-        <v>123</v>
-      </c>
-      <c r="B111" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" t="s">
-        <v>147</v>
-      </c>
-      <c r="D111">
-        <v>8.43</v>
-      </c>
-      <c r="E111">
-        <v>28</v>
-      </c>
-      <c r="F111" t="s">
-        <v>152</v>
-      </c>
-      <c r="G111">
-        <v>66.81</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>163</v>
-      </c>
-      <c r="K111">
-        <v>381.75</v>
-      </c>
-      <c r="L111">
-        <v>359.68</v>
-      </c>
-      <c r="M111">
-        <v>425.89</v>
-      </c>
-      <c r="N111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" t="s">
-        <v>147</v>
-      </c>
-      <c r="D112">
-        <v>7.23</v>
-      </c>
-      <c r="E112">
-        <v>17</v>
-      </c>
-      <c r="F112" t="s">
-        <v>152</v>
-      </c>
-      <c r="G112">
-        <v>37.35</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>163</v>
-      </c>
-      <c r="K112">
-        <v>6348.5</v>
-      </c>
-      <c r="L112">
-        <v>6111.98</v>
-      </c>
-      <c r="M112">
-        <v>6821.55</v>
-      </c>
-      <c r="N112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" t="s">
-        <v>125</v>
-      </c>
-      <c r="B113" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" t="s">
-        <v>147</v>
-      </c>
-      <c r="D113">
-        <v>7.23</v>
-      </c>
-      <c r="E113">
-        <v>17</v>
-      </c>
-      <c r="F113" t="s">
-        <v>157</v>
-      </c>
-      <c r="G113">
-        <v>16.87</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>163</v>
-      </c>
-      <c r="K113">
-        <v>6520</v>
-      </c>
-      <c r="L113">
-        <v>6207.79</v>
-      </c>
-      <c r="M113">
-        <v>7144.43</v>
-      </c>
-      <c r="N113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" t="s">
-        <v>147</v>
-      </c>
-      <c r="D114">
-        <v>6.02</v>
-      </c>
-      <c r="E114">
-        <v>21</v>
-      </c>
-      <c r="F114" t="s">
-        <v>152</v>
-      </c>
-      <c r="G114">
-        <v>31.33</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>163</v>
-      </c>
-      <c r="K114">
-        <v>1154.1</v>
-      </c>
-      <c r="L114">
-        <v>1086.73</v>
-      </c>
-      <c r="M114">
-        <v>1288.84</v>
-      </c>
-      <c r="N114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" t="s">
-        <v>147</v>
-      </c>
-      <c r="D115">
-        <v>6.02</v>
-      </c>
-      <c r="E115">
-        <v>25</v>
-      </c>
-      <c r="F115" t="s">
-        <v>158</v>
-      </c>
-      <c r="G115">
-        <v>21.69</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>163</v>
-      </c>
-      <c r="K115">
-        <v>15978</v>
-      </c>
-      <c r="L115">
-        <v>15271.81</v>
-      </c>
-      <c r="M115">
-        <v>17390.39</v>
-      </c>
-      <c r="N115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116">
-        <v>6.02</v>
-      </c>
-      <c r="E116">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>152</v>
-      </c>
-      <c r="G116">
-        <v>18.07</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>163</v>
-      </c>
-      <c r="K116">
-        <v>1418.4</v>
-      </c>
-      <c r="L116">
-        <v>1357.07</v>
-      </c>
-      <c r="M116">
-        <v>1541.07</v>
-      </c>
-      <c r="N116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" t="s">
-        <v>147</v>
-      </c>
-      <c r="D117">
-        <v>6.02</v>
-      </c>
-      <c r="E117">
-        <v>21</v>
-      </c>
-      <c r="F117" t="s">
-        <v>158</v>
-      </c>
-      <c r="G117">
-        <v>35.12</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>163</v>
-      </c>
-      <c r="K117">
-        <v>952.5</v>
-      </c>
-      <c r="L117">
-        <v>904.0700000000001</v>
-      </c>
-      <c r="M117">
-        <v>1049.37</v>
-      </c>
-      <c r="N117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" t="s">
-        <v>130</v>
-      </c>
-      <c r="B118" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" t="s">
-        <v>147</v>
-      </c>
-      <c r="D118">
-        <v>6.02</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>153</v>
-      </c>
-      <c r="G118">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>163</v>
-      </c>
-      <c r="K118">
-        <v>3420.1</v>
-      </c>
-      <c r="L118">
-        <v>3305.1</v>
-      </c>
-      <c r="M118">
-        <v>3650.1</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" t="s">
-        <v>131</v>
-      </c>
-      <c r="B119" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" t="s">
-        <v>147</v>
-      </c>
-      <c r="D119">
-        <v>4.82</v>
-      </c>
-      <c r="E119">
-        <v>24</v>
-      </c>
-      <c r="F119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G119">
-        <v>32.53</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>163</v>
-      </c>
-      <c r="K119">
-        <v>597.2</v>
-      </c>
-      <c r="L119">
-        <v>577.83</v>
-      </c>
-      <c r="M119">
-        <v>635.9299999999999</v>
-      </c>
-      <c r="N119">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="158">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,40 +61,46 @@
     <t>AMBUJACEM</t>
   </si>
   <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
     <t>CRAFTSMAN</t>
   </si>
   <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>DALBHARAT</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
+    <t>DELHIVERY</t>
   </si>
   <si>
     <t>VBL</t>
@@ -103,291 +109,288 @@
     <t>STLTECH</t>
   </si>
   <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
     <t>UPL</t>
   </si>
   <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
     <t>HARIOMPIPE</t>
   </si>
   <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>CHEMPLASTS</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
   </si>
   <si>
     <t>NUVOCO</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>GODFRYPHLP</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>LICHSGFIN</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>CHEMPLASTS</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
     <t>ICICIBANK</t>
   </si>
   <si>
-    <t>SWIGGY</t>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
+  </si>
+  <si>
+    <t>CHENNPETRO</t>
   </si>
   <si>
     <t>RHIM</t>
   </si>
   <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>TRIVENI</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>HINDCOPPER</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>MASTEK</t>
   </si>
   <si>
     <t>PRESTIGE</t>
   </si>
   <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>MASTEK</t>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
   </si>
   <si>
     <t>KIMS</t>
   </si>
   <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
     <t>BSE</t>
   </si>
   <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>SHRIRAMPPS</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>UBL</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>HAVELLS</t>
+  </si>
+  <si>
     <t>NATIONALUM</t>
   </si>
   <si>
-    <t>TIMETECHNO</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>LLOYDSME</t>
-  </si>
-  <si>
-    <t>SCHAEFFLER</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>LEMONTREE</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>CENTENKA</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>MAPMYINDIA</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
   </si>
   <si>
     <t>BIKAJI</t>
   </si>
   <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>MANKIND</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>CENTENKA</t>
+    <t>JBCHEPHARM</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>DIXON</t>
   </si>
   <si>
     <t>APARINDS</t>
   </si>
   <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>MAPMYINDIA</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
+    <t>TFCILTD</t>
   </si>
   <si>
     <t>PTC</t>
   </si>
   <si>
-    <t>DIXON</t>
-  </si>
-  <si>
     <t>EIDPARRY</t>
   </si>
   <si>
-    <t>USHAMART</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>TIMKEN</t>
+    <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
   </si>
   <si>
     <t>KEI</t>
   </si>
   <si>
-    <t>RADICO</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
@@ -400,18 +403,18 @@
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
     <t>G_Pattern</t>
   </si>
   <si>
@@ -424,18 +427,18 @@
     <t>Power_H2_Volume</t>
   </si>
   <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
+    <t>KC_Multi_H2</t>
+  </si>
+  <si>
     <t>Strong_H2_KC_Combo</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
-    <t>KC_Multi_H2</t>
-  </si>
-  <si>
     <t>2025-07-07</t>
   </si>
   <si>
@@ -445,22 +448,22 @@
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
     <t>2025-07-10</t>
   </si>
   <si>
     <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-07-21</t>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,40 +900,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2">
-        <v>95.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G2">
-        <v>99.52</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2">
-        <v>622.05</v>
+        <v>621.95</v>
       </c>
       <c r="L2">
-        <v>600.73</v>
+        <v>600.63</v>
       </c>
       <c r="M2">
-        <v>664.6900000000001</v>
+        <v>664.59</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -941,19 +944,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>87.29000000000001</v>
+        <v>63.86</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -962,19 +965,19 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3">
-        <v>6568.5</v>
+        <v>1943.2</v>
       </c>
       <c r="L3">
-        <v>6193.29</v>
+        <v>1849.4</v>
       </c>
       <c r="M3">
-        <v>7318.93</v>
+        <v>2130.8</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -985,19 +988,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>63.86</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1006,19 +1009,19 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K4">
-        <v>1956.3</v>
+        <v>5592</v>
       </c>
       <c r="L4">
-        <v>1862.5</v>
+        <v>5344.43</v>
       </c>
       <c r="M4">
-        <v>2143.9</v>
+        <v>6087.14</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1029,19 +1032,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>63.86</v>
+        <v>57.83</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1050,19 +1053,19 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5">
-        <v>5595.5</v>
+        <v>594.6</v>
       </c>
       <c r="L5">
-        <v>5347.93</v>
+        <v>554.73</v>
       </c>
       <c r="M5">
-        <v>6090.64</v>
+        <v>674.34</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1073,40 +1076,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>57.83</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K6">
-        <v>594.2</v>
+        <v>221.44</v>
       </c>
       <c r="L6">
-        <v>554.33</v>
+        <v>207.98</v>
       </c>
       <c r="M6">
-        <v>673.9400000000001</v>
+        <v>248.36</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1117,19 +1120,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1138,19 +1141,19 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K7">
-        <v>2326.7</v>
+        <v>2319.1</v>
       </c>
       <c r="L7">
-        <v>2226.19</v>
+        <v>2218.59</v>
       </c>
       <c r="M7">
-        <v>2527.73</v>
+        <v>2520.13</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1161,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1182,19 +1185,19 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K8">
-        <v>449.3</v>
+        <v>259.88</v>
       </c>
       <c r="L8">
-        <v>414.61</v>
+        <v>246.86</v>
       </c>
       <c r="M8">
-        <v>518.6900000000001</v>
+        <v>285.92</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1205,16 +1208,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>144</v>
@@ -1226,19 +1229,19 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9">
-        <v>262.01</v>
+        <v>455.5</v>
       </c>
       <c r="L9">
-        <v>248.99</v>
+        <v>419.81</v>
       </c>
       <c r="M9">
-        <v>288.05</v>
+        <v>526.89</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1249,19 +1252,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -1270,19 +1273,19 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10">
-        <v>226.84</v>
+        <v>1052.8</v>
       </c>
       <c r="L10">
-        <v>213.5</v>
+        <v>999.14</v>
       </c>
       <c r="M10">
-        <v>253.53</v>
+        <v>1160.11</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1293,16 +1296,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D11">
         <v>67.47</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>144</v>
@@ -1317,16 +1320,16 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K11">
-        <v>942.1</v>
+        <v>967.8</v>
       </c>
       <c r="L11">
-        <v>874.51</v>
+        <v>894.5599999999999</v>
       </c>
       <c r="M11">
-        <v>1077.27</v>
+        <v>1114.29</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1337,16 +1340,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D12">
         <v>60.24</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>144</v>
@@ -1358,19 +1361,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12">
-        <v>183.32</v>
+        <v>3939.4</v>
       </c>
       <c r="L12">
-        <v>172.19</v>
+        <v>3692.61</v>
       </c>
       <c r="M12">
-        <v>205.59</v>
+        <v>4432.97</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1381,16 +1384,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>57.83</v>
+        <v>60.24</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1402,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13">
-        <v>3903.7</v>
+        <v>183.6</v>
       </c>
       <c r="L13">
-        <v>3664.66</v>
+        <v>172.47</v>
       </c>
       <c r="M13">
-        <v>4381.79</v>
+        <v>205.87</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1428,13 +1431,13 @@
         <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D14">
-        <v>51.81</v>
+        <v>57.83</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>144</v>
@@ -1446,19 +1449,19 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14">
-        <v>932.3</v>
+        <v>934.55</v>
       </c>
       <c r="L14">
-        <v>894.04</v>
+        <v>895.54</v>
       </c>
       <c r="M14">
-        <v>1008.83</v>
+        <v>1012.56</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1469,19 +1472,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15">
-        <v>45.78</v>
+        <v>57.83</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1490,19 +1493,19 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15">
-        <v>485.3</v>
+        <v>6524.5</v>
       </c>
       <c r="L15">
-        <v>466.63</v>
+        <v>6148.71</v>
       </c>
       <c r="M15">
-        <v>522.65</v>
+        <v>7276.07</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1513,22 +1516,22 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>43.37</v>
+        <v>46.99</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G16">
-        <v>77.83</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1537,16 +1540,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>120.38</v>
+        <v>438.7</v>
       </c>
       <c r="L16">
-        <v>108.77</v>
+        <v>417.84</v>
       </c>
       <c r="M16">
-        <v>143.61</v>
+        <v>480.41</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1557,19 +1560,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D17">
-        <v>42.17</v>
+        <v>45.78</v>
       </c>
       <c r="E17">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>100</v>
@@ -1578,19 +1581,19 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17">
-        <v>436.8</v>
+        <v>485.2</v>
       </c>
       <c r="L17">
-        <v>415.94</v>
+        <v>466.62</v>
       </c>
       <c r="M17">
-        <v>478.51</v>
+        <v>522.37</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1607,34 +1610,34 @@
         <v>134</v>
       </c>
       <c r="D18">
-        <v>70.42</v>
+        <v>38.55</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18">
-        <v>70.42</v>
+        <v>77.83</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>153</v>
       </c>
       <c r="K18">
-        <v>726.1</v>
+        <v>119.75</v>
       </c>
       <c r="L18">
-        <v>692.58</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>793.14</v>
+        <v>143.25</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1645,40 +1648,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19">
-        <v>66.81</v>
+        <v>71.63</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19">
-        <v>91.27</v>
+        <v>71.63</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19">
-        <v>513.75</v>
+        <v>721.45</v>
       </c>
       <c r="L19">
-        <v>462.96</v>
+        <v>687.29</v>
       </c>
       <c r="M19">
-        <v>615.3200000000001</v>
+        <v>789.76</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1692,16 +1695,16 @@
         <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20">
         <v>53.55</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -1713,16 +1716,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20">
-        <v>17386</v>
+        <v>17488</v>
       </c>
       <c r="L20">
-        <v>15985.86</v>
+        <v>16087.86</v>
       </c>
       <c r="M20">
-        <v>20186.29</v>
+        <v>20288.29</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1733,40 +1736,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21">
-        <v>79.22</v>
+        <v>92.47</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G21">
-        <v>79.22</v>
+        <v>92.47</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K21">
-        <v>31150</v>
+        <v>299.8</v>
       </c>
       <c r="L21">
-        <v>29982.14</v>
+        <v>281.22</v>
       </c>
       <c r="M21">
-        <v>33485.71</v>
+        <v>336.96</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1777,40 +1780,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>136</v>
       </c>
       <c r="D22">
-        <v>71.63</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22">
-        <v>1049</v>
+        <v>31215</v>
       </c>
       <c r="L22">
-        <v>995.49</v>
+        <v>29947.14</v>
       </c>
       <c r="M22">
-        <v>1156.03</v>
+        <v>33750.71</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1824,37 +1827,37 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23">
-        <v>39.76</v>
+        <v>82.83</v>
       </c>
       <c r="E23">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G23">
-        <v>84.04000000000001</v>
+        <v>82.83</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K23">
-        <v>401.65</v>
+        <v>415</v>
       </c>
       <c r="L23">
-        <v>376.52</v>
+        <v>388.54</v>
       </c>
       <c r="M23">
-        <v>451.91</v>
+        <v>467.91</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1865,40 +1868,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>137</v>
       </c>
       <c r="D24">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G24">
-        <v>96.08</v>
+        <v>92.11</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K24">
-        <v>2650.8</v>
+        <v>622.45</v>
       </c>
       <c r="L24">
-        <v>2460.74</v>
+        <v>575.88</v>
       </c>
       <c r="M24">
-        <v>3030.91</v>
+        <v>715.59</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1909,7 +1912,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>137</v>
@@ -1918,31 +1921,31 @@
         <v>37.35</v>
       </c>
       <c r="E25">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G25">
-        <v>92.11</v>
+        <v>96.08</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25">
-        <v>621.2</v>
+        <v>2647</v>
       </c>
       <c r="L25">
-        <v>574.63</v>
+        <v>2456.94</v>
       </c>
       <c r="M25">
-        <v>714.34</v>
+        <v>3027.11</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1953,7 +1956,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
         <v>137</v>
@@ -1962,13 +1965,13 @@
         <v>37.35</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>76.81</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1977,16 +1980,16 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26">
-        <v>573.1</v>
+        <v>340.05</v>
       </c>
       <c r="L26">
-        <v>524.85</v>
+        <v>322.69</v>
       </c>
       <c r="M26">
-        <v>669.6</v>
+        <v>374.78</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2003,13 +2006,13 @@
         <v>137</v>
       </c>
       <c r="D27">
-        <v>30.12</v>
+        <v>36.14</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G27">
         <v>70.42</v>
@@ -2018,19 +2021,19 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K27">
-        <v>1189.8</v>
+        <v>1191.7</v>
       </c>
       <c r="L27">
-        <v>1120.27</v>
+        <v>1121.29</v>
       </c>
       <c r="M27">
-        <v>1328.86</v>
+        <v>1332.53</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2041,40 +2044,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
         <v>137</v>
       </c>
       <c r="D28">
-        <v>26.51</v>
+        <v>33.73</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28">
-        <v>73.19</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K28">
-        <v>1480.6</v>
+        <v>554.6</v>
       </c>
       <c r="L28">
-        <v>1397.64</v>
+        <v>505.84</v>
       </c>
       <c r="M28">
-        <v>1646.51</v>
+        <v>652.11</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2085,40 +2088,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29">
-        <v>24.1</v>
+        <v>31.33</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29">
-        <v>76.81</v>
+        <v>91.27</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29">
-        <v>329.85</v>
+        <v>506.4</v>
       </c>
       <c r="L29">
-        <v>313.98</v>
+        <v>455.61</v>
       </c>
       <c r="M29">
-        <v>361.59</v>
+        <v>607.97</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2129,40 +2132,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
         <v>137</v>
       </c>
       <c r="D30">
-        <v>24.1</v>
+        <v>28.92</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G30">
-        <v>73.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30">
-        <v>2165.6</v>
+        <v>513.8</v>
       </c>
       <c r="L30">
-        <v>1996.94</v>
+        <v>475.27</v>
       </c>
       <c r="M30">
-        <v>2502.91</v>
+        <v>590.86</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2173,40 +2176,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
         <v>138</v>
       </c>
       <c r="D31">
-        <v>21.69</v>
+        <v>20.48</v>
       </c>
       <c r="E31">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
         <v>141</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K31">
-        <v>681.4</v>
+        <v>1963.8</v>
       </c>
       <c r="L31">
-        <v>651.8200000000001</v>
+        <v>1861.13</v>
       </c>
       <c r="M31">
-        <v>740.5599999999999</v>
+        <v>2169.14</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2217,7 +2220,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -2226,31 +2229,31 @@
         <v>20.48</v>
       </c>
       <c r="E32">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32">
-        <v>507</v>
+        <v>2159</v>
       </c>
       <c r="L32">
-        <v>469.12</v>
+        <v>1990.34</v>
       </c>
       <c r="M32">
-        <v>582.76</v>
+        <v>2496.31</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2261,40 +2264,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
         <v>138</v>
       </c>
       <c r="D33">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G33">
-        <v>86.45</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33">
-        <v>1967.7</v>
+        <v>674.8</v>
       </c>
       <c r="L33">
-        <v>1861.82</v>
+        <v>647.17</v>
       </c>
       <c r="M33">
-        <v>2179.46</v>
+        <v>730.0599999999999</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2308,37 +2311,37 @@
         <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34">
-        <v>19.28</v>
+        <v>18.07</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>141</v>
       </c>
       <c r="G34">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K34">
-        <v>675.7</v>
+        <v>710.5</v>
       </c>
       <c r="L34">
-        <v>648.3</v>
+        <v>655.62</v>
       </c>
       <c r="M34">
-        <v>730.5</v>
+        <v>820.26</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2352,37 +2355,37 @@
         <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35">
         <v>18.07</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G35">
-        <v>82.83</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35">
-        <v>1690.5</v>
+        <v>3501.4</v>
       </c>
       <c r="L35">
-        <v>1590.76</v>
+        <v>3385.86</v>
       </c>
       <c r="M35">
-        <v>1889.99</v>
+        <v>3732.49</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2402,13 +2405,13 @@
         <v>18.07</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>73.19</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2417,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K36">
-        <v>712.6</v>
+        <v>1471.6</v>
       </c>
       <c r="L36">
-        <v>657.72</v>
+        <v>1388.6</v>
       </c>
       <c r="M36">
-        <v>822.36</v>
+        <v>1637.6</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2437,7 +2440,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
         <v>138</v>
@@ -2446,31 +2449,31 @@
         <v>16.87</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G37">
-        <v>76.63</v>
+        <v>79.22</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K37">
-        <v>415.25</v>
+        <v>857.35</v>
       </c>
       <c r="L37">
-        <v>388.49</v>
+        <v>805.16</v>
       </c>
       <c r="M37">
-        <v>468.76</v>
+        <v>961.72</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2481,7 +2484,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>138</v>
@@ -2490,7 +2493,7 @@
         <v>16.87</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
         <v>141</v>
@@ -2499,22 +2502,22 @@
         <v>82.65000000000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K38">
-        <v>3494.6</v>
+        <v>413.5</v>
       </c>
       <c r="L38">
-        <v>3379.06</v>
+        <v>386.74</v>
       </c>
       <c r="M38">
-        <v>3725.69</v>
+        <v>467.01</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2534,31 +2537,31 @@
         <v>16.87</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39">
-        <v>79.22</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K39">
-        <v>856.15</v>
+        <v>675</v>
       </c>
       <c r="L39">
-        <v>804.61</v>
+        <v>645.05</v>
       </c>
       <c r="M39">
-        <v>959.23</v>
+        <v>734.9</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2569,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>138</v>
@@ -2578,10 +2581,10 @@
         <v>15.66</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -2593,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K40">
-        <v>3597.3</v>
+        <v>3589</v>
       </c>
       <c r="L40">
-        <v>3448.54</v>
+        <v>3442.21</v>
       </c>
       <c r="M40">
-        <v>3894.81</v>
+        <v>3882.58</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2622,10 +2625,10 @@
         <v>14.46</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G41">
         <v>100</v>
@@ -2637,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K41">
-        <v>1291.8</v>
+        <v>1288.5</v>
       </c>
       <c r="L41">
-        <v>1220.69</v>
+        <v>1217.39</v>
       </c>
       <c r="M41">
-        <v>1434.03</v>
+        <v>1430.73</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2657,7 +2660,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
         <v>138</v>
@@ -2666,31 +2669,31 @@
         <v>14.46</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K42">
-        <v>391</v>
+        <v>37800</v>
       </c>
       <c r="L42">
-        <v>373.18</v>
+        <v>35639.29</v>
       </c>
       <c r="M42">
-        <v>426.64</v>
+        <v>42121.43</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2701,7 +2704,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>138</v>
@@ -2710,13 +2713,13 @@
         <v>14.46</v>
       </c>
       <c r="E43">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2725,16 +2728,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K43">
-        <v>37540</v>
+        <v>1675</v>
       </c>
       <c r="L43">
-        <v>35534.21</v>
+        <v>1573.54</v>
       </c>
       <c r="M43">
-        <v>41551.58</v>
+        <v>1877.91</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2745,22 +2748,22 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44">
         <v>12.05</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G44">
-        <v>90.06</v>
+        <v>100</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2769,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K44">
-        <v>9502.5</v>
+        <v>530.15</v>
       </c>
       <c r="L44">
-        <v>8743.209999999999</v>
+        <v>506.94</v>
       </c>
       <c r="M44">
-        <v>11021.07</v>
+        <v>576.58</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2789,40 +2792,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45">
-        <v>12.05</v>
+        <v>48.73</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>48.73</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K45">
-        <v>530</v>
+        <v>32305</v>
       </c>
       <c r="L45">
-        <v>507.04</v>
+        <v>31227.14</v>
       </c>
       <c r="M45">
-        <v>575.9299999999999</v>
+        <v>34460.71</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2833,40 +2836,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>10.84</v>
+        <v>44.94</v>
       </c>
       <c r="E46">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G46">
-        <v>85.06</v>
+        <v>44.94</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K46">
-        <v>625.35</v>
+        <v>1461.4</v>
       </c>
       <c r="L46">
-        <v>611.13</v>
+        <v>1408.06</v>
       </c>
       <c r="M46">
-        <v>653.78</v>
+        <v>1568.08</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2877,40 +2880,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47">
-        <v>47.53</v>
+        <v>44.58</v>
       </c>
       <c r="E47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G47">
-        <v>47.53</v>
+        <v>44.58</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47">
-        <v>32270</v>
+        <v>457.8</v>
       </c>
       <c r="L47">
-        <v>31205.71</v>
+        <v>424.56</v>
       </c>
       <c r="M47">
-        <v>34398.57</v>
+        <v>524.29</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2921,40 +2924,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48">
         <v>44.58</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G48">
-        <v>44.58</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48">
-        <v>459.5</v>
+        <v>465.6</v>
       </c>
       <c r="L48">
-        <v>426.26</v>
+        <v>441</v>
       </c>
       <c r="M48">
-        <v>525.99</v>
+        <v>514.8</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2974,31 +2977,31 @@
         <v>43.37</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G49">
         <v>43.37</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49">
-        <v>185</v>
+        <v>1465.3</v>
       </c>
       <c r="L49">
-        <v>169.5</v>
+        <v>1385.26</v>
       </c>
       <c r="M49">
-        <v>216.01</v>
+        <v>1625.39</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3009,40 +3012,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50">
         <v>43.37</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>43.37</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50">
-        <v>465.75</v>
+        <v>264.4</v>
       </c>
       <c r="L50">
-        <v>441.15</v>
+        <v>243.73</v>
       </c>
       <c r="M50">
-        <v>514.95</v>
+        <v>305.73</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3053,40 +3056,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D51">
-        <v>92.47</v>
+        <v>43.37</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51">
-        <v>92.47</v>
+        <v>43.37</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
         <v>156</v>
       </c>
       <c r="K51">
-        <v>302.85</v>
+        <v>186</v>
       </c>
       <c r="L51">
-        <v>284.27</v>
+        <v>170.5</v>
       </c>
       <c r="M51">
-        <v>340.01</v>
+        <v>217.01</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3097,40 +3100,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52">
-        <v>63.37</v>
+        <v>40.96</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G52">
-        <v>63.37</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>156</v>
       </c>
       <c r="K52">
-        <v>1476</v>
+        <v>406.2</v>
       </c>
       <c r="L52">
-        <v>1440.23</v>
+        <v>380.56</v>
       </c>
       <c r="M52">
-        <v>1547.54</v>
+        <v>457.49</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3141,40 +3144,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D53">
-        <v>52.17</v>
+        <v>57.35</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G53">
-        <v>52.17</v>
+        <v>63.37</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K53">
-        <v>408.8</v>
+        <v>1472.6</v>
       </c>
       <c r="L53">
-        <v>382.34</v>
+        <v>1436.83</v>
       </c>
       <c r="M53">
-        <v>461.71</v>
+        <v>1544.14</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3185,40 +3188,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
       </c>
       <c r="D54">
-        <v>36.14</v>
+        <v>39.76</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G54">
-        <v>36.14</v>
+        <v>39.76</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K54">
-        <v>519.45</v>
+        <v>374.5</v>
       </c>
       <c r="L54">
-        <v>488.09</v>
+        <v>353.61</v>
       </c>
       <c r="M54">
-        <v>582.16</v>
+        <v>416.27</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3238,10 +3241,10 @@
         <v>36.14</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G55">
         <v>49.58</v>
@@ -3253,16 +3256,16 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K55">
-        <v>72.37</v>
+        <v>72.14</v>
       </c>
       <c r="L55">
-        <v>69.59</v>
+        <v>69.36</v>
       </c>
       <c r="M55">
-        <v>77.92</v>
+        <v>77.69</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3273,7 +3276,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
         <v>135</v>
@@ -3282,10 +3285,10 @@
         <v>35.3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56">
         <v>35.3</v>
@@ -3294,19 +3297,19 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K56">
-        <v>381.5</v>
+        <v>394.3</v>
       </c>
       <c r="L56">
-        <v>371.68</v>
+        <v>382.98</v>
       </c>
       <c r="M56">
-        <v>401.13</v>
+        <v>416.94</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3317,40 +3320,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57">
-        <v>34.94</v>
+        <v>33.73</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G57">
-        <v>43.37</v>
+        <v>47.53</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K57">
-        <v>1462.2</v>
+        <v>1243.2</v>
       </c>
       <c r="L57">
-        <v>1382.16</v>
+        <v>1171.41</v>
       </c>
       <c r="M57">
-        <v>1622.29</v>
+        <v>1386.77</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3361,7 +3364,7 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
         <v>137</v>
@@ -3370,10 +3373,10 @@
         <v>32.53</v>
       </c>
       <c r="E58">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G58">
         <v>43.37</v>
@@ -3385,16 +3388,16 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K58">
-        <v>2753.7</v>
+        <v>2756.8</v>
       </c>
       <c r="L58">
-        <v>2650.17</v>
+        <v>2653.27</v>
       </c>
       <c r="M58">
-        <v>2960.76</v>
+        <v>2963.86</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3405,40 +3408,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D59">
-        <v>31.51</v>
+        <v>32.53</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G59">
-        <v>31.51</v>
+        <v>57.17</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K59">
-        <v>276.95</v>
+        <v>241.28</v>
       </c>
       <c r="L59">
-        <v>264.1</v>
+        <v>229.7</v>
       </c>
       <c r="M59">
-        <v>302.66</v>
+        <v>264.43</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3449,7 +3452,7 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
         <v>137</v>
@@ -3458,31 +3461,31 @@
         <v>31.33</v>
       </c>
       <c r="E60">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G60">
-        <v>47.53</v>
+        <v>31.33</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>1246.9</v>
+        <v>252.39</v>
       </c>
       <c r="L60">
-        <v>1178.74</v>
+        <v>236.51</v>
       </c>
       <c r="M60">
-        <v>1383.21</v>
+        <v>284.15</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3493,22 +3496,22 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D61">
         <v>30.12</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G61">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3517,16 +3520,16 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K61">
-        <v>385.7</v>
+        <v>280.6</v>
       </c>
       <c r="L61">
-        <v>368.11</v>
+        <v>265.38</v>
       </c>
       <c r="M61">
-        <v>420.89</v>
+        <v>311.04</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3537,22 +3540,22 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62">
         <v>30.12</v>
       </c>
       <c r="E62">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G62">
-        <v>37.35</v>
+        <v>34.94</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3561,16 +3564,16 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K62">
-        <v>279.75</v>
+        <v>385.45</v>
       </c>
       <c r="L62">
-        <v>264.53</v>
+        <v>367.86</v>
       </c>
       <c r="M62">
-        <v>310.19</v>
+        <v>420.64</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3581,22 +3584,22 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D63">
-        <v>26.51</v>
+        <v>30.12</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G63">
-        <v>26.51</v>
+        <v>38.55</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3605,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K63">
-        <v>364.5</v>
+        <v>552.65</v>
       </c>
       <c r="L63">
-        <v>345.05</v>
+        <v>515.74</v>
       </c>
       <c r="M63">
-        <v>403.4</v>
+        <v>626.46</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3625,40 +3628,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
         <v>137</v>
       </c>
       <c r="D64">
-        <v>25.3</v>
+        <v>30.12</v>
       </c>
       <c r="E64">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
         <v>141</v>
       </c>
       <c r="G64">
-        <v>53.55</v>
+        <v>63.86</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K64">
-        <v>1798</v>
+        <v>1009.15</v>
       </c>
       <c r="L64">
-        <v>1711.5</v>
+        <v>957.3099999999999</v>
       </c>
       <c r="M64">
-        <v>1971</v>
+        <v>1112.82</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3669,40 +3672,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D65">
-        <v>24.1</v>
+        <v>28.92</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G65">
-        <v>24.1</v>
+        <v>45.78</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K65">
-        <v>953.9</v>
+        <v>785.55</v>
       </c>
       <c r="L65">
-        <v>922.9400000000001</v>
+        <v>722.74</v>
       </c>
       <c r="M65">
-        <v>1015.82</v>
+        <v>911.1799999999999</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3713,22 +3716,22 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
         <v>138</v>
       </c>
       <c r="D66">
-        <v>24.1</v>
+        <v>27.71</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G66">
-        <v>45.78</v>
+        <v>36.14</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3737,16 +3740,16 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K66">
-        <v>778.45</v>
+        <v>513.05</v>
       </c>
       <c r="L66">
-        <v>715.66</v>
+        <v>481.33</v>
       </c>
       <c r="M66">
-        <v>904.03</v>
+        <v>576.49</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3757,40 +3760,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D67">
-        <v>24.1</v>
+        <v>26.69</v>
       </c>
       <c r="E67">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G67">
-        <v>63.86</v>
+        <v>32.71</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K67">
-        <v>1010</v>
+        <v>951.85</v>
       </c>
       <c r="L67">
-        <v>958.16</v>
+        <v>924.26</v>
       </c>
       <c r="M67">
-        <v>1113.67</v>
+        <v>1007.03</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3801,40 +3804,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D68">
-        <v>22.89</v>
+        <v>25.3</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G68">
-        <v>57.17</v>
+        <v>25.3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K68">
-        <v>240.3</v>
+        <v>960.95</v>
       </c>
       <c r="L68">
-        <v>229.1</v>
+        <v>925.3099999999999</v>
       </c>
       <c r="M68">
-        <v>262.71</v>
+        <v>1032.24</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3851,13 +3854,13 @@
         <v>138</v>
       </c>
       <c r="D69">
-        <v>21.69</v>
+        <v>22.89</v>
       </c>
       <c r="E69">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G69">
         <v>44.58</v>
@@ -3869,16 +3872,16 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K69">
-        <v>2696.6</v>
+        <v>2664.5</v>
       </c>
       <c r="L69">
-        <v>2506.06</v>
+        <v>2480.32</v>
       </c>
       <c r="M69">
-        <v>3077.69</v>
+        <v>3032.87</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3889,22 +3892,22 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
         <v>138</v>
       </c>
       <c r="D70">
-        <v>20.48</v>
+        <v>21.69</v>
       </c>
       <c r="E70">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
         <v>142</v>
       </c>
       <c r="G70">
-        <v>50.78</v>
+        <v>53.55</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3913,16 +3916,16 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K70">
-        <v>745.2</v>
+        <v>1792.9</v>
       </c>
       <c r="L70">
-        <v>704.66</v>
+        <v>1706.4</v>
       </c>
       <c r="M70">
-        <v>826.29</v>
+        <v>1965.9</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3933,40 +3936,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D71">
-        <v>20.48</v>
+        <v>21.69</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G71">
-        <v>20.48</v>
+        <v>61.81</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K71">
-        <v>1443.9</v>
+        <v>3741.9</v>
       </c>
       <c r="L71">
-        <v>1406.46</v>
+        <v>3519.77</v>
       </c>
       <c r="M71">
-        <v>1518.78</v>
+        <v>4186.16</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3977,40 +3980,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D72">
         <v>20.48</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G72">
-        <v>20.48</v>
+        <v>34.94</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K72">
-        <v>2552.2</v>
+        <v>472.3</v>
       </c>
       <c r="L72">
-        <v>2515.29</v>
+        <v>444.79</v>
       </c>
       <c r="M72">
-        <v>2626.03</v>
+        <v>527.3099999999999</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4024,37 +4027,37 @@
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D73">
         <v>20.48</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G73">
-        <v>20.48</v>
+        <v>50.78</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K73">
-        <v>197.5</v>
+        <v>750.05</v>
       </c>
       <c r="L73">
-        <v>189.65</v>
+        <v>709.51</v>
       </c>
       <c r="M73">
-        <v>213.21</v>
+        <v>831.14</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4065,40 +4068,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D74">
-        <v>19.28</v>
+        <v>20.48</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>147</v>
       </c>
       <c r="G74">
-        <v>34.94</v>
+        <v>20.48</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K74">
-        <v>477.75</v>
+        <v>2549.2</v>
       </c>
       <c r="L74">
-        <v>450.39</v>
+        <v>2515</v>
       </c>
       <c r="M74">
-        <v>532.46</v>
+        <v>2617.6</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4109,40 +4112,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75">
-        <v>19.28</v>
+        <v>18.07</v>
       </c>
       <c r="E75">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G75">
-        <v>38.55</v>
+        <v>21.69</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K75">
-        <v>544.7</v>
+        <v>444.2</v>
       </c>
       <c r="L75">
-        <v>510.51</v>
+        <v>427.72</v>
       </c>
       <c r="M75">
-        <v>613.09</v>
+        <v>477.17</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4153,40 +4156,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D76">
-        <v>19.28</v>
+        <v>16.87</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76">
-        <v>19.28</v>
+        <v>16.87</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K76">
-        <v>1552.9</v>
+        <v>100.73</v>
       </c>
       <c r="L76">
-        <v>1485.26</v>
+        <v>95.88</v>
       </c>
       <c r="M76">
-        <v>1688.19</v>
+        <v>110.43</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4197,22 +4200,22 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
         <v>138</v>
       </c>
       <c r="D77">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77">
-        <v>42.53</v>
+        <v>22.89</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4221,16 +4224,16 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K77">
-        <v>4330.5</v>
+        <v>182.96</v>
       </c>
       <c r="L77">
-        <v>4085.42</v>
+        <v>173.07</v>
       </c>
       <c r="M77">
-        <v>4820.65</v>
+        <v>202.73</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4241,40 +4244,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>138</v>
       </c>
       <c r="D78">
-        <v>18.07</v>
+        <v>15.66</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G78">
-        <v>22.89</v>
+        <v>59.76</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K78">
-        <v>248.92</v>
+        <v>6963</v>
       </c>
       <c r="L78">
-        <v>233.27</v>
+        <v>6657.07</v>
       </c>
       <c r="M78">
-        <v>280.23</v>
+        <v>7574.86</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4291,34 +4294,34 @@
         <v>138</v>
       </c>
       <c r="D79">
-        <v>16.87</v>
+        <v>15.66</v>
       </c>
       <c r="E79">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G79">
-        <v>61.81</v>
+        <v>27.89</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K79">
-        <v>3740.3</v>
+        <v>2033.8</v>
       </c>
       <c r="L79">
-        <v>3518.17</v>
+        <v>1975.06</v>
       </c>
       <c r="M79">
-        <v>4184.56</v>
+        <v>2151.28</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4329,40 +4332,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D80">
-        <v>16.87</v>
+        <v>15.66</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G80">
-        <v>22.89</v>
+        <v>19.28</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K80">
-        <v>183.09</v>
+        <v>5948.5</v>
       </c>
       <c r="L80">
-        <v>173.09</v>
+        <v>5762.41</v>
       </c>
       <c r="M80">
-        <v>203.09</v>
+        <v>6320.69</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4373,40 +4376,40 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>138</v>
       </c>
       <c r="D81">
-        <v>16.87</v>
+        <v>15.66</v>
       </c>
       <c r="E81">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G81">
-        <v>59.76</v>
+        <v>15.66</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K81">
-        <v>6997.5</v>
+        <v>1575.8</v>
       </c>
       <c r="L81">
-        <v>6691.57</v>
+        <v>1526.42</v>
       </c>
       <c r="M81">
-        <v>7609.36</v>
+        <v>1674.55</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4417,40 +4420,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D82">
-        <v>15.66</v>
+        <v>14.46</v>
       </c>
       <c r="E82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G82">
-        <v>15.66</v>
+        <v>20.48</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K82">
-        <v>764</v>
+        <v>196.74</v>
       </c>
       <c r="L82">
-        <v>734.04</v>
+        <v>188.89</v>
       </c>
       <c r="M82">
-        <v>823.91</v>
+        <v>212.45</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4470,31 +4473,31 @@
         <v>14.46</v>
       </c>
       <c r="E83">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G83">
-        <v>27.89</v>
+        <v>61.99</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K83">
-        <v>2051.9</v>
+        <v>2670.3</v>
       </c>
       <c r="L83">
-        <v>1981.89</v>
+        <v>2516.46</v>
       </c>
       <c r="M83">
-        <v>2191.93</v>
+        <v>2977.99</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4514,31 +4517,31 @@
         <v>14.46</v>
       </c>
       <c r="E84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G84">
-        <v>45.78</v>
+        <v>41.14</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K84">
-        <v>155.55</v>
+        <v>457.1</v>
       </c>
       <c r="L84">
-        <v>146.25</v>
+        <v>446.56</v>
       </c>
       <c r="M84">
-        <v>174.15</v>
+        <v>478.18</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4558,13 +4561,13 @@
         <v>14.46</v>
       </c>
       <c r="E85">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G85">
-        <v>61.99</v>
+        <v>45.78</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4573,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K85">
-        <v>2676.7</v>
+        <v>157.02</v>
       </c>
       <c r="L85">
-        <v>2523.97</v>
+        <v>147.07</v>
       </c>
       <c r="M85">
-        <v>2982.16</v>
+        <v>176.92</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4593,7 +4596,7 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>138</v>
@@ -4602,10 +4605,10 @@
         <v>13.25</v>
       </c>
       <c r="E86">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G86">
         <v>63.86</v>
@@ -4617,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K86">
-        <v>2465.5</v>
+        <v>2480</v>
       </c>
       <c r="L86">
-        <v>2408.97</v>
+        <v>2409.82</v>
       </c>
       <c r="M86">
-        <v>2578.56</v>
+        <v>2620.37</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4637,22 +4640,22 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D87">
         <v>12.05</v>
       </c>
       <c r="E87">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G87">
-        <v>65.06</v>
+        <v>15.66</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4661,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K87">
-        <v>819.7</v>
+        <v>3495.8</v>
       </c>
       <c r="L87">
-        <v>785.48</v>
+        <v>3345.04</v>
       </c>
       <c r="M87">
-        <v>888.14</v>
+        <v>3797.32</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4681,7 +4684,7 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>138</v>
@@ -4690,10 +4693,10 @@
         <v>12.05</v>
       </c>
       <c r="E88">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G88">
         <v>12.05</v>
@@ -4705,16 +4708,16 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K88">
-        <v>532.8</v>
+        <v>530.1</v>
       </c>
       <c r="L88">
-        <v>507.13</v>
+        <v>505.77</v>
       </c>
       <c r="M88">
-        <v>584.14</v>
+        <v>578.75</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4725,40 +4728,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D89">
         <v>12.05</v>
       </c>
       <c r="E89">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G89">
-        <v>26.51</v>
+        <v>52.35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K89">
-        <v>9296.5</v>
+        <v>360.6</v>
       </c>
       <c r="L89">
-        <v>8761.360000000001</v>
+        <v>348.08</v>
       </c>
       <c r="M89">
-        <v>10366.79</v>
+        <v>385.64</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4769,22 +4772,22 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>138</v>
       </c>
       <c r="D90">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E90">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G90">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4793,16 +4796,16 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K90">
-        <v>402.8</v>
+        <v>1850.1</v>
       </c>
       <c r="L90">
-        <v>389.94</v>
+        <v>1782.76</v>
       </c>
       <c r="M90">
-        <v>428.51</v>
+        <v>1984.78</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4813,40 +4816,40 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>138</v>
       </c>
       <c r="D91">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E91">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G91">
-        <v>52.35</v>
+        <v>34.94</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K91">
-        <v>362.1</v>
+        <v>220.03</v>
       </c>
       <c r="L91">
-        <v>348.22</v>
+        <v>208.19</v>
       </c>
       <c r="M91">
-        <v>389.86</v>
+        <v>243.71</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -4857,40 +4860,40 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D92">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G92">
-        <v>15.66</v>
+        <v>65.06</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K92">
-        <v>3230</v>
+        <v>822.65</v>
       </c>
       <c r="L92">
-        <v>3132.12</v>
+        <v>788.4299999999999</v>
       </c>
       <c r="M92">
-        <v>3425.76</v>
+        <v>891.09</v>
       </c>
       <c r="N92">
         <v>2</v>
@@ -4901,7 +4904,7 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
         <v>138</v>
@@ -4910,31 +4913,31 @@
         <v>10.84</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G93">
-        <v>10.84</v>
+        <v>15.66</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K93">
-        <v>1847</v>
+        <v>3259.8</v>
       </c>
       <c r="L93">
-        <v>1782.82</v>
+        <v>3134.32</v>
       </c>
       <c r="M93">
-        <v>1975.35</v>
+        <v>3510.76</v>
       </c>
       <c r="N93">
         <v>2</v>
@@ -4945,40 +4948,40 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
       </c>
       <c r="D94">
-        <v>9.640000000000001</v>
+        <v>10.84</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G94">
-        <v>20.48</v>
+        <v>15.66</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K94">
-        <v>815.5</v>
+        <v>759.85</v>
       </c>
       <c r="L94">
-        <v>778.85</v>
+        <v>732.95</v>
       </c>
       <c r="M94">
-        <v>888.8</v>
+        <v>813.65</v>
       </c>
       <c r="N94">
         <v>2</v>
@@ -4989,40 +4992,40 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D95">
-        <v>9.640000000000001</v>
+        <v>10.84</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G95">
-        <v>9.640000000000001</v>
+        <v>10.84</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K95">
-        <v>394.05</v>
+        <v>1686.2</v>
       </c>
       <c r="L95">
-        <v>382.96</v>
+        <v>1654.69</v>
       </c>
       <c r="M95">
-        <v>416.23</v>
+        <v>1749.23</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -5033,40 +5036,40 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D96">
-        <v>8.43</v>
+        <v>10.84</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G96">
-        <v>13.25</v>
+        <v>21.69</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K96">
-        <v>688.9</v>
+        <v>12443</v>
       </c>
       <c r="L96">
-        <v>669.84</v>
+        <v>12208.61</v>
       </c>
       <c r="M96">
-        <v>727.02</v>
+        <v>12911.77</v>
       </c>
       <c r="N96">
         <v>2</v>
@@ -5077,10 +5080,10 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D97">
         <v>8.43</v>
@@ -5089,10 +5092,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G97">
-        <v>10.84</v>
+        <v>13.25</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -5101,16 +5104,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K97">
-        <v>2008.4</v>
+        <v>690</v>
       </c>
       <c r="L97">
-        <v>1973.97</v>
+        <v>669.9400000000001</v>
       </c>
       <c r="M97">
-        <v>2077.26</v>
+        <v>730.11</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -5121,22 +5124,22 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D98">
         <v>8.43</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G98">
-        <v>19.28</v>
+        <v>10.84</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5145,16 +5148,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K98">
-        <v>5913.5</v>
+        <v>2006.6</v>
       </c>
       <c r="L98">
-        <v>5759.59</v>
+        <v>1973.8</v>
       </c>
       <c r="M98">
-        <v>6221.32</v>
+        <v>2072.2</v>
       </c>
       <c r="N98">
         <v>2</v>
@@ -5165,7 +5168,7 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
         <v>138</v>
@@ -5174,31 +5177,31 @@
         <v>8.43</v>
       </c>
       <c r="E99">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G99">
-        <v>65.59999999999999</v>
+        <v>21.69</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K99">
-        <v>191.88</v>
+        <v>16093</v>
       </c>
       <c r="L99">
-        <v>184.86</v>
+        <v>15417.15</v>
       </c>
       <c r="M99">
-        <v>205.92</v>
+        <v>17444.7</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -5218,13 +5221,13 @@
         <v>8.43</v>
       </c>
       <c r="E100">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G100">
-        <v>21.69</v>
+        <v>26.51</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5233,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K100">
-        <v>16244</v>
+        <v>9177.5</v>
       </c>
       <c r="L100">
-        <v>15574.71</v>
+        <v>8632.709999999999</v>
       </c>
       <c r="M100">
-        <v>17582.57</v>
+        <v>10267.07</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -5253,22 +5256,22 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
         <v>138</v>
       </c>
       <c r="D101">
-        <v>6.02</v>
+        <v>7.23</v>
       </c>
       <c r="E101">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G101">
-        <v>31.33</v>
+        <v>39.76</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5277,16 +5280,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K101">
-        <v>1177.2</v>
+        <v>283.64</v>
       </c>
       <c r="L101">
-        <v>1109.19</v>
+        <v>265.66</v>
       </c>
       <c r="M101">
-        <v>1313.23</v>
+        <v>319.61</v>
       </c>
       <c r="N101">
         <v>2</v>
@@ -5297,40 +5300,40 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
         <v>138</v>
       </c>
       <c r="D102">
-        <v>6.02</v>
+        <v>7.23</v>
       </c>
       <c r="E102">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G102">
-        <v>66.81</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K102">
-        <v>383.9</v>
+        <v>190.46</v>
       </c>
       <c r="L102">
-        <v>363.11</v>
+        <v>183.37</v>
       </c>
       <c r="M102">
-        <v>425.48</v>
+        <v>204.64</v>
       </c>
       <c r="N102">
         <v>2</v>
@@ -5350,13 +5353,13 @@
         <v>6.02</v>
       </c>
       <c r="E103">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G103">
-        <v>34.94</v>
+        <v>31.33</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5365,16 +5368,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K103">
-        <v>218.6</v>
+        <v>1166.3</v>
       </c>
       <c r="L103">
-        <v>208.15</v>
+        <v>1098.29</v>
       </c>
       <c r="M103">
-        <v>239.5</v>
+        <v>1302.33</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -5385,40 +5388,40 @@
         <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
         <v>138</v>
       </c>
       <c r="D104">
-        <v>4.82</v>
+        <v>6.02</v>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G104">
-        <v>15.66</v>
+        <v>30.12</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K104">
-        <v>138.61</v>
+        <v>593.7</v>
       </c>
       <c r="L104">
-        <v>133.06</v>
+        <v>570.66</v>
       </c>
       <c r="M104">
-        <v>149.71</v>
+        <v>639.79</v>
       </c>
       <c r="N104">
         <v>2</v>
@@ -5435,16 +5438,16 @@
         <v>138</v>
       </c>
       <c r="D105">
-        <v>4.82</v>
+        <v>6.02</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G105">
-        <v>15.66</v>
+        <v>48.19</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5453,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K105">
-        <v>3478.2</v>
+        <v>118.58</v>
       </c>
       <c r="L105">
-        <v>3343.36</v>
+        <v>112.3</v>
       </c>
       <c r="M105">
-        <v>3747.88</v>
+        <v>131.14</v>
       </c>
       <c r="N105">
         <v>2</v>
@@ -5473,7 +5476,7 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>138</v>
@@ -5482,13 +5485,13 @@
         <v>4.82</v>
       </c>
       <c r="E106">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G106">
-        <v>60.78</v>
+        <v>4.82</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5497,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K106">
-        <v>4004.6</v>
+        <v>2760</v>
       </c>
       <c r="L106">
-        <v>3793.17</v>
+        <v>2659.29</v>
       </c>
       <c r="M106">
-        <v>4427.46</v>
+        <v>2961.41</v>
       </c>
       <c r="N106">
         <v>2</v>
@@ -5517,7 +5520,7 @@
         <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" t="s">
         <v>138</v>
@@ -5526,33 +5529,77 @@
         <v>4.82</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G107">
+        <v>32.71</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>157</v>
+      </c>
+      <c r="K107">
+        <v>966.6</v>
+      </c>
+      <c r="L107">
+        <v>937.22</v>
+      </c>
+      <c r="M107">
+        <v>1025.36</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108">
         <v>4.82</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>156</v>
-      </c>
-      <c r="K107">
-        <v>2751.4</v>
-      </c>
-      <c r="L107">
-        <v>2658.48</v>
-      </c>
-      <c r="M107">
-        <v>2937.25</v>
-      </c>
-      <c r="N107">
+      <c r="E108">
+        <v>30</v>
+      </c>
+      <c r="F108" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108">
+        <v>60.78</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K108">
+        <v>3992.5</v>
+      </c>
+      <c r="L108">
+        <v>3781.07</v>
+      </c>
+      <c r="M108">
+        <v>4415.36</v>
+      </c>
+      <c r="N108">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="154">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,51 +61,51 @@
     <t>AMBUJACEM</t>
   </si>
   <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
     <t>PATANJALI</t>
   </si>
   <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
     <t>SUMICHEM</t>
   </si>
   <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
     <t>KCP</t>
   </si>
   <si>
+    <t>TI</t>
+  </si>
+  <si>
     <t>DALBHARAT</t>
   </si>
   <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
     <t>AGI</t>
   </si>
   <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
     <t>THERMAX</t>
   </si>
   <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
     <t>SHYAMMETL</t>
   </si>
   <si>
-    <t>CRAFTSMAN</t>
+    <t>VBL</t>
   </si>
   <si>
     <t>DELHIVERY</t>
   </si>
   <si>
-    <t>VBL</t>
-  </si>
-  <si>
     <t>STLTECH</t>
   </si>
   <si>
@@ -130,267 +130,255 @@
     <t>ANANDRATHI</t>
   </si>
   <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>HARIOMPIPE</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>SOBHA</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
     <t>GREENPLY</t>
   </si>
   <si>
+    <t>CHEMPLASTS</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>THOMASCOOK</t>
+  </si>
+  <si>
     <t>RAMCOCEM</t>
   </si>
   <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>HARIOMPIPE</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
-    <t>CHEMPLASTS</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
     <t>NUVOCO</t>
   </si>
   <si>
     <t>ICICIBANK</t>
   </si>
   <si>
+    <t>KAJARIACER</t>
+  </si>
+  <si>
     <t>INDIACEM</t>
   </si>
   <si>
     <t>NMDC</t>
   </si>
   <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>RHIM</t>
+  </si>
+  <si>
     <t>EXIDEIND</t>
   </si>
   <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
     <t>BALKRISIND</t>
   </si>
   <si>
     <t>NLCINDIA</t>
   </si>
   <si>
-    <t>PENIND</t>
+    <t>MAXESTATES</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
   </si>
   <si>
     <t>AWL</t>
   </si>
   <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
     <t>CHENNPETRO</t>
   </si>
   <si>
-    <t>RHIM</t>
-  </si>
-  <si>
     <t>BAJFINANCE</t>
   </si>
   <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>MASTEK</t>
+    <t>KIMS</t>
   </si>
   <si>
     <t>PRESTIGE</t>
   </si>
   <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
     <t>ECLERX</t>
   </si>
   <si>
-    <t>TIMETECHNO</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
+    <t>CENTENKA</t>
   </si>
   <si>
     <t>SHRIRAMPPS</t>
   </si>
   <si>
-    <t>CGCL</t>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>UBL</t>
   </si>
   <si>
     <t>POLYCAB</t>
   </si>
   <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
     <t>HAVELLS</t>
   </si>
   <si>
     <t>NATIONALUM</t>
   </si>
   <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
     <t>MANKIND</t>
   </si>
   <si>
-    <t>TMB</t>
-  </si>
-  <si>
     <t>LEMONTREE</t>
   </si>
   <si>
     <t>HINDUNILVR</t>
   </si>
   <si>
+    <t>MAPMYINDIA</t>
+  </si>
+  <si>
+    <t>NYKAA</t>
+  </si>
+  <si>
     <t>TIMKEN</t>
   </si>
   <si>
-    <t>CENTENKA</t>
-  </si>
-  <si>
     <t>MHRIL</t>
   </si>
   <si>
-    <t>MAPMYINDIA</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
-  </si>
-  <si>
     <t>LAURUSLABS</t>
   </si>
   <si>
+    <t>JBCHEPHARM</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
     <t>M&amp;M</t>
   </si>
   <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>JBCHEPHARM</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
+    <t>PTC</t>
   </si>
   <si>
     <t>HINDALCO</t>
   </si>
   <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>APARINDS</t>
+  </si>
+  <si>
     <t>HDFCBANK</t>
   </si>
   <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
     <t>TFCILTD</t>
   </si>
   <si>
-    <t>PTC</t>
-  </si>
-  <si>
     <t>EIDPARRY</t>
   </si>
   <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>SBFC</t>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>KEI</t>
   </si>
   <si>
     <t>RADICO</t>
   </si>
   <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
@@ -442,19 +430,19 @@
     <t>2025-07-07</t>
   </si>
   <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
   </si>
   <si>
-    <t>2025-07-08</t>
+    <t>2025-07-11</t>
   </si>
   <si>
     <t>2025-07-16</t>
   </si>
   <si>
     <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
   </si>
   <si>
     <t>2025-07-22</t>
@@ -845,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,19 +888,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -924,16 +912,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K2">
-        <v>621.95</v>
+        <v>620.55</v>
       </c>
       <c r="L2">
-        <v>600.63</v>
+        <v>599.23</v>
       </c>
       <c r="M2">
-        <v>664.59</v>
+        <v>663.1900000000001</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -944,19 +932,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>63.86</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -965,19 +953,19 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K3">
-        <v>1943.2</v>
+        <v>6555.5</v>
       </c>
       <c r="L3">
-        <v>1849.4</v>
+        <v>6179.71</v>
       </c>
       <c r="M3">
-        <v>2130.8</v>
+        <v>7307.07</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -988,19 +976,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>63.86</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -1012,16 +1000,16 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K4">
-        <v>5592</v>
+        <v>5592.5</v>
       </c>
       <c r="L4">
-        <v>5344.43</v>
+        <v>5344.93</v>
       </c>
       <c r="M4">
-        <v>6087.14</v>
+        <v>6087.64</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1032,19 +1020,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5">
-        <v>57.83</v>
+        <v>63.86</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -1056,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K5">
-        <v>594.6</v>
+        <v>1942</v>
       </c>
       <c r="L5">
-        <v>554.73</v>
+        <v>1848.14</v>
       </c>
       <c r="M5">
-        <v>674.34</v>
+        <v>2129.71</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1076,40 +1064,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>53.01</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K6">
-        <v>221.44</v>
+        <v>593.55</v>
       </c>
       <c r="L6">
-        <v>207.98</v>
+        <v>553.6799999999999</v>
       </c>
       <c r="M6">
-        <v>248.36</v>
+        <v>673.29</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1120,19 +1108,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1141,19 +1129,19 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K7">
-        <v>2319.1</v>
+        <v>1051.05</v>
       </c>
       <c r="L7">
-        <v>2218.59</v>
+        <v>996.6799999999999</v>
       </c>
       <c r="M7">
-        <v>2520.13</v>
+        <v>1159.79</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1164,19 +1152,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1188,16 +1176,16 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8">
-        <v>259.88</v>
+        <v>260.39</v>
       </c>
       <c r="L8">
-        <v>246.86</v>
+        <v>247.37</v>
       </c>
       <c r="M8">
-        <v>285.92</v>
+        <v>286.43</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1208,19 +1196,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -1232,16 +1220,16 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K9">
-        <v>455.5</v>
+        <v>220.93</v>
       </c>
       <c r="L9">
-        <v>419.81</v>
+        <v>207.47</v>
       </c>
       <c r="M9">
-        <v>526.89</v>
+        <v>247.85</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1252,19 +1240,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -1273,19 +1261,19 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K10">
-        <v>1052.8</v>
+        <v>470.35</v>
       </c>
       <c r="L10">
-        <v>999.14</v>
+        <v>430.66</v>
       </c>
       <c r="M10">
-        <v>1160.11</v>
+        <v>549.74</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1296,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>67.47</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -1317,19 +1305,19 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K11">
-        <v>967.8</v>
+        <v>2320.2</v>
       </c>
       <c r="L11">
-        <v>894.5599999999999</v>
+        <v>2219.69</v>
       </c>
       <c r="M11">
-        <v>1114.29</v>
+        <v>2521.23</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1340,19 +1328,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12">
-        <v>60.24</v>
+        <v>67.47</v>
       </c>
       <c r="E12">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -1361,19 +1349,19 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K12">
-        <v>3939.4</v>
+        <v>972.35</v>
       </c>
       <c r="L12">
-        <v>3692.61</v>
+        <v>899.11</v>
       </c>
       <c r="M12">
-        <v>4432.97</v>
+        <v>1118.84</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1384,19 +1372,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>60.24</v>
+        <v>61.45</v>
       </c>
       <c r="E13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -1408,16 +1396,16 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K13">
-        <v>183.6</v>
+        <v>183.5</v>
       </c>
       <c r="L13">
-        <v>172.47</v>
+        <v>172.37</v>
       </c>
       <c r="M13">
-        <v>205.87</v>
+        <v>205.77</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1428,19 +1416,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>57.83</v>
+        <v>60.24</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14">
         <v>100</v>
@@ -1449,19 +1437,19 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14">
-        <v>934.55</v>
+        <v>3944.5</v>
       </c>
       <c r="L14">
-        <v>895.54</v>
+        <v>3697.71</v>
       </c>
       <c r="M14">
-        <v>1012.56</v>
+        <v>4438.07</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1472,16 +1460,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>57.83</v>
       </c>
       <c r="E15">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>141</v>
@@ -1493,19 +1481,19 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K15">
-        <v>6524.5</v>
+        <v>935.8</v>
       </c>
       <c r="L15">
-        <v>6148.71</v>
+        <v>896.51</v>
       </c>
       <c r="M15">
-        <v>7276.07</v>
+        <v>1014.39</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1516,16 +1504,16 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D16">
-        <v>46.99</v>
+        <v>45.78</v>
       </c>
       <c r="E16">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>141</v>
@@ -1537,19 +1525,19 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K16">
-        <v>438.7</v>
+        <v>485.25</v>
       </c>
       <c r="L16">
-        <v>417.84</v>
+        <v>466.62</v>
       </c>
       <c r="M16">
-        <v>480.41</v>
+        <v>522.51</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1560,19 +1548,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>45.78</v>
+        <v>42.17</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G17">
         <v>100</v>
@@ -1581,19 +1569,19 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K17">
-        <v>485.2</v>
+        <v>436.85</v>
       </c>
       <c r="L17">
-        <v>466.62</v>
+        <v>415.95</v>
       </c>
       <c r="M17">
-        <v>522.37</v>
+        <v>478.65</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1604,19 +1592,19 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>38.55</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18">
         <v>77.83</v>
@@ -1628,16 +1616,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K18">
-        <v>119.75</v>
+        <v>119.78</v>
       </c>
       <c r="L18">
-        <v>108</v>
+        <v>108.03</v>
       </c>
       <c r="M18">
-        <v>143.25</v>
+        <v>143.28</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1648,40 +1636,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>71.63</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G19">
-        <v>71.63</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K19">
-        <v>721.45</v>
+        <v>722.85</v>
       </c>
       <c r="L19">
-        <v>687.29</v>
+        <v>688.6900000000001</v>
       </c>
       <c r="M19">
-        <v>789.76</v>
+        <v>791.16</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1692,19 +1680,19 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>53.55</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -1716,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K20">
-        <v>17488</v>
+        <v>17507</v>
       </c>
       <c r="L20">
-        <v>16087.86</v>
+        <v>16106.86</v>
       </c>
       <c r="M20">
-        <v>20288.29</v>
+        <v>20307.29</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1736,19 +1724,19 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>92.47</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21">
         <v>92.47</v>
@@ -1760,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K21">
         <v>299.8</v>
@@ -1780,19 +1768,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22">
         <v>84.04000000000001</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G22">
         <v>92.47</v>
@@ -1804,16 +1792,16 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K22">
-        <v>31215</v>
+        <v>31230</v>
       </c>
       <c r="L22">
-        <v>29947.14</v>
+        <v>29962.14</v>
       </c>
       <c r="M22">
-        <v>33750.71</v>
+        <v>33765.71</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1824,19 +1812,19 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D23">
         <v>82.83</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G23">
         <v>82.83</v>
@@ -1848,16 +1836,16 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K23">
-        <v>415</v>
+        <v>417.15</v>
       </c>
       <c r="L23">
-        <v>388.54</v>
+        <v>390.69</v>
       </c>
       <c r="M23">
-        <v>467.91</v>
+        <v>470.06</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1868,19 +1856,19 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D24">
         <v>38.55</v>
       </c>
       <c r="E24">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G24">
         <v>92.11</v>
@@ -1892,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K24">
-        <v>622.45</v>
+        <v>621.3</v>
       </c>
       <c r="L24">
-        <v>575.88</v>
+        <v>574.73</v>
       </c>
       <c r="M24">
-        <v>715.59</v>
+        <v>714.4400000000001</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1912,19 +1900,19 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D25">
         <v>37.35</v>
       </c>
       <c r="E25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25">
         <v>96.08</v>
@@ -1936,16 +1924,16 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K25">
-        <v>2647</v>
+        <v>2645.4</v>
       </c>
       <c r="L25">
-        <v>2456.94</v>
+        <v>2455.34</v>
       </c>
       <c r="M25">
-        <v>3027.11</v>
+        <v>3025.51</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1956,22 +1944,22 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26">
+        <v>33.73</v>
+      </c>
+      <c r="E26">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>137</v>
       </c>
-      <c r="D26">
-        <v>37.35</v>
-      </c>
-      <c r="E26">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>144</v>
-      </c>
       <c r="G26">
-        <v>76.81</v>
+        <v>100</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1980,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K26">
-        <v>340.05</v>
+        <v>554.4</v>
       </c>
       <c r="L26">
-        <v>322.69</v>
+        <v>505.64</v>
       </c>
       <c r="M26">
-        <v>374.78</v>
+        <v>651.91</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -2000,40 +1988,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D27">
-        <v>36.14</v>
+        <v>31.33</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G27">
-        <v>70.42</v>
+        <v>91.27</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K27">
-        <v>1191.7</v>
+        <v>503.3</v>
       </c>
       <c r="L27">
-        <v>1121.29</v>
+        <v>452.51</v>
       </c>
       <c r="M27">
-        <v>1332.53</v>
+        <v>604.87</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2047,16 +2035,16 @@
         <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28">
-        <v>33.73</v>
+        <v>28.92</v>
       </c>
       <c r="E28">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -2065,19 +2053,19 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K28">
-        <v>554.6</v>
+        <v>514.8</v>
       </c>
       <c r="L28">
-        <v>505.84</v>
+        <v>476.27</v>
       </c>
       <c r="M28">
-        <v>652.11</v>
+        <v>591.86</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2088,40 +2076,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29">
-        <v>31.33</v>
+        <v>22.89</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G29">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>506.4</v>
+        <v>676</v>
       </c>
       <c r="L29">
-        <v>455.61</v>
+        <v>646.05</v>
       </c>
       <c r="M29">
-        <v>607.97</v>
+        <v>735.9</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2132,40 +2120,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D30">
-        <v>28.92</v>
+        <v>20.48</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K30">
-        <v>513.8</v>
+        <v>674.45</v>
       </c>
       <c r="L30">
-        <v>475.27</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="M30">
-        <v>590.86</v>
+        <v>729.71</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2176,40 +2164,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D31">
         <v>20.48</v>
       </c>
       <c r="E31">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G31">
-        <v>86.45</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K31">
-        <v>1963.8</v>
+        <v>2157.9</v>
       </c>
       <c r="L31">
-        <v>1861.13</v>
+        <v>1989.24</v>
       </c>
       <c r="M31">
-        <v>2169.14</v>
+        <v>2495.21</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2220,10 +2208,10 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32">
         <v>20.48</v>
@@ -2232,28 +2220,28 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G32">
-        <v>73.01000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K32">
-        <v>2159</v>
+        <v>1961.8</v>
       </c>
       <c r="L32">
-        <v>1990.34</v>
+        <v>1860.94</v>
       </c>
       <c r="M32">
-        <v>2496.31</v>
+        <v>2163.52</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2264,40 +2252,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D33">
-        <v>19.28</v>
+        <v>18.07</v>
       </c>
       <c r="E33">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G33">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K33">
-        <v>674.8</v>
+        <v>710.05</v>
       </c>
       <c r="L33">
-        <v>647.17</v>
+        <v>655.17</v>
       </c>
       <c r="M33">
-        <v>730.0599999999999</v>
+        <v>819.8099999999999</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2308,40 +2296,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D34">
         <v>18.07</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K34">
-        <v>710.5</v>
+        <v>3503.5</v>
       </c>
       <c r="L34">
-        <v>655.62</v>
+        <v>3387.96</v>
       </c>
       <c r="M34">
-        <v>820.26</v>
+        <v>3734.59</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2352,40 +2340,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D35">
         <v>18.07</v>
       </c>
       <c r="E35">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G35">
-        <v>82.65000000000001</v>
+        <v>73.19</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K35">
-        <v>3501.4</v>
+        <v>1475.4</v>
       </c>
       <c r="L35">
-        <v>3385.86</v>
+        <v>1392.4</v>
       </c>
       <c r="M35">
-        <v>3732.49</v>
+        <v>1641.4</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2396,40 +2384,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36">
+        <v>16.87</v>
+      </c>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
         <v>137</v>
       </c>
-      <c r="D36">
-        <v>18.07</v>
-      </c>
-      <c r="E36">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
       <c r="G36">
-        <v>73.19</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K36">
-        <v>1471.6</v>
+        <v>413.55</v>
       </c>
       <c r="L36">
-        <v>1388.6</v>
+        <v>386.79</v>
       </c>
       <c r="M36">
-        <v>1637.6</v>
+        <v>467.06</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2440,19 +2428,19 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D37">
         <v>16.87</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G37">
         <v>79.22</v>
@@ -2464,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K37">
-        <v>857.35</v>
+        <v>857.15</v>
       </c>
       <c r="L37">
-        <v>805.16</v>
+        <v>804.96</v>
       </c>
       <c r="M37">
-        <v>961.72</v>
+        <v>961.52</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2484,40 +2472,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38">
+        <v>15.66</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
         <v>138</v>
       </c>
-      <c r="D38">
-        <v>16.87</v>
-      </c>
-      <c r="E38">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>141</v>
-      </c>
       <c r="G38">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K38">
-        <v>413.5</v>
+        <v>3587.4</v>
       </c>
       <c r="L38">
-        <v>386.74</v>
+        <v>3442.06</v>
       </c>
       <c r="M38">
-        <v>467.01</v>
+        <v>3878.09</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2528,40 +2516,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D39">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
       <c r="E39">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K39">
-        <v>675</v>
+        <v>1287.4</v>
       </c>
       <c r="L39">
-        <v>645.05</v>
+        <v>1215.96</v>
       </c>
       <c r="M39">
-        <v>734.9</v>
+        <v>1430.29</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2572,19 +2560,19 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D40">
-        <v>15.66</v>
+        <v>14.46</v>
       </c>
       <c r="E40">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -2596,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K40">
-        <v>3589</v>
+        <v>37755</v>
       </c>
       <c r="L40">
-        <v>3442.21</v>
+        <v>35594.29</v>
       </c>
       <c r="M40">
-        <v>3882.58</v>
+        <v>42076.43</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2616,22 +2604,22 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D41">
         <v>14.46</v>
       </c>
       <c r="E41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2640,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K41">
-        <v>1288.5</v>
+        <v>1672.8</v>
       </c>
       <c r="L41">
-        <v>1217.39</v>
+        <v>1571.01</v>
       </c>
       <c r="M41">
-        <v>1430.73</v>
+        <v>1876.37</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2660,19 +2648,19 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D42">
-        <v>14.46</v>
+        <v>12.05</v>
       </c>
       <c r="E42">
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -2684,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K42">
-        <v>37800</v>
+        <v>529.8</v>
       </c>
       <c r="L42">
-        <v>35639.29</v>
+        <v>506.59</v>
       </c>
       <c r="M42">
-        <v>42121.43</v>
+        <v>576.23</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2704,40 +2692,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D43">
-        <v>14.46</v>
+        <v>49.76</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G43">
-        <v>82.83</v>
+        <v>49.76</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K43">
-        <v>1675</v>
+        <v>962.65</v>
       </c>
       <c r="L43">
-        <v>1573.54</v>
+        <v>926.41</v>
       </c>
       <c r="M43">
-        <v>1877.91</v>
+        <v>1035.14</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2748,40 +2736,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44">
+        <v>48.73</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
         <v>137</v>
       </c>
-      <c r="D44">
-        <v>12.05</v>
-      </c>
-      <c r="E44">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
       <c r="G44">
-        <v>100</v>
+        <v>48.73</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>530.15</v>
+        <v>32345</v>
       </c>
       <c r="L44">
-        <v>506.94</v>
+        <v>31257.14</v>
       </c>
       <c r="M44">
-        <v>576.58</v>
+        <v>34520.71</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2792,40 +2780,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45">
-        <v>48.73</v>
+        <v>44.94</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G45">
-        <v>48.73</v>
+        <v>44.94</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K45">
-        <v>32305</v>
+        <v>1458.8</v>
       </c>
       <c r="L45">
-        <v>31227.14</v>
+        <v>1407.81</v>
       </c>
       <c r="M45">
-        <v>34460.71</v>
+        <v>1560.77</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2836,40 +2824,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46">
-        <v>44.94</v>
+        <v>44.58</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G46">
-        <v>44.94</v>
+        <v>44.58</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K46">
-        <v>1461.4</v>
+        <v>457.5</v>
       </c>
       <c r="L46">
-        <v>1408.06</v>
+        <v>424.26</v>
       </c>
       <c r="M46">
-        <v>1568.08</v>
+        <v>523.99</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2880,40 +2868,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47">
         <v>44.58</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G47">
-        <v>44.58</v>
+        <v>76.81</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K47">
-        <v>457.8</v>
+        <v>341.85</v>
       </c>
       <c r="L47">
-        <v>424.56</v>
+        <v>323.49</v>
       </c>
       <c r="M47">
-        <v>524.29</v>
+        <v>378.58</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2924,19 +2912,19 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D48">
         <v>44.58</v>
       </c>
       <c r="E48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -2948,16 +2936,16 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K48">
-        <v>465.6</v>
+        <v>464.5</v>
       </c>
       <c r="L48">
-        <v>441</v>
+        <v>439.56</v>
       </c>
       <c r="M48">
-        <v>514.8</v>
+        <v>514.39</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2968,19 +2956,19 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>43.37</v>
       </c>
       <c r="E49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G49">
         <v>43.37</v>
@@ -2992,16 +2980,16 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K49">
-        <v>1465.3</v>
+        <v>1465.6</v>
       </c>
       <c r="L49">
-        <v>1385.26</v>
+        <v>1385.56</v>
       </c>
       <c r="M49">
-        <v>1625.39</v>
+        <v>1625.69</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3012,19 +3000,19 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D50">
         <v>43.37</v>
       </c>
       <c r="E50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G50">
         <v>43.37</v>
@@ -3036,16 +3024,16 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K50">
-        <v>264.4</v>
+        <v>261.34</v>
       </c>
       <c r="L50">
-        <v>243.73</v>
+        <v>240.67</v>
       </c>
       <c r="M50">
-        <v>305.73</v>
+        <v>302.67</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3056,19 +3044,19 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D51">
         <v>43.37</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G51">
         <v>43.37</v>
@@ -3080,16 +3068,16 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K51">
-        <v>186</v>
+        <v>186.22</v>
       </c>
       <c r="L51">
-        <v>170.5</v>
+        <v>170.64</v>
       </c>
       <c r="M51">
-        <v>217.01</v>
+        <v>217.38</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3100,10 +3088,10 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D52">
         <v>40.96</v>
@@ -3112,28 +3100,28 @@
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G52">
-        <v>84.04000000000001</v>
+        <v>70.42</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K52">
-        <v>406.2</v>
+        <v>1190</v>
       </c>
       <c r="L52">
-        <v>380.56</v>
+        <v>1119.59</v>
       </c>
       <c r="M52">
-        <v>457.49</v>
+        <v>1330.83</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3144,40 +3132,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53">
+        <v>40.96</v>
+      </c>
+      <c r="E53">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
         <v>140</v>
       </c>
-      <c r="D53">
-        <v>57.35</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>150</v>
-      </c>
       <c r="G53">
-        <v>63.37</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K53">
-        <v>1472.6</v>
+        <v>404.9</v>
       </c>
       <c r="L53">
-        <v>1436.83</v>
+        <v>379.26</v>
       </c>
       <c r="M53">
-        <v>1544.14</v>
+        <v>456.19</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3188,40 +3176,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54">
-        <v>39.76</v>
+        <v>57.35</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G54">
-        <v>39.76</v>
+        <v>63.37</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K54">
-        <v>374.5</v>
+        <v>1473.6</v>
       </c>
       <c r="L54">
-        <v>353.61</v>
+        <v>1437.83</v>
       </c>
       <c r="M54">
-        <v>416.27</v>
+        <v>1545.14</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3232,40 +3220,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D55">
-        <v>36.14</v>
+        <v>38.55</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G55">
-        <v>49.58</v>
+        <v>47.53</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K55">
-        <v>72.14</v>
+        <v>1241.6</v>
       </c>
       <c r="L55">
-        <v>69.36</v>
+        <v>1169.81</v>
       </c>
       <c r="M55">
-        <v>77.69</v>
+        <v>1385.17</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3276,40 +3264,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56">
-        <v>35.3</v>
+        <v>37.35</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G56">
-        <v>35.3</v>
+        <v>39.76</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K56">
-        <v>394.3</v>
+        <v>370.95</v>
       </c>
       <c r="L56">
-        <v>382.98</v>
+        <v>350.06</v>
       </c>
       <c r="M56">
-        <v>416.94</v>
+        <v>412.72</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3320,40 +3308,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D57">
-        <v>33.73</v>
+        <v>36.14</v>
       </c>
       <c r="E57">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G57">
-        <v>47.53</v>
+        <v>49.58</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K57">
-        <v>1243.2</v>
+        <v>72.14</v>
       </c>
       <c r="L57">
-        <v>1171.41</v>
+        <v>69.36</v>
       </c>
       <c r="M57">
-        <v>1386.77</v>
+        <v>77.69</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3364,40 +3352,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D58">
-        <v>32.53</v>
+        <v>36.14</v>
       </c>
       <c r="E58">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G58">
-        <v>43.37</v>
+        <v>36.14</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K58">
-        <v>2756.8</v>
+        <v>251.7</v>
       </c>
       <c r="L58">
-        <v>2653.27</v>
+        <v>235.82</v>
       </c>
       <c r="M58">
-        <v>2963.86</v>
+        <v>283.46</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3408,40 +3396,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D59">
-        <v>32.53</v>
+        <v>36.14</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G59">
-        <v>57.17</v>
+        <v>36.14</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K59">
-        <v>241.28</v>
+        <v>514.8</v>
       </c>
       <c r="L59">
-        <v>229.7</v>
+        <v>483.08</v>
       </c>
       <c r="M59">
-        <v>264.43</v>
+        <v>578.24</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3452,40 +3440,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D60">
-        <v>31.33</v>
+        <v>35.3</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G60">
-        <v>31.33</v>
+        <v>35.3</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K60">
-        <v>252.39</v>
+        <v>394.25</v>
       </c>
       <c r="L60">
-        <v>236.51</v>
+        <v>382.98</v>
       </c>
       <c r="M60">
-        <v>284.15</v>
+        <v>416.79</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3496,40 +3484,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D61">
-        <v>30.12</v>
+        <v>32.53</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G61">
-        <v>37.35</v>
+        <v>43.37</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K61">
-        <v>280.6</v>
+        <v>2756.9</v>
       </c>
       <c r="L61">
-        <v>265.38</v>
+        <v>2653.37</v>
       </c>
       <c r="M61">
-        <v>311.04</v>
+        <v>2963.96</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3540,40 +3528,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D62">
-        <v>30.12</v>
+        <v>32.53</v>
       </c>
       <c r="E62">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G62">
-        <v>34.94</v>
+        <v>57.17</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K62">
-        <v>385.45</v>
+        <v>241.16</v>
       </c>
       <c r="L62">
-        <v>367.86</v>
+        <v>229.58</v>
       </c>
       <c r="M62">
-        <v>420.64</v>
+        <v>264.31</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3584,19 +3572,19 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D63">
-        <v>30.12</v>
+        <v>31.33</v>
       </c>
       <c r="E63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G63">
         <v>38.55</v>
@@ -3608,16 +3596,16 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K63">
-        <v>552.65</v>
+        <v>552.2</v>
       </c>
       <c r="L63">
-        <v>515.74</v>
+        <v>515.29</v>
       </c>
       <c r="M63">
-        <v>626.46</v>
+        <v>626.01</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3628,40 +3616,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64">
         <v>30.12</v>
       </c>
       <c r="E64">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G64">
-        <v>63.86</v>
+        <v>34.94</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K64">
-        <v>1009.15</v>
+        <v>385.95</v>
       </c>
       <c r="L64">
-        <v>957.3099999999999</v>
+        <v>368.36</v>
       </c>
       <c r="M64">
-        <v>1112.82</v>
+        <v>421.14</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3672,22 +3660,22 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D65">
-        <v>28.92</v>
+        <v>30.12</v>
       </c>
       <c r="E65">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G65">
-        <v>45.78</v>
+        <v>63.86</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3696,16 +3684,16 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K65">
-        <v>785.55</v>
+        <v>1008.35</v>
       </c>
       <c r="L65">
-        <v>722.74</v>
+        <v>956.51</v>
       </c>
       <c r="M65">
-        <v>911.1799999999999</v>
+        <v>1112.02</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3716,40 +3704,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D66">
-        <v>27.71</v>
+        <v>30.12</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
         <v>147</v>
       </c>
       <c r="G66">
-        <v>36.14</v>
+        <v>37.35</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K66">
-        <v>513.05</v>
+        <v>280.5</v>
       </c>
       <c r="L66">
-        <v>481.33</v>
+        <v>265.28</v>
       </c>
       <c r="M66">
-        <v>576.49</v>
+        <v>310.94</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3760,40 +3748,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67">
-        <v>26.69</v>
+        <v>28.92</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G67">
-        <v>32.71</v>
+        <v>45.78</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K67">
-        <v>951.85</v>
+        <v>787.15</v>
       </c>
       <c r="L67">
-        <v>924.26</v>
+        <v>724.34</v>
       </c>
       <c r="M67">
-        <v>1007.03</v>
+        <v>912.78</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3804,22 +3792,22 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68">
-        <v>25.3</v>
+        <v>26.69</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G68">
-        <v>25.3</v>
+        <v>32.71</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -3828,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K68">
-        <v>960.95</v>
+        <v>952.55</v>
       </c>
       <c r="L68">
-        <v>925.3099999999999</v>
+        <v>924.3200000000001</v>
       </c>
       <c r="M68">
-        <v>1032.24</v>
+        <v>1009</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3848,40 +3836,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69">
+        <v>25.3</v>
+      </c>
+      <c r="E69">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s">
         <v>138</v>
       </c>
-      <c r="D69">
-        <v>22.89</v>
-      </c>
-      <c r="E69">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>141</v>
-      </c>
       <c r="G69">
-        <v>44.58</v>
+        <v>50.78</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K69">
-        <v>2664.5</v>
+        <v>751.15</v>
       </c>
       <c r="L69">
-        <v>2480.32</v>
+        <v>710.61</v>
       </c>
       <c r="M69">
-        <v>3032.87</v>
+        <v>832.24</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3892,19 +3880,19 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D70">
         <v>21.69</v>
       </c>
       <c r="E70">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G70">
         <v>53.55</v>
@@ -3916,16 +3904,16 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K70">
-        <v>1792.9</v>
+        <v>1793.1</v>
       </c>
       <c r="L70">
-        <v>1706.4</v>
+        <v>1706.6</v>
       </c>
       <c r="M70">
-        <v>1965.9</v>
+        <v>1966.1</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3936,40 +3924,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D71">
-        <v>21.69</v>
+        <v>20.48</v>
       </c>
       <c r="E71">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G71">
-        <v>61.81</v>
+        <v>20.48</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K71">
-        <v>3741.9</v>
+        <v>2548.4</v>
       </c>
       <c r="L71">
-        <v>3519.77</v>
+        <v>2514.92</v>
       </c>
       <c r="M71">
-        <v>4186.16</v>
+        <v>2615.35</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3980,19 +3968,19 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D72">
         <v>20.48</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G72">
         <v>34.94</v>
@@ -4001,19 +3989,19 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K72">
-        <v>472.3</v>
+        <v>473.8</v>
       </c>
       <c r="L72">
-        <v>444.79</v>
+        <v>446.29</v>
       </c>
       <c r="M72">
-        <v>527.3099999999999</v>
+        <v>528.8099999999999</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4024,40 +4012,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D73">
-        <v>20.48</v>
+        <v>18.07</v>
       </c>
       <c r="E73">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G73">
-        <v>50.78</v>
+        <v>21.69</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K73">
-        <v>750.05</v>
+        <v>444.2</v>
       </c>
       <c r="L73">
-        <v>709.51</v>
+        <v>427.64</v>
       </c>
       <c r="M73">
-        <v>831.14</v>
+        <v>477.32</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4068,40 +4056,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G74">
-        <v>20.48</v>
+        <v>22.89</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K74">
-        <v>2549.2</v>
+        <v>182.8</v>
       </c>
       <c r="L74">
-        <v>2515</v>
+        <v>173.06</v>
       </c>
       <c r="M74">
-        <v>2617.6</v>
+        <v>202.28</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4112,40 +4100,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G75">
-        <v>21.69</v>
+        <v>61.81</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K75">
-        <v>444.2</v>
+        <v>3736</v>
       </c>
       <c r="L75">
-        <v>427.72</v>
+        <v>3513.87</v>
       </c>
       <c r="M75">
-        <v>477.17</v>
+        <v>4180.26</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4156,19 +4144,19 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D76">
         <v>16.87</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G76">
         <v>16.87</v>
@@ -4177,19 +4165,19 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K76">
-        <v>100.73</v>
+        <v>529.6</v>
       </c>
       <c r="L76">
-        <v>95.88</v>
+        <v>505.73</v>
       </c>
       <c r="M76">
-        <v>110.43</v>
+        <v>577.35</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4200,22 +4188,22 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D77">
         <v>16.87</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4224,16 +4212,16 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K77">
-        <v>182.96</v>
+        <v>100.45</v>
       </c>
       <c r="L77">
-        <v>173.07</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="M77">
-        <v>202.73</v>
+        <v>109.65</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4244,40 +4232,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D78">
         <v>15.66</v>
       </c>
       <c r="E78">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G78">
-        <v>59.76</v>
+        <v>19.28</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K78">
-        <v>6963</v>
+        <v>5948</v>
       </c>
       <c r="L78">
-        <v>6657.07</v>
+        <v>5761.98</v>
       </c>
       <c r="M78">
-        <v>7574.86</v>
+        <v>6320.03</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4288,19 +4276,19 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D79">
         <v>15.66</v>
       </c>
       <c r="E79">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G79">
         <v>27.89</v>
@@ -4312,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K79">
-        <v>2033.8</v>
+        <v>2035.8</v>
       </c>
       <c r="L79">
-        <v>1975.06</v>
+        <v>1975.22</v>
       </c>
       <c r="M79">
-        <v>2151.28</v>
+        <v>2156.96</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4332,40 +4320,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80">
         <v>15.66</v>
       </c>
       <c r="E80">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G80">
-        <v>19.28</v>
+        <v>59.76</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K80">
-        <v>5948.5</v>
+        <v>6960.5</v>
       </c>
       <c r="L80">
-        <v>5762.41</v>
+        <v>6654.57</v>
       </c>
       <c r="M80">
-        <v>6320.69</v>
+        <v>7572.36</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4376,19 +4364,19 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D81">
         <v>15.66</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G81">
         <v>15.66</v>
@@ -4400,16 +4388,16 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K81">
-        <v>1575.8</v>
+        <v>1578.6</v>
       </c>
       <c r="L81">
-        <v>1526.42</v>
+        <v>1526.49</v>
       </c>
       <c r="M81">
-        <v>1674.55</v>
+        <v>1682.82</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4420,19 +4408,19 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D82">
-        <v>14.46</v>
+        <v>15.66</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G82">
         <v>20.48</v>
@@ -4444,16 +4432,16 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K82">
-        <v>196.74</v>
+        <v>196.69</v>
       </c>
       <c r="L82">
-        <v>188.89</v>
+        <v>188.84</v>
       </c>
       <c r="M82">
-        <v>212.45</v>
+        <v>212.4</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4464,40 +4452,40 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D83">
-        <v>14.46</v>
+        <v>15.66</v>
       </c>
       <c r="E83">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
         <v>141</v>
       </c>
       <c r="G83">
-        <v>61.99</v>
+        <v>15.66</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K83">
-        <v>2670.3</v>
+        <v>762.8</v>
       </c>
       <c r="L83">
-        <v>2516.46</v>
+        <v>733.23</v>
       </c>
       <c r="M83">
-        <v>2977.99</v>
+        <v>821.9400000000001</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4508,40 +4496,40 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D84">
         <v>14.46</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G84">
-        <v>41.14</v>
+        <v>61.99</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K84">
-        <v>457.1</v>
+        <v>2670.5</v>
       </c>
       <c r="L84">
-        <v>446.56</v>
+        <v>2516.66</v>
       </c>
       <c r="M84">
-        <v>478.18</v>
+        <v>2978.19</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4552,19 +4540,19 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D85">
         <v>14.46</v>
       </c>
       <c r="E85">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G85">
         <v>45.78</v>
@@ -4576,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K85">
-        <v>157.02</v>
+        <v>157.33</v>
       </c>
       <c r="L85">
-        <v>147.07</v>
+        <v>147.38</v>
       </c>
       <c r="M85">
-        <v>176.92</v>
+        <v>177.23</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4596,19 +4584,19 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D86">
         <v>13.25</v>
       </c>
       <c r="E86">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G86">
         <v>63.86</v>
@@ -4620,16 +4608,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K86">
-        <v>2480</v>
+        <v>2479.7</v>
       </c>
       <c r="L86">
-        <v>2409.82</v>
+        <v>2409.79</v>
       </c>
       <c r="M86">
-        <v>2620.37</v>
+        <v>2619.53</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4643,37 +4631,37 @@
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D87">
         <v>12.05</v>
       </c>
       <c r="E87">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G87">
-        <v>15.66</v>
+        <v>12.05</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K87">
-        <v>3495.8</v>
+        <v>1849.9</v>
       </c>
       <c r="L87">
-        <v>3345.04</v>
+        <v>1782.74</v>
       </c>
       <c r="M87">
-        <v>3797.32</v>
+        <v>1984.21</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4684,40 +4672,40 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D88">
         <v>12.05</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G88">
-        <v>12.05</v>
+        <v>34.94</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K88">
-        <v>530.1</v>
+        <v>220.03</v>
       </c>
       <c r="L88">
-        <v>505.77</v>
+        <v>208.19</v>
       </c>
       <c r="M88">
-        <v>578.75</v>
+        <v>243.71</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4728,40 +4716,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D89">
         <v>12.05</v>
       </c>
       <c r="E89">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G89">
-        <v>52.35</v>
+        <v>15.66</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K89">
-        <v>360.6</v>
+        <v>3500.6</v>
       </c>
       <c r="L89">
-        <v>348.08</v>
+        <v>3346.76</v>
       </c>
       <c r="M89">
-        <v>385.64</v>
+        <v>3808.29</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4772,40 +4760,40 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D90">
         <v>12.05</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G90">
-        <v>12.05</v>
+        <v>52.35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K90">
-        <v>1850.1</v>
+        <v>360.35</v>
       </c>
       <c r="L90">
-        <v>1782.76</v>
+        <v>348.06</v>
       </c>
       <c r="M90">
-        <v>1984.78</v>
+        <v>384.94</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4816,22 +4804,22 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D91">
         <v>12.05</v>
       </c>
       <c r="E91">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G91">
-        <v>34.94</v>
+        <v>65.06</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4840,16 +4828,16 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K91">
-        <v>220.03</v>
+        <v>823.35</v>
       </c>
       <c r="L91">
-        <v>208.19</v>
+        <v>789.13</v>
       </c>
       <c r="M91">
-        <v>243.71</v>
+        <v>891.79</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -4860,40 +4848,40 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D92">
-        <v>12.05</v>
+        <v>10.84</v>
       </c>
       <c r="E92">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G92">
-        <v>65.06</v>
+        <v>10.84</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K92">
-        <v>822.65</v>
+        <v>1687.6</v>
       </c>
       <c r="L92">
-        <v>788.4299999999999</v>
+        <v>1654.73</v>
       </c>
       <c r="M92">
-        <v>891.09</v>
+        <v>1753.34</v>
       </c>
       <c r="N92">
         <v>2</v>
@@ -4904,40 +4892,40 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D93">
         <v>10.84</v>
       </c>
       <c r="E93">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G93">
-        <v>15.66</v>
+        <v>21.69</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K93">
-        <v>3259.8</v>
+        <v>12452</v>
       </c>
       <c r="L93">
-        <v>3134.32</v>
+        <v>12209.47</v>
       </c>
       <c r="M93">
-        <v>3510.76</v>
+        <v>12937.05</v>
       </c>
       <c r="N93">
         <v>2</v>
@@ -4948,40 +4936,40 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D94">
         <v>10.84</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G94">
         <v>15.66</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K94">
-        <v>759.85</v>
+        <v>3257.2</v>
       </c>
       <c r="L94">
-        <v>732.95</v>
+        <v>3134.07</v>
       </c>
       <c r="M94">
-        <v>813.65</v>
+        <v>3503.46</v>
       </c>
       <c r="N94">
         <v>2</v>
@@ -4995,37 +4983,37 @@
         <v>127</v>
       </c>
       <c r="C95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95">
+        <v>8.43</v>
+      </c>
+      <c r="E95">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s">
         <v>138</v>
       </c>
-      <c r="D95">
-        <v>10.84</v>
-      </c>
-      <c r="E95">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>150</v>
-      </c>
       <c r="G95">
-        <v>10.84</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K95">
-        <v>1686.2</v>
+        <v>190.67</v>
       </c>
       <c r="L95">
-        <v>1654.69</v>
+        <v>183.56</v>
       </c>
       <c r="M95">
-        <v>1749.23</v>
+        <v>204.9</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -5036,40 +5024,40 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D96">
-        <v>10.84</v>
+        <v>8.43</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G96">
-        <v>21.69</v>
+        <v>13.25</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K96">
-        <v>12443</v>
+        <v>690.05</v>
       </c>
       <c r="L96">
-        <v>12208.61</v>
+        <v>669.95</v>
       </c>
       <c r="M96">
-        <v>12911.77</v>
+        <v>730.25</v>
       </c>
       <c r="N96">
         <v>2</v>
@@ -5080,40 +5068,40 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97">
         <v>8.43</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G97">
-        <v>13.25</v>
+        <v>21.69</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K97">
-        <v>690</v>
+        <v>16112</v>
       </c>
       <c r="L97">
-        <v>669.9400000000001</v>
+        <v>15431.43</v>
       </c>
       <c r="M97">
-        <v>730.11</v>
+        <v>17473.14</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -5124,40 +5112,40 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98">
         <v>8.43</v>
       </c>
       <c r="E98">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G98">
-        <v>10.84</v>
+        <v>26.51</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K98">
-        <v>2006.6</v>
+        <v>9188</v>
       </c>
       <c r="L98">
-        <v>1973.8</v>
+        <v>8643.209999999999</v>
       </c>
       <c r="M98">
-        <v>2072.2</v>
+        <v>10277.57</v>
       </c>
       <c r="N98">
         <v>2</v>
@@ -5168,40 +5156,40 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D99">
         <v>8.43</v>
       </c>
       <c r="E99">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G99">
-        <v>21.69</v>
+        <v>10.84</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K99">
-        <v>16093</v>
+        <v>2007.1</v>
       </c>
       <c r="L99">
-        <v>15417.15</v>
+        <v>1973.85</v>
       </c>
       <c r="M99">
-        <v>17444.7</v>
+        <v>2073.61</v>
       </c>
       <c r="N99">
         <v>2</v>
@@ -5212,22 +5200,22 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D100">
-        <v>8.43</v>
+        <v>7.23</v>
       </c>
       <c r="E100">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G100">
-        <v>26.51</v>
+        <v>39.76</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5236,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K100">
-        <v>9177.5</v>
+        <v>283.51</v>
       </c>
       <c r="L100">
-        <v>8632.709999999999</v>
+        <v>265.64</v>
       </c>
       <c r="M100">
-        <v>10267.07</v>
+        <v>319.24</v>
       </c>
       <c r="N100">
         <v>2</v>
@@ -5256,22 +5244,22 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D101">
-        <v>7.23</v>
+        <v>6.02</v>
       </c>
       <c r="E101">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G101">
-        <v>39.76</v>
+        <v>31.33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5280,16 +5268,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K101">
-        <v>283.64</v>
+        <v>1167.6</v>
       </c>
       <c r="L101">
-        <v>265.66</v>
+        <v>1099.59</v>
       </c>
       <c r="M101">
-        <v>319.61</v>
+        <v>1303.63</v>
       </c>
       <c r="N101">
         <v>2</v>
@@ -5300,22 +5288,22 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D102">
-        <v>7.23</v>
+        <v>4.82</v>
       </c>
       <c r="E102">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G102">
-        <v>65.59999999999999</v>
+        <v>32.71</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -5324,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K102">
-        <v>190.46</v>
+        <v>965</v>
       </c>
       <c r="L102">
-        <v>183.37</v>
+        <v>937.0700000000001</v>
       </c>
       <c r="M102">
-        <v>204.64</v>
+        <v>1020.87</v>
       </c>
       <c r="N102">
         <v>2</v>
@@ -5347,19 +5335,19 @@
         <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D103">
-        <v>6.02</v>
+        <v>4.82</v>
       </c>
       <c r="E103">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
         <v>141</v>
       </c>
       <c r="G103">
-        <v>31.33</v>
+        <v>60.78</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5368,16 +5356,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K103">
-        <v>1166.3</v>
+        <v>3990.3</v>
       </c>
       <c r="L103">
-        <v>1098.29</v>
+        <v>3778.87</v>
       </c>
       <c r="M103">
-        <v>1302.33</v>
+        <v>4413.16</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -5388,22 +5376,22 @@
         <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D104">
-        <v>6.02</v>
+        <v>4.82</v>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G104">
-        <v>30.12</v>
+        <v>4.82</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5412,194 +5400,18 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K104">
-        <v>593.7</v>
+        <v>2758.2</v>
       </c>
       <c r="L104">
-        <v>570.66</v>
+        <v>2659.12</v>
       </c>
       <c r="M104">
-        <v>639.79</v>
+        <v>2956.35</v>
       </c>
       <c r="N104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105">
-        <v>6.02</v>
-      </c>
-      <c r="E105">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>146</v>
-      </c>
-      <c r="G105">
-        <v>48.19</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>157</v>
-      </c>
-      <c r="K105">
-        <v>118.58</v>
-      </c>
-      <c r="L105">
-        <v>112.3</v>
-      </c>
-      <c r="M105">
-        <v>131.14</v>
-      </c>
-      <c r="N105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
-      <c r="A106" t="s">
-        <v>118</v>
-      </c>
-      <c r="B106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106">
-        <v>4.82</v>
-      </c>
-      <c r="E106">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>147</v>
-      </c>
-      <c r="G106">
-        <v>4.82</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>157</v>
-      </c>
-      <c r="K106">
-        <v>2760</v>
-      </c>
-      <c r="L106">
-        <v>2659.29</v>
-      </c>
-      <c r="M106">
-        <v>2961.41</v>
-      </c>
-      <c r="N106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" t="s">
-        <v>138</v>
-      </c>
-      <c r="D107">
-        <v>4.82</v>
-      </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>150</v>
-      </c>
-      <c r="G107">
-        <v>32.71</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>157</v>
-      </c>
-      <c r="K107">
-        <v>966.6</v>
-      </c>
-      <c r="L107">
-        <v>937.22</v>
-      </c>
-      <c r="M107">
-        <v>1025.36</v>
-      </c>
-      <c r="N107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108">
-        <v>4.82</v>
-      </c>
-      <c r="E108">
-        <v>30</v>
-      </c>
-      <c r="F108" t="s">
-        <v>144</v>
-      </c>
-      <c r="G108">
-        <v>60.78</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>157</v>
-      </c>
-      <c r="K108">
-        <v>3992.5</v>
-      </c>
-      <c r="L108">
-        <v>3781.07</v>
-      </c>
-      <c r="M108">
-        <v>4415.36</v>
-      </c>
-      <c r="N108">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="138">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,409 +58,361 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
     <t>CRAFTSMAN</t>
   </si>
   <si>
-    <t>HDFCAMC</t>
+    <t>KCP</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
   </si>
   <si>
     <t>PATANJALI</t>
   </si>
   <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
     <t>SUMICHEM</t>
   </si>
   <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>KCP</t>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>RHIM</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>RRKABEL</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>UTIAMC</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>APTUS</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>ELGIEQUIP</t>
   </si>
   <si>
     <t>TI</t>
   </si>
   <si>
-    <t>DALBHARAT</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>STLTECH</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>HARIOMPIPE</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>NAM-INDIA</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>SOBHA</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>NAVA</t>
   </si>
   <si>
     <t>GMDCLTD</t>
   </si>
   <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
     <t>CHEMPLASTS</t>
   </si>
   <si>
+    <t>MRPL</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>AWL</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>JMFINANCIL</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
     <t>BIRLACORPN</t>
   </si>
   <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
-    <t>THOMASCOOK</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>KAJARIACER</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>RHIM</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>MAXESTATES</t>
+    <t>LTF</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>JSWINFRA</t>
+  </si>
+  <si>
+    <t>JKLAKSHMI</t>
   </si>
   <si>
     <t>MAHLIFE</t>
   </si>
   <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>CHENNPETRO</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>PRESTIGE</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
-    <t>TIMETECHNO</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>MANKIND</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>DEEPINDS</t>
+  </si>
+  <si>
+    <t>SBFC</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
   </si>
   <si>
     <t>CENTENKA</t>
   </si>
   <si>
-    <t>SHRIRAMPPS</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>UBL</t>
-  </si>
-  <si>
-    <t>POLYCAB</t>
-  </si>
-  <si>
-    <t>HAVELLS</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>MANKIND</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>MAPMYINDIA</t>
-  </si>
-  <si>
-    <t>NYKAA</t>
-  </si>
-  <si>
-    <t>TIMKEN</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
     <t>M&amp;M</t>
   </si>
   <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
     <t>PTC</t>
   </si>
   <si>
+    <t>AARTIPHARM</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>RADICO</t>
+  </si>
+  <si>
     <t>HINDALCO</t>
   </si>
   <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>KEI</t>
-  </si>
-  <si>
-    <t>RADICO</t>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Basic Materials</t>
   </si>
   <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Industrials</t>
+    <t>Healthcare</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>G_Pattern</t>
-  </si>
-  <si>
     <t>Building_G</t>
   </si>
   <si>
     <t>H2_Momentum_Start</t>
   </si>
   <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>KC_Multi_H2</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
     <t>Power_H2_Volume</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
-    <t>KC_Multi_H2</t>
-  </si>
-  <si>
     <t>Strong_H2_KC_Combo</t>
   </si>
   <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
     <t>2025-07-07</t>
   </si>
   <si>
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
   </si>
   <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
+    <t>2025-07-17</t>
   </si>
   <si>
     <t>2025-07-10</t>
   </si>
   <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
     <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
@@ -833,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,40 +840,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K2">
-        <v>620.55</v>
+        <v>1064.4</v>
       </c>
       <c r="L2">
-        <v>599.23</v>
+        <v>1002.57</v>
       </c>
       <c r="M2">
-        <v>663.1900000000001</v>
+        <v>1188.06</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -932,40 +884,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>88.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K3">
-        <v>6555.5</v>
+        <v>266.51</v>
       </c>
       <c r="L3">
-        <v>6179.71</v>
+        <v>252.75</v>
       </c>
       <c r="M3">
-        <v>7307.07</v>
+        <v>294.02</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -976,40 +928,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D4">
-        <v>63.86</v>
+        <v>60.42</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>60.42</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K4">
-        <v>5592.5</v>
+        <v>1476.6</v>
       </c>
       <c r="L4">
-        <v>5344.93</v>
+        <v>1412.53</v>
       </c>
       <c r="M4">
-        <v>6087.64</v>
+        <v>1604.74</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1020,40 +972,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>63.86</v>
+        <v>59.58</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K5">
-        <v>1942</v>
+        <v>440.8</v>
       </c>
       <c r="L5">
-        <v>1848.14</v>
+        <v>420.29</v>
       </c>
       <c r="M5">
-        <v>2129.71</v>
+        <v>481.81</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1064,40 +1016,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D6">
-        <v>53.01</v>
+        <v>49.4</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G6">
         <v>100</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K6">
-        <v>593.55</v>
+        <v>5589.5</v>
       </c>
       <c r="L6">
-        <v>553.6799999999999</v>
+        <v>5347.71</v>
       </c>
       <c r="M6">
-        <v>673.29</v>
+        <v>6073.07</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1108,19 +1060,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>46.99</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1129,19 +1081,19 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K7">
-        <v>1051.05</v>
+        <v>621</v>
       </c>
       <c r="L7">
-        <v>996.6799999999999</v>
+        <v>599.91</v>
       </c>
       <c r="M7">
-        <v>1159.79</v>
+        <v>663.17</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1152,19 +1104,19 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>46.99</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1173,19 +1125,19 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K8">
-        <v>260.39</v>
+        <v>6390.5</v>
       </c>
       <c r="L8">
-        <v>247.37</v>
+        <v>5990.71</v>
       </c>
       <c r="M8">
-        <v>286.43</v>
+        <v>7190.07</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1196,19 +1148,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>45.78</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -1217,19 +1169,19 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K9">
-        <v>220.93</v>
+        <v>218.48</v>
       </c>
       <c r="L9">
-        <v>207.47</v>
+        <v>205.18</v>
       </c>
       <c r="M9">
-        <v>247.85</v>
+        <v>245.09</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1240,40 +1192,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>37.35</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>49.58</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="K10">
-        <v>470.35</v>
+        <v>71.75</v>
       </c>
       <c r="L10">
-        <v>430.66</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="M10">
-        <v>549.74</v>
+        <v>76.73</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1284,40 +1236,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>69.22</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>69.22</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K11">
-        <v>2320.2</v>
+        <v>970</v>
       </c>
       <c r="L11">
-        <v>2219.69</v>
+        <v>933.37</v>
       </c>
       <c r="M11">
-        <v>2521.23</v>
+        <v>1043.26</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1328,40 +1280,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D12">
-        <v>67.47</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K12">
-        <v>972.35</v>
+        <v>273.16</v>
       </c>
       <c r="L12">
-        <v>899.11</v>
+        <v>250.93</v>
       </c>
       <c r="M12">
-        <v>1118.84</v>
+        <v>317.63</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1372,40 +1324,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
       <c r="D13">
-        <v>61.45</v>
+        <v>38.55</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K13">
-        <v>183.5</v>
+        <v>568.7</v>
       </c>
       <c r="L13">
-        <v>172.37</v>
+        <v>517.61</v>
       </c>
       <c r="M13">
-        <v>205.77</v>
+        <v>670.87</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1416,19 +1368,19 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>60.24</v>
+        <v>38.55</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G14">
         <v>100</v>
@@ -1437,19 +1389,19 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K14">
-        <v>3944.5</v>
+        <v>1906.1</v>
       </c>
       <c r="L14">
-        <v>3697.71</v>
+        <v>1806.59</v>
       </c>
       <c r="M14">
-        <v>4438.07</v>
+        <v>2105.13</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1460,40 +1412,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D15">
-        <v>57.83</v>
+        <v>38.55</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K15">
-        <v>935.8</v>
+        <v>300.85</v>
       </c>
       <c r="L15">
-        <v>896.51</v>
+        <v>281.89</v>
       </c>
       <c r="M15">
-        <v>1014.39</v>
+        <v>338.78</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1504,40 +1456,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D16">
-        <v>45.78</v>
+        <v>37.35</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K16">
-        <v>485.25</v>
+        <v>410.35</v>
       </c>
       <c r="L16">
-        <v>466.62</v>
+        <v>383.99</v>
       </c>
       <c r="M16">
-        <v>522.51</v>
+        <v>463.06</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1548,40 +1500,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>42.17</v>
+        <v>37.35</v>
       </c>
       <c r="E17">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K17">
-        <v>436.85</v>
+        <v>2671.7</v>
       </c>
       <c r="L17">
-        <v>415.95</v>
+        <v>2478</v>
       </c>
       <c r="M17">
-        <v>478.65</v>
+        <v>3059.1</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1592,40 +1544,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D18">
-        <v>38.55</v>
+        <v>37.35</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G18">
-        <v>77.83</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="K18">
-        <v>119.78</v>
+        <v>722.25</v>
       </c>
       <c r="L18">
-        <v>108.03</v>
+        <v>689</v>
       </c>
       <c r="M18">
-        <v>143.28</v>
+        <v>788.75</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1636,40 +1588,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <v>85.23999999999999</v>
+        <v>37.35</v>
       </c>
       <c r="E19">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G19">
-        <v>85.23999999999999</v>
+        <v>92.11</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K19">
-        <v>722.85</v>
+        <v>616.05</v>
       </c>
       <c r="L19">
-        <v>688.6900000000001</v>
+        <v>568.49</v>
       </c>
       <c r="M19">
-        <v>791.16</v>
+        <v>711.1799999999999</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1680,40 +1632,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D20">
-        <v>53.55</v>
+        <v>36.14</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>76.81</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K20">
-        <v>17507</v>
+        <v>340.55</v>
       </c>
       <c r="L20">
-        <v>16106.86</v>
+        <v>321.71</v>
       </c>
       <c r="M20">
-        <v>20307.29</v>
+        <v>378.24</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1724,40 +1676,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>92.47</v>
+        <v>34.94</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G21">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K21">
-        <v>299.8</v>
+        <v>587.35</v>
       </c>
       <c r="L21">
-        <v>281.22</v>
+        <v>549.87</v>
       </c>
       <c r="M21">
-        <v>336.96</v>
+        <v>662.3200000000001</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1768,22 +1720,22 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D22">
-        <v>84.04000000000001</v>
+        <v>33.73</v>
       </c>
       <c r="E22">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G22">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1792,16 +1744,16 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K22">
-        <v>31230</v>
+        <v>179.98</v>
       </c>
       <c r="L22">
-        <v>29962.14</v>
+        <v>168.59</v>
       </c>
       <c r="M22">
-        <v>33765.71</v>
+        <v>202.75</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1812,40 +1764,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D23">
-        <v>82.83</v>
+        <v>33.73</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G23">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K23">
-        <v>417.15</v>
+        <v>930.3</v>
       </c>
       <c r="L23">
-        <v>390.69</v>
+        <v>888.74</v>
       </c>
       <c r="M23">
-        <v>470.06</v>
+        <v>1013.41</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1856,40 +1808,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D24">
-        <v>38.55</v>
+        <v>33.73</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G24">
-        <v>92.11</v>
+        <v>76.81</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K24">
-        <v>621.3</v>
+        <v>524.6</v>
       </c>
       <c r="L24">
-        <v>574.73</v>
+        <v>493.45</v>
       </c>
       <c r="M24">
-        <v>714.4400000000001</v>
+        <v>586.9</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1900,40 +1852,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D25">
-        <v>37.35</v>
+        <v>31.33</v>
       </c>
       <c r="E25">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G25">
-        <v>96.08</v>
+        <v>92.47</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K25">
-        <v>2645.4</v>
+        <v>31385</v>
       </c>
       <c r="L25">
-        <v>2455.34</v>
+        <v>30062.86</v>
       </c>
       <c r="M25">
-        <v>3025.51</v>
+        <v>34029.29</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1944,19 +1896,19 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D26">
-        <v>33.73</v>
+        <v>31.33</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -1965,19 +1917,19 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K26">
-        <v>554.4</v>
+        <v>3856.9</v>
       </c>
       <c r="L26">
-        <v>505.64</v>
+        <v>3617.8</v>
       </c>
       <c r="M26">
-        <v>651.91</v>
+        <v>4335.1</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1988,40 +1940,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
         <v>117</v>
       </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
       <c r="D27">
-        <v>31.33</v>
+        <v>28.92</v>
       </c>
       <c r="E27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G27">
-        <v>91.27</v>
+        <v>86.45</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K27">
-        <v>503.3</v>
+        <v>2019.7</v>
       </c>
       <c r="L27">
-        <v>452.51</v>
+        <v>1904.21</v>
       </c>
       <c r="M27">
-        <v>604.87</v>
+        <v>2250.67</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2032,19 +1984,19 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>28.92</v>
+        <v>27.71</v>
       </c>
       <c r="E28">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -2053,19 +2005,19 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K28">
-        <v>514.8</v>
+        <v>1466.3</v>
       </c>
       <c r="L28">
-        <v>476.27</v>
+        <v>1370.01</v>
       </c>
       <c r="M28">
-        <v>591.86</v>
+        <v>1658.88</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2076,22 +2028,22 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D29">
-        <v>22.89</v>
+        <v>27.71</v>
       </c>
       <c r="E29">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2100,16 +2052,16 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K29">
-        <v>676</v>
+        <v>417.7</v>
       </c>
       <c r="L29">
-        <v>646.05</v>
+        <v>391.15</v>
       </c>
       <c r="M29">
-        <v>735.9</v>
+        <v>470.8</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2120,40 +2072,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D30">
-        <v>20.48</v>
+        <v>22.89</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G30">
-        <v>71.98999999999999</v>
+        <v>70.42</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K30">
-        <v>674.45</v>
+        <v>1183.6</v>
       </c>
       <c r="L30">
-        <v>646.8200000000001</v>
+        <v>1112.47</v>
       </c>
       <c r="M30">
-        <v>729.71</v>
+        <v>1325.86</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2164,19 +2116,19 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>20.48</v>
       </c>
       <c r="E31">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G31">
         <v>73.01000000000001</v>
@@ -2188,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K31">
-        <v>2157.9</v>
+        <v>2140.1</v>
       </c>
       <c r="L31">
-        <v>1989.24</v>
+        <v>1970.13</v>
       </c>
       <c r="M31">
-        <v>2495.21</v>
+        <v>2480.04</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2208,40 +2160,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D32">
-        <v>20.48</v>
+        <v>18.07</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G32">
-        <v>86.45</v>
+        <v>73.19</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K32">
-        <v>1961.8</v>
+        <v>1465</v>
       </c>
       <c r="L32">
-        <v>1860.94</v>
+        <v>1382.99</v>
       </c>
       <c r="M32">
-        <v>2163.52</v>
+        <v>1629.03</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2252,19 +2204,19 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D33">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="E33">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G33">
         <v>100</v>
@@ -2273,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K33">
-        <v>710.05</v>
+        <v>682.8</v>
       </c>
       <c r="L33">
-        <v>655.17</v>
+        <v>652.16</v>
       </c>
       <c r="M33">
-        <v>819.8099999999999</v>
+        <v>744.09</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2296,40 +2248,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="E34">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G34">
         <v>82.65000000000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K34">
-        <v>3503.5</v>
+        <v>3551.2</v>
       </c>
       <c r="L34">
-        <v>3387.96</v>
+        <v>3435.69</v>
       </c>
       <c r="M34">
-        <v>3734.59</v>
+        <v>3782.23</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2340,22 +2292,22 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="E35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G35">
-        <v>73.19</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2364,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K35">
-        <v>1475.4</v>
+        <v>514.8</v>
       </c>
       <c r="L35">
-        <v>1392.4</v>
+        <v>476.01</v>
       </c>
       <c r="M35">
-        <v>1641.4</v>
+        <v>592.37</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2384,40 +2336,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>16.87</v>
+        <v>15.66</v>
       </c>
       <c r="E36">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G36">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K36">
-        <v>413.55</v>
+        <v>3616.4</v>
       </c>
       <c r="L36">
-        <v>386.79</v>
+        <v>3466.04</v>
       </c>
       <c r="M36">
-        <v>467.06</v>
+        <v>3917.11</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2428,40 +2380,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D37">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
       <c r="E37">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G37">
-        <v>79.22</v>
+        <v>100</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K37">
-        <v>857.15</v>
+        <v>395.75</v>
       </c>
       <c r="L37">
-        <v>804.96</v>
+        <v>376.69</v>
       </c>
       <c r="M37">
-        <v>961.52</v>
+        <v>433.86</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2472,19 +2424,19 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D38">
-        <v>15.66</v>
+        <v>14.46</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2496,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K38">
-        <v>3587.4</v>
+        <v>37695</v>
       </c>
       <c r="L38">
-        <v>3442.06</v>
+        <v>35807.86</v>
       </c>
       <c r="M38">
-        <v>3878.09</v>
+        <v>41469.29</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2516,19 +2468,19 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D39">
         <v>14.46</v>
       </c>
       <c r="E39">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -2540,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K39">
-        <v>1287.4</v>
+        <v>703.45</v>
       </c>
       <c r="L39">
-        <v>1215.96</v>
+        <v>649.02</v>
       </c>
       <c r="M39">
-        <v>1430.29</v>
+        <v>812.3099999999999</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2560,19 +2512,19 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D40">
         <v>14.46</v>
       </c>
       <c r="E40">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G40">
         <v>100</v>
@@ -2584,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K40">
-        <v>37755</v>
+        <v>1297.5</v>
       </c>
       <c r="L40">
-        <v>35594.29</v>
+        <v>1222.3</v>
       </c>
       <c r="M40">
-        <v>42076.43</v>
+        <v>1447.9</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2604,40 +2556,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D41">
-        <v>14.46</v>
+        <v>13.25</v>
       </c>
       <c r="E41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G41">
-        <v>82.83</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K41">
-        <v>1672.8</v>
+        <v>676.7</v>
       </c>
       <c r="L41">
-        <v>1571.01</v>
+        <v>646.95</v>
       </c>
       <c r="M41">
-        <v>1876.37</v>
+        <v>736.2</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2648,40 +2600,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
       <c r="D42">
-        <v>12.05</v>
+        <v>10.84</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G42">
         <v>100</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K42">
-        <v>529.8</v>
+        <v>487.65</v>
       </c>
       <c r="L42">
-        <v>506.59</v>
+        <v>468.25</v>
       </c>
       <c r="M42">
-        <v>576.23</v>
+        <v>526.45</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2692,40 +2644,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D43">
-        <v>49.76</v>
+        <v>10.84</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G43">
-        <v>49.76</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K43">
-        <v>962.65</v>
+        <v>17212</v>
       </c>
       <c r="L43">
-        <v>926.41</v>
+        <v>15814.86</v>
       </c>
       <c r="M43">
-        <v>1035.14</v>
+        <v>20006.29</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2736,40 +2688,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D44">
-        <v>48.73</v>
+        <v>10.84</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G44">
-        <v>48.73</v>
+        <v>97.11</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K44">
-        <v>32345</v>
+        <v>350</v>
       </c>
       <c r="L44">
-        <v>31257.14</v>
+        <v>334.57</v>
       </c>
       <c r="M44">
-        <v>34520.71</v>
+        <v>380.86</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2780,40 +2732,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D45">
-        <v>44.94</v>
+        <v>8.43</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G45">
-        <v>44.94</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K45">
-        <v>1458.8</v>
+        <v>530.9</v>
       </c>
       <c r="L45">
-        <v>1407.81</v>
+        <v>507.66</v>
       </c>
       <c r="M45">
-        <v>1560.77</v>
+        <v>577.39</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2824,40 +2776,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46">
+        <v>8.43</v>
+      </c>
+      <c r="E46">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
         <v>126</v>
       </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46">
-        <v>44.58</v>
-      </c>
-      <c r="E46">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>142</v>
-      </c>
       <c r="G46">
-        <v>44.58</v>
+        <v>100</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K46">
-        <v>457.5</v>
+        <v>1313.4</v>
       </c>
       <c r="L46">
-        <v>424.26</v>
+        <v>1250.06</v>
       </c>
       <c r="M46">
-        <v>523.99</v>
+        <v>1440.09</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2868,40 +2820,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
         <v>117</v>
       </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
       <c r="D47">
-        <v>44.58</v>
+        <v>45.78</v>
       </c>
       <c r="E47">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G47">
-        <v>76.81</v>
+        <v>100</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K47">
-        <v>341.85</v>
+        <v>982.3</v>
       </c>
       <c r="L47">
-        <v>323.49</v>
+        <v>902.91</v>
       </c>
       <c r="M47">
-        <v>378.58</v>
+        <v>1141.07</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2912,40 +2864,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
       <c r="D48">
-        <v>44.58</v>
+        <v>45.78</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>45.78</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K48">
-        <v>464.5</v>
+        <v>590.9</v>
       </c>
       <c r="L48">
-        <v>439.56</v>
+        <v>557.33</v>
       </c>
       <c r="M48">
-        <v>514.39</v>
+        <v>658.04</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2956,40 +2908,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" t="s">
-        <v>133</v>
       </c>
       <c r="D49">
         <v>43.37</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G49">
-        <v>43.37</v>
+        <v>100</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K49">
-        <v>1465.6</v>
+        <v>466.9</v>
       </c>
       <c r="L49">
-        <v>1385.56</v>
+        <v>422.75</v>
       </c>
       <c r="M49">
-        <v>1625.69</v>
+        <v>555.2</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3000,40 +2952,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D50">
         <v>43.37</v>
       </c>
       <c r="E50">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G50">
-        <v>43.37</v>
+        <v>47.35</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K50">
-        <v>261.34</v>
+        <v>1322.8</v>
       </c>
       <c r="L50">
-        <v>240.67</v>
+        <v>1250.19</v>
       </c>
       <c r="M50">
-        <v>302.67</v>
+        <v>1468.03</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3044,40 +2996,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>43.37</v>
+        <v>41.33</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G51">
-        <v>43.37</v>
+        <v>47.35</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K51">
-        <v>186.22</v>
+        <v>629.7</v>
       </c>
       <c r="L51">
-        <v>170.64</v>
+        <v>593.86</v>
       </c>
       <c r="M51">
-        <v>217.38</v>
+        <v>701.39</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3088,40 +3040,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>40.96</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G52">
-        <v>70.42</v>
+        <v>44.58</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K52">
-        <v>1190</v>
+        <v>461.4</v>
       </c>
       <c r="L52">
-        <v>1119.59</v>
+        <v>427.87</v>
       </c>
       <c r="M52">
-        <v>1330.83</v>
+        <v>528.46</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3132,40 +3084,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D53">
         <v>40.96</v>
       </c>
       <c r="E53">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G53">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K53">
-        <v>404.9</v>
+        <v>461.8</v>
       </c>
       <c r="L53">
-        <v>379.26</v>
+        <v>436.06</v>
       </c>
       <c r="M53">
-        <v>456.19</v>
+        <v>513.29</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3176,40 +3128,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D54">
-        <v>57.35</v>
+        <v>59.4</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G54">
-        <v>63.37</v>
+        <v>59.4</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K54">
-        <v>1473.6</v>
+        <v>155.57</v>
       </c>
       <c r="L54">
-        <v>1437.83</v>
+        <v>143.79</v>
       </c>
       <c r="M54">
-        <v>1545.14</v>
+        <v>179.13</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3220,40 +3172,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
-        <v>133</v>
-      </c>
       <c r="D55">
-        <v>38.55</v>
+        <v>54.94</v>
       </c>
       <c r="E55">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55">
+        <v>63.37</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
         <v>137</v>
       </c>
-      <c r="G55">
-        <v>47.53</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
-      <c r="J55" t="s">
-        <v>153</v>
-      </c>
       <c r="K55">
-        <v>1241.6</v>
+        <v>1485.3</v>
       </c>
       <c r="L55">
-        <v>1169.81</v>
+        <v>1450.83</v>
       </c>
       <c r="M55">
-        <v>1385.17</v>
+        <v>1554.24</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3264,40 +3216,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
       <c r="D56">
-        <v>37.35</v>
+        <v>30.12</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G56">
-        <v>39.76</v>
+        <v>57.17</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K56">
-        <v>370.95</v>
+        <v>244.7</v>
       </c>
       <c r="L56">
-        <v>350.06</v>
+        <v>232.72</v>
       </c>
       <c r="M56">
-        <v>412.72</v>
+        <v>268.65</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3308,40 +3260,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D57">
-        <v>36.14</v>
+        <v>29.1</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G57">
-        <v>49.58</v>
+        <v>32.71</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K57">
-        <v>72.14</v>
+        <v>965.85</v>
       </c>
       <c r="L57">
-        <v>69.36</v>
+        <v>932.46</v>
       </c>
       <c r="M57">
-        <v>77.69</v>
+        <v>1032.62</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3352,22 +3304,22 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>36.14</v>
+        <v>27.71</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G58">
-        <v>36.14</v>
+        <v>37.35</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3376,16 +3328,16 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K58">
-        <v>251.7</v>
+        <v>279.2</v>
       </c>
       <c r="L58">
-        <v>235.82</v>
+        <v>265.08</v>
       </c>
       <c r="M58">
-        <v>283.46</v>
+        <v>307.44</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3396,40 +3348,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D59">
-        <v>36.14</v>
+        <v>26.69</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G59">
-        <v>36.14</v>
+        <v>26.69</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K59">
-        <v>514.8</v>
+        <v>2026.5</v>
       </c>
       <c r="L59">
-        <v>483.08</v>
+        <v>1977.54</v>
       </c>
       <c r="M59">
-        <v>578.24</v>
+        <v>2124.41</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3440,40 +3392,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D60">
-        <v>35.3</v>
+        <v>22.89</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G60">
-        <v>35.3</v>
+        <v>50.78</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K60">
-        <v>394.25</v>
+        <v>757.8</v>
       </c>
       <c r="L60">
-        <v>382.98</v>
+        <v>716.05</v>
       </c>
       <c r="M60">
-        <v>416.79</v>
+        <v>841.3</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3484,40 +3436,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D61">
+        <v>21.69</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61">
         <v>32.53</v>
       </c>
-      <c r="E61">
-        <v>45</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
         <v>137</v>
       </c>
-      <c r="G61">
-        <v>43.37</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>153</v>
-      </c>
       <c r="K61">
-        <v>2756.9</v>
+        <v>177.34</v>
       </c>
       <c r="L61">
-        <v>2653.37</v>
+        <v>165.47</v>
       </c>
       <c r="M61">
-        <v>2963.96</v>
+        <v>201.07</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3528,40 +3480,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D62">
-        <v>32.53</v>
+        <v>21.69</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G62">
-        <v>57.17</v>
+        <v>21.69</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K62">
-        <v>241.16</v>
+        <v>774.95</v>
       </c>
       <c r="L62">
-        <v>229.58</v>
+        <v>743.8099999999999</v>
       </c>
       <c r="M62">
-        <v>264.31</v>
+        <v>837.22</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3572,40 +3524,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D63">
-        <v>31.33</v>
+        <v>20.48</v>
       </c>
       <c r="E63">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G63">
-        <v>38.55</v>
+        <v>43.37</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K63">
-        <v>552.2</v>
+        <v>2731.9</v>
       </c>
       <c r="L63">
-        <v>515.29</v>
+        <v>2630.07</v>
       </c>
       <c r="M63">
-        <v>626.01</v>
+        <v>2935.56</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3616,22 +3568,22 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D64">
-        <v>30.12</v>
+        <v>20.48</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G64">
-        <v>34.94</v>
+        <v>54.76</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3640,16 +3592,16 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K64">
-        <v>385.95</v>
+        <v>251.56</v>
       </c>
       <c r="L64">
-        <v>368.36</v>
+        <v>235.43</v>
       </c>
       <c r="M64">
-        <v>421.14</v>
+        <v>283.82</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3660,40 +3612,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D65">
-        <v>30.12</v>
+        <v>20.48</v>
       </c>
       <c r="E65">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65">
+        <v>43.37</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
         <v>137</v>
       </c>
-      <c r="G65">
-        <v>63.86</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>153</v>
-      </c>
       <c r="K65">
-        <v>1008.35</v>
+        <v>1457.1</v>
       </c>
       <c r="L65">
-        <v>956.51</v>
+        <v>1374.84</v>
       </c>
       <c r="M65">
-        <v>1112.02</v>
+        <v>1621.61</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3704,22 +3656,22 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D66">
-        <v>30.12</v>
+        <v>16.87</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G66">
-        <v>37.35</v>
+        <v>21.69</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3728,16 +3680,16 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K66">
-        <v>280.5</v>
+        <v>212.38</v>
       </c>
       <c r="L66">
-        <v>265.28</v>
+        <v>201.26</v>
       </c>
       <c r="M66">
-        <v>310.94</v>
+        <v>234.62</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3748,40 +3700,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D67">
-        <v>28.92</v>
+        <v>16.87</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67">
+        <v>28.07</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
         <v>137</v>
       </c>
-      <c r="G67">
-        <v>45.78</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>153</v>
-      </c>
       <c r="K67">
-        <v>787.15</v>
+        <v>1005.3</v>
       </c>
       <c r="L67">
-        <v>724.34</v>
+        <v>975.8099999999999</v>
       </c>
       <c r="M67">
-        <v>912.78</v>
+        <v>1064.29</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3792,40 +3744,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
         <v>119</v>
       </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
       <c r="D68">
-        <v>26.69</v>
+        <v>16.87</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G68">
-        <v>32.71</v>
+        <v>16.87</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K68">
-        <v>952.55</v>
+        <v>321.25</v>
       </c>
       <c r="L68">
-        <v>924.3200000000001</v>
+        <v>308.17</v>
       </c>
       <c r="M68">
-        <v>1009</v>
+        <v>347.41</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3836,40 +3788,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D69">
-        <v>25.3</v>
+        <v>16.87</v>
       </c>
       <c r="E69">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G69">
-        <v>50.78</v>
+        <v>63.86</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K69">
-        <v>751.15</v>
+        <v>1000.25</v>
       </c>
       <c r="L69">
-        <v>710.61</v>
+        <v>948.71</v>
       </c>
       <c r="M69">
-        <v>832.24</v>
+        <v>1103.34</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3880,22 +3832,22 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D70">
-        <v>21.69</v>
+        <v>15.66</v>
       </c>
       <c r="E70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G70">
-        <v>53.55</v>
+        <v>34.94</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3904,16 +3856,16 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K70">
-        <v>1793.1</v>
+        <v>378.4</v>
       </c>
       <c r="L70">
-        <v>1706.6</v>
+        <v>363.2</v>
       </c>
       <c r="M70">
-        <v>1966.1</v>
+        <v>408.8</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3924,40 +3876,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D71">
-        <v>20.48</v>
+        <v>15.66</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G71">
-        <v>20.48</v>
+        <v>21.69</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K71">
-        <v>2548.4</v>
+        <v>16540</v>
       </c>
       <c r="L71">
-        <v>2514.92</v>
+        <v>15816</v>
       </c>
       <c r="M71">
-        <v>2615.35</v>
+        <v>17988</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3968,40 +3920,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D72">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G72">
-        <v>34.94</v>
+        <v>61.99</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K72">
-        <v>473.8</v>
+        <v>2670.6</v>
       </c>
       <c r="L72">
-        <v>446.29</v>
+        <v>2513.37</v>
       </c>
       <c r="M72">
-        <v>528.8099999999999</v>
+        <v>2985.06</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4012,40 +3964,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D73">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G73">
-        <v>21.69</v>
+        <v>65.06</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K73">
-        <v>444.2</v>
+        <v>821.35</v>
       </c>
       <c r="L73">
-        <v>427.64</v>
+        <v>787.51</v>
       </c>
       <c r="M73">
-        <v>477.32</v>
+        <v>889.02</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4056,40 +4008,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
         <v>119</v>
       </c>
-      <c r="C74" t="s">
-        <v>134</v>
-      </c>
       <c r="D74">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G74">
-        <v>22.89</v>
+        <v>18.07</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K74">
-        <v>182.8</v>
+        <v>404.5</v>
       </c>
       <c r="L74">
-        <v>173.06</v>
+        <v>390.64</v>
       </c>
       <c r="M74">
-        <v>202.28</v>
+        <v>432.23</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4100,40 +4052,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D75">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G75">
-        <v>61.81</v>
+        <v>19.28</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K75">
-        <v>3736</v>
+        <v>3538.2</v>
       </c>
       <c r="L75">
-        <v>3513.87</v>
+        <v>3388.59</v>
       </c>
       <c r="M75">
-        <v>4180.26</v>
+        <v>3837.43</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4144,40 +4096,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D76">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76">
+        <v>24.1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
         <v>137</v>
       </c>
-      <c r="G76">
-        <v>16.87</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" t="s">
-        <v>153</v>
-      </c>
       <c r="K76">
-        <v>529.6</v>
+        <v>476.55</v>
       </c>
       <c r="L76">
-        <v>505.73</v>
+        <v>451.3</v>
       </c>
       <c r="M76">
-        <v>577.35</v>
+        <v>527.04</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4188,40 +4140,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D77">
-        <v>16.87</v>
+        <v>10.84</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G77">
-        <v>16.87</v>
+        <v>48.19</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K77">
-        <v>100.45</v>
+        <v>118.65</v>
       </c>
       <c r="L77">
-        <v>95.84999999999999</v>
+        <v>112.82</v>
       </c>
       <c r="M77">
-        <v>109.65</v>
+        <v>130.31</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4232,40 +4184,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D78">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E78">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G78">
-        <v>19.28</v>
+        <v>16.87</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K78">
-        <v>5948</v>
+        <v>6591.5</v>
       </c>
       <c r="L78">
-        <v>5761.98</v>
+        <v>6276</v>
       </c>
       <c r="M78">
-        <v>6320.03</v>
+        <v>7222.5</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4276,40 +4228,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D79">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E79">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G79">
-        <v>27.89</v>
+        <v>20.48</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K79">
-        <v>2035.8</v>
+        <v>818.7</v>
       </c>
       <c r="L79">
-        <v>1975.22</v>
+        <v>781.13</v>
       </c>
       <c r="M79">
-        <v>2156.96</v>
+        <v>893.84</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4320,40 +4272,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D80">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E80">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80">
+        <v>16.87</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
         <v>137</v>
       </c>
-      <c r="G80">
-        <v>59.76</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>153</v>
-      </c>
       <c r="K80">
-        <v>6960.5</v>
+        <v>527.75</v>
       </c>
       <c r="L80">
-        <v>6654.57</v>
+        <v>507.44</v>
       </c>
       <c r="M80">
-        <v>7572.36</v>
+        <v>568.37</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4364,22 +4316,22 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D81">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G81">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4388,16 +4340,16 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K81">
-        <v>1578.6</v>
+        <v>1686.9</v>
       </c>
       <c r="L81">
-        <v>1526.49</v>
+        <v>1656.6</v>
       </c>
       <c r="M81">
-        <v>1682.82</v>
+        <v>1747.51</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4408,40 +4360,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D82">
+        <v>10.84</v>
+      </c>
+      <c r="E82">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82">
         <v>15.66</v>
       </c>
-      <c r="E82">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>146</v>
-      </c>
-      <c r="G82">
-        <v>20.48</v>
-      </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K82">
-        <v>196.69</v>
+        <v>3256.9</v>
       </c>
       <c r="L82">
-        <v>188.84</v>
+        <v>3142.7</v>
       </c>
       <c r="M82">
-        <v>212.4</v>
+        <v>3485.31</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4452,40 +4404,40 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D83">
-        <v>15.66</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G83">
         <v>15.66</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K83">
-        <v>762.8</v>
+        <v>3471.2</v>
       </c>
       <c r="L83">
-        <v>733.23</v>
+        <v>3335.1</v>
       </c>
       <c r="M83">
-        <v>821.9400000000001</v>
+        <v>3743.4</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4496,40 +4448,40 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D84">
-        <v>14.46</v>
+        <v>7.23</v>
       </c>
       <c r="E84">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
         <v>137</v>
       </c>
-      <c r="G84">
-        <v>61.99</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>153</v>
-      </c>
       <c r="K84">
-        <v>2670.5</v>
+        <v>190.21</v>
       </c>
       <c r="L84">
-        <v>2516.66</v>
+        <v>183.56</v>
       </c>
       <c r="M84">
-        <v>2978.19</v>
+        <v>203.52</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4540,22 +4492,22 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D85">
-        <v>14.46</v>
+        <v>7.23</v>
       </c>
       <c r="E85">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G85">
-        <v>45.78</v>
+        <v>35.12</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4564,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K85">
-        <v>157.33</v>
+        <v>959</v>
       </c>
       <c r="L85">
-        <v>147.38</v>
+        <v>912.21</v>
       </c>
       <c r="M85">
-        <v>177.23</v>
+        <v>1052.59</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4584,40 +4536,40 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D86">
-        <v>13.25</v>
+        <v>6.02</v>
       </c>
       <c r="E86">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86">
+        <v>31.33</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
         <v>137</v>
       </c>
-      <c r="G86">
-        <v>63.86</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>153</v>
-      </c>
       <c r="K86">
-        <v>2479.7</v>
+        <v>1181.4</v>
       </c>
       <c r="L86">
-        <v>2409.79</v>
+        <v>1114.16</v>
       </c>
       <c r="M86">
-        <v>2619.53</v>
+        <v>1315.89</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4628,40 +4580,40 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D87">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G87">
-        <v>12.05</v>
+        <v>32.71</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K87">
-        <v>1849.9</v>
+        <v>976</v>
       </c>
       <c r="L87">
-        <v>1782.74</v>
+        <v>940.96</v>
       </c>
       <c r="M87">
-        <v>1984.21</v>
+        <v>1046.09</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4672,22 +4624,22 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D88">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E88">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G88">
-        <v>34.94</v>
+        <v>4.82</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4696,16 +4648,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K88">
-        <v>220.03</v>
+        <v>2749.1</v>
       </c>
       <c r="L88">
-        <v>208.19</v>
+        <v>2666.44</v>
       </c>
       <c r="M88">
-        <v>243.71</v>
+        <v>2914.41</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4716,40 +4668,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D89">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E89">
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G89">
-        <v>15.66</v>
+        <v>27.89</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K89">
-        <v>3500.6</v>
+        <v>690.25</v>
       </c>
       <c r="L89">
-        <v>3346.76</v>
+        <v>671.67</v>
       </c>
       <c r="M89">
-        <v>3808.29</v>
+        <v>727.4</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4760,40 +4712,40 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D90">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E90">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G90">
-        <v>52.35</v>
+        <v>41.14</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K90">
-        <v>360.35</v>
+        <v>459</v>
       </c>
       <c r="L90">
-        <v>348.06</v>
+        <v>447.4</v>
       </c>
       <c r="M90">
-        <v>384.94</v>
+        <v>482.2</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4804,614 +4756,42 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D91">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E91">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91">
+        <v>24.1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
         <v>137</v>
       </c>
-      <c r="G91">
-        <v>65.06</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>153</v>
-      </c>
       <c r="K91">
-        <v>823.35</v>
+        <v>884.3</v>
       </c>
       <c r="L91">
-        <v>789.13</v>
+        <v>842.62</v>
       </c>
       <c r="M91">
-        <v>891.79</v>
+        <v>967.67</v>
       </c>
       <c r="N91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92">
-        <v>10.84</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92">
-        <v>10.84</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>153</v>
-      </c>
-      <c r="K92">
-        <v>1687.6</v>
-      </c>
-      <c r="L92">
-        <v>1654.73</v>
-      </c>
-      <c r="M92">
-        <v>1753.34</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93">
-        <v>10.84</v>
-      </c>
-      <c r="E93">
-        <v>19</v>
-      </c>
-      <c r="F93" t="s">
-        <v>137</v>
-      </c>
-      <c r="G93">
-        <v>21.69</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93" t="s">
-        <v>153</v>
-      </c>
-      <c r="K93">
-        <v>12452</v>
-      </c>
-      <c r="L93">
-        <v>12209.47</v>
-      </c>
-      <c r="M93">
-        <v>12937.05</v>
-      </c>
-      <c r="N93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94">
-        <v>10.84</v>
-      </c>
-      <c r="E94">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94">
-        <v>15.66</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>153</v>
-      </c>
-      <c r="K94">
-        <v>3257.2</v>
-      </c>
-      <c r="L94">
-        <v>3134.07</v>
-      </c>
-      <c r="M94">
-        <v>3503.46</v>
-      </c>
-      <c r="N94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95">
-        <v>8.43</v>
-      </c>
-      <c r="E95">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s">
-        <v>138</v>
-      </c>
-      <c r="G95">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>153</v>
-      </c>
-      <c r="K95">
-        <v>190.67</v>
-      </c>
-      <c r="L95">
-        <v>183.56</v>
-      </c>
-      <c r="M95">
-        <v>204.9</v>
-      </c>
-      <c r="N95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96">
-        <v>8.43</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>137</v>
-      </c>
-      <c r="G96">
-        <v>13.25</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>153</v>
-      </c>
-      <c r="K96">
-        <v>690.05</v>
-      </c>
-      <c r="L96">
-        <v>669.95</v>
-      </c>
-      <c r="M96">
-        <v>730.25</v>
-      </c>
-      <c r="N96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97">
-        <v>8.43</v>
-      </c>
-      <c r="E97">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97">
-        <v>21.69</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>153</v>
-      </c>
-      <c r="K97">
-        <v>16112</v>
-      </c>
-      <c r="L97">
-        <v>15431.43</v>
-      </c>
-      <c r="M97">
-        <v>17473.14</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>110</v>
-      </c>
-      <c r="B98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" t="s">
-        <v>134</v>
-      </c>
-      <c r="D98">
-        <v>8.43</v>
-      </c>
-      <c r="E98">
-        <v>22</v>
-      </c>
-      <c r="F98" t="s">
-        <v>140</v>
-      </c>
-      <c r="G98">
-        <v>26.51</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>153</v>
-      </c>
-      <c r="K98">
-        <v>9188</v>
-      </c>
-      <c r="L98">
-        <v>8643.209999999999</v>
-      </c>
-      <c r="M98">
-        <v>10277.57</v>
-      </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99">
-        <v>8.43</v>
-      </c>
-      <c r="E99">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>147</v>
-      </c>
-      <c r="G99">
-        <v>10.84</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>153</v>
-      </c>
-      <c r="K99">
-        <v>2007.1</v>
-      </c>
-      <c r="L99">
-        <v>1973.85</v>
-      </c>
-      <c r="M99">
-        <v>2073.61</v>
-      </c>
-      <c r="N99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>112</v>
-      </c>
-      <c r="B100" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100">
-        <v>7.23</v>
-      </c>
-      <c r="E100">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100">
-        <v>39.76</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s">
-        <v>153</v>
-      </c>
-      <c r="K100">
-        <v>283.51</v>
-      </c>
-      <c r="L100">
-        <v>265.64</v>
-      </c>
-      <c r="M100">
-        <v>319.24</v>
-      </c>
-      <c r="N100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101">
-        <v>6.02</v>
-      </c>
-      <c r="E101">
-        <v>36</v>
-      </c>
-      <c r="F101" t="s">
-        <v>137</v>
-      </c>
-      <c r="G101">
-        <v>31.33</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>153</v>
-      </c>
-      <c r="K101">
-        <v>1167.6</v>
-      </c>
-      <c r="L101">
-        <v>1099.59</v>
-      </c>
-      <c r="M101">
-        <v>1303.63</v>
-      </c>
-      <c r="N101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" t="s">
-        <v>114</v>
-      </c>
-      <c r="B102" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" t="s">
-        <v>134</v>
-      </c>
-      <c r="D102">
-        <v>4.82</v>
-      </c>
-      <c r="E102">
-        <v>5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>146</v>
-      </c>
-      <c r="G102">
-        <v>32.71</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s">
-        <v>153</v>
-      </c>
-      <c r="K102">
-        <v>965</v>
-      </c>
-      <c r="L102">
-        <v>937.0700000000001</v>
-      </c>
-      <c r="M102">
-        <v>1020.87</v>
-      </c>
-      <c r="N102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="A103" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103">
-        <v>4.82</v>
-      </c>
-      <c r="E103">
-        <v>31</v>
-      </c>
-      <c r="F103" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103">
-        <v>60.78</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s">
-        <v>153</v>
-      </c>
-      <c r="K103">
-        <v>3990.3</v>
-      </c>
-      <c r="L103">
-        <v>3778.87</v>
-      </c>
-      <c r="M103">
-        <v>4413.16</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104">
-        <v>4.82</v>
-      </c>
-      <c r="E104">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>143</v>
-      </c>
-      <c r="G104">
-        <v>4.82</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>153</v>
-      </c>
-      <c r="K104">
-        <v>2758.2</v>
-      </c>
-      <c r="L104">
-        <v>2659.12</v>
-      </c>
-      <c r="M104">
-        <v>2956.35</v>
-      </c>
-      <c r="N104">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="149">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,304 +61,331 @@
     <t>PAYTM</t>
   </si>
   <si>
+    <t>MRPL</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>ELGIEQUIP</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>CREDITACC</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
     <t>SHK</t>
   </si>
   <si>
-    <t>NAUKRI</t>
+    <t>UPL</t>
   </si>
   <si>
     <t>DELHIVERY</t>
   </si>
   <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
     <t>HDFCAMC</t>
   </si>
   <si>
-    <t>AMBUJACEM</t>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>KRBL</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
   </si>
   <si>
     <t>CRAFTSMAN</t>
   </si>
   <si>
-    <t>KCP</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
   </si>
   <si>
     <t>ETERNAL</t>
   </si>
   <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
     <t>GREENPLY</t>
   </si>
   <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>RHIM</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>RRKABEL</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>UTIAMC</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>APTUS</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>NAVA</t>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
   </si>
   <si>
     <t>GMDCLTD</t>
   </si>
   <si>
-    <t>CHEMPLASTS</t>
-  </si>
-  <si>
-    <t>MRPL</t>
+    <t>VIJAYA</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>INDIACEM</t>
+  </si>
+  <si>
+    <t>GPPL</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
   </si>
   <si>
     <t>ICICIBANK</t>
   </si>
   <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>AWL</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>KIMS</t>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>CHALET</t>
+  </si>
+  <si>
+    <t>VGUARD</t>
+  </si>
+  <si>
+    <t>SHRIRAMPPS</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>FINPIPE</t>
   </si>
   <si>
     <t>JMFINANCIL</t>
   </si>
   <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>LTF</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>JSWINFRA</t>
-  </si>
-  <si>
-    <t>JKLAKSHMI</t>
-  </si>
-  <si>
-    <t>MAHLIFE</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>MANKIND</t>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t>MAXHEALTH</t>
+  </si>
+  <si>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
   </si>
   <si>
     <t>LAURUSLABS</t>
   </si>
   <si>
-    <t>VGUARD</t>
-  </si>
-  <si>
-    <t>TIMKEN</t>
-  </si>
-  <si>
-    <t>DEEPINDS</t>
-  </si>
-  <si>
-    <t>SBFC</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>CENTURYPLY</t>
   </si>
   <si>
     <t>CENTENKA</t>
   </si>
   <si>
+    <t>CONCORDBIO</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>DCMSHRIRAM</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>CASTROLIND</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>BLUEDART</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>EIHOTEL</t>
+  </si>
+  <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>AARTIPHARM</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>RADICO</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
     <t>Financial Services</t>
   </si>
   <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Technology</t>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>G_Pattern</t>
   </si>
   <si>
     <t>Building_G</t>
@@ -367,6 +394,12 @@
     <t>H2_Momentum_Start</t>
   </si>
   <si>
+    <t>Power_H2_Volume</t>
+  </si>
+  <si>
+    <t>Strong_H2_KC_Combo</t>
+  </si>
+  <si>
     <t>KC_Breakout_Watch</t>
   </si>
   <si>
@@ -376,43 +409,43 @@
     <t>Early_Setup</t>
   </si>
   <si>
-    <t>Power_H2_Volume</t>
-  </si>
-  <si>
-    <t>Strong_H2_KC_Combo</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
     <t>2025-07-16</t>
   </si>
   <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
   </si>
   <si>
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
+    <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
@@ -785,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,40 +873,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K2">
-        <v>1064.4</v>
+        <v>1094.35</v>
       </c>
       <c r="L2">
-        <v>1002.57</v>
+        <v>1028.6</v>
       </c>
       <c r="M2">
-        <v>1188.06</v>
+        <v>1225.85</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -884,22 +917,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>61.63</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>61.63</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -908,16 +941,16 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K3">
-        <v>266.51</v>
+        <v>156.6</v>
       </c>
       <c r="L3">
-        <v>252.75</v>
+        <v>145.34</v>
       </c>
       <c r="M3">
-        <v>294.02</v>
+        <v>179.12</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -928,40 +961,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>60.42</v>
+        <v>45.78</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G4">
-        <v>60.42</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K4">
-        <v>1476.6</v>
+        <v>619.3</v>
       </c>
       <c r="L4">
-        <v>1412.53</v>
+        <v>599.3</v>
       </c>
       <c r="M4">
-        <v>1604.74</v>
+        <v>659.3</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -972,22 +1005,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D5">
-        <v>59.58</v>
+        <v>39.76</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>81.27</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -996,16 +1029,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K5">
-        <v>440.8</v>
+        <v>72.84</v>
       </c>
       <c r="L5">
-        <v>420.29</v>
+        <v>70.14</v>
       </c>
       <c r="M5">
-        <v>481.81</v>
+        <v>78.23</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1016,40 +1049,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D6">
-        <v>49.4</v>
+        <v>70.42</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>70.42</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K6">
-        <v>5589.5</v>
+        <v>600.95</v>
       </c>
       <c r="L6">
-        <v>5347.71</v>
+        <v>566.38</v>
       </c>
       <c r="M6">
-        <v>6073.07</v>
+        <v>670.09</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1060,40 +1093,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>46.99</v>
+        <v>55.96</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K7">
-        <v>621</v>
+        <v>400.45</v>
       </c>
       <c r="L7">
-        <v>599.91</v>
+        <v>381.38</v>
       </c>
       <c r="M7">
-        <v>663.17</v>
+        <v>438.59</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1104,40 +1137,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>46.99</v>
+        <v>53.55</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>55.96</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K8">
-        <v>6390.5</v>
+        <v>772.75</v>
       </c>
       <c r="L8">
-        <v>5990.71</v>
+        <v>732.55</v>
       </c>
       <c r="M8">
-        <v>7190.07</v>
+        <v>853.15</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1148,40 +1181,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D9">
-        <v>45.78</v>
+        <v>53.55</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>53.55</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K9">
-        <v>218.48</v>
+        <v>16728</v>
       </c>
       <c r="L9">
-        <v>205.18</v>
+        <v>16018.57</v>
       </c>
       <c r="M9">
-        <v>245.09</v>
+        <v>18146.86</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1192,40 +1225,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>37.35</v>
+        <v>90.06</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G10">
-        <v>49.58</v>
+        <v>90.06</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K10">
-        <v>71.75</v>
+        <v>1362.9</v>
       </c>
       <c r="L10">
-        <v>69.26000000000001</v>
+        <v>1282.23</v>
       </c>
       <c r="M10">
-        <v>76.73</v>
+        <v>1524.24</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1236,40 +1269,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>69.22</v>
+        <v>75.42</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G11">
-        <v>69.22</v>
+        <v>75.42</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K11">
-        <v>970</v>
+        <v>637.25</v>
       </c>
       <c r="L11">
-        <v>933.37</v>
+        <v>602.6</v>
       </c>
       <c r="M11">
-        <v>1043.26</v>
+        <v>706.55</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1280,22 +1313,22 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>68.01000000000001</v>
+        <v>39.76</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G12">
-        <v>68.01000000000001</v>
+        <v>70.42</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1304,16 +1337,16 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K12">
-        <v>273.16</v>
+        <v>1382.1</v>
       </c>
       <c r="L12">
-        <v>250.93</v>
+        <v>1283.11</v>
       </c>
       <c r="M12">
-        <v>317.63</v>
+        <v>1580.07</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1324,22 +1357,22 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D13">
-        <v>38.55</v>
+        <v>39.76</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1348,16 +1381,16 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K13">
-        <v>568.7</v>
+        <v>31900</v>
       </c>
       <c r="L13">
-        <v>517.61</v>
+        <v>30570</v>
       </c>
       <c r="M13">
-        <v>670.87</v>
+        <v>34560</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1368,40 +1401,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>38.55</v>
+        <v>39.76</v>
       </c>
       <c r="E14">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K14">
-        <v>1906.1</v>
+        <v>791.75</v>
       </c>
       <c r="L14">
-        <v>1806.59</v>
+        <v>755.4</v>
       </c>
       <c r="M14">
-        <v>2105.13</v>
+        <v>864.45</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1412,40 +1445,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D15">
-        <v>38.55</v>
+        <v>39.76</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G15">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K15">
-        <v>300.85</v>
+        <v>963.9</v>
       </c>
       <c r="L15">
-        <v>281.89</v>
+        <v>882.51</v>
       </c>
       <c r="M15">
-        <v>338.78</v>
+        <v>1126.69</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1456,40 +1489,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D16">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G16">
-        <v>84.04000000000001</v>
+        <v>96.08</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K16">
-        <v>410.35</v>
+        <v>2604</v>
       </c>
       <c r="L16">
-        <v>383.99</v>
+        <v>2399.77</v>
       </c>
       <c r="M16">
-        <v>463.06</v>
+        <v>3012.46</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1500,40 +1533,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E17">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G17">
-        <v>96.08</v>
+        <v>92.11</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K17">
-        <v>2671.7</v>
+        <v>624.5</v>
       </c>
       <c r="L17">
-        <v>2478</v>
+        <v>572.02</v>
       </c>
       <c r="M17">
-        <v>3059.1</v>
+        <v>729.46</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1544,40 +1577,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D18">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G18">
-        <v>85.23999999999999</v>
+        <v>82.83</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K18">
-        <v>722.25</v>
+        <v>427.45</v>
       </c>
       <c r="L18">
-        <v>689</v>
+        <v>400.8</v>
       </c>
       <c r="M18">
-        <v>788.75</v>
+        <v>480.75</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1588,40 +1621,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D19">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G19">
-        <v>92.11</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K19">
-        <v>616.05</v>
+        <v>473.95</v>
       </c>
       <c r="L19">
-        <v>568.49</v>
+        <v>426.73</v>
       </c>
       <c r="M19">
-        <v>711.1799999999999</v>
+        <v>568.39</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1632,40 +1665,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D20">
-        <v>36.14</v>
+        <v>37.35</v>
       </c>
       <c r="E20">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G20">
-        <v>76.81</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K20">
-        <v>340.55</v>
+        <v>416.45</v>
       </c>
       <c r="L20">
-        <v>321.71</v>
+        <v>389.42</v>
       </c>
       <c r="M20">
-        <v>378.24</v>
+        <v>470.51</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1676,40 +1709,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D21">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K21">
-        <v>587.35</v>
+        <v>579.7</v>
       </c>
       <c r="L21">
-        <v>549.87</v>
+        <v>529.49</v>
       </c>
       <c r="M21">
-        <v>662.3200000000001</v>
+        <v>680.11</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1720,40 +1753,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D22">
         <v>33.73</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K22">
-        <v>179.98</v>
+        <v>943</v>
       </c>
       <c r="L22">
-        <v>168.59</v>
+        <v>898.24</v>
       </c>
       <c r="M22">
-        <v>202.75</v>
+        <v>1032.53</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1764,19 +1797,19 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D23">
         <v>33.73</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1785,19 +1818,19 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K23">
-        <v>930.3</v>
+        <v>265.32</v>
       </c>
       <c r="L23">
-        <v>888.74</v>
+        <v>251.47</v>
       </c>
       <c r="M23">
-        <v>1013.41</v>
+        <v>293.02</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1808,40 +1841,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D24">
-        <v>33.73</v>
+        <v>32.53</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G24">
-        <v>76.81</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>524.6</v>
+        <v>721.55</v>
       </c>
       <c r="L24">
-        <v>493.45</v>
+        <v>689.66</v>
       </c>
       <c r="M24">
-        <v>586.9</v>
+        <v>785.3200000000001</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1852,40 +1885,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D25">
-        <v>31.33</v>
+        <v>32.53</v>
       </c>
       <c r="E25">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G25">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K25">
-        <v>31385</v>
+        <v>442.2</v>
       </c>
       <c r="L25">
-        <v>30062.86</v>
+        <v>420.29</v>
       </c>
       <c r="M25">
-        <v>34029.29</v>
+        <v>486.01</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1896,19 +1929,19 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D26">
         <v>31.33</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -1917,19 +1950,19 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K26">
-        <v>3856.9</v>
+        <v>181.49</v>
       </c>
       <c r="L26">
-        <v>3617.8</v>
+        <v>169.92</v>
       </c>
       <c r="M26">
-        <v>4335.1</v>
+        <v>204.63</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1940,40 +1973,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D27">
-        <v>28.92</v>
+        <v>30.12</v>
       </c>
       <c r="E27">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G27">
-        <v>86.45</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K27">
-        <v>2019.7</v>
+        <v>962.25</v>
       </c>
       <c r="L27">
-        <v>1904.21</v>
+        <v>929.4400000000001</v>
       </c>
       <c r="M27">
-        <v>2250.67</v>
+        <v>1027.87</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1984,19 +2017,19 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D28">
-        <v>27.71</v>
+        <v>25.3</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -2005,19 +2038,19 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K28">
-        <v>1466.3</v>
+        <v>1328</v>
       </c>
       <c r="L28">
-        <v>1370.01</v>
+        <v>1255.56</v>
       </c>
       <c r="M28">
-        <v>1658.88</v>
+        <v>1472.89</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2028,40 +2061,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D29">
-        <v>27.71</v>
+        <v>25.3</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G29">
-        <v>82.83</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K29">
-        <v>417.7</v>
+        <v>678.7</v>
       </c>
       <c r="L29">
-        <v>391.15</v>
+        <v>647.7</v>
       </c>
       <c r="M29">
-        <v>470.8</v>
+        <v>740.7</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2072,22 +2105,22 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D30">
-        <v>22.89</v>
+        <v>24.1</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G30">
-        <v>70.42</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2096,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K30">
-        <v>1183.6</v>
+        <v>1913</v>
       </c>
       <c r="L30">
-        <v>1112.47</v>
+        <v>1812.54</v>
       </c>
       <c r="M30">
-        <v>1325.86</v>
+        <v>2113.91</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2116,22 +2149,22 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>20.48</v>
+        <v>22.89</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G31">
-        <v>73.01000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2140,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K31">
-        <v>2140.1</v>
+        <v>2032.8</v>
       </c>
       <c r="L31">
-        <v>1970.13</v>
+        <v>1913.2</v>
       </c>
       <c r="M31">
-        <v>2480.04</v>
+        <v>2272</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2160,40 +2193,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>18.07</v>
+        <v>22.89</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G32">
-        <v>73.19</v>
+        <v>70.42</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K32">
-        <v>1465</v>
+        <v>1178.1</v>
       </c>
       <c r="L32">
-        <v>1382.99</v>
+        <v>1112.44</v>
       </c>
       <c r="M32">
-        <v>1629.03</v>
+        <v>1309.42</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2204,40 +2237,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>16.87</v>
+        <v>22.89</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K33">
-        <v>682.8</v>
+        <v>5556.5</v>
       </c>
       <c r="L33">
-        <v>652.16</v>
+        <v>5319.5</v>
       </c>
       <c r="M33">
-        <v>744.09</v>
+        <v>6030.5</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2248,40 +2281,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>16.87</v>
+        <v>20.48</v>
       </c>
       <c r="E34">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G34">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K34">
-        <v>3551.2</v>
+        <v>595.85</v>
       </c>
       <c r="L34">
-        <v>3435.69</v>
+        <v>557.29</v>
       </c>
       <c r="M34">
-        <v>3782.23</v>
+        <v>672.96</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2292,19 +2325,19 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <v>16.87</v>
       </c>
       <c r="E35">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G35">
         <v>100</v>
@@ -2316,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K35">
-        <v>514.8</v>
+        <v>516.8</v>
       </c>
       <c r="L35">
-        <v>476.01</v>
+        <v>477.75</v>
       </c>
       <c r="M35">
-        <v>592.37</v>
+        <v>594.9</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2336,40 +2369,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D36">
         <v>15.66</v>
       </c>
       <c r="E36">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>70.78</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K36">
-        <v>3616.4</v>
+        <v>245.89</v>
       </c>
       <c r="L36">
-        <v>3466.04</v>
+        <v>233.53</v>
       </c>
       <c r="M36">
-        <v>3917.11</v>
+        <v>270.62</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2380,19 +2413,19 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>14.46</v>
       </c>
       <c r="E37">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -2404,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K37">
-        <v>395.75</v>
+        <v>3874</v>
       </c>
       <c r="L37">
-        <v>376.69</v>
+        <v>3635.19</v>
       </c>
       <c r="M37">
-        <v>433.86</v>
+        <v>4351.63</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2424,19 +2457,19 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D38">
         <v>14.46</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2448,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K38">
-        <v>37695</v>
+        <v>713.5</v>
       </c>
       <c r="L38">
-        <v>35807.86</v>
+        <v>652.41</v>
       </c>
       <c r="M38">
-        <v>41469.29</v>
+        <v>835.6900000000001</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2468,19 +2501,19 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D39">
         <v>14.46</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G39">
         <v>100</v>
@@ -2492,16 +2525,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K39">
-        <v>703.45</v>
+        <v>1298.9</v>
       </c>
       <c r="L39">
-        <v>649.02</v>
+        <v>1226.84</v>
       </c>
       <c r="M39">
-        <v>812.3099999999999</v>
+        <v>1443.02</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2512,22 +2545,22 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D40">
         <v>14.46</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2536,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K40">
-        <v>1297.5</v>
+        <v>2144.6</v>
       </c>
       <c r="L40">
-        <v>1222.3</v>
+        <v>1981.22</v>
       </c>
       <c r="M40">
-        <v>1447.9</v>
+        <v>2471.35</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2556,40 +2589,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D41">
         <v>13.25</v>
       </c>
       <c r="E41">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G41">
-        <v>71.98999999999999</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K41">
-        <v>676.7</v>
+        <v>3544.4</v>
       </c>
       <c r="L41">
-        <v>646.95</v>
+        <v>3433.03</v>
       </c>
       <c r="M41">
-        <v>736.2</v>
+        <v>3767.14</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2600,22 +2633,22 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D42">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E42">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2624,16 +2657,16 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K42">
-        <v>487.65</v>
+        <v>413.35</v>
       </c>
       <c r="L42">
-        <v>468.25</v>
+        <v>388.6</v>
       </c>
       <c r="M42">
-        <v>526.45</v>
+        <v>462.85</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2644,40 +2677,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <v>10.84</v>
       </c>
       <c r="E43">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K43">
-        <v>17212</v>
+        <v>2800.8</v>
       </c>
       <c r="L43">
-        <v>15814.86</v>
+        <v>2652.37</v>
       </c>
       <c r="M43">
-        <v>20006.29</v>
+        <v>3097.67</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2688,22 +2721,22 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D44">
         <v>10.84</v>
       </c>
       <c r="E44">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G44">
-        <v>97.11</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2712,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K44">
-        <v>350</v>
+        <v>151695</v>
       </c>
       <c r="L44">
-        <v>334.57</v>
+        <v>145552.79</v>
       </c>
       <c r="M44">
-        <v>380.86</v>
+        <v>163979.42</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2732,19 +2765,19 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D45">
-        <v>8.43</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G45">
         <v>100</v>
@@ -2756,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K45">
-        <v>530.9</v>
+        <v>3615.7</v>
       </c>
       <c r="L45">
-        <v>507.66</v>
+        <v>3466.76</v>
       </c>
       <c r="M45">
-        <v>577.39</v>
+        <v>3913.57</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2776,19 +2809,19 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D46">
         <v>8.43</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G46">
         <v>100</v>
@@ -2800,16 +2833,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K46">
-        <v>1313.4</v>
+        <v>38070</v>
       </c>
       <c r="L46">
-        <v>1250.06</v>
+        <v>36362.14</v>
       </c>
       <c r="M46">
-        <v>1440.09</v>
+        <v>41485.71</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2820,19 +2853,19 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D47">
-        <v>45.78</v>
+        <v>8.43</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G47">
         <v>100</v>
@@ -2841,19 +2874,19 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K47">
-        <v>982.3</v>
+        <v>6321</v>
       </c>
       <c r="L47">
-        <v>902.91</v>
+        <v>5999.73</v>
       </c>
       <c r="M47">
-        <v>1141.07</v>
+        <v>6963.53</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2864,40 +2897,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D48">
-        <v>45.78</v>
+        <v>7.23</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G48">
-        <v>45.78</v>
+        <v>100</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K48">
-        <v>590.9</v>
+        <v>529.45</v>
       </c>
       <c r="L48">
-        <v>557.33</v>
+        <v>506.87</v>
       </c>
       <c r="M48">
-        <v>658.04</v>
+        <v>574.61</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2908,40 +2941,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D49">
-        <v>43.37</v>
+        <v>4.82</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G49">
         <v>100</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K49">
-        <v>466.9</v>
+        <v>486.15</v>
       </c>
       <c r="L49">
-        <v>422.75</v>
+        <v>469.53</v>
       </c>
       <c r="M49">
-        <v>555.2</v>
+        <v>519.4</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2952,40 +2985,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D50">
-        <v>43.37</v>
+        <v>48.19</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G50">
-        <v>47.35</v>
+        <v>100</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K50">
-        <v>1322.8</v>
+        <v>19188</v>
       </c>
       <c r="L50">
-        <v>1250.19</v>
+        <v>17347.71</v>
       </c>
       <c r="M50">
-        <v>1468.03</v>
+        <v>22868.57</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2996,40 +3029,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>41.33</v>
+        <v>43.37</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G51">
-        <v>47.35</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K51">
-        <v>629.7</v>
+        <v>199.22</v>
       </c>
       <c r="L51">
-        <v>593.86</v>
+        <v>189.79</v>
       </c>
       <c r="M51">
-        <v>701.39</v>
+        <v>218.08</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3043,37 +3076,37 @@
         <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D52">
-        <v>40.96</v>
+        <v>41.14</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G52">
-        <v>44.58</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K52">
-        <v>461.4</v>
+        <v>2034</v>
       </c>
       <c r="L52">
-        <v>427.87</v>
+        <v>1872.36</v>
       </c>
       <c r="M52">
-        <v>528.46</v>
+        <v>2357.29</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3084,40 +3117,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D53">
         <v>40.96</v>
       </c>
       <c r="E53">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G53">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K53">
-        <v>461.8</v>
+        <v>312.9</v>
       </c>
       <c r="L53">
-        <v>436.06</v>
+        <v>292.81</v>
       </c>
       <c r="M53">
-        <v>513.29</v>
+        <v>353.09</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3128,40 +3161,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D54">
-        <v>59.4</v>
+        <v>40.96</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G54">
-        <v>59.4</v>
+        <v>76.81</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K54">
-        <v>155.57</v>
+        <v>350.15</v>
       </c>
       <c r="L54">
-        <v>143.79</v>
+        <v>330.36</v>
       </c>
       <c r="M54">
-        <v>179.13</v>
+        <v>389.72</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3172,40 +3205,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D55">
-        <v>54.94</v>
+        <v>55.96</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G55">
-        <v>63.37</v>
+        <v>55.96</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K55">
-        <v>1485.3</v>
+        <v>988.8</v>
       </c>
       <c r="L55">
-        <v>1450.83</v>
+        <v>954.65</v>
       </c>
       <c r="M55">
-        <v>1554.24</v>
+        <v>1057.1</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3216,40 +3249,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D56">
-        <v>30.12</v>
+        <v>53.37</v>
       </c>
       <c r="E56">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G56">
-        <v>57.17</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K56">
-        <v>244.7</v>
+        <v>13789</v>
       </c>
       <c r="L56">
-        <v>232.72</v>
+        <v>13132.57</v>
       </c>
       <c r="M56">
-        <v>268.65</v>
+        <v>15101.86</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3260,40 +3293,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D57">
-        <v>29.1</v>
+        <v>52.17</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G57">
-        <v>32.71</v>
+        <v>52.17</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K57">
-        <v>965.85</v>
+        <v>207.5</v>
       </c>
       <c r="L57">
-        <v>932.46</v>
+        <v>197.15</v>
       </c>
       <c r="M57">
-        <v>1032.62</v>
+        <v>228.21</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3304,40 +3337,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D58">
-        <v>27.71</v>
+        <v>37.35</v>
       </c>
       <c r="E58">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G58">
-        <v>37.35</v>
+        <v>44.58</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K58">
-        <v>279.2</v>
+        <v>454.8</v>
       </c>
       <c r="L58">
-        <v>265.08</v>
+        <v>420.19</v>
       </c>
       <c r="M58">
-        <v>307.44</v>
+        <v>524.01</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3348,40 +3381,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D59">
-        <v>26.69</v>
+        <v>37.35</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
         <v>132</v>
       </c>
       <c r="G59">
-        <v>26.69</v>
+        <v>37.35</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K59">
-        <v>2026.5</v>
+        <v>1077.95</v>
       </c>
       <c r="L59">
-        <v>1977.54</v>
+        <v>1019.67</v>
       </c>
       <c r="M59">
-        <v>2124.41</v>
+        <v>1194.51</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3392,40 +3425,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D60">
-        <v>22.89</v>
+        <v>34.94</v>
       </c>
       <c r="E60">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G60">
-        <v>50.78</v>
+        <v>54.76</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K60">
-        <v>757.8</v>
+        <v>260.82</v>
       </c>
       <c r="L60">
-        <v>716.05</v>
+        <v>244.57</v>
       </c>
       <c r="M60">
-        <v>841.3</v>
+        <v>293.32</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3436,19 +3469,19 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D61">
-        <v>21.69</v>
+        <v>32.53</v>
       </c>
       <c r="E61">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G61">
         <v>32.53</v>
@@ -3460,16 +3493,16 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K61">
-        <v>177.34</v>
+        <v>1521.5</v>
       </c>
       <c r="L61">
-        <v>165.47</v>
+        <v>1449.99</v>
       </c>
       <c r="M61">
-        <v>201.07</v>
+        <v>1664.53</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3480,40 +3513,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D62">
-        <v>21.69</v>
+        <v>27.89</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G62">
-        <v>21.69</v>
+        <v>27.89</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K62">
-        <v>774.95</v>
+        <v>697.3</v>
       </c>
       <c r="L62">
-        <v>743.8099999999999</v>
+        <v>674.5599999999999</v>
       </c>
       <c r="M62">
-        <v>837.22</v>
+        <v>742.77</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3524,40 +3557,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D63">
-        <v>20.48</v>
+        <v>27.71</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G63">
-        <v>43.37</v>
+        <v>27.71</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K63">
-        <v>2731.9</v>
+        <v>704.6</v>
       </c>
       <c r="L63">
-        <v>2630.07</v>
+        <v>681.0599999999999</v>
       </c>
       <c r="M63">
-        <v>2935.56</v>
+        <v>751.6799999999999</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3568,40 +3601,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D64">
-        <v>20.48</v>
+        <v>26.51</v>
       </c>
       <c r="E64">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G64">
-        <v>54.76</v>
+        <v>26.51</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K64">
-        <v>251.56</v>
+        <v>835</v>
       </c>
       <c r="L64">
-        <v>235.43</v>
+        <v>794.04</v>
       </c>
       <c r="M64">
-        <v>283.82</v>
+        <v>916.91</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3612,40 +3645,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D65">
-        <v>20.48</v>
+        <v>25.3</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G65">
-        <v>43.37</v>
+        <v>39.76</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K65">
-        <v>1457.1</v>
+        <v>368</v>
       </c>
       <c r="L65">
-        <v>1374.84</v>
+        <v>345.66</v>
       </c>
       <c r="M65">
-        <v>1621.61</v>
+        <v>412.67</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3656,22 +3689,22 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D66">
-        <v>16.87</v>
+        <v>22.89</v>
       </c>
       <c r="E66">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G66">
-        <v>21.69</v>
+        <v>22.89</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3680,16 +3713,16 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K66">
-        <v>212.38</v>
+        <v>166.27</v>
       </c>
       <c r="L66">
-        <v>201.26</v>
+        <v>159.08</v>
       </c>
       <c r="M66">
-        <v>234.62</v>
+        <v>180.65</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3700,40 +3733,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D67">
-        <v>16.87</v>
+        <v>22.89</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G67">
-        <v>28.07</v>
+        <v>52.35</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K67">
-        <v>1005.3</v>
+        <v>370.3</v>
       </c>
       <c r="L67">
-        <v>975.8099999999999</v>
+        <v>350.79</v>
       </c>
       <c r="M67">
-        <v>1064.29</v>
+        <v>409.33</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3744,40 +3777,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D68">
-        <v>16.87</v>
+        <v>21.69</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G68">
-        <v>16.87</v>
+        <v>63.37</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K68">
-        <v>321.25</v>
+        <v>1485.6</v>
       </c>
       <c r="L68">
-        <v>308.17</v>
+        <v>1452.89</v>
       </c>
       <c r="M68">
-        <v>347.41</v>
+        <v>1551.03</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3788,40 +3821,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D69">
-        <v>16.87</v>
+        <v>21.69</v>
       </c>
       <c r="E69">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G69">
-        <v>63.86</v>
+        <v>28.07</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K69">
-        <v>1000.25</v>
+        <v>1023.1</v>
       </c>
       <c r="L69">
-        <v>948.71</v>
+        <v>982.84</v>
       </c>
       <c r="M69">
-        <v>1103.34</v>
+        <v>1103.61</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3832,40 +3865,40 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D70">
-        <v>15.66</v>
+        <v>20.48</v>
       </c>
       <c r="E70">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G70">
-        <v>34.94</v>
+        <v>66.81</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K70">
-        <v>378.4</v>
+        <v>5132.1</v>
       </c>
       <c r="L70">
-        <v>363.2</v>
+        <v>4859.84</v>
       </c>
       <c r="M70">
-        <v>408.8</v>
+        <v>5676.62</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3876,40 +3909,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D71">
-        <v>15.66</v>
+        <v>20.48</v>
       </c>
       <c r="E71">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
         <v>132</v>
       </c>
       <c r="G71">
-        <v>21.69</v>
+        <v>43.37</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K71">
-        <v>16540</v>
+        <v>1457.9</v>
       </c>
       <c r="L71">
-        <v>15816</v>
+        <v>1381.16</v>
       </c>
       <c r="M71">
-        <v>17988</v>
+        <v>1611.39</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3920,40 +3953,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D72">
-        <v>14.46</v>
+        <v>16.87</v>
       </c>
       <c r="E72">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G72">
-        <v>61.99</v>
+        <v>27.71</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K72">
-        <v>2670.6</v>
+        <v>943.2</v>
       </c>
       <c r="L72">
-        <v>2513.37</v>
+        <v>893.72</v>
       </c>
       <c r="M72">
-        <v>2985.06</v>
+        <v>1042.16</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3964,40 +3997,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D73">
-        <v>12.05</v>
+        <v>15.66</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G73">
-        <v>65.06</v>
+        <v>18.07</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K73">
-        <v>821.35</v>
+        <v>407.9</v>
       </c>
       <c r="L73">
-        <v>787.51</v>
+        <v>392.26</v>
       </c>
       <c r="M73">
-        <v>889.02</v>
+        <v>439.19</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4008,40 +4041,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D74">
-        <v>10.84</v>
+        <v>15.66</v>
       </c>
       <c r="E74">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G74">
-        <v>18.07</v>
+        <v>16.87</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K74">
-        <v>404.5</v>
+        <v>100.78</v>
       </c>
       <c r="L74">
-        <v>390.64</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="M74">
-        <v>432.23</v>
+        <v>109.48</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4052,22 +4085,22 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D75">
-        <v>10.84</v>
+        <v>15.66</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G75">
-        <v>19.28</v>
+        <v>43.37</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4076,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K75">
-        <v>3538.2</v>
+        <v>2750</v>
       </c>
       <c r="L75">
-        <v>3388.59</v>
+        <v>2652.93</v>
       </c>
       <c r="M75">
-        <v>3837.43</v>
+        <v>2944.14</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4096,40 +4129,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D76">
-        <v>10.84</v>
+        <v>15.66</v>
       </c>
       <c r="E76">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G76">
-        <v>24.1</v>
+        <v>22.89</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K76">
-        <v>476.55</v>
+        <v>6652</v>
       </c>
       <c r="L76">
-        <v>451.3</v>
+        <v>6333.5</v>
       </c>
       <c r="M76">
-        <v>527.04</v>
+        <v>7289</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4140,40 +4173,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D77">
-        <v>10.84</v>
+        <v>15.66</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G77">
-        <v>48.19</v>
+        <v>38.92</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K77">
-        <v>118.65</v>
+        <v>210.21</v>
       </c>
       <c r="L77">
-        <v>112.82</v>
+        <v>207.11</v>
       </c>
       <c r="M77">
-        <v>130.31</v>
+        <v>216.41</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4184,22 +4217,22 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D78">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G78">
-        <v>16.87</v>
+        <v>37.35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4208,16 +4241,16 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K78">
-        <v>6591.5</v>
+        <v>177.17</v>
       </c>
       <c r="L78">
-        <v>6276</v>
+        <v>165.42</v>
       </c>
       <c r="M78">
-        <v>7222.5</v>
+        <v>200.68</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4228,40 +4261,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="E79">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G79">
-        <v>20.48</v>
+        <v>31.33</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K79">
-        <v>818.7</v>
+        <v>7434</v>
       </c>
       <c r="L79">
-        <v>781.13</v>
+        <v>7254.56</v>
       </c>
       <c r="M79">
-        <v>893.84</v>
+        <v>7792.88</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4272,40 +4305,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D80">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G80">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K80">
-        <v>527.75</v>
+        <v>1281.8</v>
       </c>
       <c r="L80">
-        <v>507.44</v>
+        <v>1230.1</v>
       </c>
       <c r="M80">
-        <v>568.37</v>
+        <v>1385.21</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4316,40 +4349,40 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D81">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G81">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K81">
-        <v>1686.9</v>
+        <v>35185</v>
       </c>
       <c r="L81">
-        <v>1656.6</v>
+        <v>34030.71</v>
       </c>
       <c r="M81">
-        <v>1747.51</v>
+        <v>37493.57</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4360,22 +4393,22 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D82">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E82">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G82">
-        <v>15.66</v>
+        <v>58.19</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4384,16 +4417,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K82">
-        <v>3256.9</v>
+        <v>3069.8</v>
       </c>
       <c r="L82">
-        <v>3142.7</v>
+        <v>2916.09</v>
       </c>
       <c r="M82">
-        <v>3485.31</v>
+        <v>3377.23</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4404,40 +4437,40 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D83">
-        <v>9.640000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G83">
-        <v>15.66</v>
+        <v>65.06</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K83">
-        <v>3471.2</v>
+        <v>822.05</v>
       </c>
       <c r="L83">
-        <v>3335.1</v>
+        <v>790.05</v>
       </c>
       <c r="M83">
-        <v>3743.4</v>
+        <v>886.05</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4448,22 +4481,22 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D84">
-        <v>7.23</v>
+        <v>10.84</v>
       </c>
       <c r="E84">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G84">
-        <v>65.59999999999999</v>
+        <v>15.66</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4472,16 +4505,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K84">
-        <v>190.21</v>
+        <v>3264.9</v>
       </c>
       <c r="L84">
-        <v>183.56</v>
+        <v>3152.63</v>
       </c>
       <c r="M84">
-        <v>203.52</v>
+        <v>3489.44</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4492,40 +4525,40 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D85">
-        <v>7.23</v>
+        <v>10.84</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G85">
-        <v>35.12</v>
+        <v>10.84</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K85">
-        <v>959</v>
+        <v>748.55</v>
       </c>
       <c r="L85">
-        <v>912.21</v>
+        <v>729.8099999999999</v>
       </c>
       <c r="M85">
-        <v>1052.59</v>
+        <v>786.03</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4536,40 +4569,40 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D86">
-        <v>6.02</v>
+        <v>10.84</v>
       </c>
       <c r="E86">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G86">
-        <v>31.33</v>
+        <v>16.87</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K86">
-        <v>1181.4</v>
+        <v>530.25</v>
       </c>
       <c r="L86">
-        <v>1114.16</v>
+        <v>509.21</v>
       </c>
       <c r="M86">
-        <v>1315.89</v>
+        <v>572.3200000000001</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -4580,22 +4613,22 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D87">
-        <v>4.82</v>
+        <v>8.43</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G87">
-        <v>32.71</v>
+        <v>27.71</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4604,16 +4637,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K87">
-        <v>976</v>
+        <v>1955.5</v>
       </c>
       <c r="L87">
-        <v>940.96</v>
+        <v>1835.64</v>
       </c>
       <c r="M87">
-        <v>1046.09</v>
+        <v>2195.21</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -4624,40 +4657,40 @@
         <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D88">
-        <v>4.82</v>
+        <v>7.23</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G88">
-        <v>4.82</v>
+        <v>48.73</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K88">
-        <v>2749.1</v>
+        <v>31950</v>
       </c>
       <c r="L88">
-        <v>2666.44</v>
+        <v>30904.72</v>
       </c>
       <c r="M88">
-        <v>2914.41</v>
+        <v>34040.56</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -4668,40 +4701,40 @@
         <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D89">
-        <v>4.82</v>
+        <v>7.23</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G89">
-        <v>27.89</v>
+        <v>30.12</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K89">
-        <v>690.25</v>
+        <v>604.5</v>
       </c>
       <c r="L89">
-        <v>671.67</v>
+        <v>575.4400000000001</v>
       </c>
       <c r="M89">
-        <v>727.4</v>
+        <v>662.62</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -4712,40 +4745,40 @@
         <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D90">
-        <v>4.82</v>
+        <v>6.02</v>
       </c>
       <c r="E90">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G90">
-        <v>41.14</v>
+        <v>22.89</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K90">
-        <v>459</v>
+        <v>185.11</v>
       </c>
       <c r="L90">
-        <v>447.4</v>
+        <v>174.21</v>
       </c>
       <c r="M90">
-        <v>482.2</v>
+        <v>206.91</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -4756,42 +4789,394 @@
         <v>103</v>
       </c>
       <c r="B91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D91">
+        <v>6.02</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91">
+        <v>45.78</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>148</v>
+      </c>
+      <c r="K91">
+        <v>1444.3</v>
+      </c>
+      <c r="L91">
+        <v>1329.21</v>
+      </c>
+      <c r="M91">
+        <v>1674.47</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92">
+        <v>6.02</v>
+      </c>
+      <c r="E92">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>137</v>
+      </c>
+      <c r="G92">
+        <v>24.1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>148</v>
+      </c>
+      <c r="K92">
+        <v>884.75</v>
+      </c>
+      <c r="L92">
+        <v>845.83</v>
+      </c>
+      <c r="M92">
+        <v>962.59</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93">
+        <v>6.02</v>
+      </c>
+      <c r="E93">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93">
+        <v>31.33</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93">
+        <v>1171.3</v>
+      </c>
+      <c r="L93">
+        <v>1106.05</v>
+      </c>
+      <c r="M93">
+        <v>1301.79</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94">
+        <v>4.82</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94">
+        <v>6.02</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+      <c r="K94">
+        <v>228.25</v>
+      </c>
+      <c r="L94">
+        <v>218.96</v>
+      </c>
+      <c r="M94">
+        <v>246.82</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
         <v>107</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95">
+        <v>4.82</v>
+      </c>
+      <c r="E95">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95">
+        <v>41.14</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>148</v>
+      </c>
+      <c r="K95">
+        <v>462</v>
+      </c>
+      <c r="L95">
+        <v>448.76</v>
+      </c>
+      <c r="M95">
+        <v>488.47</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96">
+        <v>4.82</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96">
+        <v>20.48</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>148</v>
+      </c>
+      <c r="K96">
+        <v>6898.5</v>
+      </c>
+      <c r="L96">
+        <v>6675.52</v>
+      </c>
+      <c r="M96">
+        <v>7344.46</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97">
+        <v>4.82</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>132</v>
+      </c>
+      <c r="G97">
+        <v>38.55</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+      <c r="K97">
+        <v>1578.5</v>
+      </c>
+      <c r="L97">
+        <v>1506.43</v>
+      </c>
+      <c r="M97">
+        <v>1722.63</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
         <v>119</v>
       </c>
-      <c r="D91">
+      <c r="C98" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98">
         <v>4.82</v>
       </c>
-      <c r="E91">
-        <v>23</v>
-      </c>
-      <c r="F91" t="s">
-        <v>128</v>
-      </c>
-      <c r="G91">
-        <v>24.1</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>137</v>
-      </c>
-      <c r="K91">
-        <v>884.3</v>
-      </c>
-      <c r="L91">
-        <v>842.62</v>
-      </c>
-      <c r="M91">
-        <v>967.67</v>
-      </c>
-      <c r="N91">
+      <c r="E98">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G98">
+        <v>50.78</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>148</v>
+      </c>
+      <c r="K98">
+        <v>388.95</v>
+      </c>
+      <c r="L98">
+        <v>372.4</v>
+      </c>
+      <c r="M98">
+        <v>422.04</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99">
+        <v>4.82</v>
+      </c>
+      <c r="E99">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99">
+        <v>10.84</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+      <c r="K99">
+        <v>1696.3</v>
+      </c>
+      <c r="L99">
+        <v>1659.17</v>
+      </c>
+      <c r="M99">
+        <v>1770.56</v>
+      </c>
+      <c r="N99">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="135">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,330 +61,288 @@
     <t>PAYTM</t>
   </si>
   <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>ELGIEQUIP</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>CREDITACC</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>SWANENERGY</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>ZFCVINDIA</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>VIJAYA</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
     <t>MRPL</t>
   </si>
   <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>CREDITACC</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>KRBL</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
-    <t>VIJAYA</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>IPCALAB</t>
+    <t>GPPL</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
+  </si>
+  <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>TIMKEN</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>JMFINANCIL</t>
   </si>
   <si>
     <t>HINDALCO</t>
   </si>
   <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>INDIACEM</t>
-  </si>
-  <si>
-    <t>GPPL</t>
-  </si>
-  <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>CHALET</t>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>JKCEMENT</t>
   </si>
   <si>
     <t>VGUARD</t>
   </si>
   <si>
-    <t>SHRIRAMPPS</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
-    <t>FINPIPE</t>
-  </si>
-  <si>
-    <t>JMFINANCIL</t>
+    <t>ALKEM</t>
   </si>
   <si>
     <t>APOLLOHOSP</t>
   </si>
   <si>
-    <t>MAXHEALTH</t>
-  </si>
-  <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
-    <t>CENTURYPLY</t>
-  </si>
-  <si>
-    <t>CENTENKA</t>
-  </si>
-  <si>
-    <t>CONCORDBIO</t>
+    <t>ANDHRSUGAR</t>
+  </si>
+  <si>
+    <t>KALYANKJIL</t>
   </si>
   <si>
     <t>SHREECEM</t>
   </si>
   <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>DCMSHRIRAM</t>
-  </si>
-  <si>
-    <t>KSB</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
+    <t>TMB</t>
   </si>
   <si>
     <t>CASTROLIND</t>
   </si>
   <si>
-    <t>TMB</t>
+    <t>JBCHEPHARM</t>
   </si>
   <si>
     <t>BLUEDART</t>
   </si>
   <si>
-    <t>RAINBOW</t>
-  </si>
-  <si>
-    <t>EIHOTEL</t>
-  </si>
-  <si>
-    <t>JBCHEPHARM</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
     <t>Basic Materials</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Utilities</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
     <t>G_Pattern</t>
   </si>
   <si>
@@ -397,21 +355,24 @@
     <t>Power_H2_Volume</t>
   </si>
   <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>KC_Multi_H2</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
     <t>Strong_H2_KC_Combo</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>KC_Multi_H2</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
     <t>2025-07-07</t>
   </si>
   <si>
@@ -424,9 +385,6 @@
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
     <t>2025-07-15</t>
   </si>
   <si>
@@ -436,10 +394,10 @@
     <t>2025-07-10</t>
   </si>
   <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
   </si>
   <si>
     <t>2025-07-17</t>
@@ -818,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,19 +831,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D2">
-        <v>95.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -897,16 +855,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K2">
-        <v>1094.35</v>
+        <v>1109.3</v>
       </c>
       <c r="L2">
-        <v>1028.6</v>
+        <v>1041.92</v>
       </c>
       <c r="M2">
-        <v>1225.85</v>
+        <v>1244.06</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -917,40 +875,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>61.63</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G3">
-        <v>61.63</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K3">
-        <v>156.6</v>
+        <v>795.2</v>
       </c>
       <c r="L3">
-        <v>145.34</v>
+        <v>758.85</v>
       </c>
       <c r="M3">
-        <v>179.12</v>
+        <v>867.9</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -961,19 +919,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>45.78</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -985,16 +943,16 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K4">
-        <v>619.3</v>
+        <v>620</v>
       </c>
       <c r="L4">
-        <v>599.3</v>
+        <v>599.72</v>
       </c>
       <c r="M4">
-        <v>659.3</v>
+        <v>660.5599999999999</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1005,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>39.76</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G5">
         <v>81.27</v>
@@ -1029,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K5">
-        <v>72.84</v>
+        <v>72.63</v>
       </c>
       <c r="L5">
-        <v>70.14</v>
+        <v>69.89</v>
       </c>
       <c r="M5">
-        <v>78.23</v>
+        <v>78.12</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1049,40 +1007,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>70.42</v>
+        <v>61.99</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G6">
-        <v>70.42</v>
+        <v>61.99</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K6">
-        <v>600.95</v>
+        <v>777.55</v>
       </c>
       <c r="L6">
-        <v>566.38</v>
+        <v>737.35</v>
       </c>
       <c r="M6">
-        <v>670.09</v>
+        <v>857.95</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1093,40 +1051,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>55.96</v>
+        <v>53.55</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>53.55</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>400.45</v>
+        <v>16715</v>
       </c>
       <c r="L7">
-        <v>381.38</v>
+        <v>16005.57</v>
       </c>
       <c r="M7">
-        <v>438.59</v>
+        <v>18133.86</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1137,40 +1095,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
       <c r="D8">
-        <v>53.55</v>
+        <v>90.06</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G8">
-        <v>55.96</v>
+        <v>90.06</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K8">
-        <v>772.75</v>
+        <v>1364.4</v>
       </c>
       <c r="L8">
-        <v>732.55</v>
+        <v>1283.73</v>
       </c>
       <c r="M8">
-        <v>853.15</v>
+        <v>1525.74</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1181,40 +1139,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D9">
-        <v>53.55</v>
+        <v>38.55</v>
       </c>
       <c r="E9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G9">
-        <v>53.55</v>
+        <v>92.47</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K9">
-        <v>16728</v>
+        <v>31730</v>
       </c>
       <c r="L9">
-        <v>16018.57</v>
+        <v>30400</v>
       </c>
       <c r="M9">
-        <v>18146.86</v>
+        <v>34390</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1225,40 +1183,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>90.06</v>
+        <v>38.55</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G10">
-        <v>90.06</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K10">
-        <v>1362.9</v>
+        <v>480.5</v>
       </c>
       <c r="L10">
-        <v>1282.23</v>
+        <v>433.28</v>
       </c>
       <c r="M10">
-        <v>1524.24</v>
+        <v>574.9400000000001</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1269,40 +1227,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
       <c r="D11">
-        <v>75.42</v>
+        <v>38.55</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>96.08</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>132</v>
       </c>
-      <c r="G11">
-        <v>75.42</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>146</v>
-      </c>
       <c r="K11">
-        <v>637.25</v>
+        <v>2603.9</v>
       </c>
       <c r="L11">
-        <v>602.6</v>
+        <v>2398.37</v>
       </c>
       <c r="M11">
-        <v>706.55</v>
+        <v>3014.96</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1313,40 +1271,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>37.35</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12">
-        <v>39.76</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
         <v>132</v>
       </c>
-      <c r="G12">
-        <v>70.42</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>146</v>
-      </c>
       <c r="K12">
-        <v>1382.1</v>
+        <v>414.3</v>
       </c>
       <c r="L12">
-        <v>1283.11</v>
+        <v>387.27</v>
       </c>
       <c r="M12">
-        <v>1580.07</v>
+        <v>468.36</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1357,40 +1315,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D13">
-        <v>39.76</v>
+        <v>37.35</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G13">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K13">
-        <v>31900</v>
+        <v>579.4</v>
       </c>
       <c r="L13">
-        <v>30570</v>
+        <v>529.1900000000001</v>
       </c>
       <c r="M13">
-        <v>34560</v>
+        <v>679.8099999999999</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1401,40 +1359,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>37.35</v>
+      </c>
+      <c r="E14">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14">
-        <v>39.76</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>136</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K14">
-        <v>791.75</v>
+        <v>956.7</v>
       </c>
       <c r="L14">
-        <v>755.4</v>
+        <v>875.3099999999999</v>
       </c>
       <c r="M14">
-        <v>864.45</v>
+        <v>1119.49</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1445,40 +1403,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D15">
-        <v>39.76</v>
+        <v>36.14</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>70.42</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K15">
-        <v>963.9</v>
+        <v>595</v>
       </c>
       <c r="L15">
-        <v>882.51</v>
+        <v>560.4299999999999</v>
       </c>
       <c r="M15">
-        <v>1126.69</v>
+        <v>664.14</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1489,40 +1447,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>38.55</v>
+        <v>33.73</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G16">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K16">
-        <v>2604</v>
+        <v>265.44</v>
       </c>
       <c r="L16">
-        <v>2399.77</v>
+        <v>251.59</v>
       </c>
       <c r="M16">
-        <v>3012.46</v>
+        <v>293.14</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1533,40 +1491,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D17">
-        <v>38.55</v>
+        <v>32.53</v>
       </c>
       <c r="E17">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G17">
-        <v>92.11</v>
+        <v>76.81</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K17">
-        <v>624.5</v>
+        <v>344.4</v>
       </c>
       <c r="L17">
-        <v>572.02</v>
+        <v>324.61</v>
       </c>
       <c r="M17">
-        <v>729.46</v>
+        <v>383.97</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1577,22 +1535,22 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>38.55</v>
+        <v>32.53</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G18">
-        <v>82.83</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1601,16 +1559,16 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K18">
-        <v>427.45</v>
+        <v>719.05</v>
       </c>
       <c r="L18">
-        <v>400.8</v>
+        <v>687.03</v>
       </c>
       <c r="M18">
-        <v>480.75</v>
+        <v>783.09</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1621,40 +1579,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D19">
-        <v>38.55</v>
+        <v>30.12</v>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K19">
-        <v>473.95</v>
+        <v>417.55</v>
       </c>
       <c r="L19">
-        <v>426.73</v>
+        <v>390.9</v>
       </c>
       <c r="M19">
-        <v>568.39</v>
+        <v>470.85</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1665,40 +1623,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>37.35</v>
+        <v>30.12</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G20">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K20">
-        <v>416.45</v>
+        <v>440.3</v>
       </c>
       <c r="L20">
-        <v>389.42</v>
+        <v>418.39</v>
       </c>
       <c r="M20">
-        <v>470.51</v>
+        <v>484.11</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1709,19 +1667,19 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>37.35</v>
+        <v>30.12</v>
       </c>
       <c r="E21">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -1733,16 +1691,16 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K21">
-        <v>579.7</v>
+        <v>179.89</v>
       </c>
       <c r="L21">
-        <v>529.49</v>
+        <v>168.3</v>
       </c>
       <c r="M21">
-        <v>680.11</v>
+        <v>203.08</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1753,40 +1711,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>33.73</v>
+        <v>28.92</v>
       </c>
       <c r="E22">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>70.42</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K22">
-        <v>943</v>
+        <v>1367.4</v>
       </c>
       <c r="L22">
-        <v>898.24</v>
+        <v>1268.41</v>
       </c>
       <c r="M22">
-        <v>1032.53</v>
+        <v>1565.37</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1797,40 +1755,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>33.73</v>
+        <v>25.3</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K23">
-        <v>265.32</v>
+        <v>674.05</v>
       </c>
       <c r="L23">
-        <v>251.47</v>
+        <v>645.5700000000001</v>
       </c>
       <c r="M23">
-        <v>293.02</v>
+        <v>731</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1841,40 +1799,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>32.53</v>
+        <v>24.1</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
         <v>132</v>
       </c>
-      <c r="G24">
-        <v>85.23999999999999</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>146</v>
-      </c>
       <c r="K24">
-        <v>721.55</v>
+        <v>1913.4</v>
       </c>
       <c r="L24">
-        <v>689.66</v>
+        <v>1812.94</v>
       </c>
       <c r="M24">
-        <v>785.3200000000001</v>
+        <v>2114.31</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1885,40 +1843,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>32.53</v>
+        <v>22.89</v>
       </c>
       <c r="E25">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25">
+        <v>70.42</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
         <v>132</v>
       </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>146</v>
-      </c>
       <c r="K25">
-        <v>442.2</v>
+        <v>1177.5</v>
       </c>
       <c r="L25">
-        <v>420.29</v>
+        <v>1112.18</v>
       </c>
       <c r="M25">
-        <v>486.01</v>
+        <v>1308.14</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1929,40 +1887,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D26">
-        <v>31.33</v>
+        <v>22.89</v>
       </c>
       <c r="E26">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K26">
-        <v>181.49</v>
+        <v>2024.2</v>
       </c>
       <c r="L26">
-        <v>169.92</v>
+        <v>1904.6</v>
       </c>
       <c r="M26">
-        <v>204.63</v>
+        <v>2263.4</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1973,40 +1931,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D27">
-        <v>30.12</v>
+        <v>20.48</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G27">
-        <v>75.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K27">
-        <v>962.25</v>
+        <v>595.1</v>
       </c>
       <c r="L27">
-        <v>929.4400000000001</v>
+        <v>556.54</v>
       </c>
       <c r="M27">
-        <v>1027.87</v>
+        <v>672.21</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2017,19 +1975,19 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>125</v>
-      </c>
       <c r="D28">
-        <v>25.3</v>
+        <v>19.28</v>
       </c>
       <c r="E28">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -2038,19 +1996,19 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K28">
-        <v>1328</v>
+        <v>5555</v>
       </c>
       <c r="L28">
-        <v>1255.56</v>
+        <v>5318</v>
       </c>
       <c r="M28">
-        <v>1472.89</v>
+        <v>6029</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2061,40 +2019,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D29">
-        <v>25.3</v>
+        <v>19.28</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G29">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K29">
-        <v>678.7</v>
+        <v>398.75</v>
       </c>
       <c r="L29">
-        <v>647.7</v>
+        <v>379.68</v>
       </c>
       <c r="M29">
-        <v>740.7</v>
+        <v>436.89</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2105,19 +2063,19 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D30">
-        <v>24.1</v>
+        <v>18.07</v>
       </c>
       <c r="E30">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G30">
         <v>100</v>
@@ -2126,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K30">
-        <v>1913</v>
+        <v>1323.5</v>
       </c>
       <c r="L30">
-        <v>1812.54</v>
+        <v>1254.92</v>
       </c>
       <c r="M30">
-        <v>2113.91</v>
+        <v>1460.65</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2149,40 +2107,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
       <c r="D31">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E31">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>132</v>
       </c>
-      <c r="G31">
-        <v>86.45</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
       <c r="K31">
-        <v>2032.8</v>
+        <v>512.5</v>
       </c>
       <c r="L31">
-        <v>1913.2</v>
+        <v>473.45</v>
       </c>
       <c r="M31">
-        <v>2272</v>
+        <v>590.6</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2193,40 +2151,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D32">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32">
+        <v>75.42</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>132</v>
       </c>
-      <c r="G32">
-        <v>70.42</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>146</v>
-      </c>
       <c r="K32">
-        <v>1178.1</v>
+        <v>636.35</v>
       </c>
       <c r="L32">
-        <v>1112.44</v>
+        <v>601.7</v>
       </c>
       <c r="M32">
-        <v>1309.42</v>
+        <v>705.65</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2237,40 +2195,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D33">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E33">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>70.78</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K33">
-        <v>5556.5</v>
+        <v>244.69</v>
       </c>
       <c r="L33">
-        <v>5319.5</v>
+        <v>232.33</v>
       </c>
       <c r="M33">
-        <v>6030.5</v>
+        <v>269.42</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2281,40 +2239,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D34">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G34">
         <v>100</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K34">
-        <v>595.85</v>
+        <v>3872.9</v>
       </c>
       <c r="L34">
-        <v>557.29</v>
+        <v>3632.53</v>
       </c>
       <c r="M34">
-        <v>672.96</v>
+        <v>4353.64</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2325,22 +2283,22 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>16.87</v>
+        <v>13.25</v>
       </c>
       <c r="E35">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2349,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K35">
-        <v>516.8</v>
+        <v>3542</v>
       </c>
       <c r="L35">
-        <v>477.75</v>
+        <v>3429.43</v>
       </c>
       <c r="M35">
-        <v>594.9</v>
+        <v>3767.14</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2369,40 +2327,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D36">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E36">
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G36">
-        <v>70.78</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K36">
-        <v>245.89</v>
+        <v>2791.6</v>
       </c>
       <c r="L36">
-        <v>233.53</v>
+        <v>2651.31</v>
       </c>
       <c r="M36">
-        <v>270.62</v>
+        <v>3072.17</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2413,19 +2371,19 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -2437,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K37">
-        <v>3874</v>
+        <v>3606.9</v>
       </c>
       <c r="L37">
-        <v>3635.19</v>
+        <v>3465.92</v>
       </c>
       <c r="M37">
-        <v>4351.63</v>
+        <v>3888.85</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2457,40 +2415,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E38">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
         <v>132</v>
       </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>146</v>
-      </c>
       <c r="K38">
-        <v>713.5</v>
+        <v>151100</v>
       </c>
       <c r="L38">
-        <v>652.41</v>
+        <v>145496.12</v>
       </c>
       <c r="M38">
-        <v>835.6900000000001</v>
+        <v>162307.75</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2501,40 +2459,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D39">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E39">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G39">
         <v>100</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K39">
-        <v>1298.9</v>
+        <v>6307</v>
       </c>
       <c r="L39">
-        <v>1226.84</v>
+        <v>5997.6</v>
       </c>
       <c r="M39">
-        <v>1443.02</v>
+        <v>6925.81</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2545,40 +2503,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
       <c r="D40">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E40">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>132</v>
       </c>
-      <c r="G40">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>146</v>
-      </c>
       <c r="K40">
-        <v>2144.6</v>
+        <v>38010</v>
       </c>
       <c r="L40">
-        <v>1981.22</v>
+        <v>36296.43</v>
       </c>
       <c r="M40">
-        <v>2471.35</v>
+        <v>41437.14</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2589,22 +2547,22 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>13.25</v>
+        <v>7.23</v>
       </c>
       <c r="E41">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="G41">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2613,16 +2571,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K41">
-        <v>3544.4</v>
+        <v>528.4</v>
       </c>
       <c r="L41">
-        <v>3433.03</v>
+        <v>505.67</v>
       </c>
       <c r="M41">
-        <v>3767.14</v>
+        <v>573.86</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2633,40 +2591,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <v>4.82</v>
+      </c>
+      <c r="E42">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42">
-        <v>12.05</v>
-      </c>
-      <c r="E42">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>132</v>
       </c>
-      <c r="G42">
-        <v>82.65000000000001</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>146</v>
-      </c>
       <c r="K42">
-        <v>413.35</v>
+        <v>485.5</v>
       </c>
       <c r="L42">
-        <v>388.6</v>
+        <v>469.46</v>
       </c>
       <c r="M42">
-        <v>462.85</v>
+        <v>517.5700000000001</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2677,40 +2635,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D43">
-        <v>10.84</v>
+        <v>48.19</v>
       </c>
       <c r="E43">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G43">
-        <v>93.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K43">
-        <v>2800.8</v>
+        <v>19850</v>
       </c>
       <c r="L43">
-        <v>2652.37</v>
+        <v>18009.71</v>
       </c>
       <c r="M43">
-        <v>3097.67</v>
+        <v>23530.57</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2721,40 +2679,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D44">
-        <v>10.84</v>
+        <v>45.78</v>
       </c>
       <c r="E44">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G44">
-        <v>85.23999999999999</v>
+        <v>92.11</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K44">
-        <v>151695</v>
+        <v>645.6</v>
       </c>
       <c r="L44">
-        <v>145552.79</v>
+        <v>590.1</v>
       </c>
       <c r="M44">
-        <v>163979.42</v>
+        <v>756.6</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2765,40 +2723,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D45">
-        <v>9.640000000000001</v>
+        <v>43.37</v>
       </c>
       <c r="E45">
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K45">
-        <v>3615.7</v>
+        <v>199.28</v>
       </c>
       <c r="L45">
-        <v>3466.76</v>
+        <v>189.85</v>
       </c>
       <c r="M45">
-        <v>3913.57</v>
+        <v>218.14</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2809,40 +2767,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46">
+        <v>41.14</v>
+      </c>
+      <c r="E46">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
         <v>119</v>
       </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46">
-        <v>8.43</v>
-      </c>
-      <c r="E46">
-        <v>54</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
       <c r="G46">
-        <v>100</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K46">
-        <v>38070</v>
+        <v>2025.6</v>
       </c>
       <c r="L46">
-        <v>36362.14</v>
+        <v>1863.96</v>
       </c>
       <c r="M46">
-        <v>41485.71</v>
+        <v>2348.89</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2853,40 +2811,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D47">
-        <v>8.43</v>
+        <v>40.96</v>
       </c>
       <c r="E47">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G47">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K47">
-        <v>6321</v>
+        <v>309.35</v>
       </c>
       <c r="L47">
-        <v>5999.73</v>
+        <v>289.26</v>
       </c>
       <c r="M47">
-        <v>6963.53</v>
+        <v>349.54</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2897,19 +2855,19 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D48">
-        <v>7.23</v>
+        <v>40.96</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G48">
         <v>100</v>
@@ -2918,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K48">
-        <v>529.45</v>
+        <v>952.55</v>
       </c>
       <c r="L48">
-        <v>506.87</v>
+        <v>907.79</v>
       </c>
       <c r="M48">
-        <v>574.61</v>
+        <v>1042.08</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2941,40 +2899,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D49">
-        <v>4.82</v>
+        <v>40.12</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G49">
-        <v>100</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K49">
-        <v>486.15</v>
+        <v>13588</v>
       </c>
       <c r="L49">
-        <v>469.53</v>
+        <v>13083.2</v>
       </c>
       <c r="M49">
-        <v>519.4</v>
+        <v>14597.6</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2985,40 +2943,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D50">
-        <v>48.19</v>
+        <v>55.96</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50">
+        <v>55.96</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>134</v>
       </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>147</v>
-      </c>
       <c r="K50">
-        <v>19188</v>
+        <v>988.95</v>
       </c>
       <c r="L50">
-        <v>17347.71</v>
+        <v>954.8</v>
       </c>
       <c r="M50">
-        <v>22868.57</v>
+        <v>1057.25</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3029,40 +2987,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D51">
-        <v>43.37</v>
+        <v>52.17</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51">
+        <v>52.17</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
         <v>134</v>
       </c>
-      <c r="G51">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>147</v>
-      </c>
       <c r="K51">
-        <v>199.22</v>
+        <v>207</v>
       </c>
       <c r="L51">
-        <v>189.79</v>
+        <v>196.65</v>
       </c>
       <c r="M51">
-        <v>218.08</v>
+        <v>227.71</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3073,40 +3031,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D52">
-        <v>41.14</v>
+        <v>37.35</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G52">
-        <v>72.29000000000001</v>
+        <v>37.35</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K52">
-        <v>2034</v>
+        <v>1084.9</v>
       </c>
       <c r="L52">
-        <v>1872.36</v>
+        <v>1025.64</v>
       </c>
       <c r="M52">
-        <v>2357.29</v>
+        <v>1203.43</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3117,40 +3075,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D53">
-        <v>40.96</v>
+        <v>34.94</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G53">
-        <v>92.47</v>
+        <v>44.58</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K53">
-        <v>312.9</v>
+        <v>452.85</v>
       </c>
       <c r="L53">
-        <v>292.81</v>
+        <v>418.24</v>
       </c>
       <c r="M53">
-        <v>353.09</v>
+        <v>522.0599999999999</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3161,40 +3119,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
         <v>113</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54">
+        <v>34.94</v>
+      </c>
+      <c r="E54">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
         <v>128</v>
       </c>
-      <c r="D54">
-        <v>40.96</v>
-      </c>
-      <c r="E54">
-        <v>42</v>
-      </c>
-      <c r="F54" t="s">
-        <v>136</v>
-      </c>
       <c r="G54">
-        <v>76.81</v>
+        <v>54.76</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K54">
-        <v>350.15</v>
+        <v>260.03</v>
       </c>
       <c r="L54">
-        <v>330.36</v>
+        <v>243.78</v>
       </c>
       <c r="M54">
-        <v>389.72</v>
+        <v>292.53</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3205,40 +3163,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="C55" t="s">
-        <v>127</v>
-      </c>
       <c r="D55">
-        <v>55.96</v>
+        <v>32.53</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G55">
-        <v>55.96</v>
+        <v>32.53</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K55">
-        <v>988.8</v>
+        <v>1525.5</v>
       </c>
       <c r="L55">
-        <v>954.65</v>
+        <v>1453.99</v>
       </c>
       <c r="M55">
-        <v>1057.1</v>
+        <v>1668.53</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3249,22 +3207,22 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56">
+        <v>27.71</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
         <v>126</v>
       </c>
-      <c r="D56">
-        <v>53.37</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>141</v>
-      </c>
       <c r="G56">
-        <v>64.40000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3273,16 +3231,16 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K56">
-        <v>13789</v>
+        <v>699.6</v>
       </c>
       <c r="L56">
-        <v>13132.57</v>
+        <v>680.58</v>
       </c>
       <c r="M56">
-        <v>15101.86</v>
+        <v>737.64</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3293,40 +3251,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D57">
-        <v>52.17</v>
+        <v>27.71</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G57">
-        <v>52.17</v>
+        <v>27.71</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K57">
-        <v>207.5</v>
+        <v>834.9</v>
       </c>
       <c r="L57">
-        <v>197.15</v>
+        <v>792.54</v>
       </c>
       <c r="M57">
-        <v>228.21</v>
+        <v>919.61</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3337,40 +3295,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D58">
-        <v>37.35</v>
+        <v>24.1</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G58">
-        <v>44.58</v>
+        <v>61.63</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K58">
-        <v>454.8</v>
+        <v>154.55</v>
       </c>
       <c r="L58">
-        <v>420.19</v>
+        <v>143.42</v>
       </c>
       <c r="M58">
-        <v>524.01</v>
+        <v>176.81</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3381,40 +3339,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D59">
-        <v>37.35</v>
+        <v>22.89</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G59">
-        <v>37.35</v>
+        <v>22.89</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K59">
-        <v>1077.95</v>
+        <v>166.1</v>
       </c>
       <c r="L59">
-        <v>1019.67</v>
+        <v>158.91</v>
       </c>
       <c r="M59">
-        <v>1194.51</v>
+        <v>180.48</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3425,40 +3383,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D60">
-        <v>34.94</v>
+        <v>22.89</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="G60">
-        <v>54.76</v>
+        <v>52.35</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K60">
-        <v>260.82</v>
+        <v>369.05</v>
       </c>
       <c r="L60">
-        <v>244.57</v>
+        <v>350.04</v>
       </c>
       <c r="M60">
-        <v>293.32</v>
+        <v>407.07</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3469,40 +3427,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D61">
-        <v>32.53</v>
+        <v>21.69</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61">
+        <v>66.81</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
         <v>134</v>
       </c>
-      <c r="G61">
-        <v>32.53</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>148</v>
-      </c>
       <c r="K61">
-        <v>1521.5</v>
+        <v>5145</v>
       </c>
       <c r="L61">
-        <v>1449.99</v>
+        <v>4861.07</v>
       </c>
       <c r="M61">
-        <v>1664.53</v>
+        <v>5712.86</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3513,22 +3471,22 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D62">
-        <v>27.89</v>
+        <v>21.69</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G62">
-        <v>27.89</v>
+        <v>63.37</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -3537,16 +3495,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K62">
-        <v>697.3</v>
+        <v>1481.8</v>
       </c>
       <c r="L62">
-        <v>674.5599999999999</v>
+        <v>1449.01</v>
       </c>
       <c r="M62">
-        <v>742.77</v>
+        <v>1547.37</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3557,40 +3515,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D63">
-        <v>27.71</v>
+        <v>20.48</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G63">
-        <v>27.71</v>
+        <v>43.37</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K63">
-        <v>704.6</v>
+        <v>1454.1</v>
       </c>
       <c r="L63">
-        <v>681.0599999999999</v>
+        <v>1378.74</v>
       </c>
       <c r="M63">
-        <v>751.6799999999999</v>
+        <v>1604.83</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3601,40 +3559,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D64">
-        <v>26.51</v>
+        <v>19.28</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G64">
-        <v>26.51</v>
+        <v>28.92</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K64">
-        <v>835</v>
+        <v>464.5</v>
       </c>
       <c r="L64">
-        <v>794.04</v>
+        <v>452.86</v>
       </c>
       <c r="M64">
-        <v>916.91</v>
+        <v>487.78</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3645,40 +3603,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D65">
-        <v>25.3</v>
+        <v>19.28</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G65">
-        <v>39.76</v>
+        <v>26.69</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K65">
-        <v>368</v>
+        <v>2011.2</v>
       </c>
       <c r="L65">
-        <v>345.66</v>
+        <v>1979.19</v>
       </c>
       <c r="M65">
-        <v>412.67</v>
+        <v>2075.23</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3689,40 +3647,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D66">
-        <v>22.89</v>
+        <v>18.07</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G66">
-        <v>22.89</v>
+        <v>28.07</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K66">
-        <v>166.27</v>
+        <v>1014.9</v>
       </c>
       <c r="L66">
-        <v>159.08</v>
+        <v>978.89</v>
       </c>
       <c r="M66">
-        <v>180.65</v>
+        <v>1086.91</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3733,40 +3691,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D67">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E67">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G67">
-        <v>52.35</v>
+        <v>38.55</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K67">
-        <v>370.3</v>
+        <v>1611.1</v>
       </c>
       <c r="L67">
-        <v>350.79</v>
+        <v>1528.37</v>
       </c>
       <c r="M67">
-        <v>409.33</v>
+        <v>1776.56</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3777,40 +3735,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D68">
-        <v>21.69</v>
+        <v>16.87</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G68">
-        <v>63.37</v>
+        <v>22.89</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K68">
-        <v>1485.6</v>
+        <v>3544</v>
       </c>
       <c r="L68">
-        <v>1452.89</v>
+        <v>3389.84</v>
       </c>
       <c r="M68">
-        <v>1551.03</v>
+        <v>3852.31</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3821,40 +3779,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D69">
-        <v>21.69</v>
+        <v>15.66</v>
       </c>
       <c r="E69">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G69">
-        <v>28.07</v>
+        <v>43.37</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>1023.1</v>
+        <v>2729.8</v>
       </c>
       <c r="L69">
-        <v>982.84</v>
+        <v>2631.77</v>
       </c>
       <c r="M69">
-        <v>1103.61</v>
+        <v>2925.86</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3865,40 +3823,40 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D70">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G70">
-        <v>66.81</v>
+        <v>37.35</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K70">
-        <v>5132.1</v>
+        <v>175.85</v>
       </c>
       <c r="L70">
-        <v>4859.84</v>
+        <v>163.91</v>
       </c>
       <c r="M70">
-        <v>5676.62</v>
+        <v>199.72</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3909,40 +3867,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D71">
-        <v>20.48</v>
+        <v>14.46</v>
       </c>
       <c r="E71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G71">
-        <v>43.37</v>
+        <v>27.89</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K71">
-        <v>1457.9</v>
+        <v>695.8</v>
       </c>
       <c r="L71">
-        <v>1381.16</v>
+        <v>674.04</v>
       </c>
       <c r="M71">
-        <v>1611.39</v>
+        <v>739.33</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3953,22 +3911,22 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D72">
-        <v>16.87</v>
+        <v>13.25</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G72">
-        <v>27.71</v>
+        <v>22.89</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3977,16 +3935,16 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K72">
-        <v>943.2</v>
+        <v>187.85</v>
       </c>
       <c r="L72">
-        <v>893.72</v>
+        <v>176.79</v>
       </c>
       <c r="M72">
-        <v>1042.16</v>
+        <v>209.97</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3997,40 +3955,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D73">
-        <v>15.66</v>
+        <v>12.05</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G73">
-        <v>18.07</v>
+        <v>58.19</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K73">
-        <v>407.9</v>
+        <v>3072</v>
       </c>
       <c r="L73">
-        <v>392.26</v>
+        <v>2918.29</v>
       </c>
       <c r="M73">
-        <v>439.19</v>
+        <v>3379.43</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4041,40 +3999,40 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D74">
-        <v>15.66</v>
+        <v>12.05</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G74">
-        <v>16.87</v>
+        <v>65.06</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K74">
-        <v>100.78</v>
+        <v>826.15</v>
       </c>
       <c r="L74">
-        <v>96.43000000000001</v>
+        <v>793.6</v>
       </c>
       <c r="M74">
-        <v>109.48</v>
+        <v>891.25</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4085,23 +4043,23 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D75">
+        <v>10.84</v>
+      </c>
+      <c r="E75">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75">
         <v>15.66</v>
       </c>
-      <c r="E75">
-        <v>54</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
-      </c>
-      <c r="G75">
-        <v>43.37</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -4109,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>2750</v>
+        <v>3251.1</v>
       </c>
       <c r="L75">
-        <v>2652.93</v>
+        <v>3151.19</v>
       </c>
       <c r="M75">
-        <v>2944.14</v>
+        <v>3450.91</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4129,40 +4087,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76">
+        <v>10.84</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
         <v>125</v>
-      </c>
-      <c r="D76">
-        <v>15.66</v>
-      </c>
-      <c r="E76">
-        <v>29</v>
-      </c>
-      <c r="F76" t="s">
-        <v>139</v>
       </c>
       <c r="G76">
         <v>22.89</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K76">
-        <v>6652</v>
+        <v>6584.5</v>
       </c>
       <c r="L76">
-        <v>6333.5</v>
+        <v>6276.09</v>
       </c>
       <c r="M76">
-        <v>7289</v>
+        <v>7201.31</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4173,40 +4131,40 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D77">
-        <v>15.66</v>
+        <v>10.84</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G77">
-        <v>38.92</v>
+        <v>18.07</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K77">
-        <v>210.21</v>
+        <v>405.05</v>
       </c>
       <c r="L77">
-        <v>207.11</v>
+        <v>391.86</v>
       </c>
       <c r="M77">
-        <v>216.41</v>
+        <v>431.43</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4217,40 +4175,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D78">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E78">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G78">
-        <v>37.35</v>
+        <v>21.69</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K78">
-        <v>177.17</v>
+        <v>4991.4</v>
       </c>
       <c r="L78">
-        <v>165.42</v>
+        <v>4884.35</v>
       </c>
       <c r="M78">
-        <v>200.68</v>
+        <v>5205.5</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4261,19 +4219,19 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D79">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E79">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G79">
         <v>31.33</v>
@@ -4285,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K79">
-        <v>7434</v>
+        <v>7423</v>
       </c>
       <c r="L79">
-        <v>7254.56</v>
+        <v>7253.51</v>
       </c>
       <c r="M79">
-        <v>7792.88</v>
+        <v>7761.98</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4305,22 +4263,22 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D80">
-        <v>14.46</v>
+        <v>8.43</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G80">
-        <v>14.46</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4329,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K80">
-        <v>1281.8</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="L80">
-        <v>1230.1</v>
+        <v>81.31999999999999</v>
       </c>
       <c r="M80">
-        <v>1385.21</v>
+        <v>89.58</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4349,40 +4307,40 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
         <v>115</v>
       </c>
-      <c r="C81" t="s">
-        <v>125</v>
-      </c>
       <c r="D81">
-        <v>14.46</v>
+        <v>7.23</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G81">
-        <v>14.46</v>
+        <v>30.12</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K81">
-        <v>35185</v>
+        <v>604.95</v>
       </c>
       <c r="L81">
-        <v>34030.71</v>
+        <v>575.41</v>
       </c>
       <c r="M81">
-        <v>37493.57</v>
+        <v>664.02</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4393,40 +4351,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="C82" t="s">
-        <v>130</v>
-      </c>
       <c r="D82">
-        <v>12.05</v>
+        <v>7.23</v>
       </c>
       <c r="E82">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G82">
-        <v>58.19</v>
+        <v>48.73</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K82">
-        <v>3069.8</v>
+        <v>31855</v>
       </c>
       <c r="L82">
-        <v>2916.09</v>
+        <v>30895.32</v>
       </c>
       <c r="M82">
-        <v>3377.23</v>
+        <v>33774.37</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4437,22 +4395,22 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" t="s">
         <v>115</v>
       </c>
-      <c r="C83" t="s">
-        <v>128</v>
-      </c>
       <c r="D83">
-        <v>12.05</v>
+        <v>4.82</v>
       </c>
       <c r="E83">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G83">
-        <v>65.06</v>
+        <v>41.14</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4461,16 +4419,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K83">
-        <v>822.05</v>
+        <v>460.6</v>
       </c>
       <c r="L83">
-        <v>790.05</v>
+        <v>448.26</v>
       </c>
       <c r="M83">
-        <v>886.05</v>
+        <v>485.29</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -4481,22 +4439,22 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D84">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E84">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G84">
-        <v>15.66</v>
+        <v>6.02</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4505,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K84">
-        <v>3264.9</v>
+        <v>228.19</v>
       </c>
       <c r="L84">
-        <v>3152.63</v>
+        <v>218.96</v>
       </c>
       <c r="M84">
-        <v>3489.44</v>
+        <v>246.65</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -4525,19 +4483,19 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D85">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G85">
         <v>10.84</v>
@@ -4546,19 +4504,19 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K85">
-        <v>748.55</v>
+        <v>1689.4</v>
       </c>
       <c r="L85">
-        <v>729.8099999999999</v>
+        <v>1658.33</v>
       </c>
       <c r="M85">
-        <v>786.03</v>
+        <v>1751.54</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -4569,614 +4527,42 @@
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D86">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E86">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G86">
-        <v>16.87</v>
+        <v>20.48</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K86">
-        <v>530.25</v>
+        <v>6892</v>
       </c>
       <c r="L86">
-        <v>509.21</v>
+        <v>6674.9</v>
       </c>
       <c r="M86">
-        <v>572.3200000000001</v>
+        <v>7326.19</v>
       </c>
       <c r="N86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87">
-        <v>8.43</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>142</v>
-      </c>
-      <c r="G87">
-        <v>27.71</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>148</v>
-      </c>
-      <c r="K87">
-        <v>1955.5</v>
-      </c>
-      <c r="L87">
-        <v>1835.64</v>
-      </c>
-      <c r="M87">
-        <v>2195.21</v>
-      </c>
-      <c r="N87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88">
-        <v>7.23</v>
-      </c>
-      <c r="E88">
-        <v>23</v>
-      </c>
-      <c r="F88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88">
-        <v>48.73</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>148</v>
-      </c>
-      <c r="K88">
-        <v>31950</v>
-      </c>
-      <c r="L88">
-        <v>30904.72</v>
-      </c>
-      <c r="M88">
-        <v>34040.56</v>
-      </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89">
-        <v>7.23</v>
-      </c>
-      <c r="E89">
-        <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89">
-        <v>30.12</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>148</v>
-      </c>
-      <c r="K89">
-        <v>604.5</v>
-      </c>
-      <c r="L89">
-        <v>575.4400000000001</v>
-      </c>
-      <c r="M89">
-        <v>662.62</v>
-      </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90">
-        <v>6.02</v>
-      </c>
-      <c r="E90">
-        <v>37</v>
-      </c>
-      <c r="F90" t="s">
-        <v>131</v>
-      </c>
-      <c r="G90">
-        <v>22.89</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>148</v>
-      </c>
-      <c r="K90">
-        <v>185.11</v>
-      </c>
-      <c r="L90">
-        <v>174.21</v>
-      </c>
-      <c r="M90">
-        <v>206.91</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91">
-        <v>6.02</v>
-      </c>
-      <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>132</v>
-      </c>
-      <c r="G91">
-        <v>45.78</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91">
-        <v>1444.3</v>
-      </c>
-      <c r="L91">
-        <v>1329.21</v>
-      </c>
-      <c r="M91">
-        <v>1674.47</v>
-      </c>
-      <c r="N91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92">
-        <v>6.02</v>
-      </c>
-      <c r="E92">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>137</v>
-      </c>
-      <c r="G92">
-        <v>24.1</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>148</v>
-      </c>
-      <c r="K92">
-        <v>884.75</v>
-      </c>
-      <c r="L92">
-        <v>845.83</v>
-      </c>
-      <c r="M92">
-        <v>962.59</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93">
-        <v>6.02</v>
-      </c>
-      <c r="E93">
-        <v>45</v>
-      </c>
-      <c r="F93" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93">
-        <v>31.33</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93">
-        <v>1171.3</v>
-      </c>
-      <c r="L93">
-        <v>1106.05</v>
-      </c>
-      <c r="M93">
-        <v>1301.79</v>
-      </c>
-      <c r="N93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D94">
-        <v>4.82</v>
-      </c>
-      <c r="E94">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94">
-        <v>6.02</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s">
-        <v>148</v>
-      </c>
-      <c r="K94">
-        <v>228.25</v>
-      </c>
-      <c r="L94">
-        <v>218.96</v>
-      </c>
-      <c r="M94">
-        <v>246.82</v>
-      </c>
-      <c r="N94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95">
-        <v>4.82</v>
-      </c>
-      <c r="E95">
-        <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95">
-        <v>41.14</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s">
-        <v>148</v>
-      </c>
-      <c r="K95">
-        <v>462</v>
-      </c>
-      <c r="L95">
-        <v>448.76</v>
-      </c>
-      <c r="M95">
-        <v>488.47</v>
-      </c>
-      <c r="N95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96">
-        <v>4.82</v>
-      </c>
-      <c r="E96">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
-        <v>137</v>
-      </c>
-      <c r="G96">
-        <v>20.48</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s">
-        <v>148</v>
-      </c>
-      <c r="K96">
-        <v>6898.5</v>
-      </c>
-      <c r="L96">
-        <v>6675.52</v>
-      </c>
-      <c r="M96">
-        <v>7344.46</v>
-      </c>
-      <c r="N96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97">
-        <v>4.82</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97">
-        <v>38.55</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>148</v>
-      </c>
-      <c r="K97">
-        <v>1578.5</v>
-      </c>
-      <c r="L97">
-        <v>1506.43</v>
-      </c>
-      <c r="M97">
-        <v>1722.63</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>110</v>
-      </c>
-      <c r="B98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" t="s">
-        <v>130</v>
-      </c>
-      <c r="D98">
-        <v>4.82</v>
-      </c>
-      <c r="E98">
-        <v>25</v>
-      </c>
-      <c r="F98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G98">
-        <v>50.78</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s">
-        <v>148</v>
-      </c>
-      <c r="K98">
-        <v>388.95</v>
-      </c>
-      <c r="L98">
-        <v>372.4</v>
-      </c>
-      <c r="M98">
-        <v>422.04</v>
-      </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99">
-        <v>4.82</v>
-      </c>
-      <c r="E99">
-        <v>14</v>
-      </c>
-      <c r="F99" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99">
-        <v>10.84</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>148</v>
-      </c>
-      <c r="K99">
-        <v>1696.3</v>
-      </c>
-      <c r="L99">
-        <v>1659.17</v>
-      </c>
-      <c r="M99">
-        <v>1770.56</v>
-      </c>
-      <c r="N99">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="132">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,282 +61,273 @@
     <t>PAYTM</t>
   </si>
   <si>
+    <t>DALBHARAT</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
     <t>BIKAJI</t>
   </si>
   <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>ELGIEQUIP</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>SWIGGY</t>
+  </si>
+  <si>
+    <t>CREDITACC</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>TANLA</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
   </si>
   <si>
     <t>3MINDIA</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>CREDITACC</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>SWANENERGY</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
     <t>ETERNAL</t>
   </si>
   <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
     <t>JINDALSTEL</t>
   </si>
   <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
     <t>VIJAYA</t>
   </si>
   <si>
+    <t>RAINBOW</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
     <t>GMDCLTD</t>
   </si>
   <si>
-    <t>PENIND</t>
-  </si>
-  <si>
     <t>IPCALAB</t>
   </si>
   <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>MRPL</t>
+    <t>FINPIPE</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>MHRIL</t>
   </si>
   <si>
     <t>GPPL</t>
   </si>
   <si>
-    <t>MHRIL</t>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
   </si>
   <si>
     <t>NAVINFLUOR</t>
   </si>
   <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>ARE&amp;M</t>
+  </si>
+  <si>
+    <t>JMFINANCIL</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
   </si>
   <si>
     <t>APOLLOTYRE</t>
   </si>
   <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>RAINBOW</t>
+    <t>LAURUSLABS</t>
   </si>
   <si>
     <t>TIMKEN</t>
   </si>
   <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>JMFINANCIL</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>CGCL</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
     <t>M&amp;M</t>
   </si>
   <si>
     <t>JKCEMENT</t>
   </si>
   <si>
-    <t>VGUARD</t>
+    <t>BLUEDART</t>
   </si>
   <si>
     <t>ALKEM</t>
   </si>
   <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>ANDHRSUGAR</t>
-  </si>
-  <si>
     <t>KALYANKJIL</t>
   </si>
   <si>
     <t>SHREECEM</t>
   </si>
   <si>
+    <t>ASAHIINDIA</t>
+  </si>
+  <si>
     <t>TMB</t>
   </si>
   <si>
-    <t>CASTROLIND</t>
-  </si>
-  <si>
-    <t>JBCHEPHARM</t>
-  </si>
-  <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Utilities</t>
   </si>
   <si>
@@ -370,37 +361,37 @@
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
     <t>2025-07-16</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
     <t>2025-07-15</t>
   </si>
   <si>
     <t>2025-07-22</t>
   </si>
   <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
     <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
   </si>
   <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
@@ -776,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -852,19 +843,19 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K2">
-        <v>1109.3</v>
+        <v>1109.4</v>
       </c>
       <c r="L2">
-        <v>1041.92</v>
+        <v>1039.35</v>
       </c>
       <c r="M2">
-        <v>1244.06</v>
+        <v>1249.5</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -875,19 +866,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>45.78</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -896,19 +887,19 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K3">
-        <v>795.2</v>
+        <v>2287.2</v>
       </c>
       <c r="L3">
-        <v>758.85</v>
+        <v>2176.49</v>
       </c>
       <c r="M3">
-        <v>867.9</v>
+        <v>2508.62</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -919,19 +910,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>45.78</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -943,16 +934,16 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K4">
-        <v>620</v>
+        <v>621.15</v>
       </c>
       <c r="L4">
-        <v>599.72</v>
+        <v>600.87</v>
       </c>
       <c r="M4">
-        <v>660.5599999999999</v>
+        <v>661.71</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -963,19 +954,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>39.76</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G5">
         <v>81.27</v>
@@ -987,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5">
-        <v>72.63</v>
+        <v>72.62</v>
       </c>
       <c r="L5">
-        <v>69.89</v>
+        <v>69.88</v>
       </c>
       <c r="M5">
-        <v>78.12</v>
+        <v>78.11</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -1007,40 +998,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D6">
-        <v>61.99</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G6">
-        <v>61.99</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K6">
-        <v>777.55</v>
+        <v>840</v>
       </c>
       <c r="L6">
-        <v>737.35</v>
+        <v>797.64</v>
       </c>
       <c r="M6">
-        <v>857.95</v>
+        <v>924.71</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1051,22 +1042,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>53.55</v>
+        <v>66.81</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G7">
-        <v>53.55</v>
+        <v>66.81</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1075,16 +1066,16 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7">
-        <v>16715</v>
+        <v>792.65</v>
       </c>
       <c r="L7">
-        <v>16005.57</v>
+        <v>750.34</v>
       </c>
       <c r="M7">
-        <v>18133.86</v>
+        <v>877.26</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1095,40 +1086,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>90.06</v>
+        <v>53.55</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8">
-        <v>90.06</v>
+        <v>53.55</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K8">
-        <v>1364.4</v>
+        <v>16717</v>
       </c>
       <c r="L8">
-        <v>1283.73</v>
+        <v>16007.57</v>
       </c>
       <c r="M8">
-        <v>1525.74</v>
+        <v>18135.86</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1139,40 +1130,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>38.55</v>
+        <v>52.17</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>92.47</v>
+        <v>52.17</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K9">
-        <v>31730</v>
+        <v>206.03</v>
       </c>
       <c r="L9">
-        <v>30400</v>
+        <v>195.59</v>
       </c>
       <c r="M9">
-        <v>34390</v>
+        <v>226.91</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1183,40 +1174,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>38.55</v>
+        <v>90.06</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>90.06</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10">
-        <v>480.5</v>
+        <v>1433</v>
       </c>
       <c r="L10">
-        <v>433.28</v>
+        <v>1346.57</v>
       </c>
       <c r="M10">
-        <v>574.9400000000001</v>
+        <v>1605.86</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1227,40 +1218,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>38.55</v>
+        <v>39.76</v>
       </c>
       <c r="E11">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G11">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K11">
-        <v>2603.9</v>
+        <v>794.2</v>
       </c>
       <c r="L11">
-        <v>2398.37</v>
+        <v>757.85</v>
       </c>
       <c r="M11">
-        <v>3014.96</v>
+        <v>866.9</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1271,40 +1262,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>37.35</v>
+        <v>39.76</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G12">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K12">
-        <v>414.3</v>
+        <v>948.05</v>
       </c>
       <c r="L12">
-        <v>387.27</v>
+        <v>903.29</v>
       </c>
       <c r="M12">
-        <v>468.36</v>
+        <v>1037.58</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1315,16 +1306,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>119</v>
@@ -1336,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K13">
-        <v>579.4</v>
+        <v>493.3</v>
       </c>
       <c r="L13">
-        <v>529.1900000000001</v>
+        <v>446.08</v>
       </c>
       <c r="M13">
-        <v>679.8099999999999</v>
+        <v>587.74</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1359,40 +1350,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>37.35</v>
+        <v>38.55</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K14">
-        <v>956.7</v>
+        <v>2634.3</v>
       </c>
       <c r="L14">
-        <v>875.3099999999999</v>
+        <v>2428.77</v>
       </c>
       <c r="M14">
-        <v>1119.49</v>
+        <v>3045.36</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1403,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>36.14</v>
+        <v>37.35</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G15">
-        <v>70.42</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1427,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K15">
-        <v>595</v>
+        <v>415</v>
       </c>
       <c r="L15">
-        <v>560.4299999999999</v>
+        <v>387.97</v>
       </c>
       <c r="M15">
-        <v>664.14</v>
+        <v>469.06</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1447,19 +1438,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>33.73</v>
+        <v>37.35</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -1468,19 +1459,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K16">
-        <v>265.44</v>
+        <v>574</v>
       </c>
       <c r="L16">
-        <v>251.59</v>
+        <v>523.79</v>
       </c>
       <c r="M16">
-        <v>293.14</v>
+        <v>674.41</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1491,40 +1482,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>32.53</v>
+        <v>37.35</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G17">
-        <v>76.81</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17">
-        <v>344.4</v>
+        <v>955</v>
       </c>
       <c r="L17">
-        <v>324.61</v>
+        <v>873.6</v>
       </c>
       <c r="M17">
-        <v>383.97</v>
+        <v>1117.8</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1535,40 +1526,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>32.53</v>
+        <v>36.14</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G18">
-        <v>85.23999999999999</v>
+        <v>70.42</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K18">
-        <v>719.05</v>
+        <v>590.5</v>
       </c>
       <c r="L18">
-        <v>687.03</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="M18">
-        <v>783.09</v>
+        <v>659.64</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1579,22 +1570,22 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19">
-        <v>30.12</v>
+        <v>34.94</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G19">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1603,16 +1594,16 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K19">
-        <v>417.55</v>
+        <v>182.25</v>
       </c>
       <c r="L19">
-        <v>390.9</v>
+        <v>170.43</v>
       </c>
       <c r="M19">
-        <v>470.85</v>
+        <v>205.89</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1623,16 +1614,16 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>30.12</v>
+        <v>33.73</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -1644,19 +1635,19 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20">
-        <v>440.3</v>
+        <v>263.26</v>
       </c>
       <c r="L20">
-        <v>418.39</v>
+        <v>249.41</v>
       </c>
       <c r="M20">
-        <v>484.11</v>
+        <v>290.96</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1667,22 +1658,22 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D21">
-        <v>30.12</v>
+        <v>32.53</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1691,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>179.89</v>
+        <v>720.9</v>
       </c>
       <c r="L21">
-        <v>168.3</v>
+        <v>688.88</v>
       </c>
       <c r="M21">
-        <v>203.08</v>
+        <v>784.9400000000001</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1711,40 +1702,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>28.92</v>
+        <v>32.53</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>119</v>
       </c>
       <c r="G22">
-        <v>70.42</v>
+        <v>76.81</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K22">
-        <v>1367.4</v>
+        <v>343.8</v>
       </c>
       <c r="L22">
-        <v>1268.41</v>
+        <v>324.01</v>
       </c>
       <c r="M22">
-        <v>1565.37</v>
+        <v>383.37</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1755,40 +1746,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>25.3</v>
+        <v>32.53</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G23">
-        <v>71.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K23">
-        <v>674.05</v>
+        <v>442.2</v>
       </c>
       <c r="L23">
-        <v>645.5700000000001</v>
+        <v>420.29</v>
       </c>
       <c r="M23">
-        <v>731</v>
+        <v>486.01</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1799,40 +1790,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>24.1</v>
+        <v>31.33</v>
       </c>
       <c r="E24">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K24">
-        <v>1913.4</v>
+        <v>416.6</v>
       </c>
       <c r="L24">
-        <v>1812.94</v>
+        <v>388.51</v>
       </c>
       <c r="M24">
-        <v>2114.31</v>
+        <v>472.77</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1843,19 +1834,19 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25">
-        <v>22.89</v>
+        <v>30.12</v>
       </c>
       <c r="E25">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G25">
         <v>70.42</v>
@@ -1867,16 +1858,16 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K25">
-        <v>1177.5</v>
+        <v>1362</v>
       </c>
       <c r="L25">
-        <v>1112.18</v>
+        <v>1263.01</v>
       </c>
       <c r="M25">
-        <v>1308.14</v>
+        <v>1559.97</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1887,19 +1878,19 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>22.89</v>
+        <v>26.51</v>
       </c>
       <c r="E26">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G26">
         <v>86.45</v>
@@ -1911,16 +1902,16 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K26">
-        <v>2024.2</v>
+        <v>2035.9</v>
       </c>
       <c r="L26">
-        <v>1904.6</v>
+        <v>1916.3</v>
       </c>
       <c r="M26">
-        <v>2263.4</v>
+        <v>2275.1</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1931,40 +1922,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D27">
-        <v>20.48</v>
+        <v>25.3</v>
       </c>
       <c r="E27">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K27">
-        <v>595.1</v>
+        <v>673</v>
       </c>
       <c r="L27">
-        <v>556.54</v>
+        <v>645.4</v>
       </c>
       <c r="M27">
-        <v>672.21</v>
+        <v>728.2</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1975,19 +1966,19 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>19.28</v>
+        <v>25.3</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -1996,19 +1987,19 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K28">
-        <v>5555</v>
+        <v>1329.2</v>
       </c>
       <c r="L28">
-        <v>5318</v>
+        <v>1256.76</v>
       </c>
       <c r="M28">
-        <v>6029</v>
+        <v>1474.09</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2019,19 +2010,19 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>19.28</v>
+        <v>24.1</v>
       </c>
       <c r="E29">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29">
         <v>100</v>
@@ -2040,19 +2031,19 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K29">
-        <v>398.75</v>
+        <v>1903.6</v>
       </c>
       <c r="L29">
-        <v>379.68</v>
+        <v>1802.43</v>
       </c>
       <c r="M29">
-        <v>436.89</v>
+        <v>2105.94</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2063,40 +2054,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30">
-        <v>18.07</v>
+        <v>22.89</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>70.42</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K30">
-        <v>1323.5</v>
+        <v>1181.1</v>
       </c>
       <c r="L30">
-        <v>1254.92</v>
+        <v>1112.52</v>
       </c>
       <c r="M30">
-        <v>1460.65</v>
+        <v>1318.26</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2107,40 +2098,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>16.87</v>
+        <v>22.89</v>
       </c>
       <c r="E31">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K31">
-        <v>512.5</v>
+        <v>5560.5</v>
       </c>
       <c r="L31">
-        <v>473.45</v>
+        <v>5323.5</v>
       </c>
       <c r="M31">
-        <v>590.6</v>
+        <v>6034.5</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2151,22 +2142,22 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>16.87</v>
+        <v>20.48</v>
       </c>
       <c r="E32">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32">
-        <v>75.42</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2175,16 +2166,16 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K32">
-        <v>636.35</v>
+        <v>595.15</v>
       </c>
       <c r="L32">
-        <v>601.7</v>
+        <v>556.59</v>
       </c>
       <c r="M32">
-        <v>705.65</v>
+        <v>672.26</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2195,40 +2186,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D33">
-        <v>15.66</v>
+        <v>16.87</v>
       </c>
       <c r="E33">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33">
-        <v>70.78</v>
+        <v>75.42</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K33">
-        <v>244.69</v>
+        <v>635.5</v>
       </c>
       <c r="L33">
-        <v>232.33</v>
+        <v>600.85</v>
       </c>
       <c r="M33">
-        <v>269.42</v>
+        <v>704.8</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2239,40 +2230,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>14.46</v>
+        <v>15.66</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>70.78</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K34">
-        <v>3872.9</v>
+        <v>245.61</v>
       </c>
       <c r="L34">
-        <v>3632.53</v>
+        <v>233.25</v>
       </c>
       <c r="M34">
-        <v>4353.64</v>
+        <v>270.34</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2283,22 +2274,22 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>13.25</v>
+        <v>14.46</v>
       </c>
       <c r="E35">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G35">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2307,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K35">
-        <v>3542</v>
+        <v>1299.5</v>
       </c>
       <c r="L35">
-        <v>3429.43</v>
+        <v>1226.68</v>
       </c>
       <c r="M35">
-        <v>3767.14</v>
+        <v>1445.14</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2327,22 +2318,22 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>10.84</v>
+        <v>14.46</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G36">
-        <v>93.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2351,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K36">
-        <v>2791.6</v>
+        <v>397.55</v>
       </c>
       <c r="L36">
-        <v>2651.31</v>
+        <v>378.48</v>
       </c>
       <c r="M36">
-        <v>3072.17</v>
+        <v>435.69</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2371,19 +2362,19 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37">
-        <v>9.640000000000001</v>
+        <v>14.46</v>
       </c>
       <c r="E37">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -2395,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K37">
-        <v>3606.9</v>
+        <v>3866.9</v>
       </c>
       <c r="L37">
-        <v>3465.92</v>
+        <v>3626.53</v>
       </c>
       <c r="M37">
-        <v>3888.85</v>
+        <v>4347.64</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2415,22 +2406,22 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38">
-        <v>9.640000000000001</v>
+        <v>14.46</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G38">
-        <v>85.23999999999999</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2439,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K38">
-        <v>151100</v>
+        <v>2148.8</v>
       </c>
       <c r="L38">
-        <v>145496.12</v>
+        <v>1984.03</v>
       </c>
       <c r="M38">
-        <v>162307.75</v>
+        <v>2478.34</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2459,40 +2450,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>8.43</v>
+        <v>10.84</v>
       </c>
       <c r="E39">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K39">
-        <v>6307</v>
+        <v>2799.1</v>
       </c>
       <c r="L39">
-        <v>5997.6</v>
+        <v>2652.03</v>
       </c>
       <c r="M39">
-        <v>6925.81</v>
+        <v>3093.24</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2503,22 +2494,22 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D40">
-        <v>8.43</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E40">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G40">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2527,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K40">
-        <v>38010</v>
+        <v>150710</v>
       </c>
       <c r="L40">
-        <v>36296.43</v>
+        <v>145458.98</v>
       </c>
       <c r="M40">
-        <v>41437.14</v>
+        <v>161212.04</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2547,22 +2538,22 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D41">
-        <v>7.23</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E41">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2571,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K41">
-        <v>528.4</v>
+        <v>3526.1</v>
       </c>
       <c r="L41">
-        <v>505.67</v>
+        <v>3413.46</v>
       </c>
       <c r="M41">
-        <v>573.86</v>
+        <v>3751.39</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2591,19 +2582,19 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D42">
-        <v>4.82</v>
+        <v>8.43</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42">
         <v>100</v>
@@ -2615,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K42">
-        <v>485.5</v>
+        <v>38015</v>
       </c>
       <c r="L42">
-        <v>469.46</v>
+        <v>36301.43</v>
       </c>
       <c r="M42">
-        <v>517.5700000000001</v>
+        <v>41442.14</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2635,19 +2626,19 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>48.19</v>
+        <v>8.43</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G43">
         <v>100</v>
@@ -2656,19 +2647,19 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K43">
-        <v>19850</v>
+        <v>6295</v>
       </c>
       <c r="L43">
-        <v>18009.71</v>
+        <v>5996.45</v>
       </c>
       <c r="M43">
-        <v>23530.57</v>
+        <v>6892.09</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2682,37 +2673,37 @@
         <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44">
-        <v>45.78</v>
+        <v>7.23</v>
       </c>
       <c r="E44">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G44">
-        <v>92.11</v>
+        <v>100</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K44">
-        <v>645.6</v>
+        <v>529.4</v>
       </c>
       <c r="L44">
-        <v>590.1</v>
+        <v>506.67</v>
       </c>
       <c r="M44">
-        <v>756.6</v>
+        <v>574.86</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2723,40 +2714,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45">
-        <v>43.37</v>
+        <v>4.82</v>
       </c>
       <c r="E45">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G45">
-        <v>65.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K45">
-        <v>199.28</v>
+        <v>486.65</v>
       </c>
       <c r="L45">
-        <v>189.85</v>
+        <v>469.57</v>
       </c>
       <c r="M45">
-        <v>218.14</v>
+        <v>520.8</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2767,40 +2758,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46">
-        <v>41.14</v>
+        <v>48.19</v>
       </c>
       <c r="E46">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G46">
-        <v>72.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K46">
-        <v>2025.6</v>
+        <v>19479</v>
       </c>
       <c r="L46">
-        <v>1863.96</v>
+        <v>17638.71</v>
       </c>
       <c r="M46">
-        <v>2348.89</v>
+        <v>23159.57</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2814,37 +2805,37 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D47">
-        <v>40.96</v>
+        <v>45.78</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G47">
-        <v>92.47</v>
+        <v>92.11</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K47">
-        <v>309.35</v>
+        <v>638.45</v>
       </c>
       <c r="L47">
-        <v>289.26</v>
+        <v>582.95</v>
       </c>
       <c r="M47">
-        <v>349.54</v>
+        <v>749.45</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2855,40 +2846,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48">
-        <v>40.96</v>
+        <v>43.37</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48">
-        <v>100</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K48">
-        <v>952.55</v>
+        <v>199.2</v>
       </c>
       <c r="L48">
-        <v>907.79</v>
+        <v>189.77</v>
       </c>
       <c r="M48">
-        <v>1042.08</v>
+        <v>218.06</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2899,40 +2890,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49">
-        <v>40.12</v>
+        <v>41.33</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G49">
-        <v>64.40000000000001</v>
+        <v>41.33</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K49">
-        <v>13588</v>
+        <v>700.25</v>
       </c>
       <c r="L49">
-        <v>13083.2</v>
+        <v>680.64</v>
       </c>
       <c r="M49">
-        <v>14597.6</v>
+        <v>739.46</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2943,22 +2934,22 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <v>41.14</v>
+      </c>
+      <c r="E50">
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
         <v>116</v>
       </c>
-      <c r="D50">
-        <v>55.96</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
-        <v>127</v>
-      </c>
       <c r="G50">
-        <v>55.96</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2967,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K50">
-        <v>988.95</v>
+        <v>2026</v>
       </c>
       <c r="L50">
-        <v>954.8</v>
+        <v>1864.36</v>
       </c>
       <c r="M50">
-        <v>1057.25</v>
+        <v>2349.29</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2987,40 +2978,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>52.17</v>
+        <v>40.96</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G51">
-        <v>52.17</v>
+        <v>92.47</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K51">
-        <v>207</v>
+        <v>31840</v>
       </c>
       <c r="L51">
-        <v>196.65</v>
+        <v>30510</v>
       </c>
       <c r="M51">
-        <v>227.71</v>
+        <v>34500</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3031,40 +3022,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52">
-        <v>37.35</v>
+        <v>40.96</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G52">
-        <v>37.35</v>
+        <v>92.47</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K52">
-        <v>1084.9</v>
+        <v>311.15</v>
       </c>
       <c r="L52">
-        <v>1025.64</v>
+        <v>291.06</v>
       </c>
       <c r="M52">
-        <v>1203.43</v>
+        <v>351.34</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3075,40 +3066,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
         <v>113</v>
       </c>
       <c r="D53">
-        <v>34.94</v>
+        <v>63.19</v>
       </c>
       <c r="E53">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G53">
-        <v>44.58</v>
+        <v>63.19</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K53">
-        <v>452.85</v>
+        <v>993.55</v>
       </c>
       <c r="L53">
-        <v>418.24</v>
+        <v>958.62</v>
       </c>
       <c r="M53">
-        <v>522.0599999999999</v>
+        <v>1063.41</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3119,40 +3110,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54">
-        <v>34.94</v>
+        <v>39.76</v>
       </c>
       <c r="E54">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G54">
-        <v>54.76</v>
+        <v>39.76</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K54">
-        <v>260.03</v>
+        <v>1093.7</v>
       </c>
       <c r="L54">
-        <v>243.78</v>
+        <v>1032.83</v>
       </c>
       <c r="M54">
-        <v>292.53</v>
+        <v>1215.44</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3163,22 +3154,22 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D55">
-        <v>32.53</v>
+        <v>36.14</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G55">
-        <v>32.53</v>
+        <v>38.55</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3187,16 +3178,16 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K55">
-        <v>1525.5</v>
+        <v>1617.6</v>
       </c>
       <c r="L55">
-        <v>1453.99</v>
+        <v>1534.87</v>
       </c>
       <c r="M55">
-        <v>1668.53</v>
+        <v>1783.06</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3207,40 +3198,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56">
-        <v>27.71</v>
+        <v>34.94</v>
       </c>
       <c r="E56">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56">
+        <v>54.76</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>3</v>
       </c>
-      <c r="F56" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56">
-        <v>27.71</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K56">
-        <v>699.6</v>
+        <v>262.15</v>
       </c>
       <c r="L56">
-        <v>680.58</v>
+        <v>245.9</v>
       </c>
       <c r="M56">
-        <v>737.64</v>
+        <v>294.65</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3251,40 +3242,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57">
-        <v>27.71</v>
+        <v>34.94</v>
       </c>
       <c r="E57">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G57">
-        <v>27.71</v>
+        <v>44.58</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K57">
-        <v>834.9</v>
+        <v>453.35</v>
       </c>
       <c r="L57">
-        <v>792.54</v>
+        <v>418.74</v>
       </c>
       <c r="M57">
-        <v>919.61</v>
+        <v>522.5599999999999</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3295,40 +3286,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D58">
-        <v>24.1</v>
+        <v>32.53</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G58">
-        <v>61.63</v>
+        <v>32.53</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K58">
-        <v>154.55</v>
+        <v>1525</v>
       </c>
       <c r="L58">
-        <v>143.42</v>
+        <v>1453.49</v>
       </c>
       <c r="M58">
-        <v>176.81</v>
+        <v>1668.03</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3339,40 +3330,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D59">
-        <v>22.89</v>
+        <v>29.28</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59">
-        <v>22.89</v>
+        <v>38.92</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K59">
-        <v>166.1</v>
+        <v>210.11</v>
       </c>
       <c r="L59">
-        <v>158.91</v>
+        <v>207.1</v>
       </c>
       <c r="M59">
-        <v>180.48</v>
+        <v>216.13</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3383,40 +3374,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>22.89</v>
+        <v>27.89</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60">
-        <v>52.35</v>
+        <v>27.89</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K60">
-        <v>369.05</v>
+        <v>698.9</v>
       </c>
       <c r="L60">
-        <v>350.04</v>
+        <v>675.42</v>
       </c>
       <c r="M60">
-        <v>407.07</v>
+        <v>745.86</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3427,40 +3418,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61">
-        <v>21.69</v>
+        <v>27.71</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G61">
-        <v>66.81</v>
+        <v>27.71</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K61">
-        <v>5145</v>
+        <v>188.92</v>
       </c>
       <c r="L61">
-        <v>4861.07</v>
+        <v>177.86</v>
       </c>
       <c r="M61">
-        <v>5712.86</v>
+        <v>211.04</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3471,40 +3462,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62">
-        <v>21.69</v>
+        <v>22.89</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G62">
-        <v>63.37</v>
+        <v>52.35</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K62">
-        <v>1481.8</v>
+        <v>368.4</v>
       </c>
       <c r="L62">
-        <v>1449.01</v>
+        <v>349.98</v>
       </c>
       <c r="M62">
-        <v>1547.37</v>
+        <v>405.25</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3515,40 +3506,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63">
+        <v>22.89</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
         <v>115</v>
       </c>
-      <c r="D63">
-        <v>20.48</v>
-      </c>
-      <c r="E63">
-        <v>30</v>
-      </c>
-      <c r="F63" t="s">
-        <v>119</v>
-      </c>
       <c r="G63">
-        <v>43.37</v>
+        <v>22.89</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K63">
-        <v>1454.1</v>
+        <v>165.78</v>
       </c>
       <c r="L63">
-        <v>1378.74</v>
+        <v>158.59</v>
       </c>
       <c r="M63">
-        <v>1604.83</v>
+        <v>180.16</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3559,40 +3550,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
         <v>111</v>
       </c>
       <c r="D64">
-        <v>19.28</v>
+        <v>21.69</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G64">
-        <v>28.92</v>
+        <v>63.37</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K64">
-        <v>464.5</v>
+        <v>1485.4</v>
       </c>
       <c r="L64">
-        <v>452.86</v>
+        <v>1452.57</v>
       </c>
       <c r="M64">
-        <v>487.78</v>
+        <v>1551.06</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3603,40 +3594,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D65">
-        <v>19.28</v>
+        <v>21.69</v>
       </c>
       <c r="E65">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G65">
-        <v>26.69</v>
+        <v>43.37</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K65">
-        <v>2011.2</v>
+        <v>2739.8</v>
       </c>
       <c r="L65">
-        <v>1979.19</v>
+        <v>2641.77</v>
       </c>
       <c r="M65">
-        <v>2075.23</v>
+        <v>2935.86</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3647,22 +3638,22 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D66">
-        <v>18.07</v>
+        <v>20.48</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66">
-        <v>28.07</v>
+        <v>43.37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3671,16 +3662,16 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>1014.9</v>
+        <v>1453.8</v>
       </c>
       <c r="L66">
-        <v>978.89</v>
+        <v>1378.71</v>
       </c>
       <c r="M66">
-        <v>1086.91</v>
+        <v>1603.98</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3691,40 +3682,40 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D67">
-        <v>16.87</v>
+        <v>20.48</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G67">
-        <v>38.55</v>
+        <v>66.81</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K67">
-        <v>1611.1</v>
+        <v>5129.5</v>
       </c>
       <c r="L67">
-        <v>1528.37</v>
+        <v>4859.59</v>
       </c>
       <c r="M67">
-        <v>1776.56</v>
+        <v>5669.32</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3735,40 +3726,40 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D68">
-        <v>16.87</v>
+        <v>19.28</v>
       </c>
       <c r="E68">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G68">
-        <v>22.89</v>
+        <v>26.69</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K68">
-        <v>3544</v>
+        <v>2012</v>
       </c>
       <c r="L68">
-        <v>3389.84</v>
+        <v>1979.25</v>
       </c>
       <c r="M68">
-        <v>3852.31</v>
+        <v>2077.51</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3779,22 +3770,22 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D69">
-        <v>15.66</v>
+        <v>18.07</v>
       </c>
       <c r="E69">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69">
-        <v>43.37</v>
+        <v>58.19</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3803,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K69">
-        <v>2729.8</v>
+        <v>3096</v>
       </c>
       <c r="L69">
-        <v>2631.77</v>
+        <v>2940.19</v>
       </c>
       <c r="M69">
-        <v>2925.86</v>
+        <v>3407.63</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3823,22 +3814,22 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D70">
-        <v>14.46</v>
+        <v>18.07</v>
       </c>
       <c r="E70">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G70">
-        <v>37.35</v>
+        <v>28.07</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3847,16 +3838,16 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K70">
-        <v>175.85</v>
+        <v>1010.3</v>
       </c>
       <c r="L70">
-        <v>163.91</v>
+        <v>978.39</v>
       </c>
       <c r="M70">
-        <v>199.72</v>
+        <v>1074.11</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -3867,40 +3858,40 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D71">
         <v>14.46</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G71">
-        <v>27.89</v>
+        <v>37.35</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K71">
-        <v>695.8</v>
+        <v>176.32</v>
       </c>
       <c r="L71">
-        <v>674.04</v>
+        <v>164.38</v>
       </c>
       <c r="M71">
-        <v>739.33</v>
+        <v>200.19</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -3911,40 +3902,40 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D72">
-        <v>13.25</v>
+        <v>14.46</v>
       </c>
       <c r="E72">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G72">
-        <v>22.89</v>
+        <v>31.33</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>187.85</v>
+        <v>7427</v>
       </c>
       <c r="L72">
-        <v>176.79</v>
+        <v>7253.89</v>
       </c>
       <c r="M72">
-        <v>209.97</v>
+        <v>7773.22</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3955,40 +3946,40 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D73">
-        <v>12.05</v>
+        <v>13.25</v>
       </c>
       <c r="E73">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G73">
-        <v>58.19</v>
+        <v>28.92</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K73">
-        <v>3072</v>
+        <v>460.55</v>
       </c>
       <c r="L73">
-        <v>2918.29</v>
+        <v>452.47</v>
       </c>
       <c r="M73">
-        <v>3379.43</v>
+        <v>476.71</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -3999,19 +3990,19 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>12.05</v>
       </c>
       <c r="E74">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G74">
         <v>65.06</v>
@@ -4023,16 +4014,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K74">
-        <v>826.15</v>
+        <v>827.1</v>
       </c>
       <c r="L74">
-        <v>793.6</v>
+        <v>794.55</v>
       </c>
       <c r="M74">
-        <v>891.25</v>
+        <v>892.2</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4043,40 +4034,40 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D75">
-        <v>10.84</v>
+        <v>12.05</v>
       </c>
       <c r="E75">
         <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G75">
-        <v>15.66</v>
+        <v>22.89</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K75">
-        <v>3251.1</v>
+        <v>3535</v>
       </c>
       <c r="L75">
-        <v>3151.19</v>
+        <v>3380.84</v>
       </c>
       <c r="M75">
-        <v>3450.91</v>
+        <v>3843.31</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4087,40 +4078,40 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D76">
         <v>10.84</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G76">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K76">
-        <v>6584.5</v>
+        <v>3264.6</v>
       </c>
       <c r="L76">
-        <v>6276.09</v>
+        <v>3152.4</v>
       </c>
       <c r="M76">
-        <v>7201.31</v>
+        <v>3489</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4131,10 +4122,10 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D77">
         <v>10.84</v>
@@ -4143,10 +4134,10 @@
         <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G77">
-        <v>18.07</v>
+        <v>22.89</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4155,16 +4146,16 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K77">
-        <v>405.05</v>
+        <v>6619.5</v>
       </c>
       <c r="L77">
-        <v>391.86</v>
+        <v>6301</v>
       </c>
       <c r="M77">
-        <v>431.43</v>
+        <v>7256.5</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4175,40 +4166,40 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D78">
         <v>9.640000000000001</v>
       </c>
       <c r="E78">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G78">
-        <v>21.69</v>
+        <v>20.48</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K78">
-        <v>4991.4</v>
+        <v>6899.5</v>
       </c>
       <c r="L78">
-        <v>4884.35</v>
+        <v>6675.62</v>
       </c>
       <c r="M78">
-        <v>5205.5</v>
+        <v>7347.27</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4219,40 +4210,40 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D79">
-        <v>8.43</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
         <v>119</v>
       </c>
       <c r="G79">
-        <v>31.33</v>
+        <v>21.69</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K79">
-        <v>7423</v>
+        <v>5002.9</v>
       </c>
       <c r="L79">
-        <v>7253.51</v>
+        <v>4885.44</v>
       </c>
       <c r="M79">
-        <v>7761.98</v>
+        <v>5237.81</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4263,40 +4254,40 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D80">
-        <v>8.43</v>
+        <v>7.23</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G80">
-        <v>9.640000000000001</v>
+        <v>30.12</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K80">
-        <v>84.06999999999999</v>
+        <v>604.4</v>
       </c>
       <c r="L80">
-        <v>81.31999999999999</v>
+        <v>575.36</v>
       </c>
       <c r="M80">
-        <v>89.58</v>
+        <v>662.48</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -4307,10 +4298,10 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D81">
         <v>7.23</v>
@@ -4319,28 +4310,28 @@
         <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G81">
-        <v>30.12</v>
+        <v>48.73</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>604.95</v>
+        <v>31865</v>
       </c>
       <c r="L81">
-        <v>575.41</v>
+        <v>30895.2</v>
       </c>
       <c r="M81">
-        <v>664.02</v>
+        <v>33804.61</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -4351,40 +4342,40 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D82">
-        <v>7.23</v>
+        <v>6.02</v>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G82">
-        <v>48.73</v>
+        <v>57.83</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K82">
-        <v>31855</v>
+        <v>855.55</v>
       </c>
       <c r="L82">
-        <v>30895.32</v>
+        <v>811.09</v>
       </c>
       <c r="M82">
-        <v>33774.37</v>
+        <v>944.47</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -4395,19 +4386,19 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D83">
         <v>4.82</v>
       </c>
       <c r="E83">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G83">
         <v>41.14</v>
@@ -4419,150 +4410,18 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K83">
-        <v>460.6</v>
+        <v>460.4</v>
       </c>
       <c r="L83">
-        <v>448.26</v>
+        <v>448.24</v>
       </c>
       <c r="M83">
-        <v>485.29</v>
+        <v>484.73</v>
       </c>
       <c r="N83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84">
-        <v>4.82</v>
-      </c>
-      <c r="E84">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>121</v>
-      </c>
-      <c r="G84">
-        <v>6.02</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>134</v>
-      </c>
-      <c r="K84">
-        <v>228.19</v>
-      </c>
-      <c r="L84">
-        <v>218.96</v>
-      </c>
-      <c r="M84">
-        <v>246.65</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85">
-        <v>4.82</v>
-      </c>
-      <c r="E85">
-        <v>15</v>
-      </c>
-      <c r="F85" t="s">
-        <v>127</v>
-      </c>
-      <c r="G85">
-        <v>10.84</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>134</v>
-      </c>
-      <c r="K85">
-        <v>1689.4</v>
-      </c>
-      <c r="L85">
-        <v>1658.33</v>
-      </c>
-      <c r="M85">
-        <v>1751.54</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86">
-        <v>4.82</v>
-      </c>
-      <c r="E86">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86">
-        <v>20.48</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>134</v>
-      </c>
-      <c r="K86">
-        <v>6892</v>
-      </c>
-      <c r="L86">
-        <v>6674.9</v>
-      </c>
-      <c r="M86">
-        <v>7326.19</v>
-      </c>
-      <c r="N86">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="107">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,273 +61,204 @@
     <t>PAYTM</t>
   </si>
   <si>
-    <t>DALBHARAT</t>
+    <t>IPCALAB</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
   </si>
   <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
+    <t>METROPOLIS</t>
+  </si>
+  <si>
+    <t>BIKAJI</t>
+  </si>
+  <si>
+    <t>DELHIVERY</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>GREENPLY</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
     <t>NMDC</t>
   </si>
   <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>KIMS</t>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>TRIDENT</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
   </si>
   <si>
     <t>DIXON</t>
   </si>
   <si>
+    <t>METROBRAND</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
     <t>LXCHEM</t>
   </si>
   <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>ELGIEQUIP</t>
-  </si>
-  <si>
-    <t>PRAKASH</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>SWIGGY</t>
-  </si>
-  <si>
-    <t>CREDITACC</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>TANLA</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>NLCINDIA</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>THERMAX</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>IIFL</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>FORCEMOT</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
     <t>VIJAYA</t>
   </si>
   <si>
+    <t>ECLERX</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>SURYAROSNI</t>
+  </si>
+  <si>
+    <t>PENIND</t>
+  </si>
+  <si>
+    <t>SUPREMEIND</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>HOMEFIRST</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
     <t>RAINBOW</t>
   </si>
   <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
-    <t>IPCALAB</t>
-  </si>
-  <si>
-    <t>FINPIPE</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
     <t>CGCL</t>
   </si>
   <si>
-    <t>MHRIL</t>
-  </si>
-  <si>
-    <t>GPPL</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>ARE&amp;M</t>
-  </si>
-  <si>
-    <t>JMFINANCIL</t>
+    <t>ALKEM</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>JBCHEPHARM</t>
+  </si>
+  <si>
+    <t>TMB</t>
   </si>
   <si>
     <t>APOLLOHOSP</t>
   </si>
   <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>TIMKEN</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
-  </si>
-  <si>
     <t>JKCEMENT</t>
   </si>
   <si>
-    <t>BLUEDART</t>
-  </si>
-  <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>ASAHIINDIA</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Technology</t>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Utilities</t>
   </si>
   <si>
@@ -337,67 +268,61 @@
     <t>G_Pattern</t>
   </si>
   <si>
-    <t>Building_G</t>
-  </si>
-  <si>
     <t>H2_Momentum_Start</t>
   </si>
   <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
     <t>Power_H2_Volume</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
     <t>KC_Multi_H2</t>
   </si>
   <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
-    <t>Strong_H2_KC_Combo</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
+    <t>2025-07-17</t>
   </si>
   <si>
     <t>2025-07-24</t>
   </si>
   <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
+    <t>2025-07-25</t>
   </si>
   <si>
     <t>2025-07-10</t>
   </si>
   <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
-  </si>
-  <si>
-    <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
   </si>
   <si>
     <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
@@ -767,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,19 +747,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>63.86</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -846,16 +771,16 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K2">
-        <v>1109.4</v>
+        <v>1094.05</v>
       </c>
       <c r="L2">
-        <v>1039.35</v>
+        <v>1023.69</v>
       </c>
       <c r="M2">
-        <v>1249.5</v>
+        <v>1234.78</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -866,40 +791,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>45.78</v>
+        <v>70.78</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>70.78</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K3">
-        <v>2287.2</v>
+        <v>1552.6</v>
       </c>
       <c r="L3">
-        <v>2176.49</v>
+        <v>1478.13</v>
       </c>
       <c r="M3">
-        <v>2508.62</v>
+        <v>1701.54</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -910,40 +835,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>45.78</v>
+        <v>39.76</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="K4">
-        <v>621.15</v>
+        <v>309.6</v>
       </c>
       <c r="L4">
-        <v>600.87</v>
+        <v>289.51</v>
       </c>
       <c r="M4">
-        <v>661.71</v>
+        <v>349.77</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -954,40 +879,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>39.76</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G5">
-        <v>81.27</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="K5">
-        <v>72.62</v>
+        <v>962.85</v>
       </c>
       <c r="L5">
-        <v>69.88</v>
+        <v>916.99</v>
       </c>
       <c r="M5">
-        <v>78.11</v>
+        <v>1054.56</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -998,40 +923,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>78.01000000000001</v>
+        <v>37.35</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G6">
-        <v>78.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K6">
-        <v>840</v>
+        <v>503.6</v>
       </c>
       <c r="L6">
-        <v>797.64</v>
+        <v>453.56</v>
       </c>
       <c r="M6">
-        <v>924.71</v>
+        <v>603.6900000000001</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1042,40 +967,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>66.81</v>
+        <v>37.35</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>66.81</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>792.65</v>
+        <v>416</v>
       </c>
       <c r="L7">
-        <v>750.34</v>
+        <v>388.83</v>
       </c>
       <c r="M7">
-        <v>877.26</v>
+        <v>470.34</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1086,40 +1011,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>53.55</v>
+        <v>34.94</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G8">
-        <v>53.55</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K8">
-        <v>16717</v>
+        <v>725</v>
       </c>
       <c r="L8">
-        <v>16007.57</v>
+        <v>693.39</v>
       </c>
       <c r="M8">
-        <v>18135.86</v>
+        <v>788.21</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1130,40 +1055,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>52.17</v>
+        <v>34.94</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>52.17</v>
+        <v>92.11</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>206.03</v>
+        <v>639</v>
       </c>
       <c r="L9">
-        <v>195.59</v>
+        <v>583.8099999999999</v>
       </c>
       <c r="M9">
-        <v>226.91</v>
+        <v>749.37</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1174,40 +1099,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>33.73</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10">
-        <v>90.06</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10">
-        <v>90.06</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K10">
-        <v>1433</v>
+        <v>953.7</v>
       </c>
       <c r="L10">
-        <v>1346.57</v>
+        <v>869.99</v>
       </c>
       <c r="M10">
-        <v>1605.86</v>
+        <v>1121.13</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1218,19 +1143,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>39.76</v>
+        <v>31.33</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -1239,19 +1164,19 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K11">
-        <v>794.2</v>
+        <v>265.73</v>
       </c>
       <c r="L11">
-        <v>757.85</v>
+        <v>252.1</v>
       </c>
       <c r="M11">
-        <v>866.9</v>
+        <v>293</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1262,40 +1187,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>39.76</v>
+        <v>28.92</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K12">
-        <v>948.05</v>
+        <v>841.05</v>
       </c>
       <c r="L12">
-        <v>903.29</v>
+        <v>799.48</v>
       </c>
       <c r="M12">
-        <v>1037.58</v>
+        <v>924.1900000000001</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1306,40 +1231,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>38.55</v>
+        <v>27.71</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>100</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K13">
-        <v>493.3</v>
+        <v>614.3</v>
       </c>
       <c r="L13">
-        <v>446.08</v>
+        <v>594.64</v>
       </c>
       <c r="M13">
-        <v>587.74</v>
+        <v>653.61</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1350,40 +1275,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="D14">
-        <v>38.55</v>
+        <v>27.71</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G14">
-        <v>96.08</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K14">
-        <v>2634.3</v>
+        <v>2027.2</v>
       </c>
       <c r="L14">
-        <v>2428.77</v>
+        <v>1874.34</v>
       </c>
       <c r="M14">
-        <v>3045.36</v>
+        <v>2332.91</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1394,40 +1319,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>37.35</v>
+        <v>25.3</v>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G15">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K15">
-        <v>415</v>
+        <v>781.2</v>
       </c>
       <c r="L15">
-        <v>387.97</v>
+        <v>741.5599999999999</v>
       </c>
       <c r="M15">
-        <v>469.06</v>
+        <v>860.48</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1438,19 +1363,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>37.35</v>
+        <v>24.1</v>
       </c>
       <c r="E16">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -1459,19 +1384,19 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>574</v>
+        <v>438.65</v>
       </c>
       <c r="L16">
-        <v>523.79</v>
+        <v>416.59</v>
       </c>
       <c r="M16">
-        <v>674.41</v>
+        <v>482.78</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1482,19 +1407,19 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>37.35</v>
+        <v>24.1</v>
       </c>
       <c r="E17">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>100</v>
@@ -1503,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>955</v>
+        <v>561</v>
       </c>
       <c r="L17">
-        <v>873.6</v>
+        <v>509.11</v>
       </c>
       <c r="M17">
-        <v>1117.8</v>
+        <v>664.79</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1526,40 +1451,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>36.14</v>
+        <v>22.89</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>70.42</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>590.5</v>
+        <v>764.6</v>
       </c>
       <c r="L18">
-        <v>555.9299999999999</v>
+        <v>721.64</v>
       </c>
       <c r="M18">
-        <v>659.64</v>
+        <v>850.51</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1570,40 +1495,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D19">
-        <v>34.94</v>
+        <v>22.89</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>182.25</v>
+        <v>2017</v>
       </c>
       <c r="L19">
-        <v>170.43</v>
+        <v>1898.23</v>
       </c>
       <c r="M19">
-        <v>205.89</v>
+        <v>2254.54</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1614,19 +1539,19 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>33.73</v>
+        <v>22.89</v>
       </c>
       <c r="E20">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -1635,19 +1560,19 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K20">
-        <v>263.26</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>249.41</v>
+        <v>965.88</v>
       </c>
       <c r="M20">
-        <v>290.96</v>
+        <v>1068.24</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1658,40 +1583,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D21">
-        <v>32.53</v>
+        <v>21.69</v>
       </c>
       <c r="E21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G21">
-        <v>85.23999999999999</v>
+        <v>76.81</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K21">
-        <v>720.9</v>
+        <v>338.1</v>
       </c>
       <c r="L21">
-        <v>688.88</v>
+        <v>318.92</v>
       </c>
       <c r="M21">
-        <v>784.9400000000001</v>
+        <v>376.45</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1702,40 +1627,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D22">
-        <v>32.53</v>
+        <v>21.69</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>76.81</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K22">
-        <v>343.8</v>
+        <v>680.85</v>
       </c>
       <c r="L22">
-        <v>324.01</v>
+        <v>649.4299999999999</v>
       </c>
       <c r="M22">
-        <v>383.37</v>
+        <v>743.6900000000001</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1746,40 +1671,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D23">
-        <v>32.53</v>
+        <v>20.48</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K23">
-        <v>442.2</v>
+        <v>1888.5</v>
       </c>
       <c r="L23">
-        <v>420.29</v>
+        <v>1788.79</v>
       </c>
       <c r="M23">
-        <v>486.01</v>
+        <v>2087.93</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1790,40 +1715,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>31.33</v>
+        <v>18.07</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="G24">
-        <v>82.83</v>
+        <v>96.08</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K24">
-        <v>416.6</v>
+        <v>2634.1</v>
       </c>
       <c r="L24">
-        <v>388.51</v>
+        <v>2428.4</v>
       </c>
       <c r="M24">
-        <v>472.77</v>
+        <v>3045.5</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1834,40 +1759,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D25">
-        <v>30.12</v>
+        <v>15.66</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G25">
-        <v>70.42</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K25">
-        <v>1362</v>
+        <v>3567.2</v>
       </c>
       <c r="L25">
-        <v>1263.01</v>
+        <v>3444.37</v>
       </c>
       <c r="M25">
-        <v>1559.97</v>
+        <v>3812.86</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1878,40 +1803,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D26">
-        <v>26.51</v>
+        <v>14.46</v>
       </c>
       <c r="E26">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K26">
-        <v>2035.9</v>
+        <v>720</v>
       </c>
       <c r="L26">
-        <v>1916.3</v>
+        <v>658.15</v>
       </c>
       <c r="M26">
-        <v>2275.1</v>
+        <v>843.7</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1922,40 +1847,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D27">
-        <v>25.3</v>
+        <v>13.25</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G27">
-        <v>71.98999999999999</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K27">
-        <v>673</v>
+        <v>2154.8</v>
       </c>
       <c r="L27">
-        <v>645.4</v>
+        <v>1994.41</v>
       </c>
       <c r="M27">
-        <v>728.2</v>
+        <v>2475.58</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1966,40 +1891,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D28">
-        <v>25.3</v>
+        <v>10.84</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>75.42</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K28">
-        <v>1329.2</v>
+        <v>627.25</v>
       </c>
       <c r="L28">
-        <v>1256.76</v>
+        <v>595.6799999999999</v>
       </c>
       <c r="M28">
-        <v>1474.09</v>
+        <v>690.39</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2010,40 +1935,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <v>24.1</v>
+        <v>8.43</v>
       </c>
       <c r="E29">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>100</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K29">
-        <v>1903.6</v>
+        <v>37760</v>
       </c>
       <c r="L29">
-        <v>1802.43</v>
+        <v>36143.26</v>
       </c>
       <c r="M29">
-        <v>2105.94</v>
+        <v>40993.48</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2054,40 +1979,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>22.89</v>
+        <v>8.43</v>
       </c>
       <c r="E30">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G30">
-        <v>70.42</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K30">
-        <v>1181.1</v>
+        <v>397.1</v>
       </c>
       <c r="L30">
-        <v>1112.52</v>
+        <v>378.86</v>
       </c>
       <c r="M30">
-        <v>1318.26</v>
+        <v>433.59</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2098,19 +2023,19 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D31">
-        <v>22.89</v>
+        <v>7.23</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G31">
         <v>100</v>
@@ -2119,19 +2044,19 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K31">
-        <v>5560.5</v>
+        <v>1328.5</v>
       </c>
       <c r="L31">
-        <v>5323.5</v>
+        <v>1261.07</v>
       </c>
       <c r="M31">
-        <v>6034.5</v>
+        <v>1463.37</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2142,40 +2067,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>7.23</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32">
-        <v>20.48</v>
-      </c>
-      <c r="E32">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>116</v>
-      </c>
       <c r="G32">
-        <v>100</v>
+        <v>81.27</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K32">
-        <v>595.15</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="L32">
-        <v>556.59</v>
+        <v>69.77</v>
       </c>
       <c r="M32">
-        <v>672.26</v>
+        <v>76.25</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2186,40 +2111,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>7.23</v>
+      </c>
+      <c r="E33">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33">
-        <v>16.87</v>
-      </c>
-      <c r="E33">
-        <v>23</v>
-      </c>
-      <c r="F33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33">
-        <v>75.42</v>
-      </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="K33">
-        <v>635.5</v>
+        <v>5560.5</v>
       </c>
       <c r="L33">
-        <v>600.85</v>
+        <v>5332.29</v>
       </c>
       <c r="M33">
-        <v>704.8</v>
+        <v>6016.93</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2230,40 +2155,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>4.82</v>
+      </c>
+      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34">
-        <v>15.66</v>
-      </c>
-      <c r="E34">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34">
-        <v>70.78</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>129</v>
-      </c>
       <c r="K34">
-        <v>245.61</v>
+        <v>485.05</v>
       </c>
       <c r="L34">
-        <v>233.25</v>
+        <v>470.83</v>
       </c>
       <c r="M34">
-        <v>270.34</v>
+        <v>513.49</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2274,40 +2199,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D35">
-        <v>14.46</v>
+        <v>40.96</v>
       </c>
       <c r="E35">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>90.06</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="K35">
-        <v>1299.5</v>
+        <v>1484</v>
       </c>
       <c r="L35">
-        <v>1226.68</v>
+        <v>1369.83</v>
       </c>
       <c r="M35">
-        <v>1445.14</v>
+        <v>1712.34</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2318,40 +2243,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D36">
-        <v>14.46</v>
+        <v>52.17</v>
       </c>
       <c r="E36">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>52.17</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K36">
-        <v>397.55</v>
+        <v>33.14</v>
       </c>
       <c r="L36">
-        <v>378.48</v>
+        <v>31.27</v>
       </c>
       <c r="M36">
-        <v>435.69</v>
+        <v>36.89</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2362,40 +2287,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>14.46</v>
+        <v>37.89</v>
       </c>
       <c r="E37">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>65.06</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K37">
-        <v>3866.9</v>
+        <v>845.6</v>
       </c>
       <c r="L37">
-        <v>3626.53</v>
+        <v>811.83</v>
       </c>
       <c r="M37">
-        <v>4347.64</v>
+        <v>913.14</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2406,40 +2331,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>14.46</v>
+        <v>33.73</v>
       </c>
       <c r="E38">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>73.01000000000001</v>
+        <v>61.99</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K38">
-        <v>2148.8</v>
+        <v>16810</v>
       </c>
       <c r="L38">
-        <v>1984.03</v>
+        <v>16155.71</v>
       </c>
       <c r="M38">
-        <v>2478.34</v>
+        <v>18118.57</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2450,40 +2375,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>10.84</v>
+        <v>30.12</v>
       </c>
       <c r="E39">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G39">
-        <v>93.48999999999999</v>
+        <v>30.12</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>2799.1</v>
+        <v>1264.4</v>
       </c>
       <c r="L39">
-        <v>2652.03</v>
+        <v>1185.66</v>
       </c>
       <c r="M39">
-        <v>3093.24</v>
+        <v>1421.89</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2494,40 +2419,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D40">
-        <v>9.640000000000001</v>
+        <v>27.71</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G40">
-        <v>85.23999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K40">
-        <v>150710</v>
+        <v>196.92</v>
       </c>
       <c r="L40">
-        <v>145458.98</v>
+        <v>187.27</v>
       </c>
       <c r="M40">
-        <v>161212.04</v>
+        <v>216.22</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2538,40 +2463,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <v>9.640000000000001</v>
+        <v>26.51</v>
       </c>
       <c r="E41">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="G41">
-        <v>82.65000000000001</v>
+        <v>52.17</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>3526.1</v>
+        <v>207.24</v>
       </c>
       <c r="L41">
-        <v>3413.46</v>
+        <v>196.76</v>
       </c>
       <c r="M41">
-        <v>3751.39</v>
+        <v>228.2</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2582,40 +2507,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D42">
-        <v>8.43</v>
+        <v>25.3</v>
       </c>
       <c r="E42">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>45.78</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K42">
-        <v>38015</v>
+        <v>1076.55</v>
       </c>
       <c r="L42">
-        <v>36301.43</v>
+        <v>1006.32</v>
       </c>
       <c r="M42">
-        <v>41442.14</v>
+        <v>1217.01</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2626,40 +2551,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D43">
-        <v>8.43</v>
+        <v>22.89</v>
       </c>
       <c r="E43">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>61.81</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K43">
-        <v>6295</v>
+        <v>3797</v>
       </c>
       <c r="L43">
-        <v>5996.45</v>
+        <v>3540.4</v>
       </c>
       <c r="M43">
-        <v>6892.09</v>
+        <v>4310.2</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2670,40 +2595,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>7.23</v>
+        <v>21.69</v>
       </c>
       <c r="E44">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>63.37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K44">
-        <v>529.4</v>
+        <v>1487.5</v>
       </c>
       <c r="L44">
-        <v>506.67</v>
+        <v>1453.56</v>
       </c>
       <c r="M44">
-        <v>574.86</v>
+        <v>1555.39</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2714,40 +2639,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D45">
-        <v>4.82</v>
+        <v>21.69</v>
       </c>
       <c r="E45">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>40.12</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="K45">
-        <v>486.65</v>
+        <v>347.1</v>
       </c>
       <c r="L45">
-        <v>469.57</v>
+        <v>329.46</v>
       </c>
       <c r="M45">
-        <v>520.8</v>
+        <v>382.38</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2758,40 +2683,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D46">
-        <v>48.19</v>
+        <v>20.48</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>54.76</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K46">
-        <v>19479</v>
+        <v>254.6</v>
       </c>
       <c r="L46">
-        <v>17638.71</v>
+        <v>237.94</v>
       </c>
       <c r="M46">
-        <v>23159.57</v>
+        <v>287.93</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2802,40 +2727,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D47">
-        <v>45.78</v>
+        <v>20.48</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>92.11</v>
+        <v>20.48</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>638.45</v>
+        <v>4276.3</v>
       </c>
       <c r="L47">
-        <v>582.95</v>
+        <v>4169.37</v>
       </c>
       <c r="M47">
-        <v>749.45</v>
+        <v>4490.17</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2846,40 +2771,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D48">
-        <v>43.37</v>
+        <v>19.28</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G48">
-        <v>65.59999999999999</v>
+        <v>26.69</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>199.2</v>
+        <v>2010</v>
       </c>
       <c r="L48">
-        <v>189.77</v>
+        <v>1981.16</v>
       </c>
       <c r="M48">
-        <v>218.06</v>
+        <v>2067.69</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2890,40 +2815,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D49">
-        <v>41.33</v>
+        <v>19.28</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>41.33</v>
+        <v>19.28</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K49">
-        <v>700.25</v>
+        <v>1437.2</v>
       </c>
       <c r="L49">
-        <v>680.64</v>
+        <v>1358.27</v>
       </c>
       <c r="M49">
-        <v>739.46</v>
+        <v>1595.05</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2934,40 +2859,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50">
+        <v>19.28</v>
+      </c>
+      <c r="E50">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50">
-        <v>41.14</v>
-      </c>
-      <c r="E50">
-        <v>27</v>
-      </c>
-      <c r="F50" t="s">
-        <v>116</v>
-      </c>
       <c r="G50">
-        <v>72.29000000000001</v>
+        <v>44.58</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>2026</v>
+        <v>443.5</v>
       </c>
       <c r="L50">
-        <v>1864.36</v>
+        <v>408.79</v>
       </c>
       <c r="M50">
-        <v>2349.29</v>
+        <v>512.9299999999999</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2978,40 +2903,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D51">
-        <v>40.96</v>
+        <v>18.07</v>
       </c>
       <c r="E51">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G51">
-        <v>92.47</v>
+        <v>58.19</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K51">
-        <v>31840</v>
+        <v>3098.9</v>
       </c>
       <c r="L51">
-        <v>30510</v>
+        <v>2942.59</v>
       </c>
       <c r="M51">
-        <v>34500</v>
+        <v>3411.53</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3022,40 +2947,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>40.96</v>
+        <v>14.46</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G52">
-        <v>92.47</v>
+        <v>27.89</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K52">
-        <v>311.15</v>
+        <v>696.3</v>
       </c>
       <c r="L52">
-        <v>291.06</v>
+        <v>675.58</v>
       </c>
       <c r="M52">
-        <v>351.34</v>
+        <v>737.75</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3066,40 +2991,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D53">
-        <v>63.19</v>
+        <v>13.25</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="G53">
-        <v>63.19</v>
+        <v>38.55</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K53">
-        <v>993.55</v>
+        <v>1602.2</v>
       </c>
       <c r="L53">
-        <v>958.62</v>
+        <v>1521.09</v>
       </c>
       <c r="M53">
-        <v>1063.41</v>
+        <v>1764.43</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3110,22 +3035,22 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>39.76</v>
+        <v>10.84</v>
       </c>
       <c r="E54">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G54">
-        <v>39.76</v>
+        <v>32.53</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3134,16 +3059,16 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>1093.7</v>
+        <v>186.14</v>
       </c>
       <c r="L54">
-        <v>1032.83</v>
+        <v>175.26</v>
       </c>
       <c r="M54">
-        <v>1215.44</v>
+        <v>207.91</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3154,40 +3079,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D55">
-        <v>36.14</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G55">
-        <v>38.55</v>
+        <v>21.69</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K55">
-        <v>1617.6</v>
+        <v>5016.5</v>
       </c>
       <c r="L55">
-        <v>1534.87</v>
+        <v>4893.53</v>
       </c>
       <c r="M55">
-        <v>1783.06</v>
+        <v>5262.43</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3198,40 +3123,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D56">
-        <v>34.94</v>
+        <v>6.02</v>
       </c>
       <c r="E56">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G56">
-        <v>54.76</v>
+        <v>31.33</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>262.15</v>
+        <v>1180</v>
       </c>
       <c r="L56">
-        <v>245.9</v>
+        <v>1112.4</v>
       </c>
       <c r="M56">
-        <v>294.65</v>
+        <v>1315.21</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3242,40 +3167,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D57">
-        <v>34.94</v>
+        <v>4.82</v>
       </c>
       <c r="E57">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G57">
-        <v>44.58</v>
+        <v>10.84</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K57">
-        <v>453.35</v>
+        <v>1699.9</v>
       </c>
       <c r="L57">
-        <v>418.74</v>
+        <v>1661.44</v>
       </c>
       <c r="M57">
-        <v>522.5599999999999</v>
+        <v>1776.82</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3286,40 +3211,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D58">
-        <v>32.53</v>
+        <v>4.82</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G58">
-        <v>32.53</v>
+        <v>41.14</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>1525</v>
+        <v>457.7</v>
       </c>
       <c r="L58">
-        <v>1453.49</v>
+        <v>449.01</v>
       </c>
       <c r="M58">
-        <v>1668.03</v>
+        <v>475.08</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3330,40 +3255,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D59">
-        <v>29.28</v>
+        <v>4.82</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G59">
-        <v>38.92</v>
+        <v>31.33</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K59">
-        <v>210.11</v>
+        <v>7424.5</v>
       </c>
       <c r="L59">
-        <v>207.1</v>
+        <v>7258.86</v>
       </c>
       <c r="M59">
-        <v>216.13</v>
+        <v>7755.79</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3374,1054 +3299,42 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D60">
-        <v>27.89</v>
+        <v>4.82</v>
       </c>
       <c r="E60">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G60">
-        <v>27.89</v>
+        <v>22.89</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K60">
-        <v>698.9</v>
+        <v>6629</v>
       </c>
       <c r="L60">
-        <v>675.42</v>
+        <v>6322.07</v>
       </c>
       <c r="M60">
-        <v>745.86</v>
+        <v>7242.86</v>
       </c>
       <c r="N60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61">
-        <v>27.71</v>
-      </c>
-      <c r="E61">
-        <v>39</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61">
-        <v>27.71</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61">
-        <v>188.92</v>
-      </c>
-      <c r="L61">
-        <v>177.86</v>
-      </c>
-      <c r="M61">
-        <v>211.04</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62">
-        <v>22.89</v>
-      </c>
-      <c r="E62">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>119</v>
-      </c>
-      <c r="G62">
-        <v>52.35</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62" t="s">
-        <v>131</v>
-      </c>
-      <c r="K62">
-        <v>368.4</v>
-      </c>
-      <c r="L62">
-        <v>349.98</v>
-      </c>
-      <c r="M62">
-        <v>405.25</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63">
-        <v>22.89</v>
-      </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63">
-        <v>22.89</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63">
-        <v>165.78</v>
-      </c>
-      <c r="L63">
-        <v>158.59</v>
-      </c>
-      <c r="M63">
-        <v>180.16</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64">
-        <v>21.69</v>
-      </c>
-      <c r="E64">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>123</v>
-      </c>
-      <c r="G64">
-        <v>63.37</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64">
-        <v>1485.4</v>
-      </c>
-      <c r="L64">
-        <v>1452.57</v>
-      </c>
-      <c r="M64">
-        <v>1551.06</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65">
-        <v>21.69</v>
-      </c>
-      <c r="E65">
-        <v>56</v>
-      </c>
-      <c r="F65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G65">
-        <v>43.37</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>131</v>
-      </c>
-      <c r="K65">
-        <v>2739.8</v>
-      </c>
-      <c r="L65">
-        <v>2641.77</v>
-      </c>
-      <c r="M65">
-        <v>2935.86</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66">
-        <v>20.48</v>
-      </c>
-      <c r="E66">
-        <v>31</v>
-      </c>
-      <c r="F66" t="s">
-        <v>116</v>
-      </c>
-      <c r="G66">
-        <v>43.37</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>131</v>
-      </c>
-      <c r="K66">
-        <v>1453.8</v>
-      </c>
-      <c r="L66">
-        <v>1378.71</v>
-      </c>
-      <c r="M66">
-        <v>1603.98</v>
-      </c>
-      <c r="N66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67">
-        <v>20.48</v>
-      </c>
-      <c r="E67">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67">
-        <v>66.81</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>131</v>
-      </c>
-      <c r="K67">
-        <v>5129.5</v>
-      </c>
-      <c r="L67">
-        <v>4859.59</v>
-      </c>
-      <c r="M67">
-        <v>5669.32</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68">
-        <v>19.28</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
-      <c r="F68" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68">
-        <v>26.69</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>131</v>
-      </c>
-      <c r="K68">
-        <v>2012</v>
-      </c>
-      <c r="L68">
-        <v>1979.25</v>
-      </c>
-      <c r="M68">
-        <v>2077.51</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69">
-        <v>18.07</v>
-      </c>
-      <c r="E69">
-        <v>23</v>
-      </c>
-      <c r="F69" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69">
-        <v>58.19</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>131</v>
-      </c>
-      <c r="K69">
-        <v>3096</v>
-      </c>
-      <c r="L69">
-        <v>2940.19</v>
-      </c>
-      <c r="M69">
-        <v>3407.63</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70">
-        <v>18.07</v>
-      </c>
-      <c r="E70">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70">
-        <v>28.07</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>131</v>
-      </c>
-      <c r="K70">
-        <v>1010.3</v>
-      </c>
-      <c r="L70">
-        <v>978.39</v>
-      </c>
-      <c r="M70">
-        <v>1074.11</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71">
-        <v>14.46</v>
-      </c>
-      <c r="E71">
-        <v>24</v>
-      </c>
-      <c r="F71" t="s">
-        <v>116</v>
-      </c>
-      <c r="G71">
-        <v>37.35</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>131</v>
-      </c>
-      <c r="K71">
-        <v>176.32</v>
-      </c>
-      <c r="L71">
-        <v>164.38</v>
-      </c>
-      <c r="M71">
-        <v>200.19</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72">
-        <v>14.46</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72">
-        <v>31.33</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>131</v>
-      </c>
-      <c r="K72">
-        <v>7427</v>
-      </c>
-      <c r="L72">
-        <v>7253.89</v>
-      </c>
-      <c r="M72">
-        <v>7773.22</v>
-      </c>
-      <c r="N72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73">
-        <v>13.25</v>
-      </c>
-      <c r="E73">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>118</v>
-      </c>
-      <c r="G73">
-        <v>28.92</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>131</v>
-      </c>
-      <c r="K73">
-        <v>460.55</v>
-      </c>
-      <c r="L73">
-        <v>452.47</v>
-      </c>
-      <c r="M73">
-        <v>476.71</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74">
-        <v>12.05</v>
-      </c>
-      <c r="E74">
-        <v>56</v>
-      </c>
-      <c r="F74" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74">
-        <v>65.06</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>131</v>
-      </c>
-      <c r="K74">
-        <v>827.1</v>
-      </c>
-      <c r="L74">
-        <v>794.55</v>
-      </c>
-      <c r="M74">
-        <v>892.2</v>
-      </c>
-      <c r="N74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75">
-        <v>12.05</v>
-      </c>
-      <c r="E75">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75">
-        <v>22.89</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>131</v>
-      </c>
-      <c r="K75">
-        <v>3535</v>
-      </c>
-      <c r="L75">
-        <v>3380.84</v>
-      </c>
-      <c r="M75">
-        <v>3843.31</v>
-      </c>
-      <c r="N75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76">
-        <v>10.84</v>
-      </c>
-      <c r="E76">
-        <v>25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76">
-        <v>15.66</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>131</v>
-      </c>
-      <c r="K76">
-        <v>3264.6</v>
-      </c>
-      <c r="L76">
-        <v>3152.4</v>
-      </c>
-      <c r="M76">
-        <v>3489</v>
-      </c>
-      <c r="N76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77">
-        <v>10.84</v>
-      </c>
-      <c r="E77">
-        <v>31</v>
-      </c>
-      <c r="F77" t="s">
-        <v>125</v>
-      </c>
-      <c r="G77">
-        <v>22.89</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>131</v>
-      </c>
-      <c r="K77">
-        <v>6619.5</v>
-      </c>
-      <c r="L77">
-        <v>6301</v>
-      </c>
-      <c r="M77">
-        <v>7256.5</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E78">
-        <v>11</v>
-      </c>
-      <c r="F78" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78">
-        <v>20.48</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>131</v>
-      </c>
-      <c r="K78">
-        <v>6899.5</v>
-      </c>
-      <c r="L78">
-        <v>6675.62</v>
-      </c>
-      <c r="M78">
-        <v>7347.27</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E79">
-        <v>29</v>
-      </c>
-      <c r="F79" t="s">
-        <v>119</v>
-      </c>
-      <c r="G79">
-        <v>21.69</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>131</v>
-      </c>
-      <c r="K79">
-        <v>5002.9</v>
-      </c>
-      <c r="L79">
-        <v>4885.44</v>
-      </c>
-      <c r="M79">
-        <v>5237.81</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80">
-        <v>7.23</v>
-      </c>
-      <c r="E80">
-        <v>26</v>
-      </c>
-      <c r="F80" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80">
-        <v>30.12</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s">
-        <v>131</v>
-      </c>
-      <c r="K80">
-        <v>604.4</v>
-      </c>
-      <c r="L80">
-        <v>575.36</v>
-      </c>
-      <c r="M80">
-        <v>662.48</v>
-      </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81">
-        <v>7.23</v>
-      </c>
-      <c r="E81">
-        <v>25</v>
-      </c>
-      <c r="F81" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81">
-        <v>48.73</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>131</v>
-      </c>
-      <c r="K81">
-        <v>31865</v>
-      </c>
-      <c r="L81">
-        <v>30895.2</v>
-      </c>
-      <c r="M81">
-        <v>33804.61</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82">
-        <v>6.02</v>
-      </c>
-      <c r="E82">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>116</v>
-      </c>
-      <c r="G82">
-        <v>57.83</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>131</v>
-      </c>
-      <c r="K82">
-        <v>855.55</v>
-      </c>
-      <c r="L82">
-        <v>811.09</v>
-      </c>
-      <c r="M82">
-        <v>944.47</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83">
-        <v>4.82</v>
-      </c>
-      <c r="E83">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s">
-        <v>119</v>
-      </c>
-      <c r="G83">
-        <v>41.14</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>131</v>
-      </c>
-      <c r="K83">
-        <v>460.4</v>
-      </c>
-      <c r="L83">
-        <v>448.24</v>
-      </c>
-      <c r="M83">
-        <v>484.73</v>
-      </c>
-      <c r="N83">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,210 +61,153 @@
     <t>PAYTM</t>
   </si>
   <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>BORORENEW</t>
+  </si>
+  <si>
+    <t>SHK</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
     <t>IPCALAB</t>
   </si>
   <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>SUPREMEIND</t>
+  </si>
+  <si>
     <t>ETERNAL</t>
   </si>
   <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>BIKAJI</t>
-  </si>
-  <si>
-    <t>DELHIVERY</t>
-  </si>
-  <si>
-    <t>ASHAPURMIN</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>GREENPLY</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
+    <t>HOMEFIRST</t>
   </si>
   <si>
     <t>TRIDENT</t>
   </si>
   <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>LXCHEM</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>ZYDUSLIFE</t>
+  </si>
+  <si>
     <t>LAURUSLABS</t>
   </si>
   <si>
-    <t>DIXON</t>
-  </si>
-  <si>
-    <t>METROBRAND</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>VIJAYA</t>
-  </si>
-  <si>
-    <t>ECLERX</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>SURYAROSNI</t>
-  </si>
-  <si>
-    <t>PENIND</t>
-  </si>
-  <si>
-    <t>SUPREMEIND</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>HOMEFIRST</t>
-  </si>
-  <si>
-    <t>GMDCLTD</t>
-  </si>
-  <si>
     <t>LALPATHLAB</t>
   </si>
   <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>RAINBOW</t>
-  </si>
-  <si>
-    <t>CGCL</t>
+    <t>JBCHEPHARM</t>
   </si>
   <si>
     <t>ALKEM</t>
   </si>
   <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
     <t>EIDPARRY</t>
   </si>
   <si>
-    <t>JBCHEPHARM</t>
+    <t>APOLLOHOSP</t>
   </si>
   <si>
     <t>TMB</t>
   </si>
   <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>JKCEMENT</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>G_Pattern</t>
   </si>
   <si>
@@ -280,46 +223,34 @@
     <t>Power_H2_Volume</t>
   </si>
   <si>
-    <t>KC_Multi_H2</t>
-  </si>
-  <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
   </si>
   <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
@@ -692,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,19 +678,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>63.86</v>
+        <v>59.04</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -771,16 +702,16 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="K2">
-        <v>1094.05</v>
+        <v>1067</v>
       </c>
       <c r="L2">
-        <v>1023.69</v>
+        <v>992.6900000000001</v>
       </c>
       <c r="M2">
-        <v>1234.78</v>
+        <v>1215.61</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -791,40 +722,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>70.78</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>70.78</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>1552.6</v>
+        <v>965.95</v>
       </c>
       <c r="L3">
-        <v>1478.13</v>
+        <v>920.09</v>
       </c>
       <c r="M3">
-        <v>1701.54</v>
+        <v>1057.66</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -835,22 +766,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>39.76</v>
+        <v>37.35</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -859,16 +790,16 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>309.6</v>
+        <v>496.2</v>
       </c>
       <c r="L4">
-        <v>289.51</v>
+        <v>445.93</v>
       </c>
       <c r="M4">
-        <v>349.77</v>
+        <v>596.74</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -879,40 +810,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>39.76</v>
+        <v>34.94</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>962.85</v>
+        <v>722.7</v>
       </c>
       <c r="L5">
-        <v>916.99</v>
+        <v>690.74</v>
       </c>
       <c r="M5">
-        <v>1054.56</v>
+        <v>786.61</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -923,40 +854,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>37.35</v>
+        <v>34.94</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K6">
-        <v>503.6</v>
+        <v>413.45</v>
       </c>
       <c r="L6">
-        <v>453.56</v>
+        <v>386.28</v>
       </c>
       <c r="M6">
-        <v>603.6900000000001</v>
+        <v>467.79</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -967,40 +898,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>37.35</v>
+        <v>33.73</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K7">
-        <v>416</v>
+        <v>937</v>
       </c>
       <c r="L7">
-        <v>388.83</v>
+        <v>853.14</v>
       </c>
       <c r="M7">
-        <v>470.34</v>
+        <v>1104.71</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1011,22 +942,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>34.94</v>
+        <v>33.73</v>
       </c>
       <c r="E8">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>85.23999999999999</v>
+        <v>82.83</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1035,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>725</v>
+        <v>847.8</v>
       </c>
       <c r="L8">
-        <v>693.39</v>
+        <v>805.29</v>
       </c>
       <c r="M8">
-        <v>788.21</v>
+        <v>932.8099999999999</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1055,19 +986,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>34.94</v>
+        <v>31.33</v>
       </c>
       <c r="E9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>92.11</v>
@@ -1079,16 +1010,16 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="L9">
-        <v>583.8099999999999</v>
+        <v>567.5</v>
       </c>
       <c r="M9">
-        <v>749.37</v>
+        <v>740</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1099,40 +1030,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>33.73</v>
+        <v>30.12</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>953.7</v>
+        <v>262</v>
       </c>
       <c r="L10">
-        <v>869.99</v>
+        <v>247.62</v>
       </c>
       <c r="M10">
-        <v>1121.13</v>
+        <v>290.76</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1143,40 +1074,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>31.33</v>
+        <v>30.12</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>265.73</v>
+        <v>731.1</v>
       </c>
       <c r="L11">
-        <v>252.1</v>
+        <v>669.03</v>
       </c>
       <c r="M11">
-        <v>293</v>
+        <v>855.24</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1187,40 +1118,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>28.92</v>
+        <v>27.71</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>841.05</v>
+        <v>682</v>
       </c>
       <c r="L12">
-        <v>799.48</v>
+        <v>649.25</v>
       </c>
       <c r="M12">
-        <v>924.1900000000001</v>
+        <v>747.5</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1231,19 +1162,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>27.71</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>100</v>
@@ -1255,16 +1186,16 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>614.3</v>
+        <v>613.95</v>
       </c>
       <c r="L13">
-        <v>594.64</v>
+        <v>593.6900000000001</v>
       </c>
       <c r="M13">
-        <v>653.61</v>
+        <v>654.46</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1275,40 +1206,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>26.51</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14">
-        <v>27.71</v>
-      </c>
-      <c r="E14">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>93</v>
-      </c>
       <c r="G14">
-        <v>72.29000000000001</v>
+        <v>70.78</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>2027.2</v>
+        <v>1519.7</v>
       </c>
       <c r="L14">
-        <v>1874.34</v>
+        <v>1438.6</v>
       </c>
       <c r="M14">
-        <v>2332.91</v>
+        <v>1681.9</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1319,19 +1250,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>25.3</v>
+        <v>24.1</v>
       </c>
       <c r="E15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1340,19 +1271,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>781.2</v>
+        <v>1001.2</v>
       </c>
       <c r="L15">
-        <v>741.5599999999999</v>
+        <v>966.01</v>
       </c>
       <c r="M15">
-        <v>860.48</v>
+        <v>1071.59</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1363,40 +1294,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>24.1</v>
+        <v>22.89</v>
       </c>
       <c r="E16">
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>438.65</v>
+        <v>31050</v>
       </c>
       <c r="L16">
-        <v>416.59</v>
+        <v>29766.56</v>
       </c>
       <c r="M16">
-        <v>482.78</v>
+        <v>33616.87</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1407,22 +1338,22 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>24.1</v>
+        <v>22.89</v>
       </c>
       <c r="E17">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1431,16 +1362,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>561</v>
+        <v>2023.7</v>
       </c>
       <c r="L17">
-        <v>509.11</v>
+        <v>1901.39</v>
       </c>
       <c r="M17">
-        <v>664.79</v>
+        <v>2268.33</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1451,19 +1382,19 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>22.89</v>
       </c>
       <c r="E18">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G18">
         <v>87.65000000000001</v>
@@ -1475,16 +1406,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>764.6</v>
+        <v>761.45</v>
       </c>
       <c r="L18">
-        <v>721.64</v>
+        <v>717.76</v>
       </c>
       <c r="M18">
-        <v>850.51</v>
+        <v>848.8200000000001</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1495,22 +1426,22 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>22.89</v>
+        <v>21.69</v>
       </c>
       <c r="E19">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1519,16 +1450,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>2017</v>
+        <v>1885</v>
       </c>
       <c r="L19">
-        <v>1898.23</v>
+        <v>1783.86</v>
       </c>
       <c r="M19">
-        <v>2254.54</v>
+        <v>2087.29</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1539,40 +1470,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>1000</v>
+        <v>3605.5</v>
       </c>
       <c r="L20">
-        <v>965.88</v>
+        <v>3478.97</v>
       </c>
       <c r="M20">
-        <v>1068.24</v>
+        <v>3858.56</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1583,40 +1514,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>21.69</v>
+        <v>14.46</v>
       </c>
       <c r="E21">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G21">
-        <v>76.81</v>
+        <v>96.08</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K21">
-        <v>338.1</v>
+        <v>2600.9</v>
       </c>
       <c r="L21">
-        <v>318.92</v>
+        <v>2392.57</v>
       </c>
       <c r="M21">
-        <v>376.45</v>
+        <v>3017.56</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1627,19 +1558,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>21.69</v>
+        <v>14.46</v>
       </c>
       <c r="E22">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1648,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>680.85</v>
+        <v>394.15</v>
       </c>
       <c r="L22">
-        <v>649.4299999999999</v>
+        <v>377.56</v>
       </c>
       <c r="M22">
-        <v>743.6900000000001</v>
+        <v>427.33</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1671,19 +1602,19 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>13.25</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23">
-        <v>20.48</v>
-      </c>
-      <c r="E23">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1692,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>1888.5</v>
+        <v>5556.5</v>
       </c>
       <c r="L23">
-        <v>1788.79</v>
+        <v>5325.93</v>
       </c>
       <c r="M23">
-        <v>2087.93</v>
+        <v>6017.64</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1715,40 +1646,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>18.07</v>
+        <v>8.43</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G24">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>2634.1</v>
+        <v>37835</v>
       </c>
       <c r="L24">
-        <v>2428.4</v>
+        <v>36175.71</v>
       </c>
       <c r="M24">
-        <v>3045.5</v>
+        <v>41153.57</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1759,40 +1690,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>15.66</v>
+        <v>7.23</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G25">
-        <v>82.65000000000001</v>
+        <v>81.27</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>3567.2</v>
+        <v>71.8</v>
       </c>
       <c r="L25">
-        <v>3444.37</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="M25">
-        <v>3812.86</v>
+        <v>75.91</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1803,40 +1734,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>7.23</v>
+      </c>
+      <c r="E26">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26">
-        <v>14.46</v>
-      </c>
-      <c r="E26">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>720</v>
+        <v>1322.9</v>
       </c>
       <c r="L26">
-        <v>658.15</v>
+        <v>1260.29</v>
       </c>
       <c r="M26">
-        <v>843.7</v>
+        <v>1448.11</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1847,40 +1778,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>13.25</v>
+        <v>46.14</v>
       </c>
       <c r="E27">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G27">
-        <v>73.01000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>2154.8</v>
+        <v>1531.7</v>
       </c>
       <c r="L27">
-        <v>1994.41</v>
+        <v>1481.77</v>
       </c>
       <c r="M27">
-        <v>2475.58</v>
+        <v>1631.56</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1891,40 +1822,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D28">
-        <v>10.84</v>
+        <v>45.78</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G28">
-        <v>75.42</v>
+        <v>90.06</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="K28">
-        <v>627.25</v>
+        <v>1472.3</v>
       </c>
       <c r="L28">
-        <v>595.6799999999999</v>
+        <v>1356.2</v>
       </c>
       <c r="M28">
-        <v>690.39</v>
+        <v>1704.5</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1935,40 +1866,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>41.33</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29">
-        <v>8.43</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
       <c r="G29">
-        <v>100</v>
+        <v>41.33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>37760</v>
+        <v>4289</v>
       </c>
       <c r="L29">
-        <v>36143.26</v>
+        <v>4169.74</v>
       </c>
       <c r="M29">
-        <v>40993.48</v>
+        <v>4527.51</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1979,40 +1910,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>8.43</v>
+        <v>40.96</v>
       </c>
       <c r="E30">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>397.1</v>
+        <v>310.6</v>
       </c>
       <c r="L30">
-        <v>378.86</v>
+        <v>290.08</v>
       </c>
       <c r="M30">
-        <v>433.59</v>
+        <v>351.64</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2023,40 +1954,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>7.23</v>
+        <v>52.17</v>
       </c>
       <c r="E31">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>52.17</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>1328.5</v>
+        <v>1480.5</v>
       </c>
       <c r="L31">
-        <v>1261.07</v>
+        <v>1375.17</v>
       </c>
       <c r="M31">
-        <v>1463.37</v>
+        <v>1691.16</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2067,40 +1998,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>7.23</v>
+        <v>38.92</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G32">
-        <v>81.27</v>
+        <v>52.17</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>71.93000000000001</v>
+        <v>31.91</v>
       </c>
       <c r="L32">
-        <v>69.77</v>
+        <v>30.85</v>
       </c>
       <c r="M32">
-        <v>76.25</v>
+        <v>34.03</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2111,40 +2042,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>7.23</v>
+        <v>26.51</v>
       </c>
       <c r="E33">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>61.99</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>5560.5</v>
+        <v>16700</v>
       </c>
       <c r="L33">
-        <v>5332.29</v>
+        <v>16030.86</v>
       </c>
       <c r="M33">
-        <v>6016.93</v>
+        <v>18038.29</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2155,40 +2086,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>4.82</v>
+        <v>22.89</v>
       </c>
       <c r="E34">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>52.17</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>485.05</v>
+        <v>205.56</v>
       </c>
       <c r="L34">
-        <v>470.83</v>
+        <v>195.95</v>
       </c>
       <c r="M34">
-        <v>513.49</v>
+        <v>224.79</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2199,40 +2130,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>40.96</v>
+        <v>15.66</v>
       </c>
       <c r="E35">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G35">
-        <v>90.06</v>
+        <v>27.89</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>1484</v>
+        <v>693.95</v>
       </c>
       <c r="L35">
-        <v>1369.83</v>
+        <v>675.12</v>
       </c>
       <c r="M35">
-        <v>1712.34</v>
+        <v>731.61</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2243,40 +2174,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D36">
-        <v>52.17</v>
+        <v>14.46</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G36">
-        <v>52.17</v>
+        <v>14.46</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>33.14</v>
+        <v>978.2</v>
       </c>
       <c r="L36">
-        <v>31.27</v>
+        <v>963.75</v>
       </c>
       <c r="M36">
-        <v>36.89</v>
+        <v>1007.09</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2287,40 +2218,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>37.89</v>
+        <v>13.25</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G37">
         <v>65.06</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>845.6</v>
+        <v>829.95</v>
       </c>
       <c r="L37">
-        <v>811.83</v>
+        <v>794.88</v>
       </c>
       <c r="M37">
-        <v>913.14</v>
+        <v>900.09</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2331,40 +2262,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D38">
-        <v>33.73</v>
+        <v>12.05</v>
       </c>
       <c r="E38">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G38">
-        <v>61.99</v>
+        <v>58.19</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>16810</v>
+        <v>3081.8</v>
       </c>
       <c r="L38">
-        <v>16155.71</v>
+        <v>2919.86</v>
       </c>
       <c r="M38">
-        <v>18118.57</v>
+        <v>3405.69</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2375,40 +2306,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>30.12</v>
+        <v>10.84</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G39">
-        <v>30.12</v>
+        <v>10.84</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K39">
-        <v>1264.4</v>
+        <v>1709.4</v>
       </c>
       <c r="L39">
-        <v>1185.66</v>
+        <v>1661.99</v>
       </c>
       <c r="M39">
-        <v>1421.89</v>
+        <v>1804.22</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2419,40 +2350,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D40">
-        <v>27.71</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E40">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G40">
-        <v>65.59999999999999</v>
+        <v>21.69</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>196.92</v>
+        <v>5011.6</v>
       </c>
       <c r="L40">
-        <v>187.27</v>
+        <v>4892.53</v>
       </c>
       <c r="M40">
-        <v>216.22</v>
+        <v>5249.74</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2463,40 +2394,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>26.51</v>
+        <v>7.23</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G41">
-        <v>52.17</v>
+        <v>39.76</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>207.24</v>
+        <v>289.7</v>
       </c>
       <c r="L41">
-        <v>196.76</v>
+        <v>272.79</v>
       </c>
       <c r="M41">
-        <v>228.2</v>
+        <v>323.51</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2507,40 +2438,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D42">
-        <v>25.3</v>
+        <v>6.02</v>
       </c>
       <c r="E42">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G42">
-        <v>45.78</v>
+        <v>31.33</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>1076.55</v>
+        <v>1176.1</v>
       </c>
       <c r="L42">
-        <v>1006.32</v>
+        <v>1111.99</v>
       </c>
       <c r="M42">
-        <v>1217.01</v>
+        <v>1304.32</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2551,40 +2482,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D43">
-        <v>22.89</v>
+        <v>4.82</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G43">
-        <v>61.81</v>
+        <v>31.33</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>3797</v>
+        <v>7459.5</v>
       </c>
       <c r="L43">
-        <v>3540.4</v>
+        <v>7261.05</v>
       </c>
       <c r="M43">
-        <v>4310.2</v>
+        <v>7856.41</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2595,746 +2526,42 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D44">
-        <v>21.69</v>
+        <v>4.82</v>
       </c>
       <c r="E44">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G44">
-        <v>63.37</v>
+        <v>41.14</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>1487.5</v>
+        <v>455.5</v>
       </c>
       <c r="L44">
-        <v>1453.56</v>
+        <v>448.71</v>
       </c>
       <c r="M44">
-        <v>1555.39</v>
+        <v>469.08</v>
       </c>
       <c r="N44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45">
-        <v>21.69</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45">
-        <v>40.12</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45">
-        <v>347.1</v>
-      </c>
-      <c r="L45">
-        <v>329.46</v>
-      </c>
-      <c r="M45">
-        <v>382.38</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46">
-        <v>20.48</v>
-      </c>
-      <c r="E46">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46">
-        <v>54.76</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
-        <v>106</v>
-      </c>
-      <c r="K46">
-        <v>254.6</v>
-      </c>
-      <c r="L46">
-        <v>237.94</v>
-      </c>
-      <c r="M46">
-        <v>287.93</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47">
-        <v>20.48</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47">
-        <v>20.48</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47">
-        <v>4276.3</v>
-      </c>
-      <c r="L47">
-        <v>4169.37</v>
-      </c>
-      <c r="M47">
-        <v>4490.17</v>
-      </c>
-      <c r="N47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48">
-        <v>19.28</v>
-      </c>
-      <c r="E48">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48">
-        <v>26.69</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48">
-        <v>2010</v>
-      </c>
-      <c r="L48">
-        <v>1981.16</v>
-      </c>
-      <c r="M48">
-        <v>2067.69</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49">
-        <v>19.28</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49">
-        <v>19.28</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
-        <v>1437.2</v>
-      </c>
-      <c r="L49">
-        <v>1358.27</v>
-      </c>
-      <c r="M49">
-        <v>1595.05</v>
-      </c>
-      <c r="N49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50">
-        <v>19.28</v>
-      </c>
-      <c r="E50">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50">
-        <v>44.58</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50">
-        <v>443.5</v>
-      </c>
-      <c r="L50">
-        <v>408.79</v>
-      </c>
-      <c r="M50">
-        <v>512.9299999999999</v>
-      </c>
-      <c r="N50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51">
-        <v>18.07</v>
-      </c>
-      <c r="E51">
-        <v>27</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51">
-        <v>58.19</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>106</v>
-      </c>
-      <c r="K51">
-        <v>3098.9</v>
-      </c>
-      <c r="L51">
-        <v>2942.59</v>
-      </c>
-      <c r="M51">
-        <v>3411.53</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52">
-        <v>14.46</v>
-      </c>
-      <c r="E52">
-        <v>25</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52">
-        <v>27.89</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52">
-        <v>696.3</v>
-      </c>
-      <c r="L52">
-        <v>675.58</v>
-      </c>
-      <c r="M52">
-        <v>737.75</v>
-      </c>
-      <c r="N52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53">
-        <v>13.25</v>
-      </c>
-      <c r="E53">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53">
-        <v>38.55</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>1602.2</v>
-      </c>
-      <c r="L53">
-        <v>1521.09</v>
-      </c>
-      <c r="M53">
-        <v>1764.43</v>
-      </c>
-      <c r="N53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54">
-        <v>10.84</v>
-      </c>
-      <c r="E54">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54">
-        <v>32.53</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54">
-        <v>186.14</v>
-      </c>
-      <c r="L54">
-        <v>175.26</v>
-      </c>
-      <c r="M54">
-        <v>207.91</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E55">
-        <v>33</v>
-      </c>
-      <c r="F55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55">
-        <v>21.69</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55">
-        <v>5016.5</v>
-      </c>
-      <c r="L55">
-        <v>4893.53</v>
-      </c>
-      <c r="M55">
-        <v>5262.43</v>
-      </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56">
-        <v>6.02</v>
-      </c>
-      <c r="E56">
-        <v>48</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56">
-        <v>31.33</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>106</v>
-      </c>
-      <c r="K56">
-        <v>1180</v>
-      </c>
-      <c r="L56">
-        <v>1112.4</v>
-      </c>
-      <c r="M56">
-        <v>1315.21</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57">
-        <v>4.82</v>
-      </c>
-      <c r="E57">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57">
-        <v>10.84</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57">
-        <v>1699.9</v>
-      </c>
-      <c r="L57">
-        <v>1661.44</v>
-      </c>
-      <c r="M57">
-        <v>1776.82</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58">
-        <v>4.82</v>
-      </c>
-      <c r="E58">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G58">
-        <v>41.14</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>106</v>
-      </c>
-      <c r="K58">
-        <v>457.7</v>
-      </c>
-      <c r="L58">
-        <v>449.01</v>
-      </c>
-      <c r="M58">
-        <v>475.08</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59">
-        <v>4.82</v>
-      </c>
-      <c r="E59">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59">
-        <v>31.33</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>106</v>
-      </c>
-      <c r="K59">
-        <v>7424.5</v>
-      </c>
-      <c r="L59">
-        <v>7258.86</v>
-      </c>
-      <c r="M59">
-        <v>7755.79</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60">
-        <v>4.82</v>
-      </c>
-      <c r="E60">
-        <v>35</v>
-      </c>
-      <c r="F60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60">
-        <v>22.89</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>106</v>
-      </c>
-      <c r="K60">
-        <v>6629</v>
-      </c>
-      <c r="L60">
-        <v>6322.07</v>
-      </c>
-      <c r="M60">
-        <v>7242.86</v>
-      </c>
-      <c r="N60">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>Ticker</t>
   </si>
@@ -61,193 +61,169 @@
     <t>PAYTM</t>
   </si>
   <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
     <t>SHYAMMETL</t>
   </si>
   <si>
-    <t>TI</t>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>KIMS</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
   </si>
   <si>
     <t>UPL</t>
   </si>
   <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
     <t>NUVOCO</t>
   </si>
   <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>BORORENEW</t>
-  </si>
-  <si>
-    <t>SHK</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
+    <t>JINDALSTEL</t>
   </si>
   <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
-    <t>IPCALAB</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>JAGSNPHARM</t>
+  </si>
+  <si>
+    <t>VIJAYA</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
   </si>
   <si>
     <t>TORNTPHARM</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>SUPREMEIND</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>HOMEFIRST</t>
-  </si>
-  <si>
-    <t>TRIDENT</t>
+    <t>SBILIFE</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
   </si>
   <si>
     <t>DIXON</t>
   </si>
   <si>
-    <t>LXCHEM</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>ZYDUSLIFE</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>ALKEM</t>
   </si>
   <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>Healthcare</t>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>G_Pattern</t>
   </si>
   <si>
+    <t>Building_G</t>
+  </si>
+  <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
     <t>H2_Momentum_Start</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
-    <t>Power_H2_Volume</t>
+    <t>KC_Multi_H2</t>
   </si>
   <si>
     <t>2025-07-11</t>
   </si>
   <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
     <t>2025-07-16</t>
   </si>
   <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
     <t>2025-07-07</t>
   </si>
   <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
   </si>
   <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
+    <t>2025-07-28</t>
   </si>
   <si>
     <t>2025-07-09</t>
@@ -256,7 +232,7 @@
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
   </si>
   <si>
-    <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
+    <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
   </si>
   <si>
     <t>HOLD AND MONITOR - PATTERN MATURE</t>
@@ -623,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,19 +654,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>59.04</v>
+        <v>67.47</v>
       </c>
       <c r="E2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -702,16 +678,16 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K2">
-        <v>1067</v>
+        <v>1094.7</v>
       </c>
       <c r="L2">
-        <v>992.6900000000001</v>
+        <v>1017.73</v>
       </c>
       <c r="M2">
-        <v>1215.61</v>
+        <v>1248.64</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -722,40 +698,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>68.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>965.95</v>
+        <v>1571.3</v>
       </c>
       <c r="L3">
-        <v>920.09</v>
+        <v>1518.07</v>
       </c>
       <c r="M3">
-        <v>1057.66</v>
+        <v>1677.76</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -766,19 +742,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
       <c r="D4">
         <v>37.35</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -787,19 +763,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>496.2</v>
+        <v>509.2</v>
       </c>
       <c r="L4">
-        <v>445.93</v>
+        <v>455.4</v>
       </c>
       <c r="M4">
-        <v>596.74</v>
+        <v>616.8</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -810,40 +786,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
       <c r="D5">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="E5">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G5">
-        <v>85.23999999999999</v>
+        <v>92.47</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>722.7</v>
+        <v>307.75</v>
       </c>
       <c r="L5">
-        <v>690.74</v>
+        <v>287.26</v>
       </c>
       <c r="M5">
-        <v>786.61</v>
+        <v>348.72</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -854,40 +830,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
       <c r="D6">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>84.04000000000001</v>
+        <v>90.06</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>413.45</v>
+        <v>1445</v>
       </c>
       <c r="L6">
-        <v>386.28</v>
+        <v>1323.39</v>
       </c>
       <c r="M6">
-        <v>467.79</v>
+        <v>1688.23</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -898,40 +874,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>33.73</v>
+        <v>34.94</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>82.83</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>937</v>
+        <v>847.35</v>
       </c>
       <c r="L7">
-        <v>853.14</v>
+        <v>806.39</v>
       </c>
       <c r="M7">
-        <v>1104.71</v>
+        <v>929.26</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -942,40 +918,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>33.73</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G8">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K8">
-        <v>847.8</v>
+        <v>960</v>
       </c>
       <c r="L8">
-        <v>805.29</v>
+        <v>911</v>
       </c>
       <c r="M8">
-        <v>932.8099999999999</v>
+        <v>1058</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -986,40 +962,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>31.33</v>
+        <v>32.53</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>92.11</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>625</v>
+        <v>746</v>
       </c>
       <c r="L9">
-        <v>567.5</v>
+        <v>681.3200000000001</v>
       </c>
       <c r="M9">
-        <v>740</v>
+        <v>875.36</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1030,40 +1006,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>30.12</v>
+        <v>31.33</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>262</v>
+        <v>954.65</v>
       </c>
       <c r="L10">
-        <v>247.62</v>
+        <v>867.34</v>
       </c>
       <c r="M10">
-        <v>290.76</v>
+        <v>1129.28</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1074,40 +1050,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>28.92</v>
+      </c>
+      <c r="E11">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="D11">
-        <v>30.12</v>
-      </c>
-      <c r="E11">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
       <c r="G11">
-        <v>100</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>731.1</v>
+        <v>771.55</v>
       </c>
       <c r="L11">
-        <v>669.03</v>
+        <v>727.09</v>
       </c>
       <c r="M11">
-        <v>855.24</v>
+        <v>860.46</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1118,40 +1094,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>25.3</v>
+      </c>
+      <c r="E12">
         <v>67</v>
       </c>
-      <c r="D12">
-        <v>27.71</v>
-      </c>
-      <c r="E12">
-        <v>44</v>
-      </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>682</v>
+        <v>31245</v>
       </c>
       <c r="L12">
-        <v>649.25</v>
+        <v>29876.41</v>
       </c>
       <c r="M12">
-        <v>747.5</v>
+        <v>33982.18</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1162,40 +1138,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>27.71</v>
+        <v>25.3</v>
       </c>
       <c r="E13">
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>613.95</v>
+        <v>728.8</v>
       </c>
       <c r="L13">
-        <v>593.6900000000001</v>
+        <v>696.79</v>
       </c>
       <c r="M13">
-        <v>654.46</v>
+        <v>792.83</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1206,40 +1182,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>22.89</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="D14">
-        <v>26.51</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14">
+        <v>96.08</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>73</v>
       </c>
-      <c r="G14">
-        <v>70.78</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
       <c r="K14">
-        <v>1519.7</v>
+        <v>2655</v>
       </c>
       <c r="L14">
-        <v>1438.6</v>
+        <v>2440.3</v>
       </c>
       <c r="M14">
-        <v>1681.9</v>
+        <v>3084.4</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1250,40 +1226,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>24.1</v>
+        <v>16.87</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>1001.2</v>
+        <v>691</v>
       </c>
       <c r="L15">
-        <v>966.01</v>
+        <v>652.6799999999999</v>
       </c>
       <c r="M15">
-        <v>1071.59</v>
+        <v>767.64</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1294,40 +1270,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>22.89</v>
+        <v>16.87</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>86.45</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>73</v>
       </c>
-      <c r="G16">
-        <v>92.47</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
       <c r="K16">
-        <v>31050</v>
+        <v>2055.2</v>
       </c>
       <c r="L16">
-        <v>29766.56</v>
+        <v>1931.4</v>
       </c>
       <c r="M16">
-        <v>33616.87</v>
+        <v>2302.8</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1338,40 +1314,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D17">
-        <v>22.89</v>
+        <v>15.66</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>2023.7</v>
+        <v>1359.1</v>
       </c>
       <c r="L17">
-        <v>1901.39</v>
+        <v>1279.46</v>
       </c>
       <c r="M17">
-        <v>2268.33</v>
+        <v>1518.39</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1382,40 +1358,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>22.89</v>
+        <v>14.46</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>73</v>
       </c>
-      <c r="G18">
-        <v>87.65000000000001</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
       <c r="K18">
-        <v>761.45</v>
+        <v>411.1</v>
       </c>
       <c r="L18">
-        <v>717.76</v>
+        <v>382.74</v>
       </c>
       <c r="M18">
-        <v>848.8200000000001</v>
+        <v>467.81</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1426,40 +1402,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>21.69</v>
+        <v>13.25</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19">
         <v>100</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K19">
-        <v>1885</v>
+        <v>978.75</v>
       </c>
       <c r="L19">
-        <v>1783.86</v>
+        <v>951.05</v>
       </c>
       <c r="M19">
-        <v>2087.29</v>
+        <v>1034.15</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1470,40 +1446,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>13.25</v>
+      </c>
+      <c r="E20">
         <v>66</v>
       </c>
-      <c r="D20">
-        <v>16.87</v>
-      </c>
-      <c r="E20">
-        <v>56</v>
-      </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G20">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>3605.5</v>
+        <v>612.7</v>
       </c>
       <c r="L20">
-        <v>3478.97</v>
+        <v>593.13</v>
       </c>
       <c r="M20">
-        <v>3858.56</v>
+        <v>651.84</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1514,40 +1490,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>10.84</v>
+      </c>
+      <c r="E21">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21">
-        <v>14.46</v>
-      </c>
-      <c r="E21">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
       <c r="G21">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>2600.9</v>
+        <v>487.05</v>
       </c>
       <c r="L21">
-        <v>2392.57</v>
+        <v>470.77</v>
       </c>
       <c r="M21">
-        <v>3017.56</v>
+        <v>519.62</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1558,19 +1534,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>14.46</v>
+        <v>7.23</v>
       </c>
       <c r="E22">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1582,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>394.15</v>
+        <v>5559</v>
       </c>
       <c r="L22">
-        <v>377.56</v>
+        <v>5332.5</v>
       </c>
       <c r="M22">
-        <v>427.33</v>
+        <v>6012</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1602,19 +1578,19 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>13.25</v>
+        <v>7.23</v>
       </c>
       <c r="E23">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1626,16 +1602,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>5556.5</v>
+        <v>38250</v>
       </c>
       <c r="L23">
-        <v>5325.93</v>
+        <v>36624.29</v>
       </c>
       <c r="M23">
-        <v>6017.64</v>
+        <v>41501.43</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1646,40 +1622,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>48.19</v>
+      </c>
+      <c r="E24">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
-        <v>8.43</v>
-      </c>
-      <c r="E24">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
       <c r="G24">
-        <v>100</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>37835</v>
+        <v>293.4</v>
       </c>
       <c r="L24">
-        <v>36175.71</v>
+        <v>261.03</v>
       </c>
       <c r="M24">
-        <v>41153.57</v>
+        <v>358.14</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1690,40 +1666,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
       <c r="D25">
-        <v>7.23</v>
+        <v>45.78</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G25">
-        <v>81.27</v>
+        <v>45.78</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>71.8</v>
+        <v>1150.3</v>
       </c>
       <c r="L25">
-        <v>69.73999999999999</v>
+        <v>1064.79</v>
       </c>
       <c r="M25">
-        <v>75.91</v>
+        <v>1321.31</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1734,40 +1710,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>7.23</v>
+        <v>43.37</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>77.83</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>1322.9</v>
+        <v>127.2</v>
       </c>
       <c r="L26">
-        <v>1260.29</v>
+        <v>114.14</v>
       </c>
       <c r="M26">
-        <v>1448.11</v>
+        <v>153.32</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1778,40 +1754,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>46.14</v>
+        <v>43.37</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G27">
-        <v>71.98999999999999</v>
+        <v>65.06</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>1531.7</v>
+        <v>889.6</v>
       </c>
       <c r="L27">
-        <v>1481.77</v>
+        <v>846.6799999999999</v>
       </c>
       <c r="M27">
-        <v>1631.56</v>
+        <v>975.4400000000001</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1822,40 +1798,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>40.3</v>
+      </c>
+      <c r="E28">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <v>45.78</v>
-      </c>
-      <c r="E28">
-        <v>34</v>
-      </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G28">
-        <v>90.06</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>1472.3</v>
+        <v>3622</v>
       </c>
       <c r="L28">
-        <v>1356.2</v>
+        <v>3495.7</v>
       </c>
       <c r="M28">
-        <v>1704.5</v>
+        <v>3874.6</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1866,40 +1842,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>41.33</v>
+        <v>31.33</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G29">
-        <v>41.33</v>
+        <v>31.33</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>4289</v>
+        <v>1850.1</v>
       </c>
       <c r="L29">
-        <v>4169.74</v>
+        <v>1802.06</v>
       </c>
       <c r="M29">
-        <v>4527.51</v>
+        <v>1946.17</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1910,40 +1886,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>40.96</v>
+        <v>24.1</v>
       </c>
       <c r="E30">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>92.47</v>
+        <v>63.37</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>310.6</v>
+        <v>1488.3</v>
       </c>
       <c r="L30">
-        <v>290.08</v>
+        <v>1452.93</v>
       </c>
       <c r="M30">
-        <v>351.64</v>
+        <v>1559.04</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -1954,22 +1930,22 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>52.17</v>
+        <v>20.48</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>52.17</v>
+        <v>61.99</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1978,16 +1954,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>1480.5</v>
+        <v>16764</v>
       </c>
       <c r="L31">
-        <v>1375.17</v>
+        <v>16084.29</v>
       </c>
       <c r="M31">
-        <v>1691.16</v>
+        <v>18123.43</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -1998,40 +1974,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>12.05</v>
+      </c>
+      <c r="E32">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="D32">
-        <v>38.92</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
       <c r="G32">
-        <v>52.17</v>
+        <v>60.24</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>31.91</v>
+        <v>520.95</v>
       </c>
       <c r="L32">
-        <v>30.85</v>
+        <v>507.11</v>
       </c>
       <c r="M32">
-        <v>34.03</v>
+        <v>548.63</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2042,40 +2018,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>26.51</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G33">
-        <v>61.99</v>
+        <v>21.69</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>16700</v>
+        <v>5049.1</v>
       </c>
       <c r="L33">
-        <v>16030.86</v>
+        <v>4903.61</v>
       </c>
       <c r="M33">
-        <v>18038.29</v>
+        <v>5340.08</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2086,482 +2062,42 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D34">
-        <v>22.89</v>
+        <v>4.82</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34">
-        <v>52.17</v>
+        <v>10.84</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>205.56</v>
+        <v>1708.5</v>
       </c>
       <c r="L34">
-        <v>195.95</v>
+        <v>1665.06</v>
       </c>
       <c r="M34">
-        <v>224.79</v>
+        <v>1795.38</v>
       </c>
       <c r="N34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35">
-        <v>15.66</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35">
-        <v>27.89</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>83</v>
-      </c>
-      <c r="K35">
-        <v>693.95</v>
-      </c>
-      <c r="L35">
-        <v>675.12</v>
-      </c>
-      <c r="M35">
-        <v>731.61</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36">
-        <v>14.46</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36">
-        <v>14.46</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36">
-        <v>978.2</v>
-      </c>
-      <c r="L36">
-        <v>963.75</v>
-      </c>
-      <c r="M36">
-        <v>1007.09</v>
-      </c>
-      <c r="N36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37">
-        <v>13.25</v>
-      </c>
-      <c r="E37">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37">
-        <v>65.06</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37">
-        <v>829.95</v>
-      </c>
-      <c r="L37">
-        <v>794.88</v>
-      </c>
-      <c r="M37">
-        <v>900.09</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38">
-        <v>12.05</v>
-      </c>
-      <c r="E38">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38">
-        <v>58.19</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38">
-        <v>3081.8</v>
-      </c>
-      <c r="L38">
-        <v>2919.86</v>
-      </c>
-      <c r="M38">
-        <v>3405.69</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39">
-        <v>10.84</v>
-      </c>
-      <c r="E39">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39">
-        <v>10.84</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>1709.4</v>
-      </c>
-      <c r="L39">
-        <v>1661.99</v>
-      </c>
-      <c r="M39">
-        <v>1804.22</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E40">
-        <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40">
-        <v>21.69</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>5011.6</v>
-      </c>
-      <c r="L40">
-        <v>4892.53</v>
-      </c>
-      <c r="M40">
-        <v>5249.74</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41">
-        <v>7.23</v>
-      </c>
-      <c r="E41">
-        <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41">
-        <v>39.76</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>289.7</v>
-      </c>
-      <c r="L41">
-        <v>272.79</v>
-      </c>
-      <c r="M41">
-        <v>323.51</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42">
-        <v>6.02</v>
-      </c>
-      <c r="E42">
-        <v>53</v>
-      </c>
-      <c r="F42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42">
-        <v>31.33</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42">
-        <v>1176.1</v>
-      </c>
-      <c r="L42">
-        <v>1111.99</v>
-      </c>
-      <c r="M42">
-        <v>1304.32</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43">
-        <v>4.82</v>
-      </c>
-      <c r="E43">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43">
-        <v>31.33</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>7459.5</v>
-      </c>
-      <c r="L43">
-        <v>7261.05</v>
-      </c>
-      <c r="M43">
-        <v>7856.41</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44">
-        <v>4.82</v>
-      </c>
-      <c r="E44">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44">
-        <v>41.14</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44">
-        <v>455.5</v>
-      </c>
-      <c r="L44">
-        <v>448.71</v>
-      </c>
-      <c r="M44">
-        <v>469.08</v>
-      </c>
-      <c r="N44">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,103 +58,145 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>GLAND</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>PPLPHARMA</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
     <t>PAYTM</t>
   </si>
   <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>TI</t>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
   </si>
   <si>
     <t>ETERNAL</t>
   </si>
   <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
   </si>
   <si>
     <t>AGI</t>
   </si>
   <si>
-    <t>KIMS</t>
-  </si>
-  <si>
-    <t>3MINDIA</t>
-  </si>
-  <si>
     <t>UPL</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>MEDANTA</t>
+    <t>SUMICHEM</t>
   </si>
   <si>
     <t>NUVOCO</t>
   </si>
   <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
     <t>JINDALSTEL</t>
   </si>
   <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
+    <t>APARINDS</t>
   </si>
   <si>
     <t>JAGSNPHARM</t>
   </si>
   <si>
+    <t>JBCHEPHARM</t>
+  </si>
+  <si>
     <t>VIJAYA</t>
   </si>
   <si>
-    <t>STLTECH</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>SBILIFE</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
   </si>
   <si>
     <t>DIXON</t>
   </si>
   <si>
-    <t>DABUR</t>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>BIRLACORPN</t>
+  </si>
+  <si>
+    <t>INDIGOPNTS</t>
   </si>
   <si>
     <t>ALKEM</t>
   </si>
   <si>
-    <t>JBCHEPHARM</t>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>DRREDDY</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>ZYDUSLIFE</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -163,12 +205,12 @@
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
@@ -181,58 +223,58 @@
     <t>Consumer Defensive</t>
   </si>
   <si>
-    <t>G_Pattern</t>
-  </si>
-  <si>
     <t>Building_G</t>
   </si>
   <si>
+    <t>H2_Momentum_Start</t>
+  </si>
+  <si>
+    <t>Power_H2_Volume</t>
+  </si>
+  <si>
     <t>KC_Breakout_Watch</t>
   </si>
   <si>
     <t>Early_Setup</t>
   </si>
   <si>
-    <t>H2_Momentum_Start</t>
-  </si>
-  <si>
-    <t>KC_Multi_H2</t>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
   </si>
   <si>
     <t>2025-07-11</t>
   </si>
   <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
     <t>2025-07-08</t>
   </si>
   <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
     <t>2025-07-21</t>
   </si>
   <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
+  </si>
+  <si>
+    <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
   </si>
   <si>
     <t>HOLD AND MONITOR - PATTERN MATURE</t>
@@ -599,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,40 +696,40 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>67.47</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>1094.7</v>
+        <v>3760.4</v>
       </c>
       <c r="L2">
-        <v>1017.73</v>
+        <v>3618.31</v>
       </c>
       <c r="M2">
-        <v>1248.64</v>
+        <v>4044.57</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -698,19 +740,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>53.01</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -722,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>1571.3</v>
+        <v>1575.7</v>
       </c>
       <c r="L3">
-        <v>1518.07</v>
+        <v>1522</v>
       </c>
       <c r="M3">
-        <v>1677.76</v>
+        <v>1683.1</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -742,40 +784,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>37.35</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K4">
-        <v>509.2</v>
+        <v>909.65</v>
       </c>
       <c r="L4">
-        <v>455.4</v>
+        <v>864.53</v>
       </c>
       <c r="M4">
-        <v>616.8</v>
+        <v>999.89</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -786,40 +828,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>37.35</v>
+        <v>66.81</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G5">
-        <v>92.47</v>
+        <v>86.45</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K5">
-        <v>307.75</v>
+        <v>2086.8</v>
       </c>
       <c r="L5">
-        <v>287.26</v>
+        <v>1959.29</v>
       </c>
       <c r="M5">
-        <v>348.72</v>
+        <v>2341.83</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -830,40 +872,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>37.35</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G6">
-        <v>90.06</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>1445</v>
+        <v>39805</v>
       </c>
       <c r="L6">
-        <v>1323.39</v>
+        <v>37945.71</v>
       </c>
       <c r="M6">
-        <v>1688.23</v>
+        <v>43523.57</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -874,40 +916,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>34.94</v>
+        <v>50.96</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>82.83</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>847.35</v>
+        <v>7789</v>
       </c>
       <c r="L7">
-        <v>806.39</v>
+        <v>7255.81</v>
       </c>
       <c r="M7">
-        <v>929.26</v>
+        <v>8855.379999999999</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -918,40 +960,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>33.73</v>
+        <v>38.92</v>
       </c>
       <c r="E8">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>960</v>
+        <v>205.98</v>
       </c>
       <c r="L8">
-        <v>911</v>
+        <v>202.31</v>
       </c>
       <c r="M8">
-        <v>1058</v>
+        <v>213.31</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -962,19 +1004,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>32.53</v>
+        <v>38.55</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -983,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K9">
-        <v>746</v>
+        <v>507</v>
       </c>
       <c r="L9">
-        <v>681.3200000000001</v>
+        <v>483.79</v>
       </c>
       <c r="M9">
-        <v>875.36</v>
+        <v>553.4299999999999</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1006,19 +1048,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>31.33</v>
+        <v>37.35</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -1030,16 +1072,16 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>954.65</v>
+        <v>512.8</v>
       </c>
       <c r="L10">
-        <v>867.34</v>
+        <v>456.33</v>
       </c>
       <c r="M10">
-        <v>1129.28</v>
+        <v>625.74</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1050,40 +1092,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>28.92</v>
+        <v>37.35</v>
       </c>
       <c r="E11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>87.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>771.55</v>
+        <v>1070.05</v>
       </c>
       <c r="L11">
-        <v>727.09</v>
+        <v>990.41</v>
       </c>
       <c r="M11">
-        <v>860.46</v>
+        <v>1229.34</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1094,40 +1136,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>25.3</v>
+        <v>37.35</v>
       </c>
       <c r="E12">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G12">
-        <v>92.47</v>
+        <v>82.83</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>31245</v>
+        <v>851.4</v>
       </c>
       <c r="L12">
-        <v>29876.41</v>
+        <v>810.89</v>
       </c>
       <c r="M12">
-        <v>33982.18</v>
+        <v>932.41</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1138,40 +1180,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>25.3</v>
+        <v>36.14</v>
       </c>
       <c r="E13">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>85.23999999999999</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>728.8</v>
+        <v>999</v>
       </c>
       <c r="L13">
-        <v>696.79</v>
+        <v>946.11</v>
       </c>
       <c r="M13">
-        <v>792.83</v>
+        <v>1104.77</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1182,40 +1224,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>22.89</v>
+        <v>36.14</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>96.08</v>
+        <v>77.83</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>2655</v>
+        <v>128.23</v>
       </c>
       <c r="L14">
-        <v>2440.3</v>
+        <v>114.48</v>
       </c>
       <c r="M14">
-        <v>3084.4</v>
+        <v>155.74</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1226,40 +1268,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>16.87</v>
+        <v>34.94</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K15">
-        <v>691</v>
+        <v>972</v>
       </c>
       <c r="L15">
-        <v>652.6799999999999</v>
+        <v>919.59</v>
       </c>
       <c r="M15">
-        <v>767.64</v>
+        <v>1076.81</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1270,40 +1312,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>16.87</v>
+        <v>32.53</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G16">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>2055.2</v>
+        <v>709.55</v>
       </c>
       <c r="L16">
-        <v>1931.4</v>
+        <v>669.36</v>
       </c>
       <c r="M16">
-        <v>2302.8</v>
+        <v>789.92</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1314,40 +1356,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>31.33</v>
+      </c>
+      <c r="E17">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>15.66</v>
-      </c>
-      <c r="E17">
-        <v>55</v>
-      </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>90.06</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>1359.1</v>
+        <v>1434.3</v>
       </c>
       <c r="L17">
-        <v>1279.46</v>
+        <v>1307.5</v>
       </c>
       <c r="M17">
-        <v>1518.39</v>
+        <v>1687.9</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1358,22 +1400,22 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>14.46</v>
+        <v>31.33</v>
       </c>
       <c r="E18">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G18">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1382,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>411.1</v>
+        <v>747.5</v>
       </c>
       <c r="L18">
-        <v>382.74</v>
+        <v>687.65</v>
       </c>
       <c r="M18">
-        <v>467.81</v>
+        <v>867.2</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1402,40 +1444,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>13.25</v>
+        <v>24.1</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>978.75</v>
+        <v>305.5</v>
       </c>
       <c r="L19">
-        <v>951.05</v>
+        <v>284.46</v>
       </c>
       <c r="M19">
-        <v>1034.15</v>
+        <v>347.59</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1446,40 +1488,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>13.25</v>
+        <v>22.89</v>
       </c>
       <c r="E20">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>96.08</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>612.7</v>
+        <v>2677.7</v>
       </c>
       <c r="L20">
-        <v>593.13</v>
+        <v>2460.51</v>
       </c>
       <c r="M20">
-        <v>651.84</v>
+        <v>3112.07</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1490,19 +1532,19 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>10.84</v>
+        <v>22.89</v>
       </c>
       <c r="E21">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -1514,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K21">
-        <v>487.05</v>
+        <v>5630.5</v>
       </c>
       <c r="L21">
-        <v>470.77</v>
+        <v>5396.07</v>
       </c>
       <c r="M21">
-        <v>519.62</v>
+        <v>6099.36</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1534,19 +1576,19 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>20.48</v>
+      </c>
+      <c r="E22">
         <v>58</v>
       </c>
-      <c r="D22">
-        <v>7.23</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1555,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>5559</v>
+        <v>960</v>
       </c>
       <c r="L22">
-        <v>5332.5</v>
+        <v>872.34</v>
       </c>
       <c r="M22">
-        <v>6012</v>
+        <v>1135.33</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1578,40 +1620,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D23">
-        <v>7.23</v>
+        <v>19.28</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K23">
-        <v>38250</v>
+        <v>725.8</v>
       </c>
       <c r="L23">
-        <v>36624.29</v>
+        <v>693.4400000000001</v>
       </c>
       <c r="M23">
-        <v>41501.43</v>
+        <v>790.51</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1622,40 +1664,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>15.66</v>
+      </c>
+      <c r="E24">
         <v>57</v>
       </c>
-      <c r="D24">
-        <v>48.19</v>
-      </c>
-      <c r="E24">
-        <v>38</v>
-      </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G24">
-        <v>68.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>293.4</v>
+        <v>606.5</v>
       </c>
       <c r="L24">
-        <v>261.03</v>
+        <v>568.04</v>
       </c>
       <c r="M24">
-        <v>358.14</v>
+        <v>683.41</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1666,40 +1708,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>45.78</v>
+        <v>14.46</v>
       </c>
       <c r="E25">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G25">
-        <v>45.78</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>1150.3</v>
+        <v>414.55</v>
       </c>
       <c r="L25">
-        <v>1064.79</v>
+        <v>383.2</v>
       </c>
       <c r="M25">
-        <v>1321.31</v>
+        <v>477.25</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1710,40 +1752,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>43.37</v>
+        <v>14.46</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G26">
-        <v>77.83</v>
+        <v>91.27</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>127.2</v>
+        <v>2408.2</v>
       </c>
       <c r="L26">
-        <v>114.14</v>
+        <v>2355.82</v>
       </c>
       <c r="M26">
-        <v>153.32</v>
+        <v>2512.96</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1754,40 +1796,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>43.37</v>
+        <v>14.46</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G27">
-        <v>65.06</v>
+        <v>70.42</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K27">
-        <v>889.6</v>
+        <v>1190.5</v>
       </c>
       <c r="L27">
-        <v>846.6799999999999</v>
+        <v>1121.95</v>
       </c>
       <c r="M27">
-        <v>975.4400000000001</v>
+        <v>1327.61</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1798,40 +1840,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>40.3</v>
+        <v>13.25</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G28">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>3622</v>
+        <v>984.6</v>
       </c>
       <c r="L28">
-        <v>3495.7</v>
+        <v>953.59</v>
       </c>
       <c r="M28">
-        <v>3874.6</v>
+        <v>1046.62</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1842,40 +1884,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D29">
-        <v>31.33</v>
+        <v>12.05</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G29">
-        <v>31.33</v>
+        <v>100</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>1850.1</v>
+        <v>397.15</v>
       </c>
       <c r="L29">
-        <v>1802.06</v>
+        <v>379.05</v>
       </c>
       <c r="M29">
-        <v>1946.17</v>
+        <v>433.36</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1886,40 +1928,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>24.1</v>
+        <v>12.05</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G30">
-        <v>63.37</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K30">
-        <v>1488.3</v>
+        <v>2825</v>
       </c>
       <c r="L30">
-        <v>1452.93</v>
+        <v>2676.41</v>
       </c>
       <c r="M30">
-        <v>1559.04</v>
+        <v>3122.19</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -1930,40 +1972,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>20.48</v>
+        <v>7.23</v>
       </c>
       <c r="E31">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G31">
-        <v>61.99</v>
+        <v>100</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>16764</v>
+        <v>609</v>
       </c>
       <c r="L31">
-        <v>16084.29</v>
+        <v>593.84</v>
       </c>
       <c r="M31">
-        <v>18123.43</v>
+        <v>639.3200000000001</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -1974,40 +2016,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>12.05</v>
+        <v>42.17</v>
       </c>
       <c r="E32">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G32">
-        <v>60.24</v>
+        <v>44.58</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>520.95</v>
+        <v>9751.5</v>
       </c>
       <c r="L32">
-        <v>507.11</v>
+        <v>9033.57</v>
       </c>
       <c r="M32">
-        <v>548.63</v>
+        <v>11187.36</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2018,40 +2060,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D33">
-        <v>9.640000000000001</v>
+        <v>34.94</v>
       </c>
       <c r="E33">
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G33">
-        <v>21.69</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>5049.1</v>
+        <v>285.27</v>
       </c>
       <c r="L33">
-        <v>4903.61</v>
+        <v>250.89</v>
       </c>
       <c r="M33">
-        <v>5340.08</v>
+        <v>354.03</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2062,42 +2104,658 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>33.73</v>
+      </c>
+      <c r="E34">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34">
+        <v>33.73</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34">
+        <v>1797</v>
+      </c>
+      <c r="L34">
+        <v>1731.7</v>
+      </c>
+      <c r="M34">
+        <v>1927.6</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>31.33</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>45.78</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35">
+        <v>1125.35</v>
+      </c>
+      <c r="L35">
+        <v>1040.88</v>
+      </c>
+      <c r="M35">
+        <v>1294.29</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>26.69</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36">
+        <v>33.92</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36">
+        <v>1711.9</v>
+      </c>
+      <c r="L36">
+        <v>1678.83</v>
+      </c>
+      <c r="M36">
+        <v>1778.03</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>25.3</v>
+      </c>
+      <c r="E37">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>31.33</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>1212.1</v>
+      </c>
+      <c r="L37">
+        <v>1142.59</v>
+      </c>
+      <c r="M37">
+        <v>1351.13</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>24.1</v>
+      </c>
+      <c r="E38">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38">
+        <v>61.99</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38">
+        <v>16774</v>
+      </c>
+      <c r="L38">
+        <v>16117.29</v>
+      </c>
+      <c r="M38">
+        <v>18087.43</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <v>22.89</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>22.89</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39">
+        <v>2493</v>
+      </c>
+      <c r="L39">
+        <v>2339.77</v>
+      </c>
+      <c r="M39">
+        <v>2799.46</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>21.69</v>
+      </c>
+      <c r="E40">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>43.37</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40">
+        <v>1509.2</v>
+      </c>
+      <c r="L40">
+        <v>1419.43</v>
+      </c>
+      <c r="M40">
+        <v>1688.74</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <v>16.87</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41">
+        <v>16.87</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>1207.6</v>
+      </c>
+      <c r="L41">
+        <v>1168.18</v>
+      </c>
+      <c r="M41">
+        <v>1286.44</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>14.46</v>
+      </c>
+      <c r="E42">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42">
+        <v>21.69</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>5081.9</v>
+      </c>
+      <c r="L42">
+        <v>4916.12</v>
+      </c>
+      <c r="M42">
+        <v>5413.45</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>13.25</v>
+      </c>
+      <c r="E43">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43">
+        <v>63.86</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43">
+        <v>2451.8</v>
+      </c>
+      <c r="L43">
+        <v>2414.24</v>
+      </c>
+      <c r="M43">
+        <v>2526.92</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44">
+        <v>10.84</v>
+      </c>
+      <c r="E44">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44">
+        <v>15.66</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44">
+        <v>3485.8</v>
+      </c>
+      <c r="L44">
+        <v>3356.66</v>
+      </c>
+      <c r="M44">
+        <v>3744.09</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <v>10.84</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45">
+        <v>19.28</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45">
+        <v>1295.4</v>
+      </c>
+      <c r="L45">
+        <v>1263.72</v>
+      </c>
+      <c r="M45">
+        <v>1358.76</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="D34">
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46">
+        <v>31.33</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46">
+        <v>7459</v>
+      </c>
+      <c r="L46">
+        <v>7272.64</v>
+      </c>
+      <c r="M46">
+        <v>7831.71</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47">
+        <v>4245.4</v>
+      </c>
+      <c r="L47">
+        <v>4070.26</v>
+      </c>
+      <c r="M47">
+        <v>4595.68</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48">
         <v>4.82</v>
       </c>
-      <c r="E34">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34">
-        <v>10.84</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34">
-        <v>1708.5</v>
-      </c>
-      <c r="L34">
-        <v>1665.06</v>
-      </c>
-      <c r="M34">
-        <v>1795.38</v>
-      </c>
-      <c r="N34">
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48">
+        <v>14.46</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48">
+        <v>996</v>
+      </c>
+      <c r="L48">
+        <v>967.0599999999999</v>
+      </c>
+      <c r="M48">
+        <v>1053.88</v>
+      </c>
+      <c r="N48">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,154 +58,205 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
     <t>TORNTPHARM</t>
   </si>
   <si>
     <t>CIPLA</t>
   </si>
   <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
     <t>LAURUSLABS</t>
   </si>
   <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
     <t>GLAND</t>
   </si>
   <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>PPLPHARMA</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>PAYTM</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>STLTECH</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
     <t>ANANDRATHI</t>
   </si>
   <si>
-    <t>HDFCAMC</t>
+    <t>PATANJALI</t>
+  </si>
+  <si>
+    <t>JGCHEM</t>
   </si>
   <si>
     <t>AGI</t>
   </si>
   <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
     <t>NUVOCO</t>
   </si>
   <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
+    <t>PCBL</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>VIPIND</t>
+  </si>
+  <si>
+    <t>METROPOLIS</t>
   </si>
   <si>
     <t>JINDALSTEL</t>
   </si>
   <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
+    <t>NMDC</t>
   </si>
   <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
+    <t>STARHEALTH</t>
+  </si>
+  <si>
+    <t>GODFRYPHLP</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>POWERINDIA</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
     <t>APARINDS</t>
   </si>
   <si>
-    <t>JAGSNPHARM</t>
-  </si>
-  <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>VIJAYA</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>EIDPARRY</t>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
+    <t>NIACL</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
+  </si>
+  <si>
+    <t>EICHERMOT</t>
+  </si>
+  <si>
+    <t>GPIL</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>ERIS</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>DMART</t>
   </si>
   <si>
     <t>DIXON</t>
   </si>
   <si>
-    <t>COROMANDEL</t>
-  </si>
-  <si>
-    <t>BIRLACORPN</t>
-  </si>
-  <si>
-    <t>INDIGOPNTS</t>
-  </si>
-  <si>
-    <t>ALKEM</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>PIIND</t>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>CESC</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR</t>
   </si>
   <si>
     <t>ZYDUSLIFE</t>
   </si>
   <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Consumer Cyclical</t>
+    <t>Basic Materials</t>
   </si>
   <si>
     <t>Industrials</t>
@@ -214,13 +265,13 @@
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Basic Materials</t>
+    <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Consumer Defensive</t>
+    <t>Utilities</t>
   </si>
   <si>
     <t>Building_G</t>
@@ -238,37 +289,43 @@
     <t>Early_Setup</t>
   </si>
   <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
   </si>
   <si>
     <t>2025-07-25</t>
   </si>
   <si>
-    <t>2025-07-07</t>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-07-16</t>
   </si>
   <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
     <t>2025-07-11</t>
   </si>
   <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
+    <t>2025-07-09</t>
   </si>
   <si>
     <t>2025-07-21</t>
   </si>
   <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
@@ -641,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,19 +753,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>97.11</v>
       </c>
       <c r="E2">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -720,16 +777,16 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K2">
-        <v>3760.4</v>
+        <v>40395</v>
       </c>
       <c r="L2">
-        <v>3618.31</v>
+        <v>38442.86</v>
       </c>
       <c r="M2">
-        <v>4044.57</v>
+        <v>44299.29</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -740,40 +797,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>53.01</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K3">
-        <v>1575.7</v>
+        <v>8012.5</v>
       </c>
       <c r="L3">
-        <v>1522</v>
+        <v>7452.29</v>
       </c>
       <c r="M3">
-        <v>1683.1</v>
+        <v>9132.93</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -784,40 +841,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>68.01000000000001</v>
+        <v>54.22</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G4">
-        <v>68.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K4">
-        <v>909.65</v>
+        <v>3739</v>
       </c>
       <c r="L4">
-        <v>864.53</v>
+        <v>3593.57</v>
       </c>
       <c r="M4">
-        <v>999.89</v>
+        <v>4029.86</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -828,40 +885,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>66.81</v>
+        <v>49.4</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K5">
-        <v>2086.8</v>
+        <v>1560.2</v>
       </c>
       <c r="L5">
-        <v>1959.29</v>
+        <v>1507.49</v>
       </c>
       <c r="M5">
-        <v>2341.83</v>
+        <v>1665.63</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -872,19 +929,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>64.40000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E6">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -893,19 +950,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="K6">
-        <v>39805</v>
+        <v>722.55</v>
       </c>
       <c r="L6">
-        <v>37945.71</v>
+        <v>680.96</v>
       </c>
       <c r="M6">
-        <v>43523.57</v>
+        <v>805.74</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -916,40 +973,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>50.96</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G7">
-        <v>79.04000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K7">
-        <v>7789</v>
+        <v>2612.6</v>
       </c>
       <c r="L7">
-        <v>7255.81</v>
+        <v>2446.41</v>
       </c>
       <c r="M7">
-        <v>8855.379999999999</v>
+        <v>2944.97</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -960,40 +1017,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>38.92</v>
+        <v>55.96</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G8">
-        <v>82.65000000000001</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>205.98</v>
+        <v>1006.1</v>
       </c>
       <c r="L8">
-        <v>202.31</v>
+        <v>950.14</v>
       </c>
       <c r="M8">
-        <v>213.31</v>
+        <v>1118.01</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1004,40 +1061,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>38.55</v>
+        <v>53.55</v>
       </c>
       <c r="E9">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>53.55</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K9">
-        <v>507</v>
+        <v>1227.4</v>
       </c>
       <c r="L9">
-        <v>483.79</v>
+        <v>1158.96</v>
       </c>
       <c r="M9">
-        <v>553.4299999999999</v>
+        <v>1364.29</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1048,40 +1105,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>37.35</v>
+        <v>94.88</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K10">
-        <v>512.8</v>
+        <v>638.5</v>
       </c>
       <c r="L10">
-        <v>456.33</v>
+        <v>596.04</v>
       </c>
       <c r="M10">
-        <v>625.74</v>
+        <v>723.4299999999999</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1092,40 +1149,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>37.35</v>
+        <v>94.88</v>
       </c>
       <c r="E11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>1070.05</v>
+        <v>6796</v>
       </c>
       <c r="L11">
-        <v>990.41</v>
+        <v>6325.43</v>
       </c>
       <c r="M11">
-        <v>1229.34</v>
+        <v>7737.14</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1136,22 +1193,22 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>37.35</v>
+        <v>92.47</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G12">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1160,16 +1217,16 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>851.4</v>
+        <v>521.35</v>
       </c>
       <c r="L12">
-        <v>810.89</v>
+        <v>495.26</v>
       </c>
       <c r="M12">
-        <v>932.41</v>
+        <v>573.54</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1180,40 +1237,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>36.14</v>
+        <v>91.27</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G13">
-        <v>75.23999999999999</v>
+        <v>91.27</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K13">
-        <v>999</v>
+        <v>73.09</v>
       </c>
       <c r="L13">
-        <v>946.11</v>
+        <v>68.45</v>
       </c>
       <c r="M13">
-        <v>1104.77</v>
+        <v>82.38</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1224,40 +1281,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>36.14</v>
+        <v>38.55</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>77.83</v>
+        <v>89.88</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K14">
-        <v>128.23</v>
+        <v>887.75</v>
       </c>
       <c r="L14">
-        <v>114.48</v>
+        <v>839.9400000000001</v>
       </c>
       <c r="M14">
-        <v>155.74</v>
+        <v>983.38</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1268,19 +1325,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D15">
-        <v>34.94</v>
+        <v>37.35</v>
       </c>
       <c r="E15">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1289,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K15">
-        <v>972</v>
+        <v>986.45</v>
       </c>
       <c r="L15">
-        <v>919.59</v>
+        <v>930.16</v>
       </c>
       <c r="M15">
-        <v>1076.81</v>
+        <v>1099.04</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1312,19 +1369,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>32.53</v>
+        <v>31.33</v>
       </c>
       <c r="E16">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -1333,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>709.55</v>
+        <v>753.2</v>
       </c>
       <c r="L16">
-        <v>669.36</v>
+        <v>695.8099999999999</v>
       </c>
       <c r="M16">
-        <v>789.92</v>
+        <v>867.99</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1356,40 +1413,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>30.12</v>
+      </c>
+      <c r="E17">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>31.33</v>
-      </c>
-      <c r="E17">
-        <v>48</v>
-      </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G17">
-        <v>90.06</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K17">
-        <v>1434.3</v>
+        <v>494</v>
       </c>
       <c r="L17">
-        <v>1307.5</v>
+        <v>433.16</v>
       </c>
       <c r="M17">
-        <v>1687.9</v>
+        <v>615.6900000000001</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1400,40 +1457,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D18">
-        <v>31.33</v>
+        <v>24.1</v>
       </c>
       <c r="E18">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>747.5</v>
+        <v>306.8</v>
       </c>
       <c r="L18">
-        <v>687.65</v>
+        <v>285.73</v>
       </c>
       <c r="M18">
-        <v>867.2</v>
+        <v>348.94</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1444,40 +1501,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>24.1</v>
+        <v>21.69</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G19">
-        <v>92.47</v>
+        <v>82.83</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K19">
-        <v>305.5</v>
+        <v>837.6</v>
       </c>
       <c r="L19">
-        <v>284.46</v>
+        <v>802.6</v>
       </c>
       <c r="M19">
-        <v>347.59</v>
+        <v>907.61</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1488,40 +1545,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>22.89</v>
+        <v>20.48</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G20">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K20">
-        <v>2677.7</v>
+        <v>5661.5</v>
       </c>
       <c r="L20">
-        <v>2460.51</v>
+        <v>5426.36</v>
       </c>
       <c r="M20">
-        <v>3112.07</v>
+        <v>6131.79</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1532,40 +1589,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D21">
-        <v>22.89</v>
+        <v>19.28</v>
       </c>
       <c r="E21">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K21">
-        <v>5630.5</v>
+        <v>721.95</v>
       </c>
       <c r="L21">
-        <v>5396.07</v>
+        <v>690.23</v>
       </c>
       <c r="M21">
-        <v>6099.36</v>
+        <v>785.39</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1576,40 +1633,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E22">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K22">
-        <v>960</v>
+        <v>2065.3</v>
       </c>
       <c r="L22">
-        <v>872.34</v>
+        <v>1929.87</v>
       </c>
       <c r="M22">
-        <v>1135.33</v>
+        <v>2336.16</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1620,40 +1677,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>19.28</v>
+        <v>16.87</v>
       </c>
       <c r="E23">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>85.23999999999999</v>
+        <v>96.08</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>725.8</v>
+        <v>2686.4</v>
       </c>
       <c r="L23">
-        <v>693.4400000000001</v>
+        <v>2464.09</v>
       </c>
       <c r="M23">
-        <v>790.51</v>
+        <v>3131.03</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1664,19 +1721,19 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D24">
-        <v>15.66</v>
+        <v>14.46</v>
       </c>
       <c r="E24">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G24">
         <v>100</v>
@@ -1688,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K24">
-        <v>606.5</v>
+        <v>1902</v>
       </c>
       <c r="L24">
-        <v>568.04</v>
+        <v>1797.45</v>
       </c>
       <c r="M24">
-        <v>683.41</v>
+        <v>2111.1</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1708,40 +1765,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>14.46</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G25">
-        <v>84.04000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K25">
-        <v>414.55</v>
+        <v>501.8</v>
       </c>
       <c r="L25">
-        <v>383.2</v>
+        <v>468.74</v>
       </c>
       <c r="M25">
-        <v>477.25</v>
+        <v>567.9299999999999</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1752,40 +1809,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>14.46</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G26">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K26">
-        <v>2408.2</v>
+        <v>962.75</v>
       </c>
       <c r="L26">
-        <v>2355.82</v>
+        <v>875.5700000000001</v>
       </c>
       <c r="M26">
-        <v>2512.96</v>
+        <v>1137.11</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1796,22 +1853,22 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>14.46</v>
       </c>
       <c r="E27">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G27">
-        <v>70.42</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1820,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K27">
-        <v>1190.5</v>
+        <v>418.55</v>
       </c>
       <c r="L27">
-        <v>1121.95</v>
+        <v>387.16</v>
       </c>
       <c r="M27">
-        <v>1327.61</v>
+        <v>481.32</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1840,43 +1897,43 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>13.25</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>70.78</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K28">
-        <v>984.6</v>
+        <v>394.2</v>
       </c>
       <c r="L28">
-        <v>953.59</v>
+        <v>399.29</v>
       </c>
       <c r="M28">
-        <v>1046.62</v>
+        <v>384.01</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1884,40 +1941,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>12.05</v>
+        <v>13.25</v>
       </c>
       <c r="E29">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K29">
-        <v>397.15</v>
+        <v>370.35</v>
       </c>
       <c r="L29">
-        <v>379.05</v>
+        <v>354.18</v>
       </c>
       <c r="M29">
-        <v>433.36</v>
+        <v>402.69</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1928,40 +1985,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D30">
-        <v>12.05</v>
+        <v>13.25</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>93.48999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K30">
-        <v>2825</v>
+        <v>464.45</v>
       </c>
       <c r="L30">
-        <v>2676.41</v>
+        <v>440.62</v>
       </c>
       <c r="M30">
-        <v>3122.19</v>
+        <v>512.12</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -1972,40 +2029,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D31">
-        <v>7.23</v>
+        <v>12.05</v>
       </c>
       <c r="E31">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="K31">
-        <v>609</v>
+        <v>2020.5</v>
       </c>
       <c r="L31">
-        <v>593.84</v>
+        <v>1890.26</v>
       </c>
       <c r="M31">
-        <v>639.3200000000001</v>
+        <v>2280.98</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2016,40 +2073,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>42.17</v>
+        <v>10.84</v>
       </c>
       <c r="E32">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="G32">
-        <v>44.58</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K32">
-        <v>9751.5</v>
+        <v>981.75</v>
       </c>
       <c r="L32">
-        <v>9033.57</v>
+        <v>955.4</v>
       </c>
       <c r="M32">
-        <v>11187.36</v>
+        <v>1034.46</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2060,40 +2117,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D33">
-        <v>34.94</v>
+        <v>8.43</v>
       </c>
       <c r="E33">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G33">
-        <v>68.01000000000001</v>
+        <v>81.27</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K33">
-        <v>285.27</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="L33">
-        <v>250.89</v>
+        <v>70.03</v>
       </c>
       <c r="M33">
-        <v>354.03</v>
+        <v>75.91</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2104,40 +2161,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>33.73</v>
+        <v>7.23</v>
       </c>
       <c r="E34">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G34">
-        <v>33.73</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K34">
-        <v>1797</v>
+        <v>617.75</v>
       </c>
       <c r="L34">
-        <v>1731.7</v>
+        <v>597.6900000000001</v>
       </c>
       <c r="M34">
-        <v>1927.6</v>
+        <v>657.86</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2148,40 +2205,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>31.33</v>
+        <v>44.94</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G35">
-        <v>45.78</v>
+        <v>44.94</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K35">
-        <v>1125.35</v>
+        <v>445.5</v>
       </c>
       <c r="L35">
-        <v>1040.88</v>
+        <v>426.18</v>
       </c>
       <c r="M35">
-        <v>1294.29</v>
+        <v>484.15</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2192,40 +2249,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D36">
-        <v>26.69</v>
+        <v>40.12</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G36">
-        <v>33.92</v>
+        <v>90.06</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K36">
-        <v>1711.9</v>
+        <v>9434.5</v>
       </c>
       <c r="L36">
-        <v>1678.83</v>
+        <v>8740.809999999999</v>
       </c>
       <c r="M36">
-        <v>1778.03</v>
+        <v>10821.89</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2236,40 +2293,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>25.3</v>
+        <v>91.27</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G37">
-        <v>31.33</v>
+        <v>91.27</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K37">
-        <v>1212.1</v>
+        <v>579.6</v>
       </c>
       <c r="L37">
-        <v>1142.59</v>
+        <v>540.95</v>
       </c>
       <c r="M37">
-        <v>1351.13</v>
+        <v>656.9</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2280,40 +2337,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>24.1</v>
+        <v>82.83</v>
       </c>
       <c r="E38">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G38">
-        <v>61.99</v>
+        <v>82.83</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K38">
-        <v>16774</v>
+        <v>3660.1</v>
       </c>
       <c r="L38">
-        <v>16117.29</v>
+        <v>3544.04</v>
       </c>
       <c r="M38">
-        <v>18087.43</v>
+        <v>3892.21</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2324,40 +2381,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D39">
-        <v>22.89</v>
+        <v>53.37</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G39">
-        <v>22.89</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>2493</v>
+        <v>20810</v>
       </c>
       <c r="L39">
-        <v>2339.77</v>
+        <v>19117.86</v>
       </c>
       <c r="M39">
-        <v>2799.46</v>
+        <v>24194.29</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2368,40 +2425,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>21.69</v>
+        <v>38.92</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G40">
-        <v>43.37</v>
+        <v>38.92</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K40">
-        <v>1509.2</v>
+        <v>485.55</v>
       </c>
       <c r="L40">
-        <v>1419.43</v>
+        <v>479.65</v>
       </c>
       <c r="M40">
-        <v>1688.74</v>
+        <v>497.35</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2412,40 +2469,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D41">
-        <v>16.87</v>
+        <v>38.55</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G41">
-        <v>16.87</v>
+        <v>38.55</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K41">
-        <v>1207.6</v>
+        <v>4319.4</v>
       </c>
       <c r="L41">
-        <v>1168.18</v>
+        <v>4129.06</v>
       </c>
       <c r="M41">
-        <v>1286.44</v>
+        <v>4700.09</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2456,40 +2513,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>14.46</v>
+        <v>35.3</v>
       </c>
       <c r="E42">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G42">
-        <v>21.69</v>
+        <v>35.3</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K42">
-        <v>5081.9</v>
+        <v>48515</v>
       </c>
       <c r="L42">
-        <v>4916.12</v>
+        <v>46848.16</v>
       </c>
       <c r="M42">
-        <v>5413.45</v>
+        <v>51848.67</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2500,40 +2557,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D43">
-        <v>13.25</v>
+        <v>34.1</v>
       </c>
       <c r="E43">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G43">
-        <v>63.86</v>
+        <v>34.1</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>2451.8</v>
+        <v>378.1</v>
       </c>
       <c r="L43">
-        <v>2414.24</v>
+        <v>368.79</v>
       </c>
       <c r="M43">
-        <v>2526.92</v>
+        <v>396.72</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2544,40 +2601,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>10.84</v>
+        <v>33.92</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G44">
-        <v>15.66</v>
+        <v>33.92</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K44">
-        <v>3485.8</v>
+        <v>1738.6</v>
       </c>
       <c r="L44">
-        <v>3356.66</v>
+        <v>1691.13</v>
       </c>
       <c r="M44">
-        <v>3744.09</v>
+        <v>1833.54</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2588,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>10.84</v>
+        <v>31.33</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>19.28</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K45">
-        <v>1295.4</v>
+        <v>9560</v>
       </c>
       <c r="L45">
-        <v>1263.72</v>
+        <v>8808.57</v>
       </c>
       <c r="M45">
-        <v>1358.76</v>
+        <v>11062.86</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2632,40 +2689,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D46">
-        <v>9.640000000000001</v>
+        <v>30.12</v>
       </c>
       <c r="E46">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G46">
-        <v>31.33</v>
+        <v>38.55</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K46">
-        <v>7459</v>
+        <v>1792.5</v>
       </c>
       <c r="L46">
-        <v>7272.64</v>
+        <v>1727.07</v>
       </c>
       <c r="M46">
-        <v>7831.71</v>
+        <v>1923.36</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2676,40 +2733,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>9.640000000000001</v>
+        <v>26.51</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G47">
-        <v>9.640000000000001</v>
+        <v>26.51</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K47">
-        <v>4245.4</v>
+        <v>418.6</v>
       </c>
       <c r="L47">
-        <v>4070.26</v>
+        <v>408.29</v>
       </c>
       <c r="M47">
-        <v>4595.68</v>
+        <v>439.22</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2720,42 +2777,746 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>25.3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48">
+        <v>25.3</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48">
+        <v>13350</v>
+      </c>
+      <c r="L48">
+        <v>13115.74</v>
+      </c>
+      <c r="M48">
+        <v>13818.52</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49">
+        <v>25.3</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49">
+        <v>25.3</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49">
+        <v>2817</v>
+      </c>
+      <c r="L49">
+        <v>2722.56</v>
+      </c>
+      <c r="M49">
+        <v>3005.88</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>22.89</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50">
+        <v>22.89</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50">
+        <v>191.46</v>
+      </c>
+      <c r="L50">
+        <v>181.22</v>
+      </c>
+      <c r="M50">
+        <v>211.94</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <v>19.28</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51">
+        <v>39.76</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51">
+        <v>530.2</v>
+      </c>
+      <c r="L51">
+        <v>512.74</v>
+      </c>
+      <c r="M51">
+        <v>565.13</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52">
+        <v>19.28</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52">
+        <v>19.28</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52">
+        <v>749.5</v>
+      </c>
+      <c r="L52">
+        <v>757.0599999999999</v>
+      </c>
+      <c r="M52">
+        <v>734.39</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>19.28</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53">
+        <v>19.28</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53">
+        <v>5527</v>
+      </c>
+      <c r="L53">
+        <v>5481.89</v>
+      </c>
+      <c r="M53">
+        <v>5617.21</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54">
+        <v>15.66</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54">
+        <v>26.51</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54">
+        <v>196.6</v>
+      </c>
+      <c r="L54">
+        <v>187.5</v>
+      </c>
+      <c r="M54">
+        <v>214.81</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>14.46</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55">
+        <v>14.46</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55">
+        <v>577.35</v>
+      </c>
+      <c r="L55">
+        <v>564.6</v>
+      </c>
+      <c r="M55">
+        <v>602.86</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56">
+        <v>14.46</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56">
+        <v>20.48</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56">
+        <v>3570.6</v>
+      </c>
+      <c r="L56">
+        <v>3477.36</v>
+      </c>
+      <c r="M56">
+        <v>3757.08</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>13.25</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57">
+        <v>13.25</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K57">
+        <v>1835</v>
+      </c>
+      <c r="L57">
+        <v>1731</v>
+      </c>
+      <c r="M57">
+        <v>2043.01</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58">
+        <v>12.05</v>
+      </c>
+      <c r="E58">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>58.19</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58">
+        <v>3098.5</v>
+      </c>
+      <c r="L58">
+        <v>2942.52</v>
+      </c>
+      <c r="M58">
+        <v>3410.46</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>12.05</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59">
+        <v>12.05</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59">
+        <v>4207.4</v>
+      </c>
+      <c r="L59">
+        <v>4045.1</v>
+      </c>
+      <c r="M59">
+        <v>4532</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60">
+        <v>12.05</v>
+      </c>
+      <c r="E60">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>61.99</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60">
+        <v>16789</v>
+      </c>
+      <c r="L60">
+        <v>16137.57</v>
+      </c>
+      <c r="M60">
+        <v>18091.86</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
         <v>73</v>
       </c>
-      <c r="D48">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E61">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61">
+        <v>60.24</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>108</v>
+      </c>
+      <c r="K61">
+        <v>522.3</v>
+      </c>
+      <c r="L61">
+        <v>508.85</v>
+      </c>
+      <c r="M61">
+        <v>549.2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62">
+        <v>8.43</v>
+      </c>
+      <c r="E62">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62">
+        <v>16.87</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62">
+        <v>178.66</v>
+      </c>
+      <c r="L62">
+        <v>174.62</v>
+      </c>
+      <c r="M62">
+        <v>186.73</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63">
         <v>4.82</v>
       </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E63">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63">
+        <v>39.76</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63">
+        <v>1334.8</v>
+      </c>
+      <c r="L63">
+        <v>1270.45</v>
+      </c>
+      <c r="M63">
+        <v>1463.49</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="G48">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64">
+        <v>4.82</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64">
         <v>14.46</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48">
-        <v>996</v>
-      </c>
-      <c r="L48">
-        <v>967.0599999999999</v>
-      </c>
-      <c r="M48">
-        <v>1053.88</v>
-      </c>
-      <c r="N48">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64">
+        <v>996.05</v>
+      </c>
+      <c r="L64">
+        <v>969.08</v>
+      </c>
+      <c r="M64">
+        <v>1049.98</v>
+      </c>
+      <c r="N64">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="117">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,61 +58,91 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>EIDPARRY</t>
+  </si>
+  <si>
+    <t>GSFC</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>POWERINDIA</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
     <t>BOSCHLTD</t>
   </si>
   <si>
-    <t>AMBER</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>COROMANDEL</t>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>OLECTRA</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
   </si>
   <si>
     <t>TATACHEM</t>
   </si>
   <si>
-    <t>EIDPARRY</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>GATEWAY</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>TI</t>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
   </si>
   <si>
     <t>ETERNAL</t>
   </si>
   <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
+    <t>PCBL</t>
   </si>
   <si>
     <t>UPL</t>
@@ -124,30 +154,21 @@
     <t>ANANDRATHI</t>
   </si>
   <si>
+    <t>JGCHEM</t>
+  </si>
+  <si>
     <t>PATANJALI</t>
   </si>
   <si>
-    <t>JGCHEM</t>
-  </si>
-  <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>EPACK</t>
-  </si>
-  <si>
     <t>VIPIND</t>
   </si>
   <si>
     <t>METROPOLIS</t>
   </si>
   <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
     <t>JINDALSTEL</t>
   </si>
   <si>
@@ -160,102 +181,105 @@
     <t>STARHEALTH</t>
   </si>
   <si>
+    <t>WELCORP</t>
+  </si>
+  <si>
+    <t>NIACL</t>
+  </si>
+  <si>
+    <t>CAPLIPOINT</t>
+  </si>
+  <si>
     <t>GODFRYPHLP</t>
   </si>
   <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>POWERINDIA</t>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>MPHASIS</t>
+  </si>
+  <si>
+    <t>PIIND</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>BSOFT</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>DMART</t>
   </si>
   <si>
     <t>DBL</t>
   </si>
   <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
     <t>APARINDS</t>
   </si>
   <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>NIACL</t>
+    <t>ABBOTINDIA</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>AARTIIND</t>
+  </si>
+  <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
   </si>
   <si>
     <t>HEG</t>
   </si>
   <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>EICHERMOT</t>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
+    <t>INDIGOPNTS</t>
+  </si>
+  <si>
+    <t>LALPATHLAB</t>
+  </si>
+  <si>
+    <t>DIXON</t>
   </si>
   <si>
     <t>GPIL</t>
   </si>
   <si>
-    <t>BERGEPAINT</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>ERIS</t>
-  </si>
-  <si>
-    <t>LALPATHLAB</t>
-  </si>
-  <si>
-    <t>DMART</t>
-  </si>
-  <si>
-    <t>DIXON</t>
+    <t>KALYANKJIL</t>
   </si>
   <si>
     <t>DABUR</t>
   </si>
   <si>
-    <t>CESC</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
     <t>ZYDUSLIFE</t>
   </si>
   <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
@@ -271,9 +295,6 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Building_G</t>
   </si>
   <si>
@@ -292,30 +313,36 @@
     <t>2025-07-07</t>
   </si>
   <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
     <t>2025-07-15</t>
   </si>
   <si>
-    <t>2025-07-25</t>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
   </si>
   <si>
     <t>2025-07-29</t>
   </si>
   <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
     <t>2025-07-08</t>
   </si>
   <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
     <t>2025-07-09</t>
   </si>
   <si>
@@ -323,9 +350,6 @@
   </si>
   <si>
     <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
@@ -698,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,19 +777,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>97.11</v>
+        <v>82.47</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -774,19 +798,19 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K2">
-        <v>40395</v>
+        <v>8022.5</v>
       </c>
       <c r="L2">
-        <v>38442.86</v>
+        <v>7451.93</v>
       </c>
       <c r="M2">
-        <v>44299.29</v>
+        <v>9163.639999999999</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -797,40 +821,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>64.04000000000001</v>
+        <v>49.4</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>79.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>8012.5</v>
+        <v>1559.9</v>
       </c>
       <c r="L3">
-        <v>7452.29</v>
+        <v>1506.06</v>
       </c>
       <c r="M3">
-        <v>9132.93</v>
+        <v>1667.59</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -841,19 +865,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>54.22</v>
+        <v>49.4</v>
       </c>
       <c r="E4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -865,16 +889,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>3739</v>
+        <v>3724.8</v>
       </c>
       <c r="L4">
-        <v>3593.57</v>
+        <v>3579.3</v>
       </c>
       <c r="M4">
-        <v>4029.86</v>
+        <v>4015.8</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -885,40 +909,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>49.4</v>
+        <v>60.78</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>60.78</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>1560.2</v>
+        <v>1235.3</v>
       </c>
       <c r="L5">
-        <v>1507.49</v>
+        <v>1165.57</v>
       </c>
       <c r="M5">
-        <v>1665.63</v>
+        <v>1374.76</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -929,40 +953,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>68.01000000000001</v>
+        <v>53.37</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>53.37</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K6">
-        <v>722.55</v>
+        <v>207.6</v>
       </c>
       <c r="L6">
-        <v>680.96</v>
+        <v>200.89</v>
       </c>
       <c r="M6">
-        <v>805.74</v>
+        <v>221.02</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -973,40 +997,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>68.01000000000001</v>
+        <v>94.88</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G7">
-        <v>68.01000000000001</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>2612.6</v>
+        <v>649.6</v>
       </c>
       <c r="L7">
-        <v>2446.41</v>
+        <v>606.42</v>
       </c>
       <c r="M7">
-        <v>2944.97</v>
+        <v>735.96</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1017,22 +1041,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>55.96</v>
+        <v>92.47</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G8">
-        <v>75.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1041,16 +1065,16 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K8">
-        <v>1006.1</v>
+        <v>6740</v>
       </c>
       <c r="L8">
-        <v>950.14</v>
+        <v>6269.43</v>
       </c>
       <c r="M8">
-        <v>1118.01</v>
+        <v>7681.14</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1061,40 +1085,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>53.55</v>
+        <v>92.47</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G9">
-        <v>53.55</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K9">
-        <v>1227.4</v>
+        <v>522.5</v>
       </c>
       <c r="L9">
-        <v>1158.96</v>
+        <v>496.41</v>
       </c>
       <c r="M9">
-        <v>1364.29</v>
+        <v>574.6900000000001</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1105,22 +1129,22 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>94.88</v>
+        <v>91.27</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1129,16 +1153,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K10">
-        <v>638.5</v>
+        <v>570.5</v>
       </c>
       <c r="L10">
-        <v>596.04</v>
+        <v>531.85</v>
       </c>
       <c r="M10">
-        <v>723.4299999999999</v>
+        <v>647.8</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1149,22 +1173,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>94.88</v>
+        <v>88.86</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1173,16 +1197,16 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K11">
-        <v>6796</v>
+        <v>71.34</v>
       </c>
       <c r="L11">
-        <v>6325.43</v>
+        <v>66.7</v>
       </c>
       <c r="M11">
-        <v>7737.14</v>
+        <v>80.63</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1193,40 +1217,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>92.47</v>
+        <v>86.45</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K12">
-        <v>521.35</v>
+        <v>2658.8</v>
       </c>
       <c r="L12">
-        <v>495.26</v>
+        <v>2487.47</v>
       </c>
       <c r="M12">
-        <v>573.54</v>
+        <v>3001.46</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1237,22 +1261,22 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>91.27</v>
+        <v>82.83</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13">
-        <v>91.27</v>
+        <v>82.83</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1261,16 +1285,16 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K13">
-        <v>73.09</v>
+        <v>3666</v>
       </c>
       <c r="L13">
-        <v>68.45</v>
+        <v>3546.61</v>
       </c>
       <c r="M13">
-        <v>82.38</v>
+        <v>3904.77</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1281,40 +1305,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>38.55</v>
+        <v>81.63</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G14">
-        <v>89.88</v>
+        <v>81.63</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>887.75</v>
+        <v>13815</v>
       </c>
       <c r="L14">
-        <v>839.9400000000001</v>
+        <v>13273.57</v>
       </c>
       <c r="M14">
-        <v>983.38</v>
+        <v>14897.86</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1325,19 +1349,19 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>37.35</v>
+        <v>81.63</v>
       </c>
       <c r="E15">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -1346,19 +1370,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K15">
-        <v>986.45</v>
+        <v>722</v>
       </c>
       <c r="L15">
-        <v>930.16</v>
+        <v>680.41</v>
       </c>
       <c r="M15">
-        <v>1099.04</v>
+        <v>805.1900000000001</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1369,40 +1393,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D16">
-        <v>31.33</v>
+        <v>53.37</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K16">
-        <v>753.2</v>
+        <v>20810</v>
       </c>
       <c r="L16">
-        <v>695.8099999999999</v>
+        <v>19117.86</v>
       </c>
       <c r="M16">
-        <v>867.99</v>
+        <v>24194.29</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1413,40 +1437,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>30.12</v>
+        <v>37.35</v>
       </c>
       <c r="E17">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>494</v>
+        <v>985.75</v>
       </c>
       <c r="L17">
-        <v>433.16</v>
+        <v>928.87</v>
       </c>
       <c r="M17">
-        <v>615.6900000000001</v>
+        <v>1099.51</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1457,22 +1481,22 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>24.1</v>
+        <v>37.35</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G18">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1481,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K18">
-        <v>306.8</v>
+        <v>499.95</v>
       </c>
       <c r="L18">
-        <v>285.73</v>
+        <v>439.11</v>
       </c>
       <c r="M18">
-        <v>348.94</v>
+        <v>621.64</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1501,40 +1525,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>21.69</v>
+        <v>36.14</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G19">
-        <v>82.83</v>
+        <v>89.88</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K19">
-        <v>837.6</v>
+        <v>878</v>
       </c>
       <c r="L19">
-        <v>802.6</v>
+        <v>828.79</v>
       </c>
       <c r="M19">
-        <v>907.61</v>
+        <v>976.4299999999999</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1545,16 +1569,16 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>20.48</v>
+        <v>34.94</v>
       </c>
       <c r="E20">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>98</v>
@@ -1563,22 +1587,22 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K20">
-        <v>5661.5</v>
+        <v>39985</v>
       </c>
       <c r="L20">
-        <v>5426.36</v>
+        <v>38032.86</v>
       </c>
       <c r="M20">
-        <v>6131.79</v>
+        <v>43889.29</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1589,40 +1613,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D21">
-        <v>19.28</v>
+        <v>33.73</v>
       </c>
       <c r="E21">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G21">
-        <v>85.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K21">
-        <v>721.95</v>
+        <v>762.7</v>
       </c>
       <c r="L21">
-        <v>690.23</v>
+        <v>704.77</v>
       </c>
       <c r="M21">
-        <v>785.39</v>
+        <v>878.5599999999999</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1633,40 +1657,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>16.87</v>
+        <v>31.33</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G22">
-        <v>86.45</v>
+        <v>90.06</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K22">
-        <v>2065.3</v>
+        <v>1424</v>
       </c>
       <c r="L22">
-        <v>1929.87</v>
+        <v>1296.93</v>
       </c>
       <c r="M22">
-        <v>2336.16</v>
+        <v>1678.14</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1677,22 +1701,22 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>16.87</v>
+        <v>28.92</v>
       </c>
       <c r="E23">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G23">
-        <v>96.08</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1701,16 +1725,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K23">
-        <v>2686.4</v>
+        <v>424.95</v>
       </c>
       <c r="L23">
-        <v>2464.09</v>
+        <v>391.94</v>
       </c>
       <c r="M23">
-        <v>3131.03</v>
+        <v>490.98</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1721,40 +1745,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D24">
-        <v>14.46</v>
+        <v>25.3</v>
       </c>
       <c r="E24">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K24">
-        <v>1902</v>
+        <v>1004.1</v>
       </c>
       <c r="L24">
-        <v>1797.45</v>
+        <v>948.14</v>
       </c>
       <c r="M24">
-        <v>2111.1</v>
+        <v>1116.01</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1765,22 +1789,22 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D25">
-        <v>14.46</v>
+        <v>22.89</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G25">
-        <v>86.45</v>
+        <v>70.42</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1789,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K25">
-        <v>501.8</v>
+        <v>1205.1</v>
       </c>
       <c r="L25">
-        <v>468.74</v>
+        <v>1130.61</v>
       </c>
       <c r="M25">
-        <v>567.9299999999999</v>
+        <v>1354.07</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1809,19 +1833,19 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D26">
-        <v>14.46</v>
+        <v>20.48</v>
       </c>
       <c r="E26">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -1833,16 +1857,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K26">
-        <v>962.75</v>
+        <v>5670</v>
       </c>
       <c r="L26">
-        <v>875.5700000000001</v>
+        <v>5432.71</v>
       </c>
       <c r="M26">
-        <v>1137.11</v>
+        <v>6144.57</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1853,40 +1877,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D27">
-        <v>14.46</v>
+        <v>20.48</v>
       </c>
       <c r="E27">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27">
-        <v>84.04000000000001</v>
+        <v>82.83</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K27">
-        <v>418.55</v>
+        <v>841.95</v>
       </c>
       <c r="L27">
-        <v>387.16</v>
+        <v>802.99</v>
       </c>
       <c r="M27">
-        <v>481.32</v>
+        <v>919.88</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1897,43 +1921,43 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D28">
-        <v>13.25</v>
+        <v>20.48</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G28">
-        <v>70.78</v>
+        <v>76.45</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K28">
-        <v>394.2</v>
+        <v>492.35</v>
       </c>
       <c r="L28">
-        <v>399.29</v>
+        <v>478.7</v>
       </c>
       <c r="M28">
-        <v>384.01</v>
+        <v>519.64</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1941,40 +1965,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>13.25</v>
+        <v>20.48</v>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G29">
-        <v>71.98999999999999</v>
+        <v>92.47</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K29">
-        <v>370.35</v>
+        <v>303.35</v>
       </c>
       <c r="L29">
-        <v>354.18</v>
+        <v>282.11</v>
       </c>
       <c r="M29">
-        <v>402.69</v>
+        <v>345.82</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1985,22 +2009,22 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D30">
-        <v>13.25</v>
+        <v>19.28</v>
       </c>
       <c r="E30">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G30">
-        <v>71.98999999999999</v>
+        <v>70.78</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2009,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K30">
-        <v>464.45</v>
+        <v>397.3</v>
       </c>
       <c r="L30">
-        <v>440.62</v>
+        <v>399.48</v>
       </c>
       <c r="M30">
-        <v>512.12</v>
+        <v>392.93</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2029,40 +2053,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D31">
-        <v>12.05</v>
+        <v>19.28</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G31">
-        <v>72.29000000000001</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K31">
-        <v>2020.5</v>
+        <v>721.85</v>
       </c>
       <c r="L31">
-        <v>1890.26</v>
+        <v>690.14</v>
       </c>
       <c r="M31">
-        <v>2280.98</v>
+        <v>785.26</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2073,40 +2097,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>10.84</v>
+        <v>16.87</v>
       </c>
       <c r="E32">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K32">
-        <v>981.75</v>
+        <v>2059.9</v>
       </c>
       <c r="L32">
-        <v>955.4</v>
+        <v>1927.72</v>
       </c>
       <c r="M32">
-        <v>1034.46</v>
+        <v>2324.25</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2117,40 +2141,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D33">
-        <v>8.43</v>
+        <v>16.87</v>
       </c>
       <c r="E33">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>81.27</v>
+        <v>96.08</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K33">
-        <v>71.98999999999999</v>
+        <v>2679.1</v>
       </c>
       <c r="L33">
-        <v>70.03</v>
+        <v>2456.79</v>
       </c>
       <c r="M33">
-        <v>75.91</v>
+        <v>3123.73</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2161,40 +2185,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D34">
-        <v>7.23</v>
+        <v>14.46</v>
       </c>
       <c r="E34">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>617.75</v>
+        <v>503.95</v>
       </c>
       <c r="L34">
-        <v>597.6900000000001</v>
+        <v>468.94</v>
       </c>
       <c r="M34">
-        <v>657.86</v>
+        <v>573.97</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2205,40 +2229,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D35">
-        <v>44.94</v>
+        <v>14.46</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G35">
-        <v>44.94</v>
+        <v>100</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K35">
-        <v>445.5</v>
+        <v>1898</v>
       </c>
       <c r="L35">
-        <v>426.18</v>
+        <v>1797.07</v>
       </c>
       <c r="M35">
-        <v>484.15</v>
+        <v>2099.86</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2249,40 +2273,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D36">
-        <v>40.12</v>
+        <v>13.25</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G36">
-        <v>90.06</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K36">
-        <v>9434.5</v>
+        <v>463.4</v>
       </c>
       <c r="L36">
-        <v>8740.809999999999</v>
+        <v>440.52</v>
       </c>
       <c r="M36">
-        <v>10821.89</v>
+        <v>509.17</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2293,40 +2317,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D37">
-        <v>91.27</v>
+        <v>12.05</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G37">
-        <v>91.27</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K37">
-        <v>579.6</v>
+        <v>2020</v>
       </c>
       <c r="L37">
-        <v>540.95</v>
+        <v>1889.86</v>
       </c>
       <c r="M37">
-        <v>656.9</v>
+        <v>2280.28</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2337,40 +2361,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D38">
-        <v>82.83</v>
+        <v>10.84</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K38">
-        <v>3660.1</v>
+        <v>398</v>
       </c>
       <c r="L38">
-        <v>3544.04</v>
+        <v>380.36</v>
       </c>
       <c r="M38">
-        <v>3892.21</v>
+        <v>433.28</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2381,22 +2405,22 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D39">
-        <v>53.37</v>
+        <v>10.84</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G39">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2405,16 +2429,16 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K39">
-        <v>20810</v>
+        <v>983</v>
       </c>
       <c r="L39">
-        <v>19117.86</v>
+        <v>955.51</v>
       </c>
       <c r="M39">
-        <v>24194.29</v>
+        <v>1037.97</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2425,40 +2449,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D40">
-        <v>38.92</v>
+        <v>8.43</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G40">
-        <v>38.92</v>
+        <v>81.27</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K40">
-        <v>485.55</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L40">
-        <v>479.65</v>
+        <v>70.03</v>
       </c>
       <c r="M40">
-        <v>497.35</v>
+        <v>76.23</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2469,40 +2493,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D41">
-        <v>38.55</v>
+        <v>7.23</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G41">
-        <v>38.55</v>
+        <v>100</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K41">
-        <v>4319.4</v>
+        <v>617.2</v>
       </c>
       <c r="L41">
-        <v>4129.06</v>
+        <v>596.89</v>
       </c>
       <c r="M41">
-        <v>4700.09</v>
+        <v>657.83</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2513,22 +2537,22 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D42">
-        <v>35.3</v>
+        <v>44.94</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G42">
-        <v>35.3</v>
+        <v>44.94</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2537,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K42">
-        <v>48515</v>
+        <v>447.85</v>
       </c>
       <c r="L42">
-        <v>46848.16</v>
+        <v>426.24</v>
       </c>
       <c r="M42">
-        <v>51848.67</v>
+        <v>491.07</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2557,40 +2581,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D43">
-        <v>34.1</v>
+        <v>44.94</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G43">
-        <v>34.1</v>
+        <v>44.94</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K43">
-        <v>378.1</v>
+        <v>943.8</v>
       </c>
       <c r="L43">
-        <v>368.79</v>
+        <v>898.01</v>
       </c>
       <c r="M43">
-        <v>396.72</v>
+        <v>1035.37</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2601,40 +2625,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D44">
-        <v>33.92</v>
+        <v>44.58</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G44">
-        <v>33.92</v>
+        <v>44.58</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K44">
-        <v>1738.6</v>
+        <v>206.59</v>
       </c>
       <c r="L44">
-        <v>1691.13</v>
+        <v>194.25</v>
       </c>
       <c r="M44">
-        <v>1833.54</v>
+        <v>231.27</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2645,40 +2669,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>31.33</v>
+        <v>42.53</v>
       </c>
       <c r="E45">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45">
-        <v>65.59999999999999</v>
+        <v>42.53</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K45">
-        <v>9560</v>
+        <v>2150.2</v>
       </c>
       <c r="L45">
-        <v>8808.57</v>
+        <v>2050.95</v>
       </c>
       <c r="M45">
-        <v>11062.86</v>
+        <v>2348.71</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2689,40 +2713,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D46">
-        <v>30.12</v>
+        <v>40.12</v>
       </c>
       <c r="E46">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46">
-        <v>38.55</v>
+        <v>90.06</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K46">
-        <v>1792.5</v>
+        <v>9390</v>
       </c>
       <c r="L46">
-        <v>1727.07</v>
+        <v>8736.57</v>
       </c>
       <c r="M46">
-        <v>1923.36</v>
+        <v>10696.86</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2733,22 +2757,22 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D47">
-        <v>26.51</v>
+        <v>40.12</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47">
-        <v>26.51</v>
+        <v>40.12</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2757,16 +2781,16 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K47">
-        <v>418.6</v>
+        <v>48385</v>
       </c>
       <c r="L47">
-        <v>408.29</v>
+        <v>46834.36</v>
       </c>
       <c r="M47">
-        <v>439.22</v>
+        <v>51486.29</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2777,40 +2801,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>25.3</v>
+        <v>40.12</v>
       </c>
       <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48">
+        <v>40.12</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>4</v>
       </c>
-      <c r="F48" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48">
-        <v>25.3</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K48">
-        <v>13350</v>
+        <v>2810.3</v>
       </c>
       <c r="L48">
-        <v>13115.74</v>
+        <v>2720.53</v>
       </c>
       <c r="M48">
-        <v>13818.52</v>
+        <v>2989.84</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2821,40 +2845,40 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D49">
-        <v>25.3</v>
+        <v>52.17</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G49">
-        <v>25.3</v>
+        <v>52.17</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K49">
-        <v>2817</v>
+        <v>4324</v>
       </c>
       <c r="L49">
-        <v>2722.56</v>
+        <v>4133.51</v>
       </c>
       <c r="M49">
-        <v>3005.88</v>
+        <v>4704.97</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2865,40 +2889,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D50">
-        <v>22.89</v>
+        <v>38.92</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G50">
-        <v>22.89</v>
+        <v>38.92</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K50">
-        <v>191.46</v>
+        <v>377.6</v>
       </c>
       <c r="L50">
-        <v>181.22</v>
+        <v>368.74</v>
       </c>
       <c r="M50">
-        <v>211.94</v>
+        <v>395.32</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2909,40 +2933,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D51">
-        <v>19.28</v>
+        <v>34.1</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G51">
-        <v>39.76</v>
+        <v>34.1</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>530.2</v>
+        <v>414.15</v>
       </c>
       <c r="L51">
-        <v>512.74</v>
+        <v>407.87</v>
       </c>
       <c r="M51">
-        <v>565.13</v>
+        <v>426.72</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -2953,43 +2977,43 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D52">
-        <v>19.28</v>
+        <v>33.92</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>19.28</v>
+        <v>33.92</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K52">
-        <v>749.5</v>
+        <v>1733.1</v>
       </c>
       <c r="L52">
-        <v>757.0599999999999</v>
+        <v>1685.59</v>
       </c>
       <c r="M52">
-        <v>734.39</v>
+        <v>1828.13</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2997,40 +3021,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D53">
-        <v>19.28</v>
+        <v>33.73</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G53">
-        <v>19.28</v>
+        <v>33.73</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K53">
-        <v>5527</v>
+        <v>4295.9</v>
       </c>
       <c r="L53">
-        <v>5481.89</v>
+        <v>4096.49</v>
       </c>
       <c r="M53">
-        <v>5617.21</v>
+        <v>4694.73</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3041,40 +3065,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D54">
-        <v>15.66</v>
+        <v>32.89</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
         <v>103</v>
       </c>
       <c r="G54">
-        <v>26.51</v>
+        <v>38.92</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K54">
-        <v>196.6</v>
+        <v>481.7</v>
       </c>
       <c r="L54">
-        <v>187.5</v>
+        <v>479.28</v>
       </c>
       <c r="M54">
-        <v>214.81</v>
+        <v>486.54</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3085,40 +3109,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D55">
-        <v>14.46</v>
+        <v>31.33</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G55">
-        <v>14.46</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K55">
-        <v>577.35</v>
+        <v>9589</v>
       </c>
       <c r="L55">
-        <v>564.6</v>
+        <v>8826.360000000001</v>
       </c>
       <c r="M55">
-        <v>602.86</v>
+        <v>11114.29</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3129,40 +3153,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D56">
-        <v>14.46</v>
+        <v>27.71</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G56">
-        <v>20.48</v>
+        <v>38.55</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K56">
-        <v>3570.6</v>
+        <v>1782.8</v>
       </c>
       <c r="L56">
-        <v>3477.36</v>
+        <v>1716.8</v>
       </c>
       <c r="M56">
-        <v>3757.08</v>
+        <v>1914.8</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3173,40 +3197,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <v>13.25</v>
+        <v>22.89</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G57">
-        <v>13.25</v>
+        <v>22.89</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K57">
-        <v>1835</v>
+        <v>35100</v>
       </c>
       <c r="L57">
-        <v>1731</v>
+        <v>33731.42</v>
       </c>
       <c r="M57">
-        <v>2043.01</v>
+        <v>37837.16</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3217,40 +3241,40 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D58">
-        <v>12.05</v>
+        <v>21.69</v>
       </c>
       <c r="E58">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G58">
-        <v>58.19</v>
+        <v>41.14</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K58">
-        <v>3098.5</v>
+        <v>460.05</v>
       </c>
       <c r="L58">
-        <v>2942.52</v>
+        <v>448.45</v>
       </c>
       <c r="M58">
-        <v>3410.46</v>
+        <v>483.24</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3261,40 +3285,40 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D59">
-        <v>12.05</v>
+        <v>20.48</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G59">
-        <v>12.05</v>
+        <v>20.48</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K59">
-        <v>4207.4</v>
+        <v>3596</v>
       </c>
       <c r="L59">
-        <v>4045.1</v>
+        <v>3479.44</v>
       </c>
       <c r="M59">
-        <v>4532</v>
+        <v>3829.12</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3305,40 +3329,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D60">
-        <v>12.05</v>
+        <v>20.48</v>
       </c>
       <c r="E60">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G60">
-        <v>61.99</v>
+        <v>20.48</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K60">
-        <v>16789</v>
+        <v>447.75</v>
       </c>
       <c r="L60">
-        <v>16137.57</v>
+        <v>440.3</v>
       </c>
       <c r="M60">
-        <v>18091.86</v>
+        <v>462.65</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3349,40 +3373,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>9.640000000000001</v>
+        <v>19.28</v>
       </c>
       <c r="E61">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G61">
-        <v>60.24</v>
+        <v>66.81</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K61">
-        <v>522.3</v>
+        <v>5183.5</v>
       </c>
       <c r="L61">
-        <v>508.85</v>
+        <v>4922.85</v>
       </c>
       <c r="M61">
-        <v>549.2</v>
+        <v>5704.8</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3393,22 +3417,22 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D62">
-        <v>8.43</v>
+        <v>19.28</v>
       </c>
       <c r="E62">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G62">
-        <v>16.87</v>
+        <v>19.28</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -3417,19 +3441,19 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K62">
-        <v>178.66</v>
+        <v>745.6</v>
       </c>
       <c r="L62">
-        <v>174.62</v>
+        <v>756.66</v>
       </c>
       <c r="M62">
-        <v>186.73</v>
+        <v>723.48</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3437,40 +3461,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D63">
-        <v>4.82</v>
+        <v>19.28</v>
       </c>
       <c r="E63">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G63">
-        <v>39.76</v>
+        <v>43.37</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K63">
-        <v>1334.8</v>
+        <v>2758.8</v>
       </c>
       <c r="L63">
-        <v>1270.45</v>
+        <v>2641.59</v>
       </c>
       <c r="M63">
-        <v>1463.49</v>
+        <v>2993.21</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3481,42 +3505,394 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64">
+        <v>19.28</v>
+      </c>
+      <c r="E64">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64">
+        <v>39.76</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K64">
+        <v>534.9</v>
+      </c>
+      <c r="L64">
+        <v>513.0700000000001</v>
+      </c>
+      <c r="M64">
+        <v>578.5700000000001</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65">
+        <v>18.07</v>
+      </c>
+      <c r="E65">
+        <v>29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65">
+        <v>39.76</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>116</v>
+      </c>
+      <c r="K65">
+        <v>1349.4</v>
+      </c>
+      <c r="L65">
+        <v>1278.49</v>
+      </c>
+      <c r="M65">
+        <v>1491.23</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
         <v>78</v>
       </c>
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64">
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66">
+        <v>15.66</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66">
+        <v>21.69</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66">
+        <v>1207.1</v>
+      </c>
+      <c r="L66">
+        <v>1170.53</v>
+      </c>
+      <c r="M66">
+        <v>1280.23</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67">
+        <v>12.05</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67">
+        <v>58.19</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>116</v>
+      </c>
+      <c r="K67">
+        <v>3101.3</v>
+      </c>
+      <c r="L67">
+        <v>2944.09</v>
+      </c>
+      <c r="M67">
+        <v>3415.73</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68">
+        <v>12.05</v>
+      </c>
+      <c r="E68">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68">
+        <v>61.99</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68">
+        <v>16793</v>
+      </c>
+      <c r="L68">
+        <v>16141.57</v>
+      </c>
+      <c r="M68">
+        <v>18095.86</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69">
+        <v>10.84</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69">
+        <v>26.51</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69">
+        <v>195.53</v>
+      </c>
+      <c r="L69">
+        <v>187.39</v>
+      </c>
+      <c r="M69">
+        <v>211.8</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70">
+        <v>30.12</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K70">
+        <v>607.35</v>
+      </c>
+      <c r="L70">
+        <v>582.41</v>
+      </c>
+      <c r="M70">
+        <v>657.23</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E71">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71">
+        <v>60.24</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71">
+        <v>522.7</v>
+      </c>
+      <c r="L71">
+        <v>508.88</v>
+      </c>
+      <c r="M71">
+        <v>550.34</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72">
         <v>4.82</v>
       </c>
-      <c r="E64">
-        <v>15</v>
-      </c>
-      <c r="F64" t="s">
-        <v>91</v>
-      </c>
-      <c r="G64">
+      <c r="E72">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72">
         <v>14.46</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>108</v>
-      </c>
-      <c r="K64">
-        <v>996.05</v>
-      </c>
-      <c r="L64">
-        <v>969.08</v>
-      </c>
-      <c r="M64">
-        <v>1049.98</v>
-      </c>
-      <c r="N64">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+      <c r="K72">
+        <v>995</v>
+      </c>
+      <c r="L72">
+        <v>968.98</v>
+      </c>
+      <c r="M72">
+        <v>1047.03</v>
+      </c>
+      <c r="N72">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="115">
   <si>
     <t>Ticker</t>
   </si>
@@ -73,12 +73,12 @@
     <t>GSFC</t>
   </si>
   <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
     <t>SUMICHEM</t>
   </si>
   <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
     <t>VBL</t>
   </si>
   <si>
@@ -94,33 +94,30 @@
     <t>LT</t>
   </si>
   <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
     <t>PGHH</t>
   </si>
   <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
     <t>POWERINDIA</t>
   </si>
   <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
     <t>SHYAMMETL</t>
   </si>
   <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
     <t>TI</t>
   </si>
   <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
     <t>SYRMA</t>
   </si>
   <si>
-    <t>OLECTRA</t>
-  </si>
-  <si>
     <t>NUVOCO</t>
   </si>
   <si>
@@ -133,27 +130,27 @@
     <t>HDFCAMC</t>
   </si>
   <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
     <t>FORTIS</t>
   </si>
   <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
     <t>PCBL</t>
   </si>
   <si>
     <t>UPL</t>
   </si>
   <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
     <t>GLAND</t>
   </si>
   <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
     <t>JGCHEM</t>
   </si>
   <si>
@@ -166,16 +163,16 @@
     <t>METROPOLIS</t>
   </si>
   <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
     <t>JINDALSTEL</t>
   </si>
   <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
     <t>NMDC</t>
   </si>
   <si>
-    <t>AMBUJACEM</t>
+    <t>CAPLIPOINT</t>
   </si>
   <si>
     <t>STARHEALTH</t>
@@ -187,9 +184,6 @@
     <t>NIACL</t>
   </si>
   <si>
-    <t>CAPLIPOINT</t>
-  </si>
-  <si>
     <t>GODFRYPHLP</t>
   </si>
   <si>
@@ -205,21 +199,21 @@
     <t>BLS</t>
   </si>
   <si>
+    <t>APARINDS</t>
+  </si>
+  <si>
     <t>BSOFT</t>
   </si>
   <si>
     <t>SUNPHARMA</t>
   </si>
   <si>
+    <t>DBL</t>
+  </si>
+  <si>
     <t>DMART</t>
   </si>
   <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
@@ -229,30 +223,27 @@
     <t>TMB</t>
   </si>
   <si>
+    <t>NAVINFLUOR</t>
+  </si>
+  <si>
+    <t>AUBANK</t>
+  </si>
+  <si>
     <t>FLUOROCHEM</t>
   </si>
   <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>BALKRISIND</t>
+  </si>
+  <si>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
     <t>AARTIIND</t>
   </si>
   <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
-    <t>INDIGOPNTS</t>
-  </si>
-  <si>
     <t>LALPATHLAB</t>
   </si>
   <si>
@@ -262,13 +253,16 @@
     <t>GPIL</t>
   </si>
   <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>BALAMINES</t>
+  </si>
+  <si>
+    <t>ZYDUSLIFE</t>
+  </si>
+  <si>
     <t>KALYANKJIL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>ZYDUSLIFE</t>
   </si>
   <si>
     <t>Consumer Cyclical</t>
@@ -722,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,19 +771,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>82.47</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -801,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2">
-        <v>8022.5</v>
+        <v>8040.5</v>
       </c>
       <c r="L2">
-        <v>7451.93</v>
+        <v>7469.93</v>
       </c>
       <c r="M2">
-        <v>9163.639999999999</v>
+        <v>9181.639999999999</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -821,19 +815,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>49.4</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -845,16 +839,16 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3">
-        <v>1559.9</v>
+        <v>1559.4</v>
       </c>
       <c r="L3">
-        <v>1506.06</v>
+        <v>1505.56</v>
       </c>
       <c r="M3">
-        <v>1667.59</v>
+        <v>1667.09</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -865,19 +859,19 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>49.4</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -889,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4">
-        <v>3724.8</v>
+        <v>3730.6</v>
       </c>
       <c r="L4">
-        <v>3579.3</v>
+        <v>3585.1</v>
       </c>
       <c r="M4">
-        <v>4015.8</v>
+        <v>4021.6</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -909,19 +903,19 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>60.78</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>60.78</v>
@@ -933,16 +927,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K5">
-        <v>1235.3</v>
+        <v>1236.2</v>
       </c>
       <c r="L5">
-        <v>1165.57</v>
+        <v>1166.47</v>
       </c>
       <c r="M5">
-        <v>1374.76</v>
+        <v>1375.66</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -953,19 +947,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>53.37</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>53.37</v>
@@ -977,16 +971,16 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6">
-        <v>207.6</v>
+        <v>207.58</v>
       </c>
       <c r="L6">
         <v>200.89</v>
       </c>
       <c r="M6">
-        <v>221.02</v>
+        <v>220.96</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -997,19 +991,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>94.88</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -1018,19 +1012,19 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K7">
-        <v>649.6</v>
+        <v>6863.5</v>
       </c>
       <c r="L7">
-        <v>606.42</v>
+        <v>6390.36</v>
       </c>
       <c r="M7">
-        <v>735.96</v>
+        <v>7809.79</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1044,16 +1038,16 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>92.47</v>
+        <v>94.88</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1062,19 +1056,19 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K8">
-        <v>6740</v>
+        <v>652.25</v>
       </c>
       <c r="L8">
-        <v>6269.43</v>
+        <v>607.64</v>
       </c>
       <c r="M8">
-        <v>7681.14</v>
+        <v>741.48</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1085,19 +1079,19 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>92.47</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -1109,16 +1103,16 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9">
-        <v>522.5</v>
+        <v>522.1</v>
       </c>
       <c r="L9">
-        <v>496.41</v>
+        <v>496.01</v>
       </c>
       <c r="M9">
-        <v>574.6900000000001</v>
+        <v>574.29</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1129,19 +1123,19 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <v>91.27</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10">
         <v>91.27</v>
@@ -1153,16 +1147,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K10">
-        <v>570.5</v>
+        <v>564.35</v>
       </c>
       <c r="L10">
-        <v>531.85</v>
+        <v>525.7</v>
       </c>
       <c r="M10">
-        <v>647.8</v>
+        <v>641.65</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1173,19 +1167,19 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>88.86</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>91.27</v>
@@ -1197,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K11">
-        <v>71.34</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="L11">
-        <v>66.7</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="M11">
-        <v>80.63</v>
+        <v>80.58</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1217,19 +1211,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>86.45</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12">
         <v>86.45</v>
@@ -1241,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12">
-        <v>2658.8</v>
+        <v>2652.7</v>
       </c>
       <c r="L12">
-        <v>2487.47</v>
+        <v>2481.09</v>
       </c>
       <c r="M12">
-        <v>3001.46</v>
+        <v>2995.93</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1261,19 +1255,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>82.83</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13">
         <v>82.83</v>
@@ -1285,16 +1279,16 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>3666</v>
+        <v>3665.1</v>
       </c>
       <c r="L13">
-        <v>3546.61</v>
+        <v>3545.71</v>
       </c>
       <c r="M13">
-        <v>3904.77</v>
+        <v>3903.87</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1305,40 +1299,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>81.63</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G14">
-        <v>81.63</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>13815</v>
+        <v>722.05</v>
       </c>
       <c r="L14">
-        <v>13273.57</v>
+        <v>680.46</v>
       </c>
       <c r="M14">
-        <v>14897.86</v>
+        <v>805.24</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1349,40 +1343,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>81.63</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>81.63</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>722</v>
+        <v>13805</v>
       </c>
       <c r="L15">
-        <v>680.41</v>
+        <v>13263.57</v>
       </c>
       <c r="M15">
-        <v>805.1900000000001</v>
+        <v>14887.86</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1393,19 +1387,19 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>53.37</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16">
         <v>84.04000000000001</v>
@@ -1417,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K16">
-        <v>20810</v>
+        <v>20825</v>
       </c>
       <c r="L16">
-        <v>19117.86</v>
+        <v>19132.86</v>
       </c>
       <c r="M16">
-        <v>24194.29</v>
+        <v>24209.29</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1437,40 +1431,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17">
+        <v>38.55</v>
+      </c>
+      <c r="E17">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>96</v>
       </c>
-      <c r="D17">
-        <v>37.35</v>
-      </c>
-      <c r="E17">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>102</v>
-      </c>
       <c r="G17">
-        <v>100</v>
+        <v>89.88</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>985.75</v>
+        <v>881.45</v>
       </c>
       <c r="L17">
-        <v>928.87</v>
+        <v>832.17</v>
       </c>
       <c r="M17">
-        <v>1099.51</v>
+        <v>980.01</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1481,40 +1475,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>37.35</v>
       </c>
       <c r="E18">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K18">
-        <v>499.95</v>
+        <v>985.6</v>
       </c>
       <c r="L18">
-        <v>439.11</v>
+        <v>928.72</v>
       </c>
       <c r="M18">
-        <v>621.64</v>
+        <v>1099.36</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1525,40 +1519,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>34.94</v>
+      </c>
+      <c r="E19">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="D19">
-        <v>36.14</v>
-      </c>
-      <c r="E19">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>98</v>
-      </c>
       <c r="G19">
-        <v>89.88</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K19">
-        <v>878</v>
+        <v>40060</v>
       </c>
       <c r="L19">
-        <v>828.79</v>
+        <v>38107.86</v>
       </c>
       <c r="M19">
-        <v>976.4299999999999</v>
+        <v>43964.29</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1572,37 +1566,37 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>34.94</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>100</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20">
-        <v>39985</v>
+        <v>498.3</v>
       </c>
       <c r="L20">
-        <v>38032.86</v>
+        <v>437.46</v>
       </c>
       <c r="M20">
-        <v>43889.29</v>
+        <v>619.99</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1613,19 +1607,19 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>33.73</v>
       </c>
       <c r="E21">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -1637,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>762.7</v>
+        <v>762.95</v>
       </c>
       <c r="L21">
-        <v>704.77</v>
+        <v>704.66</v>
       </c>
       <c r="M21">
-        <v>878.5599999999999</v>
+        <v>879.52</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1657,40 +1651,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>31.33</v>
+        <v>28.92</v>
       </c>
       <c r="E22">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22">
-        <v>90.06</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>1424</v>
+        <v>424.95</v>
       </c>
       <c r="L22">
-        <v>1296.93</v>
+        <v>391.94</v>
       </c>
       <c r="M22">
-        <v>1678.14</v>
+        <v>490.98</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1701,40 +1695,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>28.92</v>
+        <v>25.3</v>
       </c>
       <c r="E23">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>84.04000000000001</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K23">
-        <v>424.95</v>
+        <v>1001.35</v>
       </c>
       <c r="L23">
-        <v>391.94</v>
+        <v>945.39</v>
       </c>
       <c r="M23">
-        <v>490.98</v>
+        <v>1113.26</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1745,40 +1739,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>25.3</v>
+        <v>24.1</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G24">
-        <v>75.23999999999999</v>
+        <v>70.42</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>1004.1</v>
+        <v>1201.4</v>
       </c>
       <c r="L24">
-        <v>948.14</v>
+        <v>1127.76</v>
       </c>
       <c r="M24">
-        <v>1116.01</v>
+        <v>1348.68</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1789,40 +1783,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25">
-        <v>22.89</v>
+        <v>20.48</v>
       </c>
       <c r="E25">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G25">
-        <v>70.42</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25">
-        <v>1205.1</v>
+        <v>5670</v>
       </c>
       <c r="L25">
-        <v>1130.61</v>
+        <v>5432.71</v>
       </c>
       <c r="M25">
-        <v>1354.07</v>
+        <v>6144.57</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1833,40 +1827,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>20.48</v>
       </c>
       <c r="E26">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>92.47</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>5670</v>
+        <v>303.45</v>
       </c>
       <c r="L26">
-        <v>5432.71</v>
+        <v>282.21</v>
       </c>
       <c r="M26">
-        <v>6144.57</v>
+        <v>345.92</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1877,22 +1871,22 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>20.48</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G27">
-        <v>82.83</v>
+        <v>76.45</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1901,16 +1895,16 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K27">
-        <v>841.95</v>
+        <v>492.15</v>
       </c>
       <c r="L27">
-        <v>802.99</v>
+        <v>478.68</v>
       </c>
       <c r="M27">
-        <v>919.88</v>
+        <v>519.08</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1921,22 +1915,22 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>20.48</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G28">
-        <v>76.45</v>
+        <v>82.83</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1945,16 +1939,16 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28">
-        <v>492.35</v>
+        <v>842.7</v>
       </c>
       <c r="L28">
-        <v>478.7</v>
+        <v>803.0599999999999</v>
       </c>
       <c r="M28">
-        <v>519.64</v>
+        <v>921.98</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1965,43 +1959,43 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D29">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
         <v>107</v>
       </c>
       <c r="G29">
-        <v>92.47</v>
+        <v>70.78</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>303.35</v>
+        <v>398.25</v>
       </c>
       <c r="L29">
-        <v>282.11</v>
+        <v>399.57</v>
       </c>
       <c r="M29">
-        <v>345.82</v>
+        <v>395.6</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2009,43 +2003,43 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>19.28</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G30">
-        <v>70.78</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K30">
-        <v>397.3</v>
+        <v>721.9</v>
       </c>
       <c r="L30">
-        <v>399.48</v>
+        <v>690.15</v>
       </c>
       <c r="M30">
-        <v>392.93</v>
+        <v>785.4</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2053,40 +2047,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31">
-        <v>19.28</v>
+        <v>16.87</v>
       </c>
       <c r="E31">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
         <v>98</v>
       </c>
       <c r="G31">
-        <v>85.23999999999999</v>
+        <v>96.08</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K31">
-        <v>721.85</v>
+        <v>2671.4</v>
       </c>
       <c r="L31">
-        <v>690.14</v>
+        <v>2449.09</v>
       </c>
       <c r="M31">
-        <v>785.26</v>
+        <v>3116.03</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2097,19 +2091,19 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>16.87</v>
       </c>
       <c r="E32">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G32">
         <v>86.45</v>
@@ -2121,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K32">
-        <v>2059.9</v>
+        <v>2060.7</v>
       </c>
       <c r="L32">
-        <v>1927.72</v>
+        <v>1927.8</v>
       </c>
       <c r="M32">
-        <v>2324.25</v>
+        <v>2326.5</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2141,40 +2135,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
       <c r="E33">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G33">
-        <v>96.08</v>
+        <v>86.45</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K33">
-        <v>2679.1</v>
+        <v>503.55</v>
       </c>
       <c r="L33">
-        <v>2456.79</v>
+        <v>468.9</v>
       </c>
       <c r="M33">
-        <v>3123.73</v>
+        <v>572.84</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2185,40 +2179,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>14.46</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>98</v>
       </c>
       <c r="G34">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K34">
-        <v>503.95</v>
+        <v>1899.9</v>
       </c>
       <c r="L34">
-        <v>468.94</v>
+        <v>1797.25</v>
       </c>
       <c r="M34">
-        <v>573.97</v>
+        <v>2105.2</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2229,40 +2223,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>14.46</v>
+        <v>13.25</v>
       </c>
       <c r="E35">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K35">
-        <v>1898</v>
+        <v>463.35</v>
       </c>
       <c r="L35">
-        <v>1797.07</v>
+        <v>440.51</v>
       </c>
       <c r="M35">
-        <v>2099.86</v>
+        <v>509.03</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2273,22 +2267,22 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>13.25</v>
+        <v>12.05</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G36">
-        <v>71.98999999999999</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2297,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K36">
-        <v>463.4</v>
+        <v>2020.1</v>
       </c>
       <c r="L36">
-        <v>440.52</v>
+        <v>1889.87</v>
       </c>
       <c r="M36">
-        <v>509.17</v>
+        <v>2280.57</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2317,40 +2311,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37">
-        <v>12.05</v>
+        <v>10.84</v>
       </c>
       <c r="E37">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G37">
-        <v>72.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K37">
-        <v>2020</v>
+        <v>982.85</v>
       </c>
       <c r="L37">
-        <v>1889.86</v>
+        <v>955.49</v>
       </c>
       <c r="M37">
-        <v>2280.28</v>
+        <v>1037.57</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2364,16 +2358,16 @@
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38">
-        <v>10.84</v>
+        <v>8.43</v>
       </c>
       <c r="E38">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2385,16 +2379,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K38">
-        <v>398</v>
+        <v>617.85</v>
       </c>
       <c r="L38">
-        <v>380.36</v>
+        <v>597.51</v>
       </c>
       <c r="M38">
-        <v>433.28</v>
+        <v>658.54</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2405,40 +2399,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>10.84</v>
+        <v>8.43</v>
       </c>
       <c r="E39">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>81.27</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K39">
-        <v>983</v>
+        <v>72.06</v>
       </c>
       <c r="L39">
-        <v>955.51</v>
+        <v>70.03</v>
       </c>
       <c r="M39">
-        <v>1037.97</v>
+        <v>76.12</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2449,40 +2443,40 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>8.43</v>
+        <v>47.35</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G40">
-        <v>81.27</v>
+        <v>47.35</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K40">
-        <v>72.09999999999999</v>
+        <v>2145.8</v>
       </c>
       <c r="L40">
-        <v>70.03</v>
+        <v>2050.53</v>
       </c>
       <c r="M40">
-        <v>76.23</v>
+        <v>2336.34</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2493,40 +2487,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D41">
-        <v>7.23</v>
+        <v>44.94</v>
       </c>
       <c r="E41">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>44.94</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K41">
-        <v>617.2</v>
+        <v>447.8</v>
       </c>
       <c r="L41">
-        <v>596.89</v>
+        <v>426.24</v>
       </c>
       <c r="M41">
-        <v>657.83</v>
+        <v>490.93</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2537,19 +2531,19 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>44.94</v>
       </c>
       <c r="E42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42">
         <v>44.94</v>
@@ -2558,19 +2552,19 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K42">
-        <v>447.85</v>
+        <v>941.6</v>
       </c>
       <c r="L42">
-        <v>426.24</v>
+        <v>897.79</v>
       </c>
       <c r="M42">
-        <v>491.07</v>
+        <v>1029.23</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2581,40 +2575,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43">
-        <v>44.94</v>
+        <v>44.58</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G43">
-        <v>44.94</v>
+        <v>44.58</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K43">
-        <v>943.8</v>
+        <v>204.35</v>
       </c>
       <c r="L43">
-        <v>898.01</v>
+        <v>191.91</v>
       </c>
       <c r="M43">
-        <v>1035.37</v>
+        <v>229.23</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2625,40 +2619,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D44">
-        <v>44.58</v>
+        <v>40.12</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G44">
-        <v>44.58</v>
+        <v>90.06</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K44">
-        <v>206.59</v>
+        <v>9390.5</v>
       </c>
       <c r="L44">
-        <v>194.25</v>
+        <v>8736.620000000001</v>
       </c>
       <c r="M44">
-        <v>231.27</v>
+        <v>10698.27</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2669,22 +2663,22 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>42.53</v>
+        <v>40.12</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G45">
-        <v>42.53</v>
+        <v>40.12</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2693,16 +2687,16 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K45">
-        <v>2150.2</v>
+        <v>48315</v>
       </c>
       <c r="L45">
-        <v>2050.95</v>
+        <v>46827.69</v>
       </c>
       <c r="M45">
-        <v>2348.71</v>
+        <v>51289.62</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2713,40 +2707,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>40.12</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G46">
-        <v>90.06</v>
+        <v>40.12</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K46">
-        <v>9390</v>
+        <v>2806.6</v>
       </c>
       <c r="L46">
-        <v>8736.57</v>
+        <v>2720.18</v>
       </c>
       <c r="M46">
-        <v>10696.86</v>
+        <v>2979.45</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2757,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>40.12</v>
+        <v>52.17</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G47">
-        <v>40.12</v>
+        <v>52.17</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K47">
-        <v>48385</v>
+        <v>4324.2</v>
       </c>
       <c r="L47">
-        <v>46834.36</v>
+        <v>4133.43</v>
       </c>
       <c r="M47">
-        <v>51486.29</v>
+        <v>4705.74</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2804,37 +2798,37 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>40.12</v>
+        <v>38.92</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G48">
-        <v>40.12</v>
+        <v>38.92</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K48">
-        <v>2810.3</v>
+        <v>377.25</v>
       </c>
       <c r="L48">
-        <v>2720.53</v>
+        <v>368.71</v>
       </c>
       <c r="M48">
-        <v>2989.84</v>
+        <v>394.33</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2851,34 +2845,34 @@
         <v>95</v>
       </c>
       <c r="D49">
-        <v>52.17</v>
+        <v>36.14</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G49">
-        <v>52.17</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>4324</v>
+        <v>9669.5</v>
       </c>
       <c r="L49">
-        <v>4133.51</v>
+        <v>8906.860000000001</v>
       </c>
       <c r="M49">
-        <v>4704.97</v>
+        <v>11194.79</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -2889,40 +2883,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D50">
-        <v>38.92</v>
+        <v>34.1</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G50">
-        <v>38.92</v>
+        <v>34.1</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K50">
-        <v>377.6</v>
+        <v>414.75</v>
       </c>
       <c r="L50">
-        <v>368.74</v>
+        <v>407.92</v>
       </c>
       <c r="M50">
-        <v>395.32</v>
+        <v>428.4</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2933,40 +2927,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
         <v>92</v>
       </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
       <c r="D51">
-        <v>34.1</v>
+        <v>33.92</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G51">
-        <v>34.1</v>
+        <v>33.92</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K51">
-        <v>414.15</v>
+        <v>1733.8</v>
       </c>
       <c r="L51">
-        <v>407.87</v>
+        <v>1686.21</v>
       </c>
       <c r="M51">
-        <v>426.72</v>
+        <v>1828.97</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -2980,37 +2974,37 @@
         <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52">
-        <v>33.92</v>
+        <v>32.89</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G52">
-        <v>33.92</v>
+        <v>38.92</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K52">
-        <v>1733.1</v>
+        <v>481.25</v>
       </c>
       <c r="L52">
-        <v>1685.59</v>
+        <v>479.24</v>
       </c>
       <c r="M52">
-        <v>1828.13</v>
+        <v>485.27</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3021,19 +3015,19 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D53">
-        <v>33.73</v>
+        <v>27.71</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53">
         <v>33.73</v>
@@ -3045,16 +3039,16 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>4295.9</v>
+        <v>4281.4</v>
       </c>
       <c r="L53">
-        <v>4096.49</v>
+        <v>4081.99</v>
       </c>
       <c r="M53">
-        <v>4694.73</v>
+        <v>4680.23</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3065,40 +3059,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>94</v>
       </c>
       <c r="D54">
-        <v>32.89</v>
+        <v>27.71</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G54">
-        <v>38.92</v>
+        <v>38.55</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K54">
-        <v>481.7</v>
+        <v>1782.6</v>
       </c>
       <c r="L54">
-        <v>479.28</v>
+        <v>1716.57</v>
       </c>
       <c r="M54">
-        <v>486.54</v>
+        <v>1914.66</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3109,40 +3103,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D55">
-        <v>31.33</v>
+        <v>22.89</v>
       </c>
       <c r="E55">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G55">
-        <v>65.59999999999999</v>
+        <v>22.89</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K55">
-        <v>9589</v>
+        <v>35195</v>
       </c>
       <c r="L55">
-        <v>8826.360000000001</v>
+        <v>33732.97</v>
       </c>
       <c r="M55">
-        <v>11114.29</v>
+        <v>38119.07</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3153,40 +3147,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56">
-        <v>27.71</v>
+        <v>21.69</v>
       </c>
       <c r="E56">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>38.55</v>
+        <v>41.14</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K56">
-        <v>1782.8</v>
+        <v>460.05</v>
       </c>
       <c r="L56">
-        <v>1716.8</v>
+        <v>448.45</v>
       </c>
       <c r="M56">
-        <v>1914.8</v>
+        <v>483.24</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3197,40 +3191,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57">
-        <v>22.89</v>
+        <v>20.48</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G57">
-        <v>22.89</v>
+        <v>66.81</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K57">
-        <v>35100</v>
+        <v>5189.6</v>
       </c>
       <c r="L57">
-        <v>33731.42</v>
+        <v>4923.43</v>
       </c>
       <c r="M57">
-        <v>37837.16</v>
+        <v>5721.94</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3241,43 +3235,43 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D58">
-        <v>21.69</v>
+        <v>20.48</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G58">
-        <v>41.14</v>
+        <v>20.48</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>460.05</v>
+        <v>746.3</v>
       </c>
       <c r="L58">
-        <v>448.45</v>
+        <v>756.73</v>
       </c>
       <c r="M58">
-        <v>483.24</v>
+        <v>725.45</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3285,19 +3279,19 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>20.48</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G59">
         <v>20.48</v>
@@ -3309,16 +3303,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K59">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="L59">
-        <v>3479.44</v>
+        <v>3479.34</v>
       </c>
       <c r="M59">
-        <v>3829.12</v>
+        <v>3826.31</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3329,40 +3323,40 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D60">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G60">
-        <v>20.48</v>
+        <v>39.76</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K60">
-        <v>447.75</v>
+        <v>534.25</v>
       </c>
       <c r="L60">
-        <v>440.3</v>
+        <v>513</v>
       </c>
       <c r="M60">
-        <v>462.65</v>
+        <v>576.74</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3373,40 +3367,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D61">
         <v>19.28</v>
       </c>
       <c r="E61">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G61">
-        <v>66.81</v>
+        <v>43.37</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K61">
-        <v>5183.5</v>
+        <v>2759.1</v>
       </c>
       <c r="L61">
-        <v>4922.85</v>
+        <v>2641.55</v>
       </c>
       <c r="M61">
-        <v>5704.8</v>
+        <v>2994.2</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3417,43 +3411,43 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D62">
-        <v>19.28</v>
+        <v>18.07</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G62">
-        <v>19.28</v>
+        <v>39.76</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>745.6</v>
+        <v>1356</v>
       </c>
       <c r="L62">
-        <v>756.66</v>
+        <v>1283.04</v>
       </c>
       <c r="M62">
-        <v>723.48</v>
+        <v>1501.91</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3461,40 +3455,40 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>19.28</v>
+        <v>14.46</v>
       </c>
       <c r="E63">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G63">
-        <v>43.37</v>
+        <v>20.48</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K63">
-        <v>2758.8</v>
+        <v>445.5</v>
       </c>
       <c r="L63">
-        <v>2641.59</v>
+        <v>440.09</v>
       </c>
       <c r="M63">
-        <v>2993.21</v>
+        <v>456.32</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -3505,40 +3499,40 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D64">
-        <v>19.28</v>
+        <v>12.05</v>
       </c>
       <c r="E64">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G64">
-        <v>39.76</v>
+        <v>58.19</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>534.9</v>
+        <v>3099.1</v>
       </c>
       <c r="L64">
-        <v>513.0700000000001</v>
+        <v>2942.58</v>
       </c>
       <c r="M64">
-        <v>578.5700000000001</v>
+        <v>3412.14</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -3549,40 +3543,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D65">
-        <v>18.07</v>
+        <v>12.05</v>
       </c>
       <c r="E65">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G65">
-        <v>39.76</v>
+        <v>61.99</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>1349.4</v>
+        <v>16765</v>
       </c>
       <c r="L65">
-        <v>1278.49</v>
+        <v>16113.57</v>
       </c>
       <c r="M65">
-        <v>1491.23</v>
+        <v>18067.86</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3593,40 +3587,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D66">
-        <v>15.66</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G66">
-        <v>21.69</v>
+        <v>26.51</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>1207.1</v>
+        <v>195.37</v>
       </c>
       <c r="L66">
-        <v>1170.53</v>
+        <v>187.38</v>
       </c>
       <c r="M66">
-        <v>1280.23</v>
+        <v>211.35</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3637,22 +3631,22 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D67">
-        <v>12.05</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E67">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G67">
-        <v>58.19</v>
+        <v>60.24</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3661,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K67">
-        <v>3101.3</v>
+        <v>522</v>
       </c>
       <c r="L67">
-        <v>2944.09</v>
+        <v>508.81</v>
       </c>
       <c r="M67">
-        <v>3415.73</v>
+        <v>548.38</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -3681,22 +3675,22 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
         <v>92</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68">
+        <v>8.43</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
         <v>96</v>
       </c>
-      <c r="D68">
-        <v>12.05</v>
-      </c>
-      <c r="E68">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>109</v>
-      </c>
       <c r="G68">
-        <v>61.99</v>
+        <v>39.76</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -3705,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K68">
-        <v>16793</v>
+        <v>1726.4</v>
       </c>
       <c r="L68">
-        <v>16141.57</v>
+        <v>1702.39</v>
       </c>
       <c r="M68">
-        <v>18095.86</v>
+        <v>1774.43</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3725,40 +3719,40 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <v>10.84</v>
+        <v>4.82</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G69">
-        <v>26.51</v>
+        <v>14.46</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K69">
-        <v>195.53</v>
+        <v>995.15</v>
       </c>
       <c r="L69">
-        <v>187.39</v>
+        <v>969</v>
       </c>
       <c r="M69">
-        <v>211.8</v>
+        <v>1047.45</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -3769,130 +3763,42 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70">
-        <v>9.640000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G70">
         <v>30.12</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K70">
-        <v>607.35</v>
+        <v>606.65</v>
       </c>
       <c r="L70">
-        <v>582.41</v>
+        <v>582.26</v>
       </c>
       <c r="M70">
-        <v>657.23</v>
+        <v>655.4400000000001</v>
       </c>
       <c r="N70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="E71">
-        <v>45</v>
-      </c>
-      <c r="F71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71">
-        <v>60.24</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K71">
-        <v>522.7</v>
-      </c>
-      <c r="L71">
-        <v>508.88</v>
-      </c>
-      <c r="M71">
-        <v>550.34</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72">
-        <v>4.82</v>
-      </c>
-      <c r="E72">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72">
-        <v>14.46</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K72">
-        <v>995</v>
-      </c>
-      <c r="L72">
-        <v>968.98</v>
-      </c>
-      <c r="M72">
-        <v>1047.03</v>
-      </c>
-      <c r="N72">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="113">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,190 +58,193 @@
     <t>Risk_Reward</t>
   </si>
   <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
     <t>AMBER</t>
   </si>
   <si>
     <t>CIPLA</t>
   </si>
   <si>
-    <t>TORNTPHARM</t>
+    <t>GMMPFAUDLR</t>
+  </si>
+  <si>
+    <t>NUVOCO</t>
+  </si>
+  <si>
+    <t>GREAVESCOT</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>SYNGENE</t>
+  </si>
+  <si>
+    <t>COROMANDEL</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>SYRMA</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>EPACK</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>PGHH</t>
+  </si>
+  <si>
+    <t>ETERNAL</t>
+  </si>
+  <si>
+    <t>HDFCAMC</t>
+  </si>
+  <si>
+    <t>RRKABEL</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>NIACL</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>SUMICHEM</t>
+  </si>
+  <si>
+    <t>JUBLINGREA</t>
+  </si>
+  <si>
+    <t>KAYNES</t>
+  </si>
+  <si>
+    <t>DEEPINDS</t>
+  </si>
+  <si>
+    <t>EMAMILTD</t>
+  </si>
+  <si>
+    <t>ALKYLAMINE</t>
+  </si>
+  <si>
+    <t>BALAMINES</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>DMART</t>
+  </si>
+  <si>
+    <t>APLAPOLLO</t>
+  </si>
+  <si>
+    <t>ACI</t>
   </si>
   <si>
     <t>EIDPARRY</t>
   </si>
   <si>
-    <t>GSFC</t>
-  </si>
-  <si>
-    <t>CRAFTSMAN</t>
-  </si>
-  <si>
-    <t>SUMICHEM</t>
-  </si>
-  <si>
-    <t>VBL</t>
-  </si>
-  <si>
-    <t>VISHNU</t>
-  </si>
-  <si>
-    <t>GATEWAY</t>
-  </si>
-  <si>
-    <t>COROMANDEL</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>SYNGENE</t>
-  </si>
-  <si>
-    <t>PGHH</t>
-  </si>
-  <si>
-    <t>POWERINDIA</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>SHYAMMETL</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>SYRMA</t>
-  </si>
-  <si>
-    <t>NUVOCO</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>HDFCAMC</t>
-  </si>
-  <si>
-    <t>ETERNAL</t>
-  </si>
-  <si>
-    <t>GRANULES</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t>PCBL</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>ANANDRATHI</t>
-  </si>
-  <si>
-    <t>GLAND</t>
-  </si>
-  <si>
-    <t>JGCHEM</t>
-  </si>
-  <si>
-    <t>PATANJALI</t>
-  </si>
-  <si>
-    <t>VIPIND</t>
-  </si>
-  <si>
-    <t>METROPOLIS</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>AMBUJACEM</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>CAPLIPOINT</t>
-  </si>
-  <si>
-    <t>STARHEALTH</t>
-  </si>
-  <si>
-    <t>WELCORP</t>
-  </si>
-  <si>
-    <t>NIACL</t>
-  </si>
-  <si>
-    <t>GODFRYPHLP</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>PIIND</t>
-  </si>
-  <si>
-    <t>BLS</t>
-  </si>
-  <si>
-    <t>APARINDS</t>
-  </si>
-  <si>
-    <t>BSOFT</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>DBL</t>
-  </si>
-  <si>
-    <t>DMART</t>
+    <t>JIOFIN</t>
+  </si>
+  <si>
+    <t>BRITANNIA</t>
+  </si>
+  <si>
+    <t>MAHLIFE</t>
   </si>
   <si>
     <t>JBCHEPHARM</t>
   </si>
   <si>
-    <t>ABBOTINDIA</t>
-  </si>
-  <si>
-    <t>TMB</t>
-  </si>
-  <si>
-    <t>NAVINFLUOR</t>
-  </si>
-  <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>FLUOROCHEM</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>BALKRISIND</t>
-  </si>
-  <si>
-    <t>GMMPFAUDLR</t>
-  </si>
-  <si>
-    <t>AARTIIND</t>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>AWHCL</t>
+  </si>
+  <si>
+    <t>COLPAL</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>CGCL</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>ICICIGI</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>TECHM</t>
   </si>
   <si>
     <t>LALPATHLAB</t>
@@ -250,19 +253,13 @@
     <t>DIXON</t>
   </si>
   <si>
-    <t>GPIL</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>BALAMINES</t>
-  </si>
-  <si>
-    <t>ZYDUSLIFE</t>
-  </si>
-  <si>
-    <t>KALYANKJIL</t>
+    <t>JKCEMENT</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Consumer Cyclical</t>
@@ -271,21 +268,18 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Basic Materials</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Financial Services</t>
   </si>
   <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -304,16 +298,16 @@
     <t>Early_Setup</t>
   </si>
   <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
     <t>2025-07-07</t>
   </si>
   <si>
     <t>2025-07-25</t>
   </si>
   <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
+    <t>2025-07-11</t>
   </si>
   <si>
     <t>2025-07-16</t>
@@ -328,22 +322,22 @@
     <t>2025-07-17</t>
   </si>
   <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
     <t>2025-07-22</t>
   </si>
   <si>
     <t>2025-07-08</t>
   </si>
   <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
     <t>2025-07-09</t>
   </si>
   <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
   </si>
   <si>
     <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
@@ -716,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,19 +765,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -792,19 +786,19 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K2">
-        <v>8040.5</v>
+        <v>608.45</v>
       </c>
       <c r="L2">
-        <v>7469.93</v>
+        <v>559.1</v>
       </c>
       <c r="M2">
-        <v>9181.639999999999</v>
+        <v>707.15</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -815,19 +809,19 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>49.4</v>
+        <v>51.81</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -836,19 +830,19 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K3">
-        <v>1559.4</v>
+        <v>3730.4</v>
       </c>
       <c r="L3">
-        <v>1505.56</v>
+        <v>3586.77</v>
       </c>
       <c r="M3">
-        <v>1667.09</v>
+        <v>4017.66</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -859,22 +853,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>49.4</v>
+        <v>50.78</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>50.78</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -883,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4">
-        <v>3730.6</v>
+        <v>49025</v>
       </c>
       <c r="L4">
-        <v>3585.1</v>
+        <v>46965.07</v>
       </c>
       <c r="M4">
-        <v>4021.6</v>
+        <v>53144.86</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -903,40 +897,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>60.78</v>
+        <v>50.6</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>60.78</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K5">
-        <v>1236.2</v>
+        <v>7989</v>
       </c>
       <c r="L5">
-        <v>1166.47</v>
+        <v>7452.93</v>
       </c>
       <c r="M5">
-        <v>1375.66</v>
+        <v>9061.139999999999</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -947,40 +941,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>53.37</v>
+        <v>39.76</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>53.37</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K6">
-        <v>207.58</v>
+        <v>1556.1</v>
       </c>
       <c r="L6">
-        <v>200.89</v>
+        <v>1501.93</v>
       </c>
       <c r="M6">
-        <v>220.96</v>
+        <v>1664.44</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -991,22 +985,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>94.88</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1015,16 +1009,16 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K7">
-        <v>6863.5</v>
+        <v>1381.4</v>
       </c>
       <c r="L7">
-        <v>6390.36</v>
+        <v>1300.4</v>
       </c>
       <c r="M7">
-        <v>7809.79</v>
+        <v>1543.4</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1035,40 +1029,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>94.88</v>
+        <v>53.55</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K8">
-        <v>652.25</v>
+        <v>434.75</v>
       </c>
       <c r="L8">
-        <v>607.64</v>
+        <v>400.59</v>
       </c>
       <c r="M8">
-        <v>741.48</v>
+        <v>503.06</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1079,22 +1073,22 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9">
-        <v>92.47</v>
+        <v>91.27</v>
       </c>
       <c r="E9">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1103,16 +1097,16 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>522.1</v>
+        <v>233.15</v>
       </c>
       <c r="L9">
-        <v>496.01</v>
+        <v>214.33</v>
       </c>
       <c r="M9">
-        <v>574.29</v>
+        <v>270.79</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1123,40 +1117,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>91.27</v>
+        <v>39.76</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10">
-        <v>564.35</v>
+        <v>522.45</v>
       </c>
       <c r="L10">
-        <v>525.7</v>
+        <v>496.23</v>
       </c>
       <c r="M10">
-        <v>641.65</v>
+        <v>574.89</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1167,22 +1161,22 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>88.86</v>
+        <v>33.73</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G11">
-        <v>91.27</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1191,16 +1185,16 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>71.29000000000001</v>
+        <v>40315</v>
       </c>
       <c r="L11">
-        <v>66.65000000000001</v>
+        <v>38387.86</v>
       </c>
       <c r="M11">
-        <v>80.58</v>
+        <v>44169.29</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1211,40 +1205,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>86.45</v>
+        <v>33.73</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>86.45</v>
+        <v>82.83</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K12">
-        <v>2652.7</v>
+        <v>3660.4</v>
       </c>
       <c r="L12">
-        <v>2481.09</v>
+        <v>3542.01</v>
       </c>
       <c r="M12">
-        <v>2995.93</v>
+        <v>3897.17</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1255,22 +1249,22 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13">
-        <v>82.83</v>
+        <v>31.33</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G13">
-        <v>82.83</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1279,16 +1273,16 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13">
-        <v>3665.1</v>
+        <v>715.15</v>
       </c>
       <c r="L13">
-        <v>3545.71</v>
+        <v>672.61</v>
       </c>
       <c r="M13">
-        <v>3903.87</v>
+        <v>800.22</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1299,40 +1293,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>81.63</v>
+        <v>31.33</v>
       </c>
       <c r="E14">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <v>86.45</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K14">
-        <v>722.05</v>
+        <v>2644.1</v>
       </c>
       <c r="L14">
-        <v>680.46</v>
+        <v>2470.94</v>
       </c>
       <c r="M14">
-        <v>805.24</v>
+        <v>2990.41</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1343,22 +1337,22 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>81.63</v>
+        <v>31.33</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G15">
-        <v>81.63</v>
+        <v>91.27</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1367,16 +1361,16 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>13805</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="L15">
-        <v>13263.57</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="M15">
-        <v>14887.86</v>
+        <v>81.11</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1387,22 +1381,22 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>93</v>
       </c>
       <c r="D16">
-        <v>53.37</v>
+        <v>28.92</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1411,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K16">
-        <v>20825</v>
+        <v>987.6</v>
       </c>
       <c r="L16">
-        <v>19132.86</v>
+        <v>926.95</v>
       </c>
       <c r="M16">
-        <v>24209.29</v>
+        <v>1108.9</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1431,40 +1425,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>38.55</v>
+        <v>28.92</v>
       </c>
       <c r="E17">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17">
-        <v>89.88</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>881.45</v>
+        <v>758.5</v>
       </c>
       <c r="L17">
-        <v>832.17</v>
+        <v>700.35</v>
       </c>
       <c r="M17">
-        <v>980.01</v>
+        <v>874.8</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1475,40 +1469,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>37.35</v>
+        <v>26.51</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>89.88</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K18">
-        <v>985.6</v>
+        <v>871</v>
       </c>
       <c r="L18">
-        <v>928.72</v>
+        <v>821.01</v>
       </c>
       <c r="M18">
-        <v>1099.36</v>
+        <v>970.99</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1519,40 +1513,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>34.94</v>
+        <v>26.51</v>
       </c>
       <c r="E19">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>75.42</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>40060</v>
+        <v>629.9</v>
       </c>
       <c r="L19">
-        <v>38107.86</v>
+        <v>595.02</v>
       </c>
       <c r="M19">
-        <v>43964.29</v>
+        <v>699.65</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1563,22 +1557,22 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20">
-        <v>34.94</v>
+        <v>26.51</v>
       </c>
       <c r="E20">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1587,16 +1581,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K20">
-        <v>498.3</v>
+        <v>390</v>
       </c>
       <c r="L20">
-        <v>437.46</v>
+        <v>357.81</v>
       </c>
       <c r="M20">
-        <v>619.99</v>
+        <v>454.37</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1607,40 +1601,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>33.73</v>
+        <v>22.89</v>
       </c>
       <c r="E21">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21">
         <v>100</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K21">
-        <v>762.95</v>
+        <v>6652.5</v>
       </c>
       <c r="L21">
-        <v>704.66</v>
+        <v>6163.21</v>
       </c>
       <c r="M21">
-        <v>879.52</v>
+        <v>7631.07</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1651,40 +1645,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>28.92</v>
+        <v>22.89</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G22">
-        <v>84.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>424.95</v>
+        <v>3885.5</v>
       </c>
       <c r="L22">
-        <v>391.94</v>
+        <v>3647.01</v>
       </c>
       <c r="M22">
-        <v>490.98</v>
+        <v>4362.48</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1695,40 +1689,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>25.3</v>
+        <v>22.89</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <v>75.23999999999999</v>
+        <v>81.63</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>1001.35</v>
+        <v>13696</v>
       </c>
       <c r="L23">
-        <v>945.39</v>
+        <v>13155.89</v>
       </c>
       <c r="M23">
-        <v>1113.26</v>
+        <v>14776.22</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1739,40 +1733,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>92</v>
       </c>
       <c r="D24">
-        <v>24.1</v>
+        <v>22.89</v>
       </c>
       <c r="E24">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G24">
-        <v>70.42</v>
+        <v>92.47</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>1201.4</v>
+        <v>309.4</v>
       </c>
       <c r="L24">
-        <v>1127.76</v>
+        <v>287.35</v>
       </c>
       <c r="M24">
-        <v>1348.68</v>
+        <v>353.5</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1783,19 +1777,19 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>20.48</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25">
         <v>100</v>
@@ -1807,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>5670</v>
+        <v>5692</v>
       </c>
       <c r="L25">
-        <v>5432.71</v>
+        <v>5455.5</v>
       </c>
       <c r="M25">
-        <v>6144.57</v>
+        <v>6165</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1827,40 +1821,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E26">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G26">
-        <v>92.47</v>
+        <v>100</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K26">
-        <v>303.45</v>
+        <v>1438</v>
       </c>
       <c r="L26">
-        <v>282.21</v>
+        <v>1372.09</v>
       </c>
       <c r="M26">
-        <v>345.92</v>
+        <v>1569.83</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1871,40 +1865,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>20.48</v>
+        <v>16.87</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
         <v>100</v>
       </c>
-      <c r="G27">
-        <v>76.45</v>
-      </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>492.15</v>
+        <v>1084.75</v>
       </c>
       <c r="L27">
-        <v>478.68</v>
+        <v>1006.84</v>
       </c>
       <c r="M27">
-        <v>519.08</v>
+        <v>1240.56</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1915,40 +1909,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>15.66</v>
+      </c>
+      <c r="E28">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>95</v>
-      </c>
-      <c r="D28">
-        <v>20.48</v>
-      </c>
-      <c r="E28">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
       </c>
       <c r="G28">
         <v>82.83</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>842.7</v>
+        <v>851.25</v>
       </c>
       <c r="L28">
-        <v>803.0599999999999</v>
+        <v>811.08</v>
       </c>
       <c r="M28">
-        <v>921.98</v>
+        <v>931.59</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1959,22 +1953,22 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>19.28</v>
+        <v>14.46</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G29">
-        <v>70.78</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1983,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>398.25</v>
+        <v>1260.1</v>
       </c>
       <c r="L29">
-        <v>399.57</v>
+        <v>1222.77</v>
       </c>
       <c r="M29">
-        <v>395.6</v>
+        <v>1334.76</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2003,40 +1997,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>19.28</v>
+        <v>14.46</v>
       </c>
       <c r="E30">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <v>85.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K30">
-        <v>721.9</v>
+        <v>972.9</v>
       </c>
       <c r="L30">
-        <v>690.15</v>
+        <v>883.46</v>
       </c>
       <c r="M30">
-        <v>785.4</v>
+        <v>1151.79</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2047,22 +2041,22 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
       <c r="E31">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
         <v>98</v>
       </c>
       <c r="G31">
-        <v>96.08</v>
+        <v>100</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2071,16 +2065,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>2671.4</v>
+        <v>489.75</v>
       </c>
       <c r="L31">
-        <v>2449.09</v>
+        <v>427.88</v>
       </c>
       <c r="M31">
-        <v>3116.03</v>
+        <v>613.49</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2091,22 +2085,22 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>16.87</v>
+        <v>13.25</v>
       </c>
       <c r="E32">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G32">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2115,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K32">
-        <v>2060.7</v>
+        <v>3594</v>
       </c>
       <c r="L32">
-        <v>1927.8</v>
+        <v>3482.9</v>
       </c>
       <c r="M32">
-        <v>2326.5</v>
+        <v>3816.2</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2135,40 +2129,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>7.23</v>
+      </c>
+      <c r="E33">
         <v>85</v>
       </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33">
-        <v>14.46</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33">
-        <v>86.45</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K33">
-        <v>503.55</v>
+        <v>619.2</v>
       </c>
       <c r="L33">
-        <v>468.9</v>
+        <v>598.4299999999999</v>
       </c>
       <c r="M33">
-        <v>572.84</v>
+        <v>660.74</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2179,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
+        <v>4.82</v>
+      </c>
+      <c r="E34">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="D34">
-        <v>14.46</v>
-      </c>
-      <c r="E34">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
-      </c>
       <c r="G34">
-        <v>100</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2203,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K34">
-        <v>1899.9</v>
+        <v>2150.6</v>
       </c>
       <c r="L34">
-        <v>1797.25</v>
+        <v>2046.61</v>
       </c>
       <c r="M34">
-        <v>2105.2</v>
+        <v>2358.58</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2223,40 +2217,40 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35">
-        <v>13.25</v>
+        <v>44.94</v>
       </c>
       <c r="E35">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G35">
-        <v>71.98999999999999</v>
+        <v>49.4</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K35">
-        <v>463.35</v>
+        <v>270</v>
       </c>
       <c r="L35">
-        <v>440.51</v>
+        <v>253.13</v>
       </c>
       <c r="M35">
-        <v>509.03</v>
+        <v>303.75</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2267,40 +2261,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36">
-        <v>12.05</v>
+        <v>44.94</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>72.29000000000001</v>
+        <v>44.94</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36">
-        <v>2020.1</v>
+        <v>586.85</v>
       </c>
       <c r="L36">
-        <v>1889.87</v>
+        <v>553.28</v>
       </c>
       <c r="M36">
-        <v>2280.57</v>
+        <v>654</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2311,40 +2305,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37">
-        <v>10.84</v>
+        <v>43.37</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>90.06</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K37">
-        <v>982.85</v>
+        <v>205.9</v>
       </c>
       <c r="L37">
-        <v>955.49</v>
+        <v>191.19</v>
       </c>
       <c r="M37">
-        <v>1037.57</v>
+        <v>235.32</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2355,40 +2349,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>8.43</v>
+        <v>42.17</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G38">
-        <v>100</v>
+        <v>91.27</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K38">
-        <v>617.85</v>
+        <v>574.85</v>
       </c>
       <c r="L38">
-        <v>597.51</v>
+        <v>532.21</v>
       </c>
       <c r="M38">
-        <v>658.54</v>
+        <v>660.14</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2399,40 +2393,40 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>92</v>
       </c>
       <c r="D39">
-        <v>8.43</v>
+        <v>40.96</v>
       </c>
       <c r="E39">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G39">
-        <v>81.27</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K39">
-        <v>72.06</v>
+        <v>648.5</v>
       </c>
       <c r="L39">
-        <v>70.03</v>
+        <v>601.87</v>
       </c>
       <c r="M39">
-        <v>76.12</v>
+        <v>741.76</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2446,37 +2440,37 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40">
-        <v>47.35</v>
+        <v>63.19</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G40">
-        <v>47.35</v>
+        <v>63.19</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K40">
-        <v>2145.8</v>
+        <v>835.15</v>
       </c>
       <c r="L40">
-        <v>2050.53</v>
+        <v>788.1</v>
       </c>
       <c r="M40">
-        <v>2336.34</v>
+        <v>929.26</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2487,40 +2481,40 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>44.94</v>
+        <v>52.17</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G41">
-        <v>44.94</v>
+        <v>88.86</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K41">
-        <v>447.8</v>
+        <v>6183.5</v>
       </c>
       <c r="L41">
-        <v>426.24</v>
+        <v>5780.36</v>
       </c>
       <c r="M41">
-        <v>490.93</v>
+        <v>6989.79</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2531,40 +2525,40 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>44.94</v>
+        <v>34.94</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G42">
-        <v>44.94</v>
+        <v>34.94</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K42">
-        <v>941.6</v>
+        <v>489</v>
       </c>
       <c r="L42">
-        <v>897.79</v>
+        <v>449.87</v>
       </c>
       <c r="M42">
-        <v>1029.23</v>
+        <v>567.26</v>
       </c>
       <c r="N42">
         <v>2</v>
@@ -2575,40 +2569,40 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D43">
-        <v>44.58</v>
+        <v>34.1</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G43">
-        <v>44.58</v>
+        <v>40.96</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K43">
-        <v>204.35</v>
+        <v>593.5</v>
       </c>
       <c r="L43">
-        <v>191.91</v>
+        <v>571.3200000000001</v>
       </c>
       <c r="M43">
-        <v>229.23</v>
+        <v>637.87</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2619,40 +2613,40 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>40.12</v>
+        <v>33.92</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G44">
-        <v>90.06</v>
+        <v>33.92</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K44">
-        <v>9390.5</v>
+        <v>2355.1</v>
       </c>
       <c r="L44">
-        <v>8736.620000000001</v>
+        <v>2214.54</v>
       </c>
       <c r="M44">
-        <v>10698.27</v>
+        <v>2636.21</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -2663,40 +2657,40 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>40.12</v>
+        <v>32.71</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45">
-        <v>40.12</v>
+        <v>39.76</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45">
-        <v>48315</v>
+        <v>1797.5</v>
       </c>
       <c r="L45">
-        <v>46827.69</v>
+        <v>1707.29</v>
       </c>
       <c r="M45">
-        <v>51289.62</v>
+        <v>1977.92</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -2707,40 +2701,40 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>40.12</v>
+        <v>32.71</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G46">
-        <v>40.12</v>
+        <v>32.71</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K46">
-        <v>2806.6</v>
+        <v>3610.6</v>
       </c>
       <c r="L46">
-        <v>2720.18</v>
+        <v>3485.35</v>
       </c>
       <c r="M46">
-        <v>2979.45</v>
+        <v>3861.11</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -2751,40 +2745,40 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>52.17</v>
+        <v>30.12</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47">
-        <v>52.17</v>
+        <v>63.86</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>4324.2</v>
+        <v>2541</v>
       </c>
       <c r="L47">
-        <v>4133.43</v>
+        <v>2457.97</v>
       </c>
       <c r="M47">
-        <v>4705.74</v>
+        <v>2707.06</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -2795,40 +2789,40 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>38.92</v>
+        <v>28.92</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G48">
-        <v>38.92</v>
+        <v>36.14</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K48">
-        <v>377.25</v>
+        <v>4297.3</v>
       </c>
       <c r="L48">
-        <v>368.71</v>
+        <v>4102.49</v>
       </c>
       <c r="M48">
-        <v>394.33</v>
+        <v>4686.93</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -2839,43 +2833,43 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D49">
-        <v>36.14</v>
+        <v>26.51</v>
       </c>
       <c r="E49">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>104</v>
       </c>
       <c r="G49">
-        <v>65.59999999999999</v>
+        <v>26.51</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K49">
-        <v>9669.5</v>
+        <v>1601</v>
       </c>
       <c r="L49">
-        <v>8906.860000000001</v>
+        <v>1625.51</v>
       </c>
       <c r="M49">
-        <v>11194.79</v>
+        <v>1551.98</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2883,40 +2877,40 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
       <c r="D50">
-        <v>34.1</v>
+        <v>26.51</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G50">
-        <v>34.1</v>
+        <v>58.19</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K50">
-        <v>414.75</v>
+        <v>672.65</v>
       </c>
       <c r="L50">
-        <v>407.92</v>
+        <v>654.7</v>
       </c>
       <c r="M50">
-        <v>428.4</v>
+        <v>708.55</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -2927,40 +2921,40 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>92</v>
       </c>
       <c r="D51">
-        <v>33.92</v>
+        <v>24.1</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51">
-        <v>33.92</v>
+        <v>60.78</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>1733.8</v>
+        <v>1236.1</v>
       </c>
       <c r="L51">
-        <v>1686.21</v>
+        <v>1169.13</v>
       </c>
       <c r="M51">
-        <v>1828.97</v>
+        <v>1370.04</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -2971,40 +2965,40 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>32.89</v>
+        <v>22.89</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G52">
-        <v>38.92</v>
+        <v>22.89</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K52">
-        <v>481.25</v>
+        <v>330.15</v>
       </c>
       <c r="L52">
-        <v>479.24</v>
+        <v>314.56</v>
       </c>
       <c r="M52">
-        <v>485.27</v>
+        <v>361.34</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3015,40 +3009,40 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D53">
-        <v>27.71</v>
+        <v>21.69</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G53">
-        <v>33.73</v>
+        <v>21.69</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K53">
-        <v>4281.4</v>
+        <v>5814</v>
       </c>
       <c r="L53">
-        <v>4081.99</v>
+        <v>5674.27</v>
       </c>
       <c r="M53">
-        <v>4680.23</v>
+        <v>6093.46</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3059,40 +3053,40 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54">
-        <v>27.71</v>
+        <v>21.69</v>
       </c>
       <c r="E54">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G54">
-        <v>38.55</v>
+        <v>34.94</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K54">
-        <v>1782.6</v>
+        <v>364.15</v>
       </c>
       <c r="L54">
-        <v>1716.57</v>
+        <v>360.24</v>
       </c>
       <c r="M54">
-        <v>1914.66</v>
+        <v>371.97</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3103,40 +3097,40 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55">
-        <v>22.89</v>
+        <v>19.28</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G55">
-        <v>22.89</v>
+        <v>38.55</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K55">
-        <v>35195</v>
+        <v>1773.9</v>
       </c>
       <c r="L55">
-        <v>33732.97</v>
+        <v>1705.49</v>
       </c>
       <c r="M55">
-        <v>38119.07</v>
+        <v>1910.73</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3147,40 +3141,40 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>19.28</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
         <v>95</v>
       </c>
-      <c r="D56">
-        <v>21.69</v>
-      </c>
-      <c r="E56">
-        <v>51</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
-      </c>
       <c r="G56">
-        <v>41.14</v>
+        <v>22.89</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K56">
-        <v>460.05</v>
+        <v>712.65</v>
       </c>
       <c r="L56">
-        <v>448.45</v>
+        <v>706.16</v>
       </c>
       <c r="M56">
-        <v>483.24</v>
+        <v>725.62</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3191,40 +3185,40 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D57">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G57">
-        <v>66.81</v>
+        <v>19.28</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K57">
-        <v>5189.6</v>
+        <v>623.6</v>
       </c>
       <c r="L57">
-        <v>4923.43</v>
+        <v>617.79</v>
       </c>
       <c r="M57">
-        <v>5721.94</v>
+        <v>635.23</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3235,22 +3229,22 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D58">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G58">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -3259,16 +3253,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K58">
-        <v>746.3</v>
+        <v>2255</v>
       </c>
       <c r="L58">
-        <v>756.73</v>
+        <v>2300.65</v>
       </c>
       <c r="M58">
-        <v>725.45</v>
+        <v>2163.7</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3279,43 +3273,43 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G59">
-        <v>20.48</v>
+        <v>19.28</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K59">
-        <v>3595</v>
+        <v>1522.5</v>
       </c>
       <c r="L59">
-        <v>3479.34</v>
+        <v>1547.32</v>
       </c>
       <c r="M59">
-        <v>3826.31</v>
+        <v>1472.86</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3323,22 +3317,22 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>19.28</v>
+        <v>15.66</v>
       </c>
       <c r="E60">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G60">
-        <v>39.76</v>
+        <v>32.53</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3347,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K60">
-        <v>534.25</v>
+        <v>187.88</v>
       </c>
       <c r="L60">
-        <v>513</v>
+        <v>176.67</v>
       </c>
       <c r="M60">
-        <v>576.74</v>
+        <v>210.31</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3367,40 +3361,40 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61">
-        <v>19.28</v>
+        <v>14.46</v>
       </c>
       <c r="E61">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G61">
-        <v>43.37</v>
+        <v>63.37</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K61">
-        <v>2759.1</v>
+        <v>1492.2</v>
       </c>
       <c r="L61">
-        <v>2641.55</v>
+        <v>1455.37</v>
       </c>
       <c r="M61">
-        <v>2994.2</v>
+        <v>1565.86</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3411,40 +3405,40 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <v>13.25</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
         <v>95</v>
       </c>
-      <c r="D62">
-        <v>18.07</v>
-      </c>
-      <c r="E62">
-        <v>30</v>
-      </c>
-      <c r="F62" t="s">
-        <v>96</v>
-      </c>
       <c r="G62">
-        <v>39.76</v>
+        <v>13.25</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>1356</v>
+        <v>1932.9</v>
       </c>
       <c r="L62">
-        <v>1283.04</v>
+        <v>1928.34</v>
       </c>
       <c r="M62">
-        <v>1501.91</v>
+        <v>1942.02</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -3455,43 +3449,43 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>14.46</v>
+        <v>13.25</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G63">
-        <v>20.48</v>
+        <v>13.25</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K63">
-        <v>445.5</v>
+        <v>4562.7</v>
       </c>
       <c r="L63">
-        <v>440.09</v>
+        <v>4666.06</v>
       </c>
       <c r="M63">
-        <v>456.32</v>
+        <v>4355.98</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3499,43 +3493,43 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D64">
-        <v>12.05</v>
+        <v>13.25</v>
       </c>
       <c r="E64">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G64">
-        <v>58.19</v>
+        <v>13.25</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>3099.1</v>
+        <v>1470.9</v>
       </c>
       <c r="L64">
-        <v>2942.58</v>
+        <v>1517.96</v>
       </c>
       <c r="M64">
-        <v>3412.14</v>
+        <v>1376.79</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3543,40 +3537,40 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65">
         <v>12.05</v>
       </c>
       <c r="E65">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G65">
-        <v>61.99</v>
+        <v>58.19</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K65">
-        <v>16765</v>
+        <v>3104</v>
       </c>
       <c r="L65">
-        <v>16113.57</v>
+        <v>2953.27</v>
       </c>
       <c r="M65">
-        <v>18067.86</v>
+        <v>3405.47</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3587,40 +3581,40 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <v>9.640000000000001</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G66">
-        <v>26.51</v>
+        <v>61.99</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K66">
-        <v>195.37</v>
+        <v>16887</v>
       </c>
       <c r="L66">
-        <v>187.38</v>
+        <v>16157.57</v>
       </c>
       <c r="M66">
-        <v>211.35</v>
+        <v>18345.86</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -3631,22 +3625,22 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D67">
-        <v>9.640000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="E67">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G67">
-        <v>60.24</v>
+        <v>22.89</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3655,150 +3649,18 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K67">
-        <v>522</v>
+        <v>6665</v>
       </c>
       <c r="L67">
-        <v>508.81</v>
+        <v>6350.98</v>
       </c>
       <c r="M67">
-        <v>548.38</v>
+        <v>7293.05</v>
       </c>
       <c r="N67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68">
-        <v>8.43</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68">
-        <v>39.76</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>114</v>
-      </c>
-      <c r="K68">
-        <v>1726.4</v>
-      </c>
-      <c r="L68">
-        <v>1702.39</v>
-      </c>
-      <c r="M68">
-        <v>1774.43</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69">
-        <v>4.82</v>
-      </c>
-      <c r="E69">
-        <v>18</v>
-      </c>
-      <c r="F69" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69">
-        <v>14.46</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>114</v>
-      </c>
-      <c r="K69">
-        <v>995.15</v>
-      </c>
-      <c r="L69">
-        <v>969</v>
-      </c>
-      <c r="M69">
-        <v>1047.45</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70">
-        <v>4.82</v>
-      </c>
-      <c r="E70">
-        <v>31</v>
-      </c>
-      <c r="F70" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70">
-        <v>30.12</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>114</v>
-      </c>
-      <c r="K70">
-        <v>606.65</v>
-      </c>
-      <c r="L70">
-        <v>582.26</v>
-      </c>
-      <c r="M70">
-        <v>655.4400000000001</v>
-      </c>
-      <c r="N70">
         <v>2</v>
       </c>
     </row>

--- a/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
+++ b/Daily/G_Pattern_Master/G_Pattern_Master_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="243">
   <si>
     <t>Ticker</t>
   </si>
@@ -58,202 +58,679 @@
     <t>Risk_Reward</t>
   </si>
   <si>
-    <t>BSOFT</t>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>HARIOMPIPE</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>MAHABANK</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>IIFL</t>
+  </si>
+  <si>
+    <t>JSWENERGY</t>
+  </si>
+  <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
+    <t>GSPL</t>
+  </si>
+  <si>
+    <t>PNBHOUSING</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>KARURVYSYA</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>ICICIPRULI</t>
+  </si>
+  <si>
+    <t>UJJIVANSFB</t>
+  </si>
+  <si>
+    <t>FORCEMOT</t>
+  </si>
+  <si>
+    <t>CSBBANK</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>HEROMOTOCO</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>SHRIRAMFIN</t>
+  </si>
+  <si>
+    <t>EQUITASBNK</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>INDIANB</t>
+  </si>
+  <si>
+    <t>HAPPYFORGE</t>
+  </si>
+  <si>
+    <t>LTF</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>HINDALCO</t>
+  </si>
+  <si>
+    <t>INDUSTOWER</t>
+  </si>
+  <si>
+    <t>ONWARDTEC</t>
+  </si>
+  <si>
+    <t>ASHOKLEY</t>
+  </si>
+  <si>
+    <t>ADANIENSOL</t>
+  </si>
+  <si>
+    <t>SUPREMEIND</t>
+  </si>
+  <si>
+    <t>AETHER</t>
+  </si>
+  <si>
+    <t>NLCINDIA</t>
+  </si>
+  <si>
+    <t>TVSMOTOR</t>
+  </si>
+  <si>
+    <t>INDUSINDBK</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>TRENT</t>
+  </si>
+  <si>
+    <t>BANKBARODA</t>
+  </si>
+  <si>
+    <t>KEI</t>
+  </si>
+  <si>
+    <t>TATAPOWER</t>
+  </si>
+  <si>
+    <t>MMTC</t>
+  </si>
+  <si>
+    <t>GMDCLTD</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>NATIONALUM</t>
+  </si>
+  <si>
+    <t>HINDCOPPER</t>
+  </si>
+  <si>
+    <t>GPIL</t>
+  </si>
+  <si>
+    <t>JSL</t>
+  </si>
+  <si>
+    <t>AJANTPHARM</t>
+  </si>
+  <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
+    <t>CRAFTSMAN</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>NSLNISP</t>
+  </si>
+  <si>
+    <t>ALLCARGO</t>
+  </si>
+  <si>
+    <t>VBL</t>
+  </si>
+  <si>
+    <t>MEDANTA</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>SUNDARMFIN</t>
+  </si>
+  <si>
+    <t>SILVERBEES</t>
+  </si>
+  <si>
+    <t>SILVER1</t>
+  </si>
+  <si>
+    <t>HINDZINC</t>
+  </si>
+  <si>
+    <t>AMBUJACEM</t>
+  </si>
+  <si>
+    <t>ALEMBICLTD</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>CANBK</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>APLAPOLLO</t>
+  </si>
+  <si>
+    <t>CESC</t>
+  </si>
+  <si>
+    <t>3MINDIA</t>
+  </si>
+  <si>
+    <t>ASHAPURMIN</t>
+  </si>
+  <si>
+    <t>FORTIS</t>
+  </si>
+  <si>
+    <t>RRKABEL</t>
+  </si>
+  <si>
+    <t>RVNL</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>IRFC</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>PETRONET</t>
+  </si>
+  <si>
+    <t>MAITHANALL</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>NBCC</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>MUTHOOTFIN</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>OBEROIRLTY</t>
+  </si>
+  <si>
+    <t>POWERINDIA</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>IRCON</t>
+  </si>
+  <si>
+    <t>ANANDRATHI</t>
+  </si>
+  <si>
+    <t>KTKBANK</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>SHYAMMETL</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>SBILIFE</t>
+  </si>
+  <si>
+    <t>BHARATFORG</t>
+  </si>
+  <si>
+    <t>GRANULES</t>
+  </si>
+  <si>
+    <t>MOTHERSON</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>SURYAROSNI</t>
+  </si>
+  <si>
+    <t>LICHSGFIN</t>
+  </si>
+  <si>
+    <t>THERMAX</t>
+  </si>
+  <si>
+    <t>360ONE</t>
+  </si>
+  <si>
+    <t>PHOENIXLTD</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>JBMA</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
+  </si>
+  <si>
+    <t>TARC</t>
+  </si>
+  <si>
+    <t>OLAELEC</t>
+  </si>
+  <si>
+    <t>FINPIPE</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>GUJGASLTD</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>POLYCAB</t>
+  </si>
+  <si>
+    <t>SJVN</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>NHPC</t>
+  </si>
+  <si>
+    <t>ELECON</t>
+  </si>
+  <si>
+    <t>TIMETECHNO</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
   </si>
   <si>
     <t>WIPRO</t>
   </si>
   <si>
-    <t>POLICYBZR</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>HINDCOPPER</t>
-  </si>
-  <si>
-    <t>AJANTPHARM</t>
-  </si>
-  <si>
-    <t>SILVER</t>
-  </si>
-  <si>
-    <t>SILVERBEES</t>
-  </si>
-  <si>
-    <t>LTIM</t>
-  </si>
-  <si>
-    <t>SILVER1</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>COFORGE</t>
-  </si>
-  <si>
-    <t>ZFCVINDIA</t>
-  </si>
-  <si>
-    <t>ASHOKLEY</t>
-  </si>
-  <si>
-    <t>MPHASIS</t>
-  </si>
-  <si>
-    <t>FEDERALBNK</t>
-  </si>
-  <si>
-    <t>NATIONALUM</t>
-  </si>
-  <si>
-    <t>JBCHEPHARM</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>MUTHOOTFIN</t>
-  </si>
-  <si>
-    <t>SBILIFE</t>
-  </si>
-  <si>
-    <t>AUBANK</t>
-  </si>
-  <si>
-    <t>ABCAPITAL</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO</t>
-  </si>
-  <si>
-    <t>MOTHERSON</t>
-  </si>
-  <si>
-    <t>LEMONTREE</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>CANFINHOME</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>DRREDDY</t>
+    <t>MUNJALAU</t>
+  </si>
+  <si>
+    <t>UCOBANK</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>TVSSCS</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>BLUESTARCO</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>UNOMINDA</t>
+  </si>
+  <si>
+    <t>RCF</t>
+  </si>
+  <si>
+    <t>CENTRALBK</t>
+  </si>
+  <si>
+    <t>ADANIPOWER</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>PGEL</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>AVANTIFEED</t>
+  </si>
+  <si>
+    <t>CONCOR</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>POONAWALLA</t>
+  </si>
+  <si>
+    <t>SUNDRMFAST</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>GIPCL</t>
+  </si>
+  <si>
+    <t>ENGINERSIN</t>
+  </si>
+  <si>
+    <t>JIOFIN</t>
   </si>
   <si>
     <t>GRASIM</t>
   </si>
   <si>
-    <t>LUPIN</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
+    <t>GSFC</t>
+  </si>
+  <si>
+    <t>VIJAYA</t>
+  </si>
+  <si>
+    <t>HAVELLS</t>
+  </si>
+  <si>
+    <t>DOMS</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
+    <t>Energy</t>
   </si>
   <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
+    <t>Real Estate</t>
   </si>
   <si>
     <t>G_Pattern</t>
   </si>
   <si>
+    <t>Building_G</t>
+  </si>
+  <si>
     <t>H2_Momentum_Start</t>
   </si>
   <si>
+    <t>Strong_H2_KC_Combo</t>
+  </si>
+  <si>
+    <t>Power_H2_Volume</t>
+  </si>
+  <si>
+    <t>KC_Breakout_Watch</t>
+  </si>
+  <si>
+    <t>Early_Setup</t>
+  </si>
+  <si>
     <t>KC_Multi_H2</t>
   </si>
   <si>
-    <t>KC_Breakout_Watch</t>
-  </si>
-  <si>
-    <t>Early_Setup</t>
-  </si>
-  <si>
-    <t>Power_H2_Volume</t>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
   </si>
   <si>
     <t>2025-07-30</t>
   </si>
   <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
+    <t>2025-07-28</t>
   </si>
   <si>
     <t>2025-07-09</t>
   </si>
   <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
   </si>
   <si>
     <t>G PATTERN CONFIRMED - FULL POSITION (100%)</t>
+  </si>
+  <si>
+    <t>G PATTERN DEVELOPING - DOUBLE POSITION (50%)</t>
   </si>
   <si>
     <t>PATTERN EMERGING - INITIAL POSITION (25%)</t>
@@ -623,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,19 +1155,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>59.04</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -699,19 +1176,19 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="K2">
-        <v>434.1</v>
+        <v>1075.7</v>
       </c>
       <c r="L2">
-        <v>409.34</v>
+        <v>1029.51</v>
       </c>
       <c r="M2">
-        <v>483.63</v>
+        <v>1168.07</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -722,40 +1199,40 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="D3">
-        <v>58.37</v>
+        <v>99.52</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="G3">
-        <v>58.37</v>
+        <v>99.52</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="K3">
-        <v>262.03</v>
+        <v>391.1</v>
       </c>
       <c r="L3">
-        <v>253.98</v>
+        <v>367.56</v>
       </c>
       <c r="M3">
-        <v>278.13</v>
+        <v>438.19</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -766,40 +1243,40 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="D4">
-        <v>53.55</v>
+        <v>94.7</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="G4">
-        <v>57.83</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="K4">
-        <v>1926.3</v>
+        <v>182.8</v>
       </c>
       <c r="L4">
-        <v>1838.1</v>
+        <v>176.8</v>
       </c>
       <c r="M4">
-        <v>2102.7</v>
+        <v>194.79</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -810,40 +1287,40 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>39.94</v>
+        <v>60.24</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="G5">
-        <v>80.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="K5">
-        <v>777</v>
+        <v>63.81</v>
       </c>
       <c r="L5">
-        <v>757.5599999999999</v>
+        <v>61.29</v>
       </c>
       <c r="M5">
-        <v>815.87</v>
+        <v>68.84</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -854,40 +1331,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="D6">
-        <v>33.73</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="G6">
-        <v>80.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K6">
-        <v>1582.4</v>
+        <v>382.05</v>
       </c>
       <c r="L6">
-        <v>1528.26</v>
+        <v>365.65</v>
       </c>
       <c r="M6">
-        <v>1690.69</v>
+        <v>414.85</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -898,40 +1375,40 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D7">
-        <v>30.12</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="G7">
-        <v>82.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K7">
-        <v>369.45</v>
+        <v>375.85</v>
       </c>
       <c r="L7">
-        <v>345.01</v>
+        <v>360.76</v>
       </c>
       <c r="M7">
-        <v>418.32</v>
+        <v>406.04</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -942,40 +1419,40 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="D8">
-        <v>28.92</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="G8">
-        <v>93.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K8">
-        <v>2680.9</v>
+        <v>1390.9</v>
       </c>
       <c r="L8">
-        <v>2569.93</v>
+        <v>1330.03</v>
       </c>
       <c r="M8">
-        <v>2902.84</v>
+        <v>1512.64</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -986,40 +1463,40 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D9">
-        <v>26.51</v>
+        <v>98.31</v>
       </c>
       <c r="E9">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K9">
-        <v>178.33</v>
+        <v>647.7</v>
       </c>
       <c r="L9">
-        <v>169.11</v>
+        <v>615.3099999999999</v>
       </c>
       <c r="M9">
-        <v>196.78</v>
+        <v>712.49</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1030,40 +1507,40 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>26.51</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E10">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K10">
-        <v>171.08</v>
+        <v>513.5</v>
       </c>
       <c r="L10">
-        <v>162.41</v>
+        <v>492.46</v>
       </c>
       <c r="M10">
-        <v>188.43</v>
+        <v>555.59</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1074,40 +1551,40 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D11">
-        <v>26.51</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="E11">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K11">
-        <v>6285</v>
+        <v>71.14</v>
       </c>
       <c r="L11">
-        <v>6037.43</v>
+        <v>66.52</v>
       </c>
       <c r="M11">
-        <v>6780.14</v>
+        <v>80.38</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1118,40 +1595,40 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D12">
-        <v>26.51</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K12">
-        <v>173.35</v>
+        <v>318.5</v>
       </c>
       <c r="L12">
-        <v>162.76</v>
+        <v>303.41</v>
       </c>
       <c r="M12">
-        <v>194.54</v>
+        <v>348.69</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1162,40 +1639,40 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D13">
-        <v>25.3</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="G13">
-        <v>79.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K13">
-        <v>3249.4</v>
+        <v>999.6</v>
       </c>
       <c r="L13">
-        <v>3159.94</v>
+        <v>945.91</v>
       </c>
       <c r="M13">
-        <v>3428.31</v>
+        <v>1106.99</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1206,40 +1683,40 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D14">
-        <v>22.89</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="E14">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="G14">
-        <v>77.83</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K14">
-        <v>1951.8</v>
+        <v>348</v>
       </c>
       <c r="L14">
-        <v>1859.69</v>
+        <v>338.43</v>
       </c>
       <c r="M14">
-        <v>2136.03</v>
+        <v>367.14</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1250,40 +1727,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D15">
-        <v>20.48</v>
+        <v>88.67</v>
       </c>
       <c r="E15">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="G15">
-        <v>92.47</v>
+        <v>88.67</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K15">
-        <v>14859</v>
+        <v>274.65</v>
       </c>
       <c r="L15">
-        <v>13682.71</v>
+        <v>259.22</v>
       </c>
       <c r="M15">
-        <v>17211.57</v>
+        <v>305.52</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1294,40 +1771,40 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D16">
-        <v>20.48</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="E16">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="G16">
-        <v>82.47</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K16">
-        <v>160.85</v>
+        <v>295.4</v>
       </c>
       <c r="L16">
-        <v>152.61</v>
+        <v>282.76</v>
       </c>
       <c r="M16">
-        <v>177.34</v>
+        <v>320.67</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1338,40 +1815,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D17">
-        <v>16.87</v>
+        <v>81.45</v>
       </c>
       <c r="E17">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="G17">
-        <v>70.59999999999999</v>
+        <v>81.63</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K17">
-        <v>2903</v>
+        <v>149.34</v>
       </c>
       <c r="L17">
-        <v>2799.43</v>
+        <v>143.82</v>
       </c>
       <c r="M17">
-        <v>3110.15</v>
+        <v>160.38</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1382,40 +1859,40 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D18">
-        <v>13.25</v>
+        <v>77.83</v>
       </c>
       <c r="E18">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>83.86</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K18">
-        <v>257.7</v>
+        <v>679.55</v>
       </c>
       <c r="L18">
-        <v>248.69</v>
+        <v>657.63</v>
       </c>
       <c r="M18">
-        <v>275.72</v>
+        <v>723.39</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1426,40 +1903,40 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D19">
-        <v>13.25</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E19">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>70.42</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K19">
-        <v>271.4</v>
+        <v>55.64</v>
       </c>
       <c r="L19">
-        <v>259.82</v>
+        <v>52.99</v>
       </c>
       <c r="M19">
-        <v>294.56</v>
+        <v>60.93</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1470,40 +1947,40 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D20">
-        <v>10.84</v>
+        <v>63.86</v>
       </c>
       <c r="E20">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="G20">
         <v>100</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K20">
-        <v>1823.1</v>
+        <v>20650</v>
       </c>
       <c r="L20">
-        <v>1761.03</v>
+        <v>19234</v>
       </c>
       <c r="M20">
-        <v>1947.24</v>
+        <v>23482</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1514,40 +1991,40 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="D21">
-        <v>10.84</v>
+        <v>61.45</v>
       </c>
       <c r="E21">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="G21">
-        <v>81.45</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K21">
-        <v>1622.5</v>
+        <v>482.85</v>
       </c>
       <c r="L21">
-        <v>1566.86</v>
+        <v>451.02</v>
       </c>
       <c r="M21">
-        <v>1733.79</v>
+        <v>546.51</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1558,40 +2035,40 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D22">
-        <v>10.84</v>
+        <v>60.24</v>
       </c>
       <c r="E22">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K22">
-        <v>3764.6</v>
+        <v>147.22</v>
       </c>
       <c r="L22">
-        <v>3635.4</v>
+        <v>138.82</v>
       </c>
       <c r="M22">
-        <v>4023</v>
+        <v>164.02</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1602,40 +2079,40 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D23">
-        <v>9.640000000000001</v>
+        <v>56.81</v>
       </c>
       <c r="E23">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>82.47</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K23">
-        <v>2035.9</v>
+        <v>5958</v>
       </c>
       <c r="L23">
-        <v>1972.43</v>
+        <v>5769.02</v>
       </c>
       <c r="M23">
-        <v>2162.84</v>
+        <v>6335.96</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1646,40 +2123,40 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D24">
-        <v>9.640000000000001</v>
+        <v>55.42</v>
       </c>
       <c r="E24">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="G24">
-        <v>77.83</v>
+        <v>100</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K24">
-        <v>955.6</v>
+        <v>135.55</v>
       </c>
       <c r="L24">
-        <v>922.8099999999999</v>
+        <v>126.46</v>
       </c>
       <c r="M24">
-        <v>1021.19</v>
+        <v>153.73</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1690,40 +2167,40 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D25">
-        <v>9.640000000000001</v>
+        <v>53.01</v>
       </c>
       <c r="E25">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K25">
-        <v>354.1</v>
+        <v>1014.3</v>
       </c>
       <c r="L25">
-        <v>339.41</v>
+        <v>959.74</v>
       </c>
       <c r="M25">
-        <v>383.49</v>
+        <v>1123.43</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1734,40 +2211,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D26">
-        <v>8.43</v>
+        <v>51.99</v>
       </c>
       <c r="E26">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="G26">
-        <v>100</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K26">
-        <v>2938.8</v>
+        <v>64.5</v>
       </c>
       <c r="L26">
-        <v>2851.1</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>3114.2</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1778,40 +2255,40 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D27">
-        <v>8.43</v>
+        <v>50.6</v>
       </c>
       <c r="E27">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="G27">
-        <v>82.47</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K27">
-        <v>6212.5</v>
+        <v>1176.8</v>
       </c>
       <c r="L27">
-        <v>5983.79</v>
+        <v>1133.64</v>
       </c>
       <c r="M27">
-        <v>6669.93</v>
+        <v>1263.11</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -1822,40 +2299,40 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D28">
-        <v>6.02</v>
+        <v>50.6</v>
       </c>
       <c r="E28">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="G28">
-        <v>95.90000000000001</v>
+        <v>88.67</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K28">
-        <v>116.64</v>
+        <v>9532</v>
       </c>
       <c r="L28">
-        <v>111.88</v>
+        <v>9201.43</v>
       </c>
       <c r="M28">
-        <v>126.16</v>
+        <v>10193.14</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -1866,40 +2343,40 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D29">
-        <v>4.82</v>
+        <v>50.6</v>
       </c>
       <c r="E29">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="G29">
-        <v>74.04000000000001</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K29">
-        <v>166.25</v>
+        <v>856.45</v>
       </c>
       <c r="L29">
-        <v>158.17</v>
+        <v>820.48</v>
       </c>
       <c r="M29">
-        <v>182.41</v>
+        <v>928.39</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -1910,40 +2387,40 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D30">
-        <v>4.82</v>
+        <v>49.4</v>
       </c>
       <c r="E30">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="G30">
         <v>100</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K30">
-        <v>4500</v>
+        <v>1155</v>
       </c>
       <c r="L30">
-        <v>4360.18</v>
+        <v>1090.01</v>
       </c>
       <c r="M30">
-        <v>4779.63</v>
+        <v>1284.97</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -1954,40 +2431,40 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D31">
-        <v>4.82</v>
+        <v>42.17</v>
       </c>
       <c r="E31">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="G31">
-        <v>100</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K31">
-        <v>824.6</v>
+        <v>318.75</v>
       </c>
       <c r="L31">
-        <v>799.3200000000001</v>
+        <v>304.99</v>
       </c>
       <c r="M31">
-        <v>875.16</v>
+        <v>346.28</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -1998,40 +2475,40 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="D32">
-        <v>4.82</v>
+        <v>40.96</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="K32">
-        <v>10300</v>
+        <v>802.65</v>
       </c>
       <c r="L32">
-        <v>9817.950000000001</v>
+        <v>769.55</v>
       </c>
       <c r="M32">
-        <v>11264.11</v>
+        <v>868.85</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2042,40 +2519,40 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="D33">
-        <v>49.94</v>
+        <v>72.83</v>
       </c>
       <c r="E33">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="G33">
-        <v>71.81</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="K33">
-        <v>1692.5</v>
+        <v>917</v>
       </c>
       <c r="L33">
-        <v>1629.87</v>
+        <v>882.9400000000001</v>
       </c>
       <c r="M33">
-        <v>1817.76</v>
+        <v>985.11</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2086,22 +2563,22 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="D34">
-        <v>36.51</v>
+        <v>71.63</v>
       </c>
       <c r="E34">
         <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="G34">
-        <v>47.53</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2110,16 +2587,16 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K34">
-        <v>922.55</v>
+        <v>442.75</v>
       </c>
       <c r="L34">
-        <v>879.16</v>
+        <v>420.76</v>
       </c>
       <c r="M34">
-        <v>1009.34</v>
+        <v>486.74</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2130,22 +2607,22 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="D35">
-        <v>21.69</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="E35">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="G35">
-        <v>53.55</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2154,16 +2631,16 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K35">
-        <v>629.7</v>
+        <v>304</v>
       </c>
       <c r="L35">
-        <v>612.4400000000001</v>
+        <v>283.34</v>
       </c>
       <c r="M35">
-        <v>664.21</v>
+        <v>345.31</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2174,40 +2651,40 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D36">
-        <v>10.84</v>
+        <v>61.99</v>
       </c>
       <c r="E36">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="G36">
-        <v>37.53</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K36">
-        <v>1275.8</v>
+        <v>188.94</v>
       </c>
       <c r="L36">
-        <v>1246.92</v>
+        <v>180.63</v>
       </c>
       <c r="M36">
-        <v>1333.55</v>
+        <v>205.57</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2218,40 +2695,40 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="D37">
-        <v>8.43</v>
+        <v>58.37</v>
       </c>
       <c r="E37">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="G37">
-        <v>65.59999999999999</v>
+        <v>85.06</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K37">
-        <v>2763.4</v>
+        <v>1064.7</v>
       </c>
       <c r="L37">
-        <v>2734.89</v>
+        <v>1017.24</v>
       </c>
       <c r="M37">
-        <v>2820.42</v>
+        <v>1159.63</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2262,40 +2739,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D38">
-        <v>4.82</v>
+        <v>55.6</v>
       </c>
       <c r="E38">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="G38">
-        <v>69.22</v>
+        <v>61.63</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="K38">
-        <v>2082.7</v>
+        <v>3513.6</v>
       </c>
       <c r="L38">
-        <v>2037.28</v>
+        <v>3360.87</v>
       </c>
       <c r="M38">
-        <v>2173.55</v>
+        <v>3819.06</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2306,42 +2783,5762 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39">
+        <v>950.15</v>
+      </c>
+      <c r="L39">
+        <v>891.14</v>
+      </c>
+      <c r="M39">
+        <v>1068.18</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="E40">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>240</v>
+      </c>
+      <c r="K40">
+        <v>266.9</v>
+      </c>
+      <c r="L40">
+        <v>250.9</v>
+      </c>
+      <c r="M40">
+        <v>298.9</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41">
+        <v>85.06</v>
+      </c>
+      <c r="E41">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41">
+        <v>85.06</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41">
+        <v>3871</v>
+      </c>
+      <c r="L41">
+        <v>3723.37</v>
+      </c>
+      <c r="M41">
+        <v>4166.26</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42">
+        <v>74.22</v>
+      </c>
+      <c r="E42">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42">
+        <v>899.2</v>
+      </c>
+      <c r="L42">
+        <v>861.1900000000001</v>
+      </c>
+      <c r="M42">
+        <v>975.23</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E43">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43">
+        <v>75.42</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43">
+        <v>3801.7</v>
+      </c>
+      <c r="L43">
+        <v>3682.87</v>
+      </c>
+      <c r="M43">
+        <v>4039.36</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>240</v>
+      </c>
+      <c r="K44">
+        <v>4411</v>
+      </c>
+      <c r="L44">
+        <v>4231.51</v>
+      </c>
+      <c r="M44">
+        <v>4769.97</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="E45">
+        <v>172</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45">
+        <v>92.47</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>240</v>
+      </c>
+      <c r="K45">
+        <v>303.25</v>
+      </c>
+      <c r="L45">
+        <v>293.38</v>
+      </c>
+      <c r="M45">
+        <v>322.99</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46">
+        <v>64.58</v>
+      </c>
+      <c r="E46">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46">
+        <v>91.27</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46">
+        <v>4529.5</v>
+      </c>
+      <c r="L46">
+        <v>4325.34</v>
+      </c>
+      <c r="M46">
+        <v>4937.81</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E47">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47">
+        <v>70.42</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>240</v>
+      </c>
+      <c r="K47">
+        <v>390.6</v>
+      </c>
+      <c r="L47">
+        <v>380.41</v>
+      </c>
+      <c r="M47">
+        <v>410.97</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48">
+        <v>39.76</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>240</v>
+      </c>
+      <c r="K48">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="L48">
+        <v>62.21</v>
+      </c>
+      <c r="M48">
+        <v>82.12</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49">
+        <v>39.76</v>
+      </c>
+      <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>240</v>
+      </c>
+      <c r="K49">
+        <v>620.1</v>
+      </c>
+      <c r="L49">
+        <v>566.27</v>
+      </c>
+      <c r="M49">
+        <v>727.76</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50">
+        <v>39.76</v>
+      </c>
+      <c r="E50">
+        <v>54</v>
+      </c>
+      <c r="F50" t="s">
+        <v>215</v>
+      </c>
+      <c r="G50">
+        <v>92.47</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50">
+        <v>109.49</v>
+      </c>
+      <c r="L50">
+        <v>104.69</v>
+      </c>
+      <c r="M50">
+        <v>119.09</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="D39">
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51">
+        <v>39.76</v>
+      </c>
+      <c r="E51">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51">
+        <v>94.7</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>240</v>
+      </c>
+      <c r="K51">
+        <v>652.4</v>
+      </c>
+      <c r="L51">
+        <v>606.63</v>
+      </c>
+      <c r="M51">
+        <v>743.9400000000001</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52">
+        <v>38.55</v>
+      </c>
+      <c r="E52">
+        <v>265</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>240</v>
+      </c>
+      <c r="K52">
+        <v>325.65</v>
+      </c>
+      <c r="L52">
+        <v>307.53</v>
+      </c>
+      <c r="M52">
+        <v>361.89</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53">
+        <v>37.35</v>
+      </c>
+      <c r="E53">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>240</v>
+      </c>
+      <c r="K53">
+        <v>533.9</v>
+      </c>
+      <c r="L53">
+        <v>482</v>
+      </c>
+      <c r="M53">
+        <v>637.7</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54">
+        <v>37.35</v>
+      </c>
+      <c r="E54">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54">
+        <v>270.85</v>
+      </c>
+      <c r="L54">
+        <v>253.45</v>
+      </c>
+      <c r="M54">
+        <v>305.64</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55">
+        <v>37.35</v>
+      </c>
+      <c r="E55">
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55">
+        <v>80.42</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55">
+        <v>850.1</v>
+      </c>
+      <c r="L55">
+        <v>806.5599999999999</v>
+      </c>
+      <c r="M55">
+        <v>937.17</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56">
+        <v>37.35</v>
+      </c>
+      <c r="E56">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56">
+        <v>93.48999999999999</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56">
+        <v>2941.6</v>
+      </c>
+      <c r="L56">
+        <v>2781.31</v>
+      </c>
+      <c r="M56">
+        <v>3262.17</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57">
+        <v>37.35</v>
+      </c>
+      <c r="E57">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57">
+        <v>70.42</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>240</v>
+      </c>
+      <c r="K57">
+        <v>497.2</v>
+      </c>
+      <c r="L57">
+        <v>475.99</v>
+      </c>
+      <c r="M57">
+        <v>539.63</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58">
+        <v>37.35</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>240</v>
+      </c>
+      <c r="K58">
+        <v>7839.5</v>
+      </c>
+      <c r="L58">
+        <v>7289.79</v>
+      </c>
+      <c r="M58">
+        <v>8938.93</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59">
+        <v>36.51</v>
+      </c>
+      <c r="E59">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>240</v>
+      </c>
+      <c r="K59">
+        <v>530.1</v>
+      </c>
+      <c r="L59">
+        <v>506.9</v>
+      </c>
+      <c r="M59">
+        <v>576.5</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60">
+        <v>36.14</v>
+      </c>
+      <c r="E60">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>240</v>
+      </c>
+      <c r="K60">
+        <v>45.06</v>
+      </c>
+      <c r="L60">
+        <v>42.31</v>
+      </c>
+      <c r="M60">
+        <v>50.55</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61">
+        <v>35.3</v>
+      </c>
+      <c r="E61">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>240</v>
+      </c>
+      <c r="K61">
+        <v>11.2</v>
+      </c>
+      <c r="L61">
+        <v>11.51</v>
+      </c>
+      <c r="M61">
+        <v>10.58</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62">
+        <v>33.92</v>
+      </c>
+      <c r="E62">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>240</v>
+      </c>
+      <c r="K62">
+        <v>496.25</v>
+      </c>
+      <c r="L62">
+        <v>475.86</v>
+      </c>
+      <c r="M62">
+        <v>537.03</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>32.71</v>
+      </c>
+      <c r="E63">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>240</v>
+      </c>
+      <c r="K63">
+        <v>1207</v>
+      </c>
+      <c r="L63">
+        <v>1168.24</v>
+      </c>
+      <c r="M63">
+        <v>1284.52</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>31.33</v>
+      </c>
+      <c r="E64">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>240</v>
+      </c>
+      <c r="K64">
+        <v>608.95</v>
+      </c>
+      <c r="L64">
+        <v>561.74</v>
+      </c>
+      <c r="M64">
+        <v>703.36</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65">
+        <v>31.33</v>
+      </c>
+      <c r="E65">
+        <v>109</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65">
+        <v>1235</v>
+      </c>
+      <c r="L65">
+        <v>1191.54</v>
+      </c>
+      <c r="M65">
+        <v>1321.91</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66">
+        <v>28.92</v>
+      </c>
+      <c r="E66">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>240</v>
+      </c>
+      <c r="K66">
+        <v>146.25</v>
+      </c>
+      <c r="L66">
+        <v>138.55</v>
+      </c>
+      <c r="M66">
+        <v>161.65</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67">
+        <v>28.92</v>
+      </c>
+      <c r="E67">
+        <v>110</v>
+      </c>
+      <c r="F67" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67">
+        <v>80.42</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67">
+        <v>5308</v>
+      </c>
+      <c r="L67">
+        <v>5013.4</v>
+      </c>
+      <c r="M67">
+        <v>5897.2</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68">
+        <v>28.92</v>
+      </c>
+      <c r="E68">
+        <v>206</v>
+      </c>
+      <c r="F68" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>240</v>
+      </c>
+      <c r="K68">
+        <v>220.9</v>
+      </c>
+      <c r="L68">
+        <v>200.84</v>
+      </c>
+      <c r="M68">
+        <v>261.02</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69">
+        <v>28.92</v>
+      </c>
+      <c r="E69">
+        <v>201</v>
+      </c>
+      <c r="F69" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69">
+        <v>224.66</v>
+      </c>
+      <c r="L69">
+        <v>202.6</v>
+      </c>
+      <c r="M69">
+        <v>268.79</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70">
+        <v>28.92</v>
+      </c>
+      <c r="E70">
+        <v>151</v>
+      </c>
+      <c r="F70" t="s">
+        <v>211</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>240</v>
+      </c>
+      <c r="K70">
+        <v>622.4</v>
+      </c>
+      <c r="L70">
+        <v>585.29</v>
+      </c>
+      <c r="M70">
+        <v>696.61</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71">
+        <v>27.89</v>
+      </c>
+      <c r="E71">
+        <v>105</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71">
+        <v>562.7</v>
+      </c>
+      <c r="L71">
+        <v>545.28</v>
+      </c>
+      <c r="M71">
+        <v>597.54</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72">
+        <v>26.69</v>
+      </c>
+      <c r="E72">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72">
+        <v>72.83</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>240</v>
+      </c>
+      <c r="K72">
+        <v>102.55</v>
+      </c>
+      <c r="L72">
+        <v>100.06</v>
+      </c>
+      <c r="M72">
+        <v>107.53</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73">
+        <v>26.51</v>
+      </c>
+      <c r="E73">
+        <v>103</v>
+      </c>
+      <c r="F73" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73">
+        <v>91.27</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73" t="s">
+        <v>240</v>
+      </c>
+      <c r="K73">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="L73">
+        <v>80.41</v>
+      </c>
+      <c r="M73">
+        <v>92.23</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74">
+        <v>25.3</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>240</v>
+      </c>
+      <c r="K74">
+        <v>147.74</v>
+      </c>
+      <c r="L74">
+        <v>138.12</v>
+      </c>
+      <c r="M74">
+        <v>166.98</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75">
+        <v>25.3</v>
+      </c>
+      <c r="E75">
+        <v>214</v>
+      </c>
+      <c r="F75" t="s">
+        <v>204</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>240</v>
+      </c>
+      <c r="K75">
+        <v>154.45</v>
+      </c>
+      <c r="L75">
+        <v>148.89</v>
+      </c>
+      <c r="M75">
+        <v>165.58</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76">
+        <v>24.1</v>
+      </c>
+      <c r="E76">
+        <v>218</v>
+      </c>
+      <c r="F76" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>240</v>
+      </c>
+      <c r="K76">
+        <v>613.15</v>
+      </c>
+      <c r="L76">
+        <v>584.4299999999999</v>
+      </c>
+      <c r="M76">
+        <v>670.59</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77">
+        <v>22.89</v>
+      </c>
+      <c r="E77">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77">
+        <v>1939.5</v>
+      </c>
+      <c r="L77">
+        <v>1857.69</v>
+      </c>
+      <c r="M77">
+        <v>2103.13</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78">
+        <v>22.89</v>
+      </c>
+      <c r="E78">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78">
+        <v>89.7</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <v>174.09</v>
+      </c>
+      <c r="L78">
+        <v>167.3</v>
+      </c>
+      <c r="M78">
+        <v>187.67</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79">
+        <v>22.89</v>
+      </c>
+      <c r="E79">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79">
+        <v>92.47</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>240</v>
+      </c>
+      <c r="K79">
+        <v>36180</v>
+      </c>
+      <c r="L79">
+        <v>34661.53</v>
+      </c>
+      <c r="M79">
+        <v>39216.95</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80">
+        <v>22.89</v>
+      </c>
+      <c r="E80">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>240</v>
+      </c>
+      <c r="K80">
+        <v>899</v>
+      </c>
+      <c r="L80">
+        <v>828.86</v>
+      </c>
+      <c r="M80">
+        <v>1039.29</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81">
+        <v>21.69</v>
+      </c>
+      <c r="E81">
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81">
+        <v>82.83</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>240</v>
+      </c>
+      <c r="K81">
+        <v>916</v>
+      </c>
+      <c r="L81">
+        <v>886.88</v>
+      </c>
+      <c r="M81">
+        <v>974.25</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82">
+        <v>20.48</v>
+      </c>
+      <c r="E82">
+        <v>129</v>
+      </c>
+      <c r="F82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>240</v>
+      </c>
+      <c r="K82">
+        <v>1504.7</v>
+      </c>
+      <c r="L82">
+        <v>1427.44</v>
+      </c>
+      <c r="M82">
+        <v>1659.22</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83">
+        <v>20.48</v>
+      </c>
+      <c r="E83">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" t="s">
+        <v>240</v>
+      </c>
+      <c r="K83">
+        <v>364</v>
+      </c>
+      <c r="L83">
+        <v>335.27</v>
+      </c>
+      <c r="M83">
+        <v>421.46</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84">
+        <v>20.48</v>
+      </c>
+      <c r="E84">
+        <v>198</v>
+      </c>
+      <c r="F84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>240</v>
+      </c>
+      <c r="K84">
+        <v>230.29</v>
+      </c>
+      <c r="L84">
+        <v>204.61</v>
+      </c>
+      <c r="M84">
+        <v>281.64</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85">
+        <v>18.07</v>
+      </c>
+      <c r="E85">
+        <v>29</v>
+      </c>
+      <c r="F85" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>240</v>
+      </c>
+      <c r="K85">
+        <v>128.36</v>
+      </c>
+      <c r="L85">
+        <v>119.5</v>
+      </c>
+      <c r="M85">
+        <v>146.09</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86">
+        <v>18.07</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+      <c r="F86" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86">
+        <v>78.86</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>240</v>
+      </c>
+      <c r="K86">
+        <v>3834.9</v>
+      </c>
+      <c r="L86">
+        <v>3675.14</v>
+      </c>
+      <c r="M86">
+        <v>4154.42</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87">
+        <v>16.87</v>
+      </c>
+      <c r="E87">
+        <v>154</v>
+      </c>
+      <c r="F87" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>240</v>
+      </c>
+      <c r="K87">
+        <v>125.06</v>
+      </c>
+      <c r="L87">
+        <v>120.47</v>
+      </c>
+      <c r="M87">
+        <v>134.23</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88">
+        <v>16.87</v>
+      </c>
+      <c r="E88">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88">
+        <v>70.42</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>240</v>
+      </c>
+      <c r="K88">
+        <v>166.93</v>
+      </c>
+      <c r="L88">
+        <v>159.17</v>
+      </c>
+      <c r="M88">
+        <v>182.45</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89">
+        <v>16.87</v>
+      </c>
+      <c r="E89">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s">
+        <v>209</v>
+      </c>
+      <c r="G89">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>240</v>
+      </c>
+      <c r="K89">
+        <v>288.65</v>
+      </c>
+      <c r="L89">
+        <v>279.46</v>
+      </c>
+      <c r="M89">
+        <v>307.02</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90">
+        <v>16.87</v>
+      </c>
+      <c r="E90">
+        <v>34</v>
+      </c>
+      <c r="F90" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90">
+        <v>98.31</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90">
+        <v>1011.9</v>
+      </c>
+      <c r="L90">
+        <v>967.75</v>
+      </c>
+      <c r="M90">
+        <v>1100.2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91">
+        <v>16.87</v>
+      </c>
+      <c r="E91">
+        <v>300</v>
+      </c>
+      <c r="F91" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91">
+        <v>89.88</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>240</v>
+      </c>
+      <c r="K91">
+        <v>1113.8</v>
+      </c>
+      <c r="L91">
+        <v>1074.03</v>
+      </c>
+      <c r="M91">
+        <v>1193.34</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92">
+        <v>16.87</v>
+      </c>
+      <c r="E92">
+        <v>99</v>
+      </c>
+      <c r="F92" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92">
+        <v>73.19</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>240</v>
+      </c>
+      <c r="K92">
+        <v>240.79</v>
+      </c>
+      <c r="L92">
+        <v>235.48</v>
+      </c>
+      <c r="M92">
+        <v>251.41</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93">
+        <v>16.87</v>
+      </c>
+      <c r="E93">
+        <v>64</v>
+      </c>
+      <c r="F93" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>240</v>
+      </c>
+      <c r="K93">
+        <v>121.83</v>
+      </c>
+      <c r="L93">
+        <v>115.25</v>
+      </c>
+      <c r="M93">
+        <v>134.98</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94">
+        <v>16.87</v>
+      </c>
+      <c r="E94">
+        <v>122</v>
+      </c>
+      <c r="F94" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>240</v>
+      </c>
+      <c r="K94">
+        <v>1282.3</v>
+      </c>
+      <c r="L94">
+        <v>1253.06</v>
+      </c>
+      <c r="M94">
+        <v>1340.78</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95">
+        <v>16.87</v>
+      </c>
+      <c r="E95">
+        <v>170</v>
+      </c>
+      <c r="F95" t="s">
+        <v>204</v>
+      </c>
+      <c r="G95">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>240</v>
+      </c>
+      <c r="K95">
+        <v>166.26</v>
+      </c>
+      <c r="L95">
+        <v>160.86</v>
+      </c>
+      <c r="M95">
+        <v>177.06</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96">
+        <v>15.66</v>
+      </c>
+      <c r="E96">
+        <v>208</v>
+      </c>
+      <c r="F96" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>240</v>
+      </c>
+      <c r="K96">
+        <v>3874.2</v>
+      </c>
+      <c r="L96">
+        <v>3742.11</v>
+      </c>
+      <c r="M96">
+        <v>4138.38</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97">
+        <v>15.66</v>
+      </c>
+      <c r="E97">
+        <v>80</v>
+      </c>
+      <c r="F97" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97">
+        <v>88.86</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>240</v>
+      </c>
+      <c r="K97">
+        <v>754</v>
+      </c>
+      <c r="L97">
+        <v>734.85</v>
+      </c>
+      <c r="M97">
+        <v>792.29</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98">
+        <v>14.46</v>
+      </c>
+      <c r="E98">
+        <v>174</v>
+      </c>
+      <c r="F98" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98">
+        <v>97.11</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>240</v>
+      </c>
+      <c r="K98">
+        <v>1272.9</v>
+      </c>
+      <c r="L98">
+        <v>1243.18</v>
+      </c>
+      <c r="M98">
+        <v>1332.33</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99">
+        <v>14.46</v>
+      </c>
+      <c r="E99">
+        <v>124</v>
+      </c>
+      <c r="F99" t="s">
+        <v>228</v>
+      </c>
+      <c r="G99">
+        <v>99.52</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>240</v>
+      </c>
+      <c r="K99">
+        <v>1725.9</v>
+      </c>
+      <c r="L99">
+        <v>1649.38</v>
+      </c>
+      <c r="M99">
+        <v>1878.94</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100">
+        <v>14.46</v>
+      </c>
+      <c r="E100">
+        <v>149</v>
+      </c>
+      <c r="F100" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100">
+        <v>92.29000000000001</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>240</v>
+      </c>
+      <c r="K100">
+        <v>18788</v>
+      </c>
+      <c r="L100">
+        <v>18727.42</v>
+      </c>
+      <c r="M100">
+        <v>18909.16</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101">
+        <v>14.46</v>
+      </c>
+      <c r="E101">
+        <v>218</v>
+      </c>
+      <c r="F101" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>240</v>
+      </c>
+      <c r="K101">
+        <v>405.1</v>
+      </c>
+      <c r="L101">
+        <v>374.6</v>
+      </c>
+      <c r="M101">
+        <v>466.1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102">
+        <v>13.25</v>
+      </c>
+      <c r="E102">
+        <v>146</v>
+      </c>
+      <c r="F102" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102">
+        <v>94.7</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>240</v>
+      </c>
+      <c r="K102">
+        <v>380.4</v>
+      </c>
+      <c r="L102">
+        <v>365.41</v>
+      </c>
+      <c r="M102">
+        <v>410.39</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103">
+        <v>13.25</v>
+      </c>
+      <c r="E103">
+        <v>231</v>
+      </c>
+      <c r="F103" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103">
+        <v>96.27</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>240</v>
+      </c>
+      <c r="K103">
+        <v>4046.6</v>
+      </c>
+      <c r="L103">
+        <v>3936.5</v>
+      </c>
+      <c r="M103">
+        <v>4266.8</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104">
+        <v>12.05</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
+        <v>217</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>240</v>
+      </c>
+      <c r="K104">
+        <v>179.8</v>
+      </c>
+      <c r="L104">
+        <v>165.2</v>
+      </c>
+      <c r="M104">
+        <v>209.01</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105">
+        <v>10.84</v>
+      </c>
+      <c r="E105">
+        <v>126</v>
+      </c>
+      <c r="F105" t="s">
+        <v>212</v>
+      </c>
+      <c r="G105">
+        <v>96.08</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>240</v>
+      </c>
+      <c r="K105">
+        <v>3086.1</v>
+      </c>
+      <c r="L105">
+        <v>2992.8</v>
+      </c>
+      <c r="M105">
+        <v>3272.69</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106">
+        <v>10.84</v>
+      </c>
+      <c r="E106">
+        <v>112</v>
+      </c>
+      <c r="F106" t="s">
+        <v>228</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>240</v>
+      </c>
+      <c r="K106">
+        <v>210.25</v>
+      </c>
+      <c r="L106">
+        <v>201.47</v>
+      </c>
+      <c r="M106">
+        <v>227.81</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107">
+        <v>10.84</v>
+      </c>
+      <c r="E107">
+        <v>147</v>
+      </c>
+      <c r="F107" t="s">
+        <v>204</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>240</v>
+      </c>
+      <c r="K107">
+        <v>2051.3</v>
+      </c>
+      <c r="L107">
+        <v>1978.61</v>
+      </c>
+      <c r="M107">
+        <v>2196.67</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108">
+        <v>10.84</v>
+      </c>
+      <c r="E108">
+        <v>93</v>
+      </c>
+      <c r="F108" t="s">
+        <v>209</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>240</v>
+      </c>
+      <c r="K108">
+        <v>846.5</v>
+      </c>
+      <c r="L108">
+        <v>817.05</v>
+      </c>
+      <c r="M108">
+        <v>905.4</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109">
+        <v>10.84</v>
+      </c>
+      <c r="E109">
+        <v>202</v>
+      </c>
+      <c r="F109" t="s">
+        <v>204</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>240</v>
+      </c>
+      <c r="K109">
+        <v>2218</v>
+      </c>
+      <c r="L109">
+        <v>2109.71</v>
+      </c>
+      <c r="M109">
+        <v>2434.57</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110">
+        <v>10.84</v>
+      </c>
+      <c r="E110">
+        <v>155</v>
+      </c>
+      <c r="F110" t="s">
+        <v>230</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>240</v>
+      </c>
+      <c r="K110">
+        <v>2073</v>
+      </c>
+      <c r="L110">
+        <v>2013.99</v>
+      </c>
+      <c r="M110">
+        <v>2191.03</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111">
+        <v>10.84</v>
+      </c>
+      <c r="E111">
+        <v>207</v>
+      </c>
+      <c r="F111" t="s">
+        <v>228</v>
+      </c>
+      <c r="G111">
+        <v>90.06</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>240</v>
+      </c>
+      <c r="K111">
+        <v>1480.4</v>
+      </c>
+      <c r="L111">
+        <v>1426.54</v>
+      </c>
+      <c r="M111">
+        <v>1588.11</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E112">
+        <v>83</v>
+      </c>
+      <c r="F112" t="s">
+        <v>209</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>240</v>
+      </c>
+      <c r="K112">
+        <v>615.8</v>
+      </c>
+      <c r="L112">
+        <v>586.13</v>
+      </c>
+      <c r="M112">
+        <v>675.14</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113">
+        <v>8.43</v>
+      </c>
+      <c r="E113">
+        <v>121</v>
+      </c>
+      <c r="F113" t="s">
+        <v>212</v>
+      </c>
+      <c r="G113">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>240</v>
+      </c>
+      <c r="K113">
+        <v>123</v>
+      </c>
+      <c r="L113">
+        <v>118.21</v>
+      </c>
+      <c r="M113">
+        <v>132.58</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114">
+        <v>8.43</v>
+      </c>
+      <c r="E114">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>229</v>
+      </c>
+      <c r="G114">
+        <v>91.27</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>240</v>
+      </c>
+      <c r="K114">
+        <v>60.66</v>
+      </c>
+      <c r="L114">
+        <v>59.44</v>
+      </c>
+      <c r="M114">
+        <v>63.09</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115">
         <v>4.82</v>
       </c>
-      <c r="E39">
-        <v>87</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E115">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s">
+        <v>205</v>
+      </c>
+      <c r="G115">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>240</v>
+      </c>
+      <c r="K115">
+        <v>280.4</v>
+      </c>
+      <c r="L115">
+        <v>267.66</v>
+      </c>
+      <c r="M115">
+        <v>305.87</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116">
+        <v>4.82</v>
+      </c>
+      <c r="E116">
+        <v>66</v>
+      </c>
+      <c r="F116" t="s">
+        <v>209</v>
+      </c>
+      <c r="G116">
+        <v>85.06</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>240</v>
+      </c>
+      <c r="K116">
+        <v>546.4</v>
+      </c>
+      <c r="L116">
+        <v>535.39</v>
+      </c>
+      <c r="M116">
+        <v>568.42</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117">
+        <v>4.82</v>
+      </c>
+      <c r="E117">
+        <v>84</v>
+      </c>
+      <c r="F117" t="s">
+        <v>209</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>240</v>
+      </c>
+      <c r="K117">
+        <v>3021</v>
+      </c>
+      <c r="L117">
+        <v>2931.1</v>
+      </c>
+      <c r="M117">
+        <v>3200.8</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118">
+        <v>4.82</v>
+      </c>
+      <c r="E118">
+        <v>114</v>
+      </c>
+      <c r="F118" t="s">
+        <v>204</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>240</v>
+      </c>
+      <c r="K118">
+        <v>1212.8</v>
+      </c>
+      <c r="L118">
+        <v>1149.05</v>
+      </c>
+      <c r="M118">
+        <v>1340.3</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119">
+        <v>46.33</v>
+      </c>
+      <c r="E119">
+        <v>167</v>
+      </c>
+      <c r="F119" t="s">
+        <v>207</v>
+      </c>
+      <c r="G119">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>241</v>
+      </c>
+      <c r="K119">
+        <v>1898.9</v>
+      </c>
+      <c r="L119">
+        <v>1834.9</v>
+      </c>
+      <c r="M119">
+        <v>2026.9</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D120">
+        <v>43.37</v>
+      </c>
+      <c r="E120">
+        <v>141</v>
+      </c>
+      <c r="F120" t="s">
+        <v>215</v>
+      </c>
+      <c r="G120">
+        <v>88.86</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>241</v>
+      </c>
+      <c r="K120">
+        <v>422.25</v>
+      </c>
+      <c r="L120">
+        <v>407.14</v>
+      </c>
+      <c r="M120">
+        <v>452.48</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121">
+        <v>43.37</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>205</v>
+      </c>
+      <c r="G121">
+        <v>44.58</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>241</v>
+      </c>
+      <c r="K121">
+        <v>667.75</v>
+      </c>
+      <c r="L121">
+        <v>614.3</v>
+      </c>
+      <c r="M121">
+        <v>774.65</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122">
+        <v>43.37</v>
+      </c>
+      <c r="E122">
+        <v>99</v>
+      </c>
+      <c r="F122" t="s">
+        <v>204</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>241</v>
+      </c>
+      <c r="K122">
+        <v>38915</v>
+      </c>
+      <c r="L122">
+        <v>37428.57</v>
+      </c>
+      <c r="M122">
+        <v>41887.86</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123">
+        <v>42.53</v>
+      </c>
+      <c r="E123">
+        <v>71</v>
+      </c>
+      <c r="F123" t="s">
+        <v>204</v>
+      </c>
+      <c r="G123">
+        <v>45.96</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>241</v>
+      </c>
+      <c r="K123">
+        <v>1433.3</v>
+      </c>
+      <c r="L123">
+        <v>1365.51</v>
+      </c>
+      <c r="M123">
+        <v>1568.87</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124">
+        <v>40.96</v>
+      </c>
+      <c r="E124">
+        <v>53</v>
+      </c>
+      <c r="F124" t="s">
+        <v>209</v>
+      </c>
+      <c r="G124">
+        <v>60.78</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>241</v>
+      </c>
+      <c r="K124">
+        <v>175.8</v>
+      </c>
+      <c r="L124">
+        <v>162.19</v>
+      </c>
+      <c r="M124">
+        <v>203.02</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125">
+        <v>56.99</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>217</v>
+      </c>
+      <c r="G125">
+        <v>56.99</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>242</v>
+      </c>
+      <c r="K125">
+        <v>40.35</v>
+      </c>
+      <c r="L125">
+        <v>35.91</v>
+      </c>
+      <c r="M125">
+        <v>49.24</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126">
+        <v>39.94</v>
+      </c>
+      <c r="E126">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>209</v>
+      </c>
+      <c r="G126">
+        <v>40.12</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>242</v>
+      </c>
+      <c r="K126">
+        <v>177.46</v>
+      </c>
+      <c r="L126">
+        <v>171.06</v>
+      </c>
+      <c r="M126">
+        <v>190.26</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127">
+        <v>39.94</v>
+      </c>
+      <c r="E127">
+        <v>49</v>
+      </c>
+      <c r="F127" t="s">
+        <v>231</v>
+      </c>
+      <c r="G127">
+        <v>39.94</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>242</v>
+      </c>
+      <c r="K127">
+        <v>270</v>
+      </c>
+      <c r="L127">
+        <v>263.49</v>
+      </c>
+      <c r="M127">
+        <v>283.01</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128">
+        <v>37.35</v>
+      </c>
+      <c r="E128">
+        <v>89</v>
+      </c>
+      <c r="F128" t="s">
+        <v>204</v>
+      </c>
+      <c r="G128">
+        <v>60.24</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128" t="s">
+        <v>242</v>
+      </c>
+      <c r="K128">
+        <v>520.15</v>
+      </c>
+      <c r="L128">
+        <v>503.68</v>
+      </c>
+      <c r="M128">
+        <v>553.09</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129">
+        <v>37.35</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>232</v>
+      </c>
+      <c r="G129">
+        <v>42.17</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>242</v>
+      </c>
+      <c r="K129">
+        <v>435.1</v>
+      </c>
+      <c r="L129">
+        <v>413.69</v>
+      </c>
+      <c r="M129">
+        <v>477.93</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130">
+        <v>33.92</v>
+      </c>
+      <c r="E130">
+        <v>39</v>
+      </c>
+      <c r="F130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130">
+        <v>48.73</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>242</v>
+      </c>
+      <c r="K130">
+        <v>26955</v>
+      </c>
+      <c r="L130">
+        <v>26171.55</v>
+      </c>
+      <c r="M130">
+        <v>28521.9</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131">
+        <v>33.92</v>
+      </c>
+      <c r="E131">
+        <v>92</v>
+      </c>
+      <c r="F131" t="s">
+        <v>204</v>
+      </c>
+      <c r="G131">
+        <v>59.76</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>242</v>
+      </c>
+      <c r="K131">
+        <v>7778</v>
+      </c>
+      <c r="L131">
+        <v>7438.29</v>
+      </c>
+      <c r="M131">
+        <v>8457.43</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" t="s">
+        <v>200</v>
+      </c>
+      <c r="D132">
+        <v>33.73</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>217</v>
+      </c>
+      <c r="G132">
+        <v>33.73</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>242</v>
+      </c>
+      <c r="K132">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="L132">
+        <v>74.88</v>
+      </c>
+      <c r="M132">
+        <v>86.95</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" t="s">
+        <v>199</v>
+      </c>
+      <c r="D133">
+        <v>33.73</v>
+      </c>
+      <c r="E133">
+        <v>75</v>
+      </c>
+      <c r="F133" t="s">
+        <v>202</v>
+      </c>
+      <c r="G133">
+        <v>53.55</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>242</v>
+      </c>
+      <c r="K133">
+        <v>430.8</v>
+      </c>
+      <c r="L133">
+        <v>415.06</v>
+      </c>
+      <c r="M133">
+        <v>462.27</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134">
+        <v>33.73</v>
+      </c>
+      <c r="E134">
         <v>76</v>
       </c>
-      <c r="G39">
+      <c r="F134" t="s">
+        <v>207</v>
+      </c>
+      <c r="G134">
+        <v>60.78</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>242</v>
+      </c>
+      <c r="K134">
+        <v>1769.7</v>
+      </c>
+      <c r="L134">
+        <v>1679.13</v>
+      </c>
+      <c r="M134">
+        <v>1950.83</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135">
+        <v>32.53</v>
+      </c>
+      <c r="E135">
+        <v>37</v>
+      </c>
+      <c r="F135" t="s">
+        <v>231</v>
+      </c>
+      <c r="G135">
+        <v>38.73</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>242</v>
+      </c>
+      <c r="K135">
+        <v>81.73999999999999</v>
+      </c>
+      <c r="L135">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="M135">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136">
+        <v>32.53</v>
+      </c>
+      <c r="E136">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>233</v>
+      </c>
+      <c r="G136">
+        <v>32.53</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>242</v>
+      </c>
+      <c r="K136">
+        <v>502.9</v>
+      </c>
+      <c r="L136">
+        <v>479.5</v>
+      </c>
+      <c r="M136">
+        <v>549.7</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>187</v>
+      </c>
+      <c r="C137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D137">
+        <v>27.71</v>
+      </c>
+      <c r="E137">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>213</v>
+      </c>
+      <c r="G137">
+        <v>34.94</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>242</v>
+      </c>
+      <c r="K137">
+        <v>196.95</v>
+      </c>
+      <c r="L137">
+        <v>185.83</v>
+      </c>
+      <c r="M137">
+        <v>219.18</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138">
+        <v>26.51</v>
+      </c>
+      <c r="E138">
+        <v>59</v>
+      </c>
+      <c r="F138" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138">
+        <v>53.55</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>242</v>
+      </c>
+      <c r="K138">
+        <v>315.6</v>
+      </c>
+      <c r="L138">
+        <v>300.4</v>
+      </c>
+      <c r="M138">
+        <v>346</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139">
+        <v>24.1</v>
+      </c>
+      <c r="E139">
+        <v>142</v>
+      </c>
+      <c r="F139" t="s">
+        <v>207</v>
+      </c>
+      <c r="G139">
+        <v>58.37</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>242</v>
+      </c>
+      <c r="K139">
+        <v>270.8</v>
+      </c>
+      <c r="L139">
+        <v>262.7</v>
+      </c>
+      <c r="M139">
+        <v>287.01</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" t="s">
+        <v>187</v>
+      </c>
+      <c r="C140" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140">
+        <v>22.89</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>227</v>
+      </c>
+      <c r="G140">
+        <v>27.71</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>242</v>
+      </c>
+      <c r="K140">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="L140">
+        <v>79.27</v>
+      </c>
+      <c r="M140">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="s">
+        <v>183</v>
+      </c>
+      <c r="C141" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141">
+        <v>22.89</v>
+      </c>
+      <c r="E141">
+        <v>45</v>
+      </c>
+      <c r="F141" t="s">
+        <v>209</v>
+      </c>
+      <c r="G141">
+        <v>33.73</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>242</v>
+      </c>
+      <c r="K141">
+        <v>30.18</v>
+      </c>
+      <c r="L141">
+        <v>29.12</v>
+      </c>
+      <c r="M141">
+        <v>32.31</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142">
+        <v>21.69</v>
+      </c>
+      <c r="E142">
+        <v>27</v>
+      </c>
+      <c r="F142" t="s">
+        <v>234</v>
+      </c>
+      <c r="G142">
+        <v>58.19</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>242</v>
+      </c>
+      <c r="K142">
+        <v>562.25</v>
+      </c>
+      <c r="L142">
+        <v>525.41</v>
+      </c>
+      <c r="M142">
+        <v>635.92</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143">
+        <v>21.69</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
+      </c>
+      <c r="F143" t="s">
+        <v>222</v>
+      </c>
+      <c r="G143">
         <v>41.33</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>2144</v>
-      </c>
-      <c r="L39">
-        <v>2107.08</v>
-      </c>
-      <c r="M39">
-        <v>2217.84</v>
-      </c>
-      <c r="N39">
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>242</v>
+      </c>
+      <c r="K143">
+        <v>114.24</v>
+      </c>
+      <c r="L143">
+        <v>108.81</v>
+      </c>
+      <c r="M143">
+        <v>125.1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144">
+        <v>21.69</v>
+      </c>
+      <c r="E144">
+        <v>156</v>
+      </c>
+      <c r="F144" t="s">
+        <v>204</v>
+      </c>
+      <c r="G144">
+        <v>49.4</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>242</v>
+      </c>
+      <c r="K144">
+        <v>319</v>
+      </c>
+      <c r="L144">
+        <v>306.46</v>
+      </c>
+      <c r="M144">
+        <v>344.09</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145">
+        <v>20.48</v>
+      </c>
+      <c r="E145">
+        <v>68</v>
+      </c>
+      <c r="F145" t="s">
+        <v>204</v>
+      </c>
+      <c r="G145">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>242</v>
+      </c>
+      <c r="K145">
+        <v>1816.2</v>
+      </c>
+      <c r="L145">
+        <v>1748.26</v>
+      </c>
+      <c r="M145">
+        <v>1952.08</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" t="s">
+        <v>199</v>
+      </c>
+      <c r="D146">
+        <v>19.28</v>
+      </c>
+      <c r="E146">
+        <v>118</v>
+      </c>
+      <c r="F146" t="s">
+        <v>235</v>
+      </c>
+      <c r="G146">
+        <v>30.12</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>242</v>
+      </c>
+      <c r="K146">
+        <v>16968</v>
+      </c>
+      <c r="L146">
+        <v>16561.29</v>
+      </c>
+      <c r="M146">
+        <v>17781.43</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147">
+        <v>18.07</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
+      </c>
+      <c r="F147" t="s">
+        <v>209</v>
+      </c>
+      <c r="G147">
+        <v>54.76</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>242</v>
+      </c>
+      <c r="K147">
+        <v>1309.6</v>
+      </c>
+      <c r="L147">
+        <v>1261.76</v>
+      </c>
+      <c r="M147">
+        <v>1405.28</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148">
+        <v>16.87</v>
+      </c>
+      <c r="E148">
+        <v>30</v>
+      </c>
+      <c r="F148" t="s">
+        <v>228</v>
+      </c>
+      <c r="G148">
+        <v>47.35</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>242</v>
+      </c>
+      <c r="K148">
+        <v>148.27</v>
+      </c>
+      <c r="L148">
+        <v>141.1</v>
+      </c>
+      <c r="M148">
+        <v>162.62</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" t="s">
+        <v>200</v>
+      </c>
+      <c r="D149">
+        <v>16.87</v>
+      </c>
+      <c r="E149">
+        <v>56</v>
+      </c>
+      <c r="F149" t="s">
+        <v>228</v>
+      </c>
+      <c r="G149">
+        <v>53.37</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>242</v>
+      </c>
+      <c r="K149">
+        <v>38.37</v>
+      </c>
+      <c r="L149">
+        <v>37.06</v>
+      </c>
+      <c r="M149">
+        <v>41</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" t="s">
+        <v>200</v>
+      </c>
+      <c r="D150">
+        <v>16.87</v>
+      </c>
+      <c r="E150">
+        <v>61</v>
+      </c>
+      <c r="F150" t="s">
+        <v>203</v>
+      </c>
+      <c r="G150">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150" t="s">
+        <v>242</v>
+      </c>
+      <c r="K150">
+        <v>149.1</v>
+      </c>
+      <c r="L150">
+        <v>143.19</v>
+      </c>
+      <c r="M150">
+        <v>160.93</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" t="s">
+        <v>200</v>
+      </c>
+      <c r="D151">
+        <v>13.25</v>
+      </c>
+      <c r="E151">
+        <v>107</v>
+      </c>
+      <c r="F151" t="s">
+        <v>203</v>
+      </c>
+      <c r="G151">
+        <v>62.17</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>242</v>
+      </c>
+      <c r="K151">
+        <v>2218.1</v>
+      </c>
+      <c r="L151">
+        <v>2165.61</v>
+      </c>
+      <c r="M151">
+        <v>2323.07</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152">
+        <v>12.05</v>
+      </c>
+      <c r="E152">
+        <v>27</v>
+      </c>
+      <c r="F152" t="s">
+        <v>211</v>
+      </c>
+      <c r="G152">
+        <v>55.6</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>242</v>
+      </c>
+      <c r="K152">
+        <v>605.45</v>
+      </c>
+      <c r="L152">
+        <v>572.02</v>
+      </c>
+      <c r="M152">
+        <v>672.3099999999999</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" t="s">
+        <v>200</v>
+      </c>
+      <c r="D153">
+        <v>12.05</v>
+      </c>
+      <c r="E153">
+        <v>34</v>
+      </c>
+      <c r="F153" t="s">
+        <v>211</v>
+      </c>
+      <c r="G153">
+        <v>40.96</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>242</v>
+      </c>
+      <c r="K153">
+        <v>22.11</v>
+      </c>
+      <c r="L153">
+        <v>21.65</v>
+      </c>
+      <c r="M153">
+        <v>23.04</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" t="s">
+        <v>188</v>
+      </c>
+      <c r="C154" t="s">
+        <v>200</v>
+      </c>
+      <c r="D154">
+        <v>10.84</v>
+      </c>
+      <c r="E154">
+        <v>112</v>
+      </c>
+      <c r="F154" t="s">
+        <v>216</v>
+      </c>
+      <c r="G154">
+        <v>55.6</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>242</v>
+      </c>
+      <c r="K154">
+        <v>877.2</v>
+      </c>
+      <c r="L154">
+        <v>824.24</v>
+      </c>
+      <c r="M154">
+        <v>983.11</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" t="s">
+        <v>186</v>
+      </c>
+      <c r="C155" t="s">
+        <v>200</v>
+      </c>
+      <c r="D155">
+        <v>10.84</v>
+      </c>
+      <c r="E155">
+        <v>69</v>
+      </c>
+      <c r="F155" t="s">
+        <v>234</v>
+      </c>
+      <c r="G155">
+        <v>41.33</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>242</v>
+      </c>
+      <c r="K155">
+        <v>529</v>
+      </c>
+      <c r="L155">
+        <v>512.3099999999999</v>
+      </c>
+      <c r="M155">
+        <v>562.37</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="s">
+        <v>184</v>
+      </c>
+      <c r="C156" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156">
+        <v>10.84</v>
+      </c>
+      <c r="E156">
+        <v>204</v>
+      </c>
+      <c r="F156" t="s">
+        <v>204</v>
+      </c>
+      <c r="G156">
+        <v>63.19</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>242</v>
+      </c>
+      <c r="K156">
+        <v>86.08</v>
+      </c>
+      <c r="L156">
+        <v>83.20999999999999</v>
+      </c>
+      <c r="M156">
+        <v>91.81</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" t="s">
+        <v>200</v>
+      </c>
+      <c r="D157">
+        <v>10.84</v>
+      </c>
+      <c r="E157">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
+        <v>204</v>
+      </c>
+      <c r="G157">
+        <v>46.14</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>242</v>
+      </c>
+      <c r="K157">
+        <v>483.4</v>
+      </c>
+      <c r="L157">
+        <v>463.53</v>
+      </c>
+      <c r="M157">
+        <v>523.13</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>204</v>
+      </c>
+      <c r="G158">
+        <v>54.76</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>242</v>
+      </c>
+      <c r="K158">
+        <v>951.45</v>
+      </c>
+      <c r="L158">
+        <v>933.17</v>
+      </c>
+      <c r="M158">
+        <v>988.02</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159">
+        <v>6.02</v>
+      </c>
+      <c r="E159">
+        <v>26</v>
+      </c>
+      <c r="F159" t="s">
+        <v>203</v>
+      </c>
+      <c r="G159">
+        <v>31.51</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>242</v>
+      </c>
+      <c r="K159">
+        <v>175.05</v>
+      </c>
+      <c r="L159">
+        <v>170.91</v>
+      </c>
+      <c r="M159">
+        <v>183.33</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" t="s">
+        <v>200</v>
+      </c>
+      <c r="D160">
+        <v>6.02</v>
+      </c>
+      <c r="E160">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>231</v>
+      </c>
+      <c r="G160">
+        <v>43.55</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>242</v>
+      </c>
+      <c r="K160">
+        <v>162.42</v>
+      </c>
+      <c r="L160">
+        <v>153.56</v>
+      </c>
+      <c r="M160">
+        <v>180.13</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" t="s">
+        <v>186</v>
+      </c>
+      <c r="C161" t="s">
+        <v>200</v>
+      </c>
+      <c r="D161">
+        <v>6.02</v>
+      </c>
+      <c r="E161">
+        <v>36</v>
+      </c>
+      <c r="F161" t="s">
+        <v>204</v>
+      </c>
+      <c r="G161">
+        <v>50.96</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>242</v>
+      </c>
+      <c r="K161">
+        <v>204.88</v>
+      </c>
+      <c r="L161">
+        <v>197.3</v>
+      </c>
+      <c r="M161">
+        <v>220.03</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" t="s">
+        <v>200</v>
+      </c>
+      <c r="D162">
+        <v>6.02</v>
+      </c>
+      <c r="E162">
+        <v>58</v>
+      </c>
+      <c r="F162" t="s">
+        <v>204</v>
+      </c>
+      <c r="G162">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>242</v>
+      </c>
+      <c r="K162">
+        <v>301.7</v>
+      </c>
+      <c r="L162">
+        <v>295.75</v>
+      </c>
+      <c r="M162">
+        <v>313.6</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" t="s">
+        <v>200</v>
+      </c>
+      <c r="D163">
+        <v>4.82</v>
+      </c>
+      <c r="E163">
+        <v>125</v>
+      </c>
+      <c r="F163" t="s">
+        <v>231</v>
+      </c>
+      <c r="G163">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>242</v>
+      </c>
+      <c r="K163">
+        <v>2869.9</v>
+      </c>
+      <c r="L163">
+        <v>2796.02</v>
+      </c>
+      <c r="M163">
+        <v>3017.65</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" t="s">
+        <v>182</v>
+      </c>
+      <c r="C164" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164">
+        <v>4.82</v>
+      </c>
+      <c r="E164">
+        <v>41</v>
+      </c>
+      <c r="F164" t="s">
+        <v>205</v>
+      </c>
+      <c r="G164">
+        <v>53.37</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>242</v>
+      </c>
+      <c r="K164">
+        <v>183.08</v>
+      </c>
+      <c r="L164">
+        <v>177.37</v>
+      </c>
+      <c r="M164">
+        <v>194.5</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+      <c r="D165">
+        <v>4.82</v>
+      </c>
+      <c r="E165">
+        <v>67</v>
+      </c>
+      <c r="F165" t="s">
+        <v>204</v>
+      </c>
+      <c r="G165">
+        <v>47.35</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>242</v>
+      </c>
+      <c r="K165">
+        <v>1059.9</v>
+      </c>
+      <c r="L165">
+        <v>1012.4</v>
+      </c>
+      <c r="M165">
+        <v>1154.9</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166">
+        <v>4.82</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+      <c r="F166" t="s">
+        <v>221</v>
+      </c>
+      <c r="G166">
+        <v>25.3</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>242</v>
+      </c>
+      <c r="K166">
+        <v>1440.2</v>
+      </c>
+      <c r="L166">
+        <v>1412.48</v>
+      </c>
+      <c r="M166">
+        <v>1495.64</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" t="s">
+        <v>186</v>
+      </c>
+      <c r="C167" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167">
+        <v>4.82</v>
+      </c>
+      <c r="E167">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>236</v>
+      </c>
+      <c r="G167">
+        <v>27.71</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>242</v>
+      </c>
+      <c r="K167">
+        <v>2623</v>
+      </c>
+      <c r="L167">
+        <v>2544.46</v>
+      </c>
+      <c r="M167">
+        <v>2780.08</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" t="s">
+        <v>200</v>
+      </c>
+      <c r="D168">
+        <v>4.82</v>
+      </c>
+      <c r="E168">
+        <v>46</v>
+      </c>
+      <c r="F168" t="s">
+        <v>204</v>
+      </c>
+      <c r="G168">
+        <v>32.71</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>242</v>
+      </c>
+      <c r="K168">
+        <v>11902</v>
+      </c>
+      <c r="L168">
+        <v>11640.04</v>
+      </c>
+      <c r="M168">
+        <v>12425.93</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>188</v>
+      </c>
+      <c r="C169" t="s">
+        <v>200</v>
+      </c>
+      <c r="D169">
+        <v>4.82</v>
+      </c>
+      <c r="E169">
+        <v>111</v>
+      </c>
+      <c r="F169" t="s">
+        <v>204</v>
+      </c>
+      <c r="G169">
+        <v>63.86</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>242</v>
+      </c>
+      <c r="K169">
+        <v>2347</v>
+      </c>
+      <c r="L169">
+        <v>2309.22</v>
+      </c>
+      <c r="M169">
+        <v>2422.56</v>
+      </c>
+      <c r="N169">
         <v>2</v>
       </c>
     </row>
